--- a/BackTest/2020-01-24 BackTest WTC.xlsx
+++ b/BackTest/2020-01-24 BackTest WTC.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M106"/>
+  <dimension ref="A1:M107"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -445,10 +445,10 @@
         <v>463.1</v>
       </c>
       <c r="F2" t="n">
-        <v>2362</v>
+        <v>4970</v>
       </c>
       <c r="G2" t="n">
-        <v>471.4916666666666</v>
+        <v>471.805</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -480,10 +480,10 @@
         <v>463.1</v>
       </c>
       <c r="F3" t="n">
-        <v>3681</v>
+        <v>2362</v>
       </c>
       <c r="G3" t="n">
-        <v>471.2216666666666</v>
+        <v>471.4916666666666</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -506,19 +506,19 @@
         <v>463.1</v>
       </c>
       <c r="C4" t="n">
-        <v>463</v>
+        <v>463.1</v>
       </c>
       <c r="D4" t="n">
-        <v>463.6</v>
+        <v>463.1</v>
       </c>
       <c r="E4" t="n">
-        <v>463</v>
+        <v>463.1</v>
       </c>
       <c r="F4" t="n">
-        <v>3176.4406</v>
+        <v>3681</v>
       </c>
       <c r="G4" t="n">
-        <v>470.9049999999999</v>
+        <v>471.2216666666666</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -538,22 +538,22 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>462.1</v>
+        <v>463.1</v>
       </c>
       <c r="C5" t="n">
-        <v>462.1</v>
+        <v>463</v>
       </c>
       <c r="D5" t="n">
-        <v>462.1</v>
+        <v>463.6</v>
       </c>
       <c r="E5" t="n">
-        <v>462.1</v>
+        <v>463</v>
       </c>
       <c r="F5" t="n">
-        <v>1430</v>
+        <v>3176.4406</v>
       </c>
       <c r="G5" t="n">
-        <v>470.5316666666666</v>
+        <v>470.9049999999999</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -585,10 +585,10 @@
         <v>462.1</v>
       </c>
       <c r="F6" t="n">
-        <v>34.804</v>
+        <v>1430</v>
       </c>
       <c r="G6" t="n">
-        <v>470.1616666666666</v>
+        <v>470.5316666666666</v>
       </c>
       <c r="H6" t="n">
         <v>0</v>
@@ -608,22 +608,22 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>461.7</v>
+        <v>462.1</v>
       </c>
       <c r="C7" t="n">
-        <v>460.1</v>
+        <v>462.1</v>
       </c>
       <c r="D7" t="n">
-        <v>461.7</v>
+        <v>462.1</v>
       </c>
       <c r="E7" t="n">
-        <v>460.1</v>
+        <v>462.1</v>
       </c>
       <c r="F7" t="n">
-        <v>653.6479</v>
+        <v>34.804</v>
       </c>
       <c r="G7" t="n">
-        <v>469.7533333333332</v>
+        <v>470.1616666666666</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -643,22 +643,22 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>460.5</v>
+        <v>461.7</v>
       </c>
       <c r="C8" t="n">
-        <v>460</v>
+        <v>460.1</v>
       </c>
       <c r="D8" t="n">
-        <v>460.5</v>
+        <v>461.7</v>
       </c>
       <c r="E8" t="n">
-        <v>460</v>
+        <v>460.1</v>
       </c>
       <c r="F8" t="n">
-        <v>17256.472</v>
+        <v>653.6479</v>
       </c>
       <c r="G8" t="n">
-        <v>469.3433333333332</v>
+        <v>469.7533333333332</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -678,22 +678,22 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>462.9</v>
+        <v>460.5</v>
       </c>
       <c r="C9" t="n">
-        <v>462.9</v>
+        <v>460</v>
       </c>
       <c r="D9" t="n">
-        <v>462.9</v>
+        <v>460.5</v>
       </c>
       <c r="E9" t="n">
-        <v>462.9</v>
+        <v>460</v>
       </c>
       <c r="F9" t="n">
-        <v>100</v>
+        <v>17256.472</v>
       </c>
       <c r="G9" t="n">
-        <v>468.9816666666666</v>
+        <v>469.3433333333332</v>
       </c>
       <c r="H9" t="n">
         <v>0</v>
@@ -713,22 +713,22 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>461.9</v>
+        <v>462.9</v>
       </c>
       <c r="C10" t="n">
-        <v>461.9</v>
+        <v>462.9</v>
       </c>
       <c r="D10" t="n">
-        <v>461.9</v>
+        <v>462.9</v>
       </c>
       <c r="E10" t="n">
-        <v>461.9</v>
+        <v>462.9</v>
       </c>
       <c r="F10" t="n">
-        <v>2</v>
+        <v>100</v>
       </c>
       <c r="G10" t="n">
-        <v>468.6033333333334</v>
+        <v>468.9816666666666</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -748,22 +748,22 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>460.2</v>
+        <v>461.9</v>
       </c>
       <c r="C11" t="n">
-        <v>460</v>
+        <v>461.9</v>
       </c>
       <c r="D11" t="n">
-        <v>460.2</v>
+        <v>461.9</v>
       </c>
       <c r="E11" t="n">
-        <v>460</v>
+        <v>461.9</v>
       </c>
       <c r="F11" t="n">
-        <v>1163.522</v>
+        <v>2</v>
       </c>
       <c r="G11" t="n">
-        <v>468.2816666666667</v>
+        <v>468.6033333333334</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -783,22 +783,22 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>460</v>
+        <v>460.2</v>
       </c>
       <c r="C12" t="n">
         <v>460</v>
       </c>
       <c r="D12" t="n">
-        <v>460</v>
+        <v>460.2</v>
       </c>
       <c r="E12" t="n">
         <v>460</v>
       </c>
       <c r="F12" t="n">
-        <v>2768.4405</v>
+        <v>1163.522</v>
       </c>
       <c r="G12" t="n">
-        <v>467.9483333333334</v>
+        <v>468.2816666666667</v>
       </c>
       <c r="H12" t="n">
         <v>0</v>
@@ -830,10 +830,10 @@
         <v>460</v>
       </c>
       <c r="F13" t="n">
-        <v>613.706</v>
+        <v>2768.4405</v>
       </c>
       <c r="G13" t="n">
-        <v>467.6216666666667</v>
+        <v>467.9483333333334</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -853,22 +853,22 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="C14" t="n">
-        <v>457</v>
+        <v>460</v>
       </c>
       <c r="D14" t="n">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="E14" t="n">
-        <v>457</v>
+        <v>460</v>
       </c>
       <c r="F14" t="n">
-        <v>2545</v>
+        <v>613.706</v>
       </c>
       <c r="G14" t="n">
-        <v>467.2516666666667</v>
+        <v>467.6216666666667</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -888,22 +888,22 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
+        <v>459</v>
+      </c>
+      <c r="C15" t="n">
         <v>457</v>
       </c>
-      <c r="C15" t="n">
-        <v>451</v>
-      </c>
       <c r="D15" t="n">
+        <v>459</v>
+      </c>
+      <c r="E15" t="n">
         <v>457</v>
       </c>
-      <c r="E15" t="n">
-        <v>451</v>
-      </c>
       <c r="F15" t="n">
-        <v>6820</v>
+        <v>2545</v>
       </c>
       <c r="G15" t="n">
-        <v>466.7816666666667</v>
+        <v>467.2516666666667</v>
       </c>
       <c r="H15" t="n">
         <v>0</v>
@@ -923,22 +923,22 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>451.1</v>
+        <v>457</v>
       </c>
       <c r="C16" t="n">
         <v>451</v>
       </c>
       <c r="D16" t="n">
-        <v>452</v>
+        <v>457</v>
       </c>
       <c r="E16" t="n">
-        <v>450.9</v>
+        <v>451</v>
       </c>
       <c r="F16" t="n">
-        <v>11396.0494</v>
+        <v>6820</v>
       </c>
       <c r="G16" t="n">
-        <v>466.3566666666667</v>
+        <v>466.7816666666667</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -964,16 +964,16 @@
         <v>451</v>
       </c>
       <c r="D17" t="n">
-        <v>451.1</v>
+        <v>452</v>
       </c>
       <c r="E17" t="n">
-        <v>451</v>
+        <v>450.9</v>
       </c>
       <c r="F17" t="n">
-        <v>1525</v>
+        <v>11396.0494</v>
       </c>
       <c r="G17" t="n">
-        <v>465.9316666666667</v>
+        <v>466.3566666666667</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -993,22 +993,22 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>465.9</v>
+        <v>451.1</v>
       </c>
       <c r="C18" t="n">
-        <v>451.4</v>
+        <v>451</v>
       </c>
       <c r="D18" t="n">
-        <v>465.9</v>
+        <v>451.1</v>
       </c>
       <c r="E18" t="n">
-        <v>451.3</v>
+        <v>451</v>
       </c>
       <c r="F18" t="n">
-        <v>1175</v>
+        <v>1525</v>
       </c>
       <c r="G18" t="n">
-        <v>465.5133333333334</v>
+        <v>465.9316666666667</v>
       </c>
       <c r="H18" t="n">
         <v>0</v>
@@ -1028,22 +1028,22 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>452</v>
+        <v>465.9</v>
       </c>
       <c r="C19" t="n">
-        <v>452</v>
+        <v>451.4</v>
       </c>
       <c r="D19" t="n">
-        <v>452</v>
+        <v>465.9</v>
       </c>
       <c r="E19" t="n">
-        <v>452</v>
+        <v>451.3</v>
       </c>
       <c r="F19" t="n">
-        <v>1450</v>
+        <v>1175</v>
       </c>
       <c r="G19" t="n">
-        <v>465.1050000000001</v>
+        <v>465.5133333333334</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -1075,10 +1075,10 @@
         <v>452</v>
       </c>
       <c r="F20" t="n">
-        <v>455</v>
+        <v>1450</v>
       </c>
       <c r="G20" t="n">
-        <v>464.7950000000001</v>
+        <v>465.1050000000001</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -1098,22 +1098,22 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="C21" t="n">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="D21" t="n">
-        <v>453.1</v>
+        <v>452</v>
       </c>
       <c r="E21" t="n">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="F21" t="n">
-        <v>350</v>
+        <v>455</v>
       </c>
       <c r="G21" t="n">
-        <v>464.4750000000001</v>
+        <v>464.7950000000001</v>
       </c>
       <c r="H21" t="n">
         <v>0</v>
@@ -1139,16 +1139,16 @@
         <v>453</v>
       </c>
       <c r="D22" t="n">
-        <v>453</v>
+        <v>453.1</v>
       </c>
       <c r="E22" t="n">
         <v>453</v>
       </c>
       <c r="F22" t="n">
-        <v>2100</v>
+        <v>350</v>
       </c>
       <c r="G22" t="n">
-        <v>464.1833333333334</v>
+        <v>464.4750000000001</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -1180,10 +1180,10 @@
         <v>453</v>
       </c>
       <c r="F23" t="n">
-        <v>4791.7288</v>
+        <v>2100</v>
       </c>
       <c r="G23" t="n">
-        <v>463.8516666666667</v>
+        <v>464.1833333333334</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
@@ -1206,19 +1206,19 @@
         <v>453</v>
       </c>
       <c r="C24" t="n">
-        <v>450</v>
+        <v>453</v>
       </c>
       <c r="D24" t="n">
         <v>453</v>
       </c>
       <c r="E24" t="n">
-        <v>450</v>
+        <v>453</v>
       </c>
       <c r="F24" t="n">
-        <v>1590</v>
+        <v>4791.7288</v>
       </c>
       <c r="G24" t="n">
-        <v>463.51</v>
+        <v>463.8516666666667</v>
       </c>
       <c r="H24" t="n">
         <v>0</v>
@@ -1238,22 +1238,22 @@
         <v>23</v>
       </c>
       <c r="B25" t="n">
-        <v>459.5</v>
+        <v>453</v>
       </c>
       <c r="C25" t="n">
-        <v>460.8</v>
+        <v>450</v>
       </c>
       <c r="D25" t="n">
-        <v>460.8</v>
+        <v>453</v>
       </c>
       <c r="E25" t="n">
-        <v>459.5</v>
+        <v>450</v>
       </c>
       <c r="F25" t="n">
-        <v>81.6078</v>
+        <v>1590</v>
       </c>
       <c r="G25" t="n">
-        <v>463.3233333333334</v>
+        <v>463.51</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -1273,22 +1273,22 @@
         <v>24</v>
       </c>
       <c r="B26" t="n">
-        <v>459.9</v>
+        <v>459.5</v>
       </c>
       <c r="C26" t="n">
-        <v>455.8</v>
+        <v>460.8</v>
       </c>
       <c r="D26" t="n">
-        <v>459.9</v>
+        <v>460.8</v>
       </c>
       <c r="E26" t="n">
-        <v>451</v>
+        <v>459.5</v>
       </c>
       <c r="F26" t="n">
-        <v>1262.9037</v>
+        <v>81.6078</v>
       </c>
       <c r="G26" t="n">
-        <v>463.0783333333333</v>
+        <v>463.3233333333334</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -1308,22 +1308,22 @@
         <v>25</v>
       </c>
       <c r="B27" t="n">
-        <v>453</v>
+        <v>459.9</v>
       </c>
       <c r="C27" t="n">
-        <v>457.5</v>
+        <v>455.8</v>
       </c>
       <c r="D27" t="n">
-        <v>457.5</v>
+        <v>459.9</v>
       </c>
       <c r="E27" t="n">
-        <v>453</v>
+        <v>451</v>
       </c>
       <c r="F27" t="n">
-        <v>2500</v>
+        <v>1262.9037</v>
       </c>
       <c r="G27" t="n">
-        <v>462.8616666666667</v>
+        <v>463.0783333333333</v>
       </c>
       <c r="H27" t="n">
         <v>0</v>
@@ -1343,22 +1343,22 @@
         <v>26</v>
       </c>
       <c r="B28" t="n">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="C28" t="n">
-        <v>452</v>
+        <v>457.5</v>
       </c>
       <c r="D28" t="n">
-        <v>452</v>
+        <v>457.5</v>
       </c>
       <c r="E28" t="n">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="F28" t="n">
-        <v>76.01000000000001</v>
+        <v>2500</v>
       </c>
       <c r="G28" t="n">
-        <v>462.5533333333333</v>
+        <v>462.8616666666667</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -1378,22 +1378,22 @@
         <v>27</v>
       </c>
       <c r="B29" t="n">
-        <v>452.1</v>
+        <v>452</v>
       </c>
       <c r="C29" t="n">
         <v>452</v>
       </c>
       <c r="D29" t="n">
-        <v>452.1</v>
+        <v>452</v>
       </c>
       <c r="E29" t="n">
         <v>452</v>
       </c>
       <c r="F29" t="n">
-        <v>89.1649</v>
+        <v>76.01000000000001</v>
       </c>
       <c r="G29" t="n">
-        <v>462.245</v>
+        <v>462.5533333333333</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -1413,22 +1413,22 @@
         <v>28</v>
       </c>
       <c r="B30" t="n">
-        <v>452</v>
+        <v>452.1</v>
       </c>
       <c r="C30" t="n">
         <v>452</v>
       </c>
       <c r="D30" t="n">
-        <v>452</v>
+        <v>452.1</v>
       </c>
       <c r="E30" t="n">
         <v>452</v>
       </c>
       <c r="F30" t="n">
-        <v>8.019399999999999</v>
+        <v>89.1649</v>
       </c>
       <c r="G30" t="n">
-        <v>461.94</v>
+        <v>462.245</v>
       </c>
       <c r="H30" t="n">
         <v>0</v>
@@ -1460,10 +1460,10 @@
         <v>452</v>
       </c>
       <c r="F31" t="n">
-        <v>723.3516</v>
+        <v>8.019399999999999</v>
       </c>
       <c r="G31" t="n">
-        <v>461.64</v>
+        <v>461.94</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -1483,22 +1483,22 @@
         <v>30</v>
       </c>
       <c r="B32" t="n">
-        <v>452.1</v>
+        <v>452</v>
       </c>
       <c r="C32" t="n">
-        <v>452.1</v>
+        <v>452</v>
       </c>
       <c r="D32" t="n">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="E32" t="n">
-        <v>452.1</v>
+        <v>452</v>
       </c>
       <c r="F32" t="n">
-        <v>1321.31</v>
+        <v>723.3516</v>
       </c>
       <c r="G32" t="n">
-        <v>461.3416666666666</v>
+        <v>461.64</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
@@ -1518,22 +1518,22 @@
         <v>31</v>
       </c>
       <c r="B33" t="n">
-        <v>453</v>
+        <v>452.1</v>
       </c>
       <c r="C33" t="n">
-        <v>452.2</v>
+        <v>452.1</v>
       </c>
       <c r="D33" t="n">
         <v>453</v>
       </c>
       <c r="E33" t="n">
-        <v>452.2</v>
+        <v>452.1</v>
       </c>
       <c r="F33" t="n">
-        <v>2800</v>
+        <v>1321.31</v>
       </c>
       <c r="G33" t="n">
-        <v>461.035</v>
+        <v>461.3416666666666</v>
       </c>
       <c r="H33" t="n">
         <v>0</v>
@@ -1553,22 +1553,22 @@
         <v>32</v>
       </c>
       <c r="B34" t="n">
-        <v>456.9</v>
+        <v>453</v>
       </c>
       <c r="C34" t="n">
-        <v>456.9</v>
+        <v>452.2</v>
       </c>
       <c r="D34" t="n">
-        <v>456.9</v>
+        <v>453</v>
       </c>
       <c r="E34" t="n">
-        <v>456.9</v>
+        <v>452.2</v>
       </c>
       <c r="F34" t="n">
-        <v>720.1798</v>
+        <v>2800</v>
       </c>
       <c r="G34" t="n">
-        <v>460.8050000000001</v>
+        <v>461.035</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -1591,19 +1591,19 @@
         <v>456.9</v>
       </c>
       <c r="C35" t="n">
-        <v>452.2</v>
+        <v>456.9</v>
       </c>
       <c r="D35" t="n">
         <v>456.9</v>
       </c>
       <c r="E35" t="n">
-        <v>452.2</v>
+        <v>456.9</v>
       </c>
       <c r="F35" t="n">
-        <v>7713.7844</v>
+        <v>720.1798</v>
       </c>
       <c r="G35" t="n">
-        <v>460.4950000000001</v>
+        <v>460.8050000000001</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -1623,22 +1623,22 @@
         <v>34</v>
       </c>
       <c r="B36" t="n">
-        <v>457.8</v>
+        <v>456.9</v>
       </c>
       <c r="C36" t="n">
-        <v>457.8</v>
+        <v>452.2</v>
       </c>
       <c r="D36" t="n">
-        <v>457.8</v>
+        <v>456.9</v>
       </c>
       <c r="E36" t="n">
-        <v>457.8</v>
+        <v>452.2</v>
       </c>
       <c r="F36" t="n">
-        <v>1.1</v>
+        <v>7713.7844</v>
       </c>
       <c r="G36" t="n">
-        <v>460.21</v>
+        <v>460.4950000000001</v>
       </c>
       <c r="H36" t="n">
         <v>0</v>
@@ -1658,22 +1658,22 @@
         <v>35</v>
       </c>
       <c r="B37" t="n">
-        <v>452.3</v>
+        <v>457.8</v>
       </c>
       <c r="C37" t="n">
-        <v>452.1</v>
+        <v>457.8</v>
       </c>
       <c r="D37" t="n">
-        <v>452.3</v>
+        <v>457.8</v>
       </c>
       <c r="E37" t="n">
-        <v>452.1</v>
+        <v>457.8</v>
       </c>
       <c r="F37" t="n">
-        <v>1400</v>
+        <v>1.1</v>
       </c>
       <c r="G37" t="n">
-        <v>459.895</v>
+        <v>460.21</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -1693,22 +1693,22 @@
         <v>36</v>
       </c>
       <c r="B38" t="n">
-        <v>457.8</v>
+        <v>452.3</v>
       </c>
       <c r="C38" t="n">
-        <v>457.8</v>
+        <v>452.1</v>
       </c>
       <c r="D38" t="n">
-        <v>457.8</v>
+        <v>452.3</v>
       </c>
       <c r="E38" t="n">
-        <v>457.8</v>
+        <v>452.1</v>
       </c>
       <c r="F38" t="n">
-        <v>1.1</v>
+        <v>1400</v>
       </c>
       <c r="G38" t="n">
-        <v>459.675</v>
+        <v>459.895</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -1728,22 +1728,22 @@
         <v>37</v>
       </c>
       <c r="B39" t="n">
-        <v>459.9</v>
+        <v>457.8</v>
       </c>
       <c r="C39" t="n">
-        <v>459.9</v>
+        <v>457.8</v>
       </c>
       <c r="D39" t="n">
-        <v>459.9</v>
+        <v>457.8</v>
       </c>
       <c r="E39" t="n">
-        <v>459.9</v>
+        <v>457.8</v>
       </c>
       <c r="F39" t="n">
-        <v>1170.1267</v>
+        <v>1.1</v>
       </c>
       <c r="G39" t="n">
-        <v>459.49</v>
+        <v>459.675</v>
       </c>
       <c r="H39" t="n">
         <v>0</v>
@@ -1763,22 +1763,22 @@
         <v>38</v>
       </c>
       <c r="B40" t="n">
-        <v>457.8</v>
+        <v>459.9</v>
       </c>
       <c r="C40" t="n">
-        <v>457.8</v>
+        <v>459.9</v>
       </c>
       <c r="D40" t="n">
-        <v>457.8</v>
+        <v>459.9</v>
       </c>
       <c r="E40" t="n">
-        <v>457.8</v>
+        <v>459.9</v>
       </c>
       <c r="F40" t="n">
-        <v>415</v>
+        <v>1170.1267</v>
       </c>
       <c r="G40" t="n">
-        <v>459.3233333333334</v>
+        <v>459.49</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -1810,10 +1810,10 @@
         <v>457.8</v>
       </c>
       <c r="F41" t="n">
-        <v>1400</v>
+        <v>415</v>
       </c>
       <c r="G41" t="n">
-        <v>459.155</v>
+        <v>459.3233333333334</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -1845,10 +1845,10 @@
         <v>457.8</v>
       </c>
       <c r="F42" t="n">
-        <v>1650.1247</v>
+        <v>1400</v>
       </c>
       <c r="G42" t="n">
-        <v>458.9533333333333</v>
+        <v>459.155</v>
       </c>
       <c r="H42" t="n">
         <v>0</v>
@@ -1880,10 +1880,10 @@
         <v>457.8</v>
       </c>
       <c r="F43" t="n">
-        <v>500</v>
+        <v>1650.1247</v>
       </c>
       <c r="G43" t="n">
-        <v>458.7383333333333</v>
+        <v>458.9533333333333</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -1915,10 +1915,10 @@
         <v>457.8</v>
       </c>
       <c r="F44" t="n">
-        <v>100</v>
+        <v>500</v>
       </c>
       <c r="G44" t="n">
-        <v>458.5266666666666</v>
+        <v>458.7383333333333</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
@@ -1950,10 +1950,10 @@
         <v>457.8</v>
       </c>
       <c r="F45" t="n">
-        <v>1447.782</v>
+        <v>100</v>
       </c>
       <c r="G45" t="n">
-        <v>458.4283333333332</v>
+        <v>458.5266666666666</v>
       </c>
       <c r="H45" t="n">
         <v>0</v>
@@ -1985,10 +1985,10 @@
         <v>457.8</v>
       </c>
       <c r="F46" t="n">
-        <v>436.0394</v>
+        <v>1447.782</v>
       </c>
       <c r="G46" t="n">
-        <v>458.3299999999999</v>
+        <v>458.4283333333332</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -2008,7 +2008,7 @@
         <v>45</v>
       </c>
       <c r="B47" t="n">
-        <v>457</v>
+        <v>457.8</v>
       </c>
       <c r="C47" t="n">
         <v>457.8</v>
@@ -2017,13 +2017,13 @@
         <v>457.8</v>
       </c>
       <c r="E47" t="n">
-        <v>457</v>
+        <v>457.8</v>
       </c>
       <c r="F47" t="n">
-        <v>2495.7737</v>
+        <v>436.0394</v>
       </c>
       <c r="G47" t="n">
-        <v>458.2316666666665</v>
+        <v>458.3299999999999</v>
       </c>
       <c r="H47" t="n">
         <v>0</v>
@@ -2043,22 +2043,22 @@
         <v>46</v>
       </c>
       <c r="B48" t="n">
+        <v>457</v>
+      </c>
+      <c r="C48" t="n">
         <v>457.8</v>
       </c>
-      <c r="C48" t="n">
-        <v>459.5</v>
-      </c>
       <c r="D48" t="n">
-        <v>459.5</v>
+        <v>457.8</v>
       </c>
       <c r="E48" t="n">
-        <v>457.8</v>
+        <v>457</v>
       </c>
       <c r="F48" t="n">
-        <v>2748.5675</v>
+        <v>2495.7737</v>
       </c>
       <c r="G48" t="n">
-        <v>458.1716666666665</v>
+        <v>458.2316666666665</v>
       </c>
       <c r="H48" t="n">
         <v>0</v>
@@ -2078,22 +2078,22 @@
         <v>47</v>
       </c>
       <c r="B49" t="n">
-        <v>461.6</v>
+        <v>457.8</v>
       </c>
       <c r="C49" t="n">
-        <v>462.7</v>
+        <v>459.5</v>
       </c>
       <c r="D49" t="n">
-        <v>462.7</v>
+        <v>459.5</v>
       </c>
       <c r="E49" t="n">
-        <v>461.6</v>
+        <v>457.8</v>
       </c>
       <c r="F49" t="n">
-        <v>1400</v>
+        <v>2748.5675</v>
       </c>
       <c r="G49" t="n">
-        <v>458.1649999999999</v>
+        <v>458.1716666666665</v>
       </c>
       <c r="H49" t="n">
         <v>0</v>
@@ -2113,22 +2113,22 @@
         <v>48</v>
       </c>
       <c r="B50" t="n">
-        <v>460.2</v>
+        <v>461.6</v>
       </c>
       <c r="C50" t="n">
-        <v>460.2</v>
+        <v>462.7</v>
       </c>
       <c r="D50" t="n">
-        <v>460.2</v>
+        <v>462.7</v>
       </c>
       <c r="E50" t="n">
-        <v>460.2</v>
+        <v>461.6</v>
       </c>
       <c r="F50" t="n">
-        <v>832.0592</v>
+        <v>1400</v>
       </c>
       <c r="G50" t="n">
-        <v>458.1166666666666</v>
+        <v>458.1649999999999</v>
       </c>
       <c r="H50" t="n">
         <v>0</v>
@@ -2148,22 +2148,22 @@
         <v>49</v>
       </c>
       <c r="B51" t="n">
-        <v>462.6</v>
+        <v>460.2</v>
       </c>
       <c r="C51" t="n">
-        <v>462.6</v>
+        <v>460.2</v>
       </c>
       <c r="D51" t="n">
-        <v>462.6</v>
+        <v>460.2</v>
       </c>
       <c r="E51" t="n">
-        <v>462.6</v>
+        <v>460.2</v>
       </c>
       <c r="F51" t="n">
-        <v>2827.7746</v>
+        <v>832.0592</v>
       </c>
       <c r="G51" t="n">
-        <v>458.0616666666666</v>
+        <v>458.1166666666666</v>
       </c>
       <c r="H51" t="n">
         <v>0</v>
@@ -2183,22 +2183,22 @@
         <v>50</v>
       </c>
       <c r="B52" t="n">
-        <v>461.2</v>
+        <v>462.6</v>
       </c>
       <c r="C52" t="n">
-        <v>461.2</v>
+        <v>462.6</v>
       </c>
       <c r="D52" t="n">
-        <v>461.2</v>
+        <v>462.6</v>
       </c>
       <c r="E52" t="n">
-        <v>461.2</v>
+        <v>462.6</v>
       </c>
       <c r="F52" t="n">
-        <v>110</v>
+        <v>2827.7746</v>
       </c>
       <c r="G52" t="n">
-        <v>457.9849999999999</v>
+        <v>458.0616666666666</v>
       </c>
       <c r="H52" t="n">
         <v>0</v>
@@ -2218,22 +2218,22 @@
         <v>51</v>
       </c>
       <c r="B53" t="n">
-        <v>461</v>
+        <v>461.2</v>
       </c>
       <c r="C53" t="n">
-        <v>461</v>
+        <v>461.2</v>
       </c>
       <c r="D53" t="n">
-        <v>461</v>
+        <v>461.2</v>
       </c>
       <c r="E53" t="n">
-        <v>461</v>
+        <v>461.2</v>
       </c>
       <c r="F53" t="n">
-        <v>28.4176</v>
+        <v>110</v>
       </c>
       <c r="G53" t="n">
-        <v>457.9499999999999</v>
+        <v>457.9849999999999</v>
       </c>
       <c r="H53" t="n">
         <v>0</v>
@@ -2256,19 +2256,19 @@
         <v>461</v>
       </c>
       <c r="C54" t="n">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="D54" t="n">
         <v>461</v>
       </c>
       <c r="E54" t="n">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="F54" t="n">
-        <v>1335.2401</v>
+        <v>28.4176</v>
       </c>
       <c r="G54" t="n">
-        <v>457.8516666666666</v>
+        <v>457.9499999999999</v>
       </c>
       <c r="H54" t="n">
         <v>0</v>
@@ -2288,22 +2288,22 @@
         <v>53</v>
       </c>
       <c r="B55" t="n">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="C55" t="n">
         <v>460</v>
       </c>
       <c r="D55" t="n">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="E55" t="n">
         <v>460</v>
       </c>
       <c r="F55" t="n">
-        <v>1400</v>
+        <v>1335.2401</v>
       </c>
       <c r="G55" t="n">
-        <v>457.7366666666666</v>
+        <v>457.8516666666666</v>
       </c>
       <c r="H55" t="n">
         <v>0</v>
@@ -2335,10 +2335,10 @@
         <v>460</v>
       </c>
       <c r="F56" t="n">
-        <v>790.3939</v>
+        <v>1400</v>
       </c>
       <c r="G56" t="n">
-        <v>457.6816666666666</v>
+        <v>457.7366666666666</v>
       </c>
       <c r="H56" t="n">
         <v>0</v>
@@ -2358,22 +2358,22 @@
         <v>55</v>
       </c>
       <c r="B57" t="n">
-        <v>459.1</v>
+        <v>460</v>
       </c>
       <c r="C57" t="n">
-        <v>459.1</v>
+        <v>460</v>
       </c>
       <c r="D57" t="n">
-        <v>459.1</v>
+        <v>460</v>
       </c>
       <c r="E57" t="n">
-        <v>459.1</v>
+        <v>460</v>
       </c>
       <c r="F57" t="n">
-        <v>2484.5913</v>
+        <v>790.3939</v>
       </c>
       <c r="G57" t="n">
-        <v>457.6149999999999</v>
+        <v>457.6816666666666</v>
       </c>
       <c r="H57" t="n">
         <v>0</v>
@@ -2405,10 +2405,10 @@
         <v>459.1</v>
       </c>
       <c r="F58" t="n">
-        <v>267.8303</v>
+        <v>2484.5913</v>
       </c>
       <c r="G58" t="n">
-        <v>457.5483333333332</v>
+        <v>457.6149999999999</v>
       </c>
       <c r="H58" t="n">
         <v>0</v>
@@ -2440,10 +2440,10 @@
         <v>459.1</v>
       </c>
       <c r="F59" t="n">
-        <v>25</v>
+        <v>267.8303</v>
       </c>
       <c r="G59" t="n">
-        <v>457.4816666666666</v>
+        <v>457.5483333333332</v>
       </c>
       <c r="H59" t="n">
         <v>0</v>
@@ -2463,22 +2463,22 @@
         <v>58</v>
       </c>
       <c r="B60" t="n">
-        <v>457.5</v>
+        <v>459.1</v>
       </c>
       <c r="C60" t="n">
-        <v>457.5</v>
+        <v>459.1</v>
       </c>
       <c r="D60" t="n">
-        <v>457.5</v>
+        <v>459.1</v>
       </c>
       <c r="E60" t="n">
-        <v>457.5</v>
+        <v>459.1</v>
       </c>
       <c r="F60" t="n">
-        <v>1395</v>
+        <v>25</v>
       </c>
       <c r="G60" t="n">
-        <v>457.3883333333333</v>
+        <v>457.4816666666666</v>
       </c>
       <c r="H60" t="n">
         <v>0</v>
@@ -2510,10 +2510,10 @@
         <v>457.5</v>
       </c>
       <c r="F61" t="n">
-        <v>240</v>
+        <v>1395</v>
       </c>
       <c r="G61" t="n">
-        <v>457.295</v>
+        <v>457.3883333333333</v>
       </c>
       <c r="H61" t="n">
         <v>0</v>
@@ -2536,19 +2536,19 @@
         <v>457.5</v>
       </c>
       <c r="C62" t="n">
-        <v>453.4</v>
+        <v>457.5</v>
       </c>
       <c r="D62" t="n">
         <v>457.5</v>
       </c>
       <c r="E62" t="n">
-        <v>453.4</v>
+        <v>457.5</v>
       </c>
       <c r="F62" t="n">
-        <v>6625.4231</v>
+        <v>240</v>
       </c>
       <c r="G62" t="n">
-        <v>457.1333333333333</v>
+        <v>457.295</v>
       </c>
       <c r="H62" t="n">
         <v>0</v>
@@ -2568,22 +2568,22 @@
         <v>61</v>
       </c>
       <c r="B63" t="n">
+        <v>457.5</v>
+      </c>
+      <c r="C63" t="n">
         <v>453.4</v>
       </c>
-      <c r="C63" t="n">
-        <v>452.7</v>
-      </c>
       <c r="D63" t="n">
+        <v>457.5</v>
+      </c>
+      <c r="E63" t="n">
         <v>453.4</v>
       </c>
-      <c r="E63" t="n">
-        <v>452.7</v>
-      </c>
       <c r="F63" t="n">
-        <v>1998.9506</v>
+        <v>6625.4231</v>
       </c>
       <c r="G63" t="n">
-        <v>456.96</v>
+        <v>457.1333333333333</v>
       </c>
       <c r="H63" t="n">
         <v>0</v>
@@ -2603,22 +2603,22 @@
         <v>62</v>
       </c>
       <c r="B64" t="n">
-        <v>453</v>
+        <v>453.4</v>
       </c>
       <c r="C64" t="n">
-        <v>452</v>
+        <v>452.7</v>
       </c>
       <c r="D64" t="n">
-        <v>453</v>
+        <v>453.4</v>
       </c>
       <c r="E64" t="n">
-        <v>452</v>
+        <v>452.7</v>
       </c>
       <c r="F64" t="n">
-        <v>7000</v>
+        <v>1998.9506</v>
       </c>
       <c r="G64" t="n">
-        <v>456.7766666666667</v>
+        <v>456.96</v>
       </c>
       <c r="H64" t="n">
         <v>0</v>
@@ -2638,22 +2638,22 @@
         <v>63</v>
       </c>
       <c r="B65" t="n">
+        <v>453</v>
+      </c>
+      <c r="C65" t="n">
         <v>452</v>
       </c>
-      <c r="C65" t="n">
-        <v>450.5</v>
-      </c>
       <c r="D65" t="n">
+        <v>453</v>
+      </c>
+      <c r="E65" t="n">
         <v>452</v>
       </c>
-      <c r="E65" t="n">
-        <v>450.5</v>
-      </c>
       <c r="F65" t="n">
-        <v>1998.9507</v>
+        <v>7000</v>
       </c>
       <c r="G65" t="n">
-        <v>456.5833333333334</v>
+        <v>456.7766666666667</v>
       </c>
       <c r="H65" t="n">
         <v>0</v>
@@ -2673,7 +2673,7 @@
         <v>64</v>
       </c>
       <c r="B66" t="n">
-        <v>450.6</v>
+        <v>452</v>
       </c>
       <c r="C66" t="n">
         <v>450.5</v>
@@ -2685,10 +2685,10 @@
         <v>450.5</v>
       </c>
       <c r="F66" t="n">
-        <v>8183.2338</v>
+        <v>1998.9507</v>
       </c>
       <c r="G66" t="n">
-        <v>456.3900000000001</v>
+        <v>456.5833333333334</v>
       </c>
       <c r="H66" t="n">
         <v>0</v>
@@ -2708,22 +2708,22 @@
         <v>65</v>
       </c>
       <c r="B67" t="n">
-        <v>450.5</v>
+        <v>450.6</v>
       </c>
       <c r="C67" t="n">
         <v>450.5</v>
       </c>
       <c r="D67" t="n">
-        <v>450.5</v>
+        <v>452</v>
       </c>
       <c r="E67" t="n">
         <v>450.5</v>
       </c>
       <c r="F67" t="n">
-        <v>4200</v>
+        <v>8183.2338</v>
       </c>
       <c r="G67" t="n">
-        <v>456.2300000000001</v>
+        <v>456.3900000000001</v>
       </c>
       <c r="H67" t="n">
         <v>0</v>
@@ -2755,10 +2755,10 @@
         <v>450.5</v>
       </c>
       <c r="F68" t="n">
-        <v>250</v>
+        <v>4200</v>
       </c>
       <c r="G68" t="n">
-        <v>456.0716666666668</v>
+        <v>456.2300000000001</v>
       </c>
       <c r="H68" t="n">
         <v>0</v>
@@ -2790,10 +2790,10 @@
         <v>450.5</v>
       </c>
       <c r="F69" t="n">
-        <v>1625.5359</v>
+        <v>250</v>
       </c>
       <c r="G69" t="n">
-        <v>455.8650000000001</v>
+        <v>456.0716666666668</v>
       </c>
       <c r="H69" t="n">
         <v>0</v>
@@ -2825,10 +2825,10 @@
         <v>450.5</v>
       </c>
       <c r="F70" t="n">
-        <v>590</v>
+        <v>1625.5359</v>
       </c>
       <c r="G70" t="n">
-        <v>455.6750000000001</v>
+        <v>455.8650000000001</v>
       </c>
       <c r="H70" t="n">
         <v>0</v>
@@ -2860,10 +2860,10 @@
         <v>450.5</v>
       </c>
       <c r="F71" t="n">
-        <v>405.0162</v>
+        <v>590</v>
       </c>
       <c r="G71" t="n">
-        <v>455.5166666666667</v>
+        <v>455.6750000000001</v>
       </c>
       <c r="H71" t="n">
         <v>0</v>
@@ -2895,10 +2895,10 @@
         <v>450.5</v>
       </c>
       <c r="F72" t="n">
-        <v>56.4699</v>
+        <v>405.0162</v>
       </c>
       <c r="G72" t="n">
-        <v>455.3583333333334</v>
+        <v>455.5166666666667</v>
       </c>
       <c r="H72" t="n">
         <v>0</v>
@@ -2918,22 +2918,22 @@
         <v>71</v>
       </c>
       <c r="B73" t="n">
-        <v>450.6</v>
+        <v>450.5</v>
       </c>
       <c r="C73" t="n">
-        <v>450.6</v>
+        <v>450.5</v>
       </c>
       <c r="D73" t="n">
-        <v>450.6</v>
+        <v>450.5</v>
       </c>
       <c r="E73" t="n">
-        <v>450.6</v>
+        <v>450.5</v>
       </c>
       <c r="F73" t="n">
-        <v>850</v>
+        <v>56.4699</v>
       </c>
       <c r="G73" t="n">
-        <v>455.2016666666667</v>
+        <v>455.3583333333334</v>
       </c>
       <c r="H73" t="n">
         <v>0</v>
@@ -2956,19 +2956,19 @@
         <v>450.6</v>
       </c>
       <c r="C74" t="n">
-        <v>451.1</v>
+        <v>450.6</v>
       </c>
       <c r="D74" t="n">
-        <v>451.1</v>
+        <v>450.6</v>
       </c>
       <c r="E74" t="n">
         <v>450.6</v>
       </c>
       <c r="F74" t="n">
-        <v>1220.9633</v>
+        <v>850</v>
       </c>
       <c r="G74" t="n">
-        <v>455.1033333333334</v>
+        <v>455.2016666666667</v>
       </c>
       <c r="H74" t="n">
         <v>0</v>
@@ -2988,22 +2988,22 @@
         <v>73</v>
       </c>
       <c r="B75" t="n">
-        <v>452</v>
+        <v>450.6</v>
       </c>
       <c r="C75" t="n">
-        <v>452</v>
+        <v>451.1</v>
       </c>
       <c r="D75" t="n">
-        <v>452</v>
+        <v>451.1</v>
       </c>
       <c r="E75" t="n">
-        <v>452</v>
+        <v>450.6</v>
       </c>
       <c r="F75" t="n">
-        <v>27</v>
+        <v>1220.9633</v>
       </c>
       <c r="G75" t="n">
-        <v>455.12</v>
+        <v>455.1033333333334</v>
       </c>
       <c r="H75" t="n">
         <v>0</v>
@@ -3035,10 +3035,10 @@
         <v>452</v>
       </c>
       <c r="F76" t="n">
-        <v>5.6246</v>
+        <v>27</v>
       </c>
       <c r="G76" t="n">
-        <v>455.1366666666667</v>
+        <v>455.12</v>
       </c>
       <c r="H76" t="n">
         <v>0</v>
@@ -3058,22 +3058,22 @@
         <v>75</v>
       </c>
       <c r="B77" t="n">
-        <v>450.6</v>
+        <v>452</v>
       </c>
       <c r="C77" t="n">
-        <v>450.6</v>
+        <v>452</v>
       </c>
       <c r="D77" t="n">
-        <v>450.6</v>
+        <v>452</v>
       </c>
       <c r="E77" t="n">
-        <v>450.6</v>
+        <v>452</v>
       </c>
       <c r="F77" t="n">
-        <v>921</v>
+        <v>5.6246</v>
       </c>
       <c r="G77" t="n">
-        <v>455.13</v>
+        <v>455.1366666666667</v>
       </c>
       <c r="H77" t="n">
         <v>0</v>
@@ -3093,22 +3093,22 @@
         <v>76</v>
       </c>
       <c r="B78" t="n">
-        <v>450.9</v>
+        <v>450.6</v>
       </c>
       <c r="C78" t="n">
-        <v>450.5</v>
+        <v>450.6</v>
       </c>
       <c r="D78" t="n">
-        <v>450.9</v>
+        <v>450.6</v>
       </c>
       <c r="E78" t="n">
-        <v>450.5</v>
+        <v>450.6</v>
       </c>
       <c r="F78" t="n">
-        <v>7650.0583</v>
+        <v>921</v>
       </c>
       <c r="G78" t="n">
-        <v>455.115</v>
+        <v>455.13</v>
       </c>
       <c r="H78" t="n">
         <v>0</v>
@@ -3128,22 +3128,22 @@
         <v>77</v>
       </c>
       <c r="B79" t="n">
-        <v>450.5</v>
+        <v>450.9</v>
       </c>
       <c r="C79" t="n">
         <v>450.5</v>
       </c>
       <c r="D79" t="n">
-        <v>450.5</v>
+        <v>450.9</v>
       </c>
       <c r="E79" t="n">
         <v>450.5</v>
       </c>
       <c r="F79" t="n">
-        <v>513.7296</v>
+        <v>7650.0583</v>
       </c>
       <c r="G79" t="n">
-        <v>455.09</v>
+        <v>455.115</v>
       </c>
       <c r="H79" t="n">
         <v>0</v>
@@ -3163,22 +3163,22 @@
         <v>78</v>
       </c>
       <c r="B80" t="n">
-        <v>450</v>
+        <v>450.5</v>
       </c>
       <c r="C80" t="n">
-        <v>447</v>
+        <v>450.5</v>
       </c>
       <c r="D80" t="n">
-        <v>450</v>
+        <v>450.5</v>
       </c>
       <c r="E80" t="n">
-        <v>447</v>
+        <v>450.5</v>
       </c>
       <c r="F80" t="n">
-        <v>2124.041</v>
+        <v>513.7296</v>
       </c>
       <c r="G80" t="n">
-        <v>455.0066666666666</v>
+        <v>455.09</v>
       </c>
       <c r="H80" t="n">
         <v>0</v>
@@ -3198,22 +3198,22 @@
         <v>79</v>
       </c>
       <c r="B81" t="n">
-        <v>446.7</v>
+        <v>450</v>
       </c>
       <c r="C81" t="n">
-        <v>446.7</v>
+        <v>447</v>
       </c>
       <c r="D81" t="n">
-        <v>446.7</v>
+        <v>450</v>
       </c>
       <c r="E81" t="n">
-        <v>446.7</v>
+        <v>447</v>
       </c>
       <c r="F81" t="n">
-        <v>4.1545</v>
+        <v>2124.041</v>
       </c>
       <c r="G81" t="n">
-        <v>454.9016666666666</v>
+        <v>455.0066666666666</v>
       </c>
       <c r="H81" t="n">
         <v>0</v>
@@ -3245,10 +3245,10 @@
         <v>446.7</v>
       </c>
       <c r="F82" t="n">
-        <v>1845.4336</v>
+        <v>4.1545</v>
       </c>
       <c r="G82" t="n">
-        <v>454.7966666666667</v>
+        <v>454.9016666666666</v>
       </c>
       <c r="H82" t="n">
         <v>0</v>
@@ -3268,22 +3268,22 @@
         <v>81</v>
       </c>
       <c r="B83" t="n">
-        <v>447.1</v>
+        <v>446.7</v>
       </c>
       <c r="C83" t="n">
-        <v>447.3</v>
+        <v>446.7</v>
       </c>
       <c r="D83" t="n">
-        <v>447.3</v>
+        <v>446.7</v>
       </c>
       <c r="E83" t="n">
-        <v>447.1</v>
+        <v>446.7</v>
       </c>
       <c r="F83" t="n">
-        <v>4</v>
+        <v>1845.4336</v>
       </c>
       <c r="G83" t="n">
-        <v>454.7016666666667</v>
+        <v>454.7966666666667</v>
       </c>
       <c r="H83" t="n">
         <v>0</v>
@@ -3303,31 +3303,35 @@
         <v>82</v>
       </c>
       <c r="B84" t="n">
-        <v>450.9</v>
+        <v>447.1</v>
       </c>
       <c r="C84" t="n">
-        <v>450.9</v>
+        <v>447.3</v>
       </c>
       <c r="D84" t="n">
-        <v>450.9</v>
+        <v>447.3</v>
       </c>
       <c r="E84" t="n">
-        <v>450.9</v>
+        <v>447.1</v>
       </c>
       <c r="F84" t="n">
-        <v>1.2</v>
+        <v>4</v>
       </c>
       <c r="G84" t="n">
-        <v>454.7166666666666</v>
+        <v>454.7016666666667</v>
       </c>
       <c r="H84" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I84" t="n">
         <v>0</v>
       </c>
-      <c r="J84" t="inlineStr"/>
-      <c r="K84" t="inlineStr"/>
+      <c r="J84" t="n">
+        <v>446.7</v>
+      </c>
+      <c r="K84" t="n">
+        <v>446.7</v>
+      </c>
       <c r="L84" t="inlineStr"/>
       <c r="M84" t="n">
         <v>1</v>
@@ -3338,32 +3342,40 @@
         <v>83</v>
       </c>
       <c r="B85" t="n">
+        <v>450.9</v>
+      </c>
+      <c r="C85" t="n">
+        <v>450.9</v>
+      </c>
+      <c r="D85" t="n">
+        <v>450.9</v>
+      </c>
+      <c r="E85" t="n">
+        <v>450.9</v>
+      </c>
+      <c r="F85" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="G85" t="n">
+        <v>454.7166666666666</v>
+      </c>
+      <c r="H85" t="n">
+        <v>1</v>
+      </c>
+      <c r="I85" t="n">
+        <v>0</v>
+      </c>
+      <c r="J85" t="n">
         <v>447.3</v>
       </c>
-      <c r="C85" t="n">
-        <v>447.3</v>
-      </c>
-      <c r="D85" t="n">
-        <v>447.3</v>
-      </c>
-      <c r="E85" t="n">
-        <v>447.3</v>
-      </c>
-      <c r="F85" t="n">
-        <v>384</v>
-      </c>
-      <c r="G85" t="n">
-        <v>454.4916666666667</v>
-      </c>
-      <c r="H85" t="n">
-        <v>0</v>
-      </c>
-      <c r="I85" t="n">
-        <v>0</v>
-      </c>
-      <c r="J85" t="inlineStr"/>
-      <c r="K85" t="inlineStr"/>
-      <c r="L85" t="inlineStr"/>
+      <c r="K85" t="n">
+        <v>446.7</v>
+      </c>
+      <c r="L85" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="M85" t="n">
         <v>1</v>
       </c>
@@ -3373,36 +3385,40 @@
         <v>84</v>
       </c>
       <c r="B86" t="n">
+        <v>447.3</v>
+      </c>
+      <c r="C86" t="n">
+        <v>447.3</v>
+      </c>
+      <c r="D86" t="n">
+        <v>447.3</v>
+      </c>
+      <c r="E86" t="n">
+        <v>447.3</v>
+      </c>
+      <c r="F86" t="n">
+        <v>384</v>
+      </c>
+      <c r="G86" t="n">
+        <v>454.4916666666667</v>
+      </c>
+      <c r="H86" t="n">
+        <v>1</v>
+      </c>
+      <c r="I86" t="n">
+        <v>0</v>
+      </c>
+      <c r="J86" t="n">
         <v>450.9</v>
       </c>
-      <c r="C86" t="n">
-        <v>450.9</v>
-      </c>
-      <c r="D86" t="n">
-        <v>450.9</v>
-      </c>
-      <c r="E86" t="n">
-        <v>450.9</v>
-      </c>
-      <c r="F86" t="n">
-        <v>1.2</v>
-      </c>
-      <c r="G86" t="n">
-        <v>454.41</v>
-      </c>
-      <c r="H86" t="n">
-        <v>1</v>
-      </c>
-      <c r="I86" t="n">
-        <v>0</v>
-      </c>
-      <c r="J86" t="n">
-        <v>447.3</v>
-      </c>
       <c r="K86" t="n">
-        <v>447.3</v>
-      </c>
-      <c r="L86" t="inlineStr"/>
+        <v>446.7</v>
+      </c>
+      <c r="L86" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="M86" t="n">
         <v>1</v>
       </c>
@@ -3412,22 +3428,22 @@
         <v>85</v>
       </c>
       <c r="B87" t="n">
-        <v>446.8</v>
+        <v>450.9</v>
       </c>
       <c r="C87" t="n">
-        <v>444.2</v>
+        <v>450.9</v>
       </c>
       <c r="D87" t="n">
-        <v>446.8</v>
+        <v>450.9</v>
       </c>
       <c r="E87" t="n">
-        <v>444.2</v>
+        <v>450.9</v>
       </c>
       <c r="F87" t="n">
-        <v>7056.3011</v>
+        <v>1.2</v>
       </c>
       <c r="G87" t="n">
-        <v>454.1883333333334</v>
+        <v>454.41</v>
       </c>
       <c r="H87" t="n">
         <v>1</v>
@@ -3436,59 +3452,55 @@
         <v>0</v>
       </c>
       <c r="J87" t="n">
-        <v>450.9</v>
+        <v>447.3</v>
       </c>
       <c r="K87" t="n">
         <v>447.3</v>
       </c>
-      <c r="L87" t="inlineStr">
+      <c r="L87" t="inlineStr"/>
+      <c r="M87" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" s="1" t="n">
+        <v>86</v>
+      </c>
+      <c r="B88" t="n">
+        <v>446.8</v>
+      </c>
+      <c r="C88" t="n">
+        <v>444.2</v>
+      </c>
+      <c r="D88" t="n">
+        <v>446.8</v>
+      </c>
+      <c r="E88" t="n">
+        <v>444.2</v>
+      </c>
+      <c r="F88" t="n">
+        <v>7056.3011</v>
+      </c>
+      <c r="G88" t="n">
+        <v>454.1883333333334</v>
+      </c>
+      <c r="H88" t="n">
+        <v>1</v>
+      </c>
+      <c r="I88" t="n">
+        <v>0</v>
+      </c>
+      <c r="J88" t="n">
+        <v>450.9</v>
+      </c>
+      <c r="K88" t="n">
+        <v>447.3</v>
+      </c>
+      <c r="L88" t="inlineStr">
         <is>
           <t>매수 체결</t>
         </is>
       </c>
-      <c r="M87" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="88">
-      <c r="A88" s="1" t="n">
-        <v>86</v>
-      </c>
-      <c r="B88" t="n">
-        <v>445.7</v>
-      </c>
-      <c r="C88" t="n">
-        <v>445.7</v>
-      </c>
-      <c r="D88" t="n">
-        <v>445.7</v>
-      </c>
-      <c r="E88" t="n">
-        <v>445.7</v>
-      </c>
-      <c r="F88" t="n">
-        <v>1.2</v>
-      </c>
-      <c r="G88" t="n">
-        <v>454.0833333333334</v>
-      </c>
-      <c r="H88" t="n">
-        <v>1</v>
-      </c>
-      <c r="I88" t="n">
-        <v>0</v>
-      </c>
-      <c r="J88" t="n">
-        <v>444.2</v>
-      </c>
-      <c r="K88" t="n">
-        <v>447.3</v>
-      </c>
-      <c r="L88" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
       <c r="M88" t="n">
         <v>1</v>
       </c>
@@ -3510,20 +3522,18 @@
         <v>445.7</v>
       </c>
       <c r="F89" t="n">
-        <v>20</v>
+        <v>1.2</v>
       </c>
       <c r="G89" t="n">
-        <v>453.9783333333334</v>
+        <v>454.0833333333334</v>
       </c>
       <c r="H89" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I89" t="n">
         <v>0</v>
       </c>
-      <c r="J89" t="n">
-        <v>445.7</v>
-      </c>
+      <c r="J89" t="inlineStr"/>
       <c r="K89" t="n">
         <v>447.3</v>
       </c>
@@ -3541,32 +3551,30 @@
         <v>88</v>
       </c>
       <c r="B90" t="n">
-        <v>444.3</v>
+        <v>445.7</v>
       </c>
       <c r="C90" t="n">
-        <v>443.3</v>
+        <v>445.7</v>
       </c>
       <c r="D90" t="n">
-        <v>448</v>
+        <v>445.7</v>
       </c>
       <c r="E90" t="n">
-        <v>442.2</v>
+        <v>445.7</v>
       </c>
       <c r="F90" t="n">
-        <v>19452.2485</v>
+        <v>20</v>
       </c>
       <c r="G90" t="n">
-        <v>453.8333333333334</v>
+        <v>453.9783333333334</v>
       </c>
       <c r="H90" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I90" t="n">
         <v>0</v>
       </c>
-      <c r="J90" t="n">
-        <v>445.7</v>
-      </c>
+      <c r="J90" t="inlineStr"/>
       <c r="K90" t="n">
         <v>447.3</v>
       </c>
@@ -3584,32 +3592,30 @@
         <v>89</v>
       </c>
       <c r="B91" t="n">
-        <v>443.2</v>
+        <v>444.3</v>
       </c>
       <c r="C91" t="n">
         <v>443.3</v>
       </c>
       <c r="D91" t="n">
-        <v>443.3</v>
+        <v>448</v>
       </c>
       <c r="E91" t="n">
-        <v>443.2</v>
+        <v>442.2</v>
       </c>
       <c r="F91" t="n">
-        <v>15769</v>
+        <v>19452.2485</v>
       </c>
       <c r="G91" t="n">
-        <v>453.6883333333334</v>
+        <v>453.8333333333334</v>
       </c>
       <c r="H91" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I91" t="n">
         <v>0</v>
       </c>
-      <c r="J91" t="n">
-        <v>443.3</v>
-      </c>
+      <c r="J91" t="inlineStr"/>
       <c r="K91" t="n">
         <v>447.3</v>
       </c>
@@ -3627,22 +3633,22 @@
         <v>90</v>
       </c>
       <c r="B92" t="n">
+        <v>443.2</v>
+      </c>
+      <c r="C92" t="n">
         <v>443.3</v>
-      </c>
-      <c r="C92" t="n">
-        <v>442.7</v>
       </c>
       <c r="D92" t="n">
         <v>443.3</v>
       </c>
       <c r="E92" t="n">
-        <v>442.7</v>
+        <v>443.2</v>
       </c>
       <c r="F92" t="n">
-        <v>1917.6155</v>
+        <v>15769</v>
       </c>
       <c r="G92" t="n">
-        <v>453.5316666666668</v>
+        <v>453.6883333333334</v>
       </c>
       <c r="H92" t="n">
         <v>0</v>
@@ -3671,25 +3677,25 @@
         <v>443.3</v>
       </c>
       <c r="C93" t="n">
-        <v>443.3</v>
+        <v>442.7</v>
       </c>
       <c r="D93" t="n">
         <v>443.3</v>
       </c>
       <c r="E93" t="n">
-        <v>443.3</v>
+        <v>442.7</v>
       </c>
       <c r="F93" t="n">
-        <v>30</v>
+        <v>1917.6155</v>
       </c>
       <c r="G93" t="n">
-        <v>453.3833333333334</v>
+        <v>453.5316666666668</v>
       </c>
       <c r="H93" t="n">
         <v>0</v>
       </c>
       <c r="I93" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J93" t="inlineStr"/>
       <c r="K93" t="n">
@@ -3721,16 +3727,16 @@
         <v>443.3</v>
       </c>
       <c r="F94" t="n">
-        <v>306.5682</v>
+        <v>30</v>
       </c>
       <c r="G94" t="n">
-        <v>453.1566666666667</v>
+        <v>453.3833333333334</v>
       </c>
       <c r="H94" t="n">
         <v>0</v>
       </c>
       <c r="I94" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J94" t="inlineStr"/>
       <c r="K94" t="n">
@@ -3762,10 +3768,10 @@
         <v>443.3</v>
       </c>
       <c r="F95" t="n">
-        <v>229.8658</v>
+        <v>306.5682</v>
       </c>
       <c r="G95" t="n">
-        <v>453.0083333333333</v>
+        <v>453.1566666666667</v>
       </c>
       <c r="H95" t="n">
         <v>0</v>
@@ -3803,10 +3809,10 @@
         <v>443.3</v>
       </c>
       <c r="F96" t="n">
-        <v>435</v>
+        <v>229.8658</v>
       </c>
       <c r="G96" t="n">
-        <v>452.7666666666667</v>
+        <v>453.0083333333333</v>
       </c>
       <c r="H96" t="n">
         <v>0</v>
@@ -3844,16 +3850,16 @@
         <v>443.3</v>
       </c>
       <c r="F97" t="n">
-        <v>118.0814</v>
+        <v>435</v>
       </c>
       <c r="G97" t="n">
-        <v>452.62</v>
+        <v>452.7666666666667</v>
       </c>
       <c r="H97" t="n">
         <v>0</v>
       </c>
       <c r="I97" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J97" t="inlineStr"/>
       <c r="K97" t="n">
@@ -3876,25 +3882,25 @@
         <v>443.3</v>
       </c>
       <c r="C98" t="n">
-        <v>447.7</v>
+        <v>443.3</v>
       </c>
       <c r="D98" t="n">
-        <v>447.7</v>
+        <v>443.3</v>
       </c>
       <c r="E98" t="n">
         <v>443.3</v>
       </c>
       <c r="F98" t="n">
-        <v>2523.4146</v>
+        <v>118.0814</v>
       </c>
       <c r="G98" t="n">
-        <v>452.4516666666667</v>
+        <v>452.62</v>
       </c>
       <c r="H98" t="n">
         <v>0</v>
       </c>
       <c r="I98" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J98" t="inlineStr"/>
       <c r="K98" t="n">
@@ -3902,11 +3908,11 @@
       </c>
       <c r="L98" t="inlineStr">
         <is>
-          <t>매도 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="M98" t="n">
-        <v>0.9958942544153812</v>
+        <v>1</v>
       </c>
     </row>
     <row r="99">
@@ -3914,22 +3920,22 @@
         <v>97</v>
       </c>
       <c r="B99" t="n">
-        <v>443.4</v>
+        <v>443.3</v>
       </c>
       <c r="C99" t="n">
-        <v>443.3</v>
+        <v>447.7</v>
       </c>
       <c r="D99" t="n">
-        <v>443.4</v>
+        <v>447.7</v>
       </c>
       <c r="E99" t="n">
         <v>443.3</v>
       </c>
       <c r="F99" t="n">
-        <v>2265.7641</v>
+        <v>2523.4146</v>
       </c>
       <c r="G99" t="n">
-        <v>452.175</v>
+        <v>452.4516666666667</v>
       </c>
       <c r="H99" t="n">
         <v>0</v>
@@ -3938,8 +3944,14 @@
         <v>0</v>
       </c>
       <c r="J99" t="inlineStr"/>
-      <c r="K99" t="inlineStr"/>
-      <c r="L99" t="inlineStr"/>
+      <c r="K99" t="n">
+        <v>447.3</v>
+      </c>
+      <c r="L99" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M99" t="n">
         <v>1</v>
       </c>
@@ -3949,22 +3961,22 @@
         <v>98</v>
       </c>
       <c r="B100" t="n">
-        <v>447.7</v>
+        <v>443.4</v>
       </c>
       <c r="C100" t="n">
-        <v>447.7</v>
+        <v>443.3</v>
       </c>
       <c r="D100" t="n">
-        <v>447.7</v>
+        <v>443.4</v>
       </c>
       <c r="E100" t="n">
-        <v>447.7</v>
+        <v>443.3</v>
       </c>
       <c r="F100" t="n">
-        <v>8.5162</v>
+        <v>2265.7641</v>
       </c>
       <c r="G100" t="n">
-        <v>452.0066666666667</v>
+        <v>452.175</v>
       </c>
       <c r="H100" t="n">
         <v>0</v>
@@ -3973,8 +3985,14 @@
         <v>0</v>
       </c>
       <c r="J100" t="inlineStr"/>
-      <c r="K100" t="inlineStr"/>
-      <c r="L100" t="inlineStr"/>
+      <c r="K100" t="n">
+        <v>447.3</v>
+      </c>
+      <c r="L100" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M100" t="n">
         <v>1</v>
       </c>
@@ -3984,22 +4002,22 @@
         <v>99</v>
       </c>
       <c r="B101" t="n">
-        <v>446.7</v>
+        <v>447.7</v>
       </c>
       <c r="C101" t="n">
-        <v>446.7</v>
+        <v>447.7</v>
       </c>
       <c r="D101" t="n">
-        <v>446.7</v>
+        <v>447.7</v>
       </c>
       <c r="E101" t="n">
-        <v>446.7</v>
+        <v>447.7</v>
       </c>
       <c r="F101" t="n">
-        <v>99.9999</v>
+        <v>8.5162</v>
       </c>
       <c r="G101" t="n">
-        <v>451.8216666666667</v>
+        <v>452.0066666666667</v>
       </c>
       <c r="H101" t="n">
         <v>0</v>
@@ -4008,8 +4026,14 @@
         <v>0</v>
       </c>
       <c r="J101" t="inlineStr"/>
-      <c r="K101" t="inlineStr"/>
-      <c r="L101" t="inlineStr"/>
+      <c r="K101" t="n">
+        <v>447.3</v>
+      </c>
+      <c r="L101" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M101" t="n">
         <v>1</v>
       </c>
@@ -4019,22 +4043,22 @@
         <v>100</v>
       </c>
       <c r="B102" t="n">
-        <v>447.7</v>
+        <v>446.7</v>
       </c>
       <c r="C102" t="n">
-        <v>448</v>
+        <v>446.7</v>
       </c>
       <c r="D102" t="n">
-        <v>448</v>
+        <v>446.7</v>
       </c>
       <c r="E102" t="n">
-        <v>447.7</v>
+        <v>446.7</v>
       </c>
       <c r="F102" t="n">
-        <v>289.2084</v>
+        <v>99.9999</v>
       </c>
       <c r="G102" t="n">
-        <v>451.6583333333334</v>
+        <v>451.8216666666667</v>
       </c>
       <c r="H102" t="n">
         <v>0</v>
@@ -4043,8 +4067,14 @@
         <v>0</v>
       </c>
       <c r="J102" t="inlineStr"/>
-      <c r="K102" t="inlineStr"/>
-      <c r="L102" t="inlineStr"/>
+      <c r="K102" t="n">
+        <v>447.3</v>
+      </c>
+      <c r="L102" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M102" t="n">
         <v>1</v>
       </c>
@@ -4054,22 +4084,22 @@
         <v>101</v>
       </c>
       <c r="B103" t="n">
-        <v>447.5</v>
+        <v>447.7</v>
       </c>
       <c r="C103" t="n">
-        <v>447.6</v>
+        <v>448</v>
       </c>
       <c r="D103" t="n">
-        <v>447.6</v>
+        <v>448</v>
       </c>
       <c r="E103" t="n">
-        <v>447.5</v>
+        <v>447.7</v>
       </c>
       <c r="F103" t="n">
-        <v>709.1495</v>
+        <v>289.2084</v>
       </c>
       <c r="G103" t="n">
-        <v>451.4883333333334</v>
+        <v>451.6583333333334</v>
       </c>
       <c r="H103" t="n">
         <v>0</v>
@@ -4078,8 +4108,14 @@
         <v>0</v>
       </c>
       <c r="J103" t="inlineStr"/>
-      <c r="K103" t="inlineStr"/>
-      <c r="L103" t="inlineStr"/>
+      <c r="K103" t="n">
+        <v>447.3</v>
+      </c>
+      <c r="L103" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M103" t="n">
         <v>1</v>
       </c>
@@ -4092,19 +4128,19 @@
         <v>447.5</v>
       </c>
       <c r="C104" t="n">
-        <v>447.5</v>
+        <v>447.6</v>
       </c>
       <c r="D104" t="n">
-        <v>447.5</v>
+        <v>447.6</v>
       </c>
       <c r="E104" t="n">
         <v>447.5</v>
       </c>
       <c r="F104" t="n">
-        <v>3.2094</v>
+        <v>709.1495</v>
       </c>
       <c r="G104" t="n">
-        <v>451.3166666666667</v>
+        <v>451.4883333333334</v>
       </c>
       <c r="H104" t="n">
         <v>0</v>
@@ -4113,8 +4149,14 @@
         <v>0</v>
       </c>
       <c r="J104" t="inlineStr"/>
-      <c r="K104" t="inlineStr"/>
-      <c r="L104" t="inlineStr"/>
+      <c r="K104" t="n">
+        <v>447.3</v>
+      </c>
+      <c r="L104" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M104" t="n">
         <v>1</v>
       </c>
@@ -4124,22 +4166,22 @@
         <v>103</v>
       </c>
       <c r="B105" t="n">
-        <v>449</v>
+        <v>447.5</v>
       </c>
       <c r="C105" t="n">
-        <v>448</v>
+        <v>447.5</v>
       </c>
       <c r="D105" t="n">
-        <v>449</v>
+        <v>447.5</v>
       </c>
       <c r="E105" t="n">
-        <v>448</v>
+        <v>447.5</v>
       </c>
       <c r="F105" t="n">
-        <v>2800</v>
+        <v>3.2094</v>
       </c>
       <c r="G105" t="n">
-        <v>451.1533333333334</v>
+        <v>451.3166666666667</v>
       </c>
       <c r="H105" t="n">
         <v>0</v>
@@ -4148,8 +4190,14 @@
         <v>0</v>
       </c>
       <c r="J105" t="inlineStr"/>
-      <c r="K105" t="inlineStr"/>
-      <c r="L105" t="inlineStr"/>
+      <c r="K105" t="n">
+        <v>447.3</v>
+      </c>
+      <c r="L105" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M105" t="n">
         <v>1</v>
       </c>
@@ -4159,33 +4207,80 @@
         <v>104</v>
       </c>
       <c r="B106" t="n">
+        <v>449</v>
+      </c>
+      <c r="C106" t="n">
+        <v>448</v>
+      </c>
+      <c r="D106" t="n">
+        <v>449</v>
+      </c>
+      <c r="E106" t="n">
+        <v>448</v>
+      </c>
+      <c r="F106" t="n">
+        <v>2800</v>
+      </c>
+      <c r="G106" t="n">
+        <v>451.1533333333334</v>
+      </c>
+      <c r="H106" t="n">
+        <v>0</v>
+      </c>
+      <c r="I106" t="n">
+        <v>0</v>
+      </c>
+      <c r="J106" t="inlineStr"/>
+      <c r="K106" t="n">
+        <v>447.3</v>
+      </c>
+      <c r="L106" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M106" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" s="1" t="n">
+        <v>105</v>
+      </c>
+      <c r="B107" t="n">
         <v>450.9</v>
       </c>
-      <c r="C106" t="n">
+      <c r="C107" t="n">
         <v>450.9</v>
       </c>
-      <c r="D106" t="n">
+      <c r="D107" t="n">
         <v>450.9</v>
       </c>
-      <c r="E106" t="n">
+      <c r="E107" t="n">
         <v>450.9</v>
       </c>
-      <c r="F106" t="n">
+      <c r="F107" t="n">
         <v>1007.203371035706</v>
       </c>
-      <c r="G106" t="n">
+      <c r="G107" t="n">
         <v>451.0383333333335</v>
       </c>
-      <c r="H106" t="n">
-        <v>0</v>
-      </c>
-      <c r="I106" t="n">
-        <v>0</v>
-      </c>
-      <c r="J106" t="inlineStr"/>
-      <c r="K106" t="inlineStr"/>
-      <c r="L106" t="inlineStr"/>
-      <c r="M106" t="n">
+      <c r="H107" t="n">
+        <v>0</v>
+      </c>
+      <c r="I107" t="n">
+        <v>0</v>
+      </c>
+      <c r="J107" t="inlineStr"/>
+      <c r="K107" t="n">
+        <v>447.3</v>
+      </c>
+      <c r="L107" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M107" t="n">
         <v>1</v>
       </c>
     </row>

--- a/BackTest/2020-01-24 BackTest WTC.xlsx
+++ b/BackTest/2020-01-24 BackTest WTC.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M107"/>
+  <dimension ref="A1:N117"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -394,35 +394,40 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
+          <t>CMO</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>MA60</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>low_check</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>high_check</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>BuyPrice</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>bprelay</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>Condition</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>Profits</t>
         </is>
@@ -448,18 +453,21 @@
         <v>4970</v>
       </c>
       <c r="G2" t="n">
+        <v>463.9600000000001</v>
+      </c>
+      <c r="H2" t="n">
         <v>471.805</v>
       </c>
-      <c r="H2" t="n">
-        <v>0</v>
-      </c>
       <c r="I2" t="n">
         <v>0</v>
       </c>
-      <c r="J2" t="inlineStr"/>
+      <c r="J2" t="n">
+        <v>1</v>
+      </c>
       <c r="K2" t="inlineStr"/>
       <c r="L2" t="inlineStr"/>
-      <c r="M2" t="n">
+      <c r="M2" t="inlineStr"/>
+      <c r="N2" t="n">
         <v>1</v>
       </c>
     </row>
@@ -483,18 +491,21 @@
         <v>2362</v>
       </c>
       <c r="G3" t="n">
+        <v>463.9200000000001</v>
+      </c>
+      <c r="H3" t="n">
         <v>471.4916666666666</v>
       </c>
-      <c r="H3" t="n">
-        <v>0</v>
-      </c>
       <c r="I3" t="n">
         <v>0</v>
       </c>
-      <c r="J3" t="inlineStr"/>
+      <c r="J3" t="n">
+        <v>1</v>
+      </c>
       <c r="K3" t="inlineStr"/>
       <c r="L3" t="inlineStr"/>
-      <c r="M3" t="n">
+      <c r="M3" t="inlineStr"/>
+      <c r="N3" t="n">
         <v>1</v>
       </c>
     </row>
@@ -518,18 +529,21 @@
         <v>3681</v>
       </c>
       <c r="G4" t="n">
+        <v>463.9200000000001</v>
+      </c>
+      <c r="H4" t="n">
         <v>471.2216666666666</v>
       </c>
-      <c r="H4" t="n">
-        <v>0</v>
-      </c>
       <c r="I4" t="n">
         <v>0</v>
       </c>
-      <c r="J4" t="inlineStr"/>
+      <c r="J4" t="n">
+        <v>1</v>
+      </c>
       <c r="K4" t="inlineStr"/>
       <c r="L4" t="inlineStr"/>
-      <c r="M4" t="n">
+      <c r="M4" t="inlineStr"/>
+      <c r="N4" t="n">
         <v>1</v>
       </c>
     </row>
@@ -553,18 +567,21 @@
         <v>3176.4406</v>
       </c>
       <c r="G5" t="n">
+        <v>463.9133333333335</v>
+      </c>
+      <c r="H5" t="n">
         <v>470.9049999999999</v>
       </c>
-      <c r="H5" t="n">
-        <v>0</v>
-      </c>
       <c r="I5" t="n">
         <v>0</v>
       </c>
-      <c r="J5" t="inlineStr"/>
+      <c r="J5" t="n">
+        <v>1</v>
+      </c>
       <c r="K5" t="inlineStr"/>
       <c r="L5" t="inlineStr"/>
-      <c r="M5" t="n">
+      <c r="M5" t="inlineStr"/>
+      <c r="N5" t="n">
         <v>1</v>
       </c>
     </row>
@@ -588,18 +605,21 @@
         <v>1430</v>
       </c>
       <c r="G6" t="n">
+        <v>463.8466666666667</v>
+      </c>
+      <c r="H6" t="n">
         <v>470.5316666666666</v>
       </c>
-      <c r="H6" t="n">
-        <v>0</v>
-      </c>
       <c r="I6" t="n">
         <v>0</v>
       </c>
-      <c r="J6" t="inlineStr"/>
+      <c r="J6" t="n">
+        <v>1</v>
+      </c>
       <c r="K6" t="inlineStr"/>
       <c r="L6" t="inlineStr"/>
-      <c r="M6" t="n">
+      <c r="M6" t="inlineStr"/>
+      <c r="N6" t="n">
         <v>1</v>
       </c>
     </row>
@@ -623,18 +643,21 @@
         <v>34.804</v>
       </c>
       <c r="G7" t="n">
+        <v>463.5933333333335</v>
+      </c>
+      <c r="H7" t="n">
         <v>470.1616666666666</v>
       </c>
-      <c r="H7" t="n">
-        <v>0</v>
-      </c>
       <c r="I7" t="n">
         <v>0</v>
       </c>
-      <c r="J7" t="inlineStr"/>
+      <c r="J7" t="n">
+        <v>1</v>
+      </c>
       <c r="K7" t="inlineStr"/>
       <c r="L7" t="inlineStr"/>
-      <c r="M7" t="n">
+      <c r="M7" t="inlineStr"/>
+      <c r="N7" t="n">
         <v>1</v>
       </c>
     </row>
@@ -658,18 +681,21 @@
         <v>653.6479</v>
       </c>
       <c r="G8" t="n">
+        <v>463.2133333333335</v>
+      </c>
+      <c r="H8" t="n">
         <v>469.7533333333332</v>
       </c>
-      <c r="H8" t="n">
-        <v>0</v>
-      </c>
       <c r="I8" t="n">
         <v>0</v>
       </c>
-      <c r="J8" t="inlineStr"/>
+      <c r="J8" t="n">
+        <v>1</v>
+      </c>
       <c r="K8" t="inlineStr"/>
       <c r="L8" t="inlineStr"/>
-      <c r="M8" t="n">
+      <c r="M8" t="inlineStr"/>
+      <c r="N8" t="n">
         <v>1</v>
       </c>
     </row>
@@ -693,18 +719,21 @@
         <v>17256.472</v>
       </c>
       <c r="G9" t="n">
+        <v>463.0066666666668</v>
+      </c>
+      <c r="H9" t="n">
         <v>469.3433333333332</v>
       </c>
-      <c r="H9" t="n">
-        <v>0</v>
-      </c>
       <c r="I9" t="n">
         <v>0</v>
       </c>
-      <c r="J9" t="inlineStr"/>
+      <c r="J9" t="n">
+        <v>1</v>
+      </c>
       <c r="K9" t="inlineStr"/>
       <c r="L9" t="inlineStr"/>
-      <c r="M9" t="n">
+      <c r="M9" t="inlineStr"/>
+      <c r="N9" t="n">
         <v>1</v>
       </c>
     </row>
@@ -728,18 +757,21 @@
         <v>100</v>
       </c>
       <c r="G10" t="n">
+        <v>462.8066666666668</v>
+      </c>
+      <c r="H10" t="n">
         <v>468.9816666666666</v>
       </c>
-      <c r="H10" t="n">
-        <v>0</v>
-      </c>
       <c r="I10" t="n">
         <v>0</v>
       </c>
-      <c r="J10" t="inlineStr"/>
+      <c r="J10" t="n">
+        <v>1</v>
+      </c>
       <c r="K10" t="inlineStr"/>
       <c r="L10" t="inlineStr"/>
-      <c r="M10" t="n">
+      <c r="M10" t="inlineStr"/>
+      <c r="N10" t="n">
         <v>1</v>
       </c>
     </row>
@@ -763,18 +795,21 @@
         <v>2</v>
       </c>
       <c r="G11" t="n">
+        <v>462.4733333333335</v>
+      </c>
+      <c r="H11" t="n">
         <v>468.6033333333334</v>
       </c>
-      <c r="H11" t="n">
-        <v>0</v>
-      </c>
       <c r="I11" t="n">
         <v>0</v>
       </c>
-      <c r="J11" t="inlineStr"/>
+      <c r="J11" t="n">
+        <v>1</v>
+      </c>
       <c r="K11" t="inlineStr"/>
       <c r="L11" t="inlineStr"/>
-      <c r="M11" t="n">
+      <c r="M11" t="inlineStr"/>
+      <c r="N11" t="n">
         <v>1</v>
       </c>
     </row>
@@ -798,18 +833,21 @@
         <v>1163.522</v>
       </c>
       <c r="G12" t="n">
+        <v>462.2533333333334</v>
+      </c>
+      <c r="H12" t="n">
         <v>468.2816666666667</v>
       </c>
-      <c r="H12" t="n">
-        <v>0</v>
-      </c>
       <c r="I12" t="n">
         <v>0</v>
       </c>
-      <c r="J12" t="inlineStr"/>
+      <c r="J12" t="n">
+        <v>1</v>
+      </c>
       <c r="K12" t="inlineStr"/>
       <c r="L12" t="inlineStr"/>
-      <c r="M12" t="n">
+      <c r="M12" t="inlineStr"/>
+      <c r="N12" t="n">
         <v>1</v>
       </c>
     </row>
@@ -833,18 +871,21 @@
         <v>2768.4405</v>
       </c>
       <c r="G13" t="n">
+        <v>462.0466666666668</v>
+      </c>
+      <c r="H13" t="n">
         <v>467.9483333333334</v>
       </c>
-      <c r="H13" t="n">
-        <v>0</v>
-      </c>
       <c r="I13" t="n">
         <v>0</v>
       </c>
-      <c r="J13" t="inlineStr"/>
+      <c r="J13" t="n">
+        <v>1</v>
+      </c>
       <c r="K13" t="inlineStr"/>
       <c r="L13" t="inlineStr"/>
-      <c r="M13" t="n">
+      <c r="M13" t="inlineStr"/>
+      <c r="N13" t="n">
         <v>1</v>
       </c>
     </row>
@@ -868,18 +909,21 @@
         <v>613.706</v>
       </c>
       <c r="G14" t="n">
+        <v>461.8400000000001</v>
+      </c>
+      <c r="H14" t="n">
         <v>467.6216666666667</v>
       </c>
-      <c r="H14" t="n">
-        <v>0</v>
-      </c>
       <c r="I14" t="n">
         <v>0</v>
       </c>
-      <c r="J14" t="inlineStr"/>
+      <c r="J14" t="n">
+        <v>1</v>
+      </c>
       <c r="K14" t="inlineStr"/>
       <c r="L14" t="inlineStr"/>
-      <c r="M14" t="n">
+      <c r="M14" t="inlineStr"/>
+      <c r="N14" t="n">
         <v>1</v>
       </c>
     </row>
@@ -903,18 +947,21 @@
         <v>2545</v>
       </c>
       <c r="G15" t="n">
+        <v>461.4333333333334</v>
+      </c>
+      <c r="H15" t="n">
         <v>467.2516666666667</v>
       </c>
-      <c r="H15" t="n">
-        <v>0</v>
-      </c>
       <c r="I15" t="n">
         <v>0</v>
       </c>
-      <c r="J15" t="inlineStr"/>
+      <c r="J15" t="n">
+        <v>1</v>
+      </c>
       <c r="K15" t="inlineStr"/>
       <c r="L15" t="inlineStr"/>
-      <c r="M15" t="n">
+      <c r="M15" t="inlineStr"/>
+      <c r="N15" t="n">
         <v>1</v>
       </c>
     </row>
@@ -938,18 +985,21 @@
         <v>6820</v>
       </c>
       <c r="G16" t="n">
+        <v>460.6266666666667</v>
+      </c>
+      <c r="H16" t="n">
         <v>466.7816666666667</v>
       </c>
-      <c r="H16" t="n">
-        <v>0</v>
-      </c>
       <c r="I16" t="n">
         <v>0</v>
       </c>
-      <c r="J16" t="inlineStr"/>
+      <c r="J16" t="n">
+        <v>1</v>
+      </c>
       <c r="K16" t="inlineStr"/>
       <c r="L16" t="inlineStr"/>
-      <c r="M16" t="n">
+      <c r="M16" t="inlineStr"/>
+      <c r="N16" t="n">
         <v>1</v>
       </c>
     </row>
@@ -973,18 +1023,21 @@
         <v>11396.0494</v>
       </c>
       <c r="G17" t="n">
+        <v>459.82</v>
+      </c>
+      <c r="H17" t="n">
         <v>466.3566666666667</v>
       </c>
-      <c r="H17" t="n">
-        <v>0</v>
-      </c>
       <c r="I17" t="n">
         <v>0</v>
       </c>
-      <c r="J17" t="inlineStr"/>
+      <c r="J17" t="n">
+        <v>0</v>
+      </c>
       <c r="K17" t="inlineStr"/>
       <c r="L17" t="inlineStr"/>
-      <c r="M17" t="n">
+      <c r="M17" t="inlineStr"/>
+      <c r="N17" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1008,18 +1061,21 @@
         <v>1525</v>
       </c>
       <c r="G18" t="n">
+        <v>459.0133333333333</v>
+      </c>
+      <c r="H18" t="n">
         <v>465.9316666666667</v>
       </c>
-      <c r="H18" t="n">
-        <v>0</v>
-      </c>
       <c r="I18" t="n">
         <v>0</v>
       </c>
-      <c r="J18" t="inlineStr"/>
+      <c r="J18" t="n">
+        <v>0</v>
+      </c>
       <c r="K18" t="inlineStr"/>
       <c r="L18" t="inlineStr"/>
-      <c r="M18" t="n">
+      <c r="M18" t="inlineStr"/>
+      <c r="N18" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1043,18 +1099,21 @@
         <v>1175</v>
       </c>
       <c r="G19" t="n">
+        <v>458.2333333333333</v>
+      </c>
+      <c r="H19" t="n">
         <v>465.5133333333334</v>
       </c>
-      <c r="H19" t="n">
-        <v>0</v>
-      </c>
       <c r="I19" t="n">
         <v>0</v>
       </c>
-      <c r="J19" t="inlineStr"/>
+      <c r="J19" t="n">
+        <v>0</v>
+      </c>
       <c r="K19" t="inlineStr"/>
       <c r="L19" t="inlineStr"/>
-      <c r="M19" t="n">
+      <c r="M19" t="inlineStr"/>
+      <c r="N19" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1078,18 +1137,21 @@
         <v>1450</v>
       </c>
       <c r="G20" t="n">
+        <v>457.4999999999999</v>
+      </c>
+      <c r="H20" t="n">
         <v>465.1050000000001</v>
       </c>
-      <c r="H20" t="n">
-        <v>0</v>
-      </c>
       <c r="I20" t="n">
         <v>0</v>
       </c>
-      <c r="J20" t="inlineStr"/>
+      <c r="J20" t="n">
+        <v>0</v>
+      </c>
       <c r="K20" t="inlineStr"/>
       <c r="L20" t="inlineStr"/>
-      <c r="M20" t="n">
+      <c r="M20" t="inlineStr"/>
+      <c r="N20" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1113,18 +1175,21 @@
         <v>455</v>
       </c>
       <c r="G21" t="n">
+        <v>456.8266666666666</v>
+      </c>
+      <c r="H21" t="n">
         <v>464.7950000000001</v>
       </c>
-      <c r="H21" t="n">
-        <v>0</v>
-      </c>
       <c r="I21" t="n">
         <v>0</v>
       </c>
-      <c r="J21" t="inlineStr"/>
+      <c r="J21" t="n">
+        <v>0</v>
+      </c>
       <c r="K21" t="inlineStr"/>
       <c r="L21" t="inlineStr"/>
-      <c r="M21" t="n">
+      <c r="M21" t="inlineStr"/>
+      <c r="N21" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1148,18 +1213,21 @@
         <v>350</v>
       </c>
       <c r="G22" t="n">
+        <v>456.2199999999999</v>
+      </c>
+      <c r="H22" t="n">
         <v>464.4750000000001</v>
       </c>
-      <c r="H22" t="n">
-        <v>0</v>
-      </c>
       <c r="I22" t="n">
         <v>0</v>
       </c>
-      <c r="J22" t="inlineStr"/>
+      <c r="J22" t="n">
+        <v>0</v>
+      </c>
       <c r="K22" t="inlineStr"/>
       <c r="L22" t="inlineStr"/>
-      <c r="M22" t="n">
+      <c r="M22" t="inlineStr"/>
+      <c r="N22" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1183,18 +1251,21 @@
         <v>2100</v>
       </c>
       <c r="G23" t="n">
+        <v>455.7466666666666</v>
+      </c>
+      <c r="H23" t="n">
         <v>464.1833333333334</v>
       </c>
-      <c r="H23" t="n">
-        <v>0</v>
-      </c>
       <c r="I23" t="n">
         <v>0</v>
       </c>
-      <c r="J23" t="inlineStr"/>
+      <c r="J23" t="n">
+        <v>0</v>
+      </c>
       <c r="K23" t="inlineStr"/>
       <c r="L23" t="inlineStr"/>
-      <c r="M23" t="n">
+      <c r="M23" t="inlineStr"/>
+      <c r="N23" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1218,18 +1289,21 @@
         <v>4791.7288</v>
       </c>
       <c r="G24" t="n">
+        <v>455.2799999999999</v>
+      </c>
+      <c r="H24" t="n">
         <v>463.8516666666667</v>
       </c>
-      <c r="H24" t="n">
-        <v>0</v>
-      </c>
       <c r="I24" t="n">
         <v>0</v>
       </c>
-      <c r="J24" t="inlineStr"/>
+      <c r="J24" t="n">
+        <v>0</v>
+      </c>
       <c r="K24" t="inlineStr"/>
       <c r="L24" t="inlineStr"/>
-      <c r="M24" t="n">
+      <c r="M24" t="inlineStr"/>
+      <c r="N24" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1253,18 +1327,21 @@
         <v>1590</v>
       </c>
       <c r="G25" t="n">
+        <v>454.4199999999999</v>
+      </c>
+      <c r="H25" t="n">
         <v>463.51</v>
       </c>
-      <c r="H25" t="n">
-        <v>0</v>
-      </c>
       <c r="I25" t="n">
         <v>0</v>
       </c>
-      <c r="J25" t="inlineStr"/>
+      <c r="J25" t="n">
+        <v>0</v>
+      </c>
       <c r="K25" t="inlineStr"/>
       <c r="L25" t="inlineStr"/>
-      <c r="M25" t="n">
+      <c r="M25" t="inlineStr"/>
+      <c r="N25" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1288,18 +1365,21 @@
         <v>81.6078</v>
       </c>
       <c r="G26" t="n">
+        <v>454.3466666666666</v>
+      </c>
+      <c r="H26" t="n">
         <v>463.3233333333334</v>
       </c>
-      <c r="H26" t="n">
-        <v>0</v>
-      </c>
       <c r="I26" t="n">
         <v>0</v>
       </c>
-      <c r="J26" t="inlineStr"/>
+      <c r="J26" t="n">
+        <v>0</v>
+      </c>
       <c r="K26" t="inlineStr"/>
       <c r="L26" t="inlineStr"/>
-      <c r="M26" t="n">
+      <c r="M26" t="inlineStr"/>
+      <c r="N26" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1323,18 +1403,21 @@
         <v>1262.9037</v>
       </c>
       <c r="G27" t="n">
+        <v>454.0666666666666</v>
+      </c>
+      <c r="H27" t="n">
         <v>463.0783333333333</v>
       </c>
-      <c r="H27" t="n">
-        <v>0</v>
-      </c>
       <c r="I27" t="n">
         <v>0</v>
       </c>
-      <c r="J27" t="inlineStr"/>
+      <c r="J27" t="n">
+        <v>0</v>
+      </c>
       <c r="K27" t="inlineStr"/>
       <c r="L27" t="inlineStr"/>
-      <c r="M27" t="n">
+      <c r="M27" t="inlineStr"/>
+      <c r="N27" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1358,18 +1441,21 @@
         <v>2500</v>
       </c>
       <c r="G28" t="n">
+        <v>453.8999999999999</v>
+      </c>
+      <c r="H28" t="n">
         <v>462.8616666666667</v>
       </c>
-      <c r="H28" t="n">
-        <v>0</v>
-      </c>
       <c r="I28" t="n">
         <v>0</v>
       </c>
-      <c r="J28" t="inlineStr"/>
+      <c r="J28" t="n">
+        <v>0</v>
+      </c>
       <c r="K28" t="inlineStr"/>
       <c r="L28" t="inlineStr"/>
-      <c r="M28" t="n">
+      <c r="M28" t="inlineStr"/>
+      <c r="N28" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1393,18 +1479,21 @@
         <v>76.01000000000001</v>
       </c>
       <c r="G29" t="n">
+        <v>453.3666666666666</v>
+      </c>
+      <c r="H29" t="n">
         <v>462.5533333333333</v>
       </c>
-      <c r="H29" t="n">
-        <v>0</v>
-      </c>
       <c r="I29" t="n">
         <v>0</v>
       </c>
-      <c r="J29" t="inlineStr"/>
+      <c r="J29" t="n">
+        <v>0</v>
+      </c>
       <c r="K29" t="inlineStr"/>
       <c r="L29" t="inlineStr"/>
-      <c r="M29" t="n">
+      <c r="M29" t="inlineStr"/>
+      <c r="N29" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1428,18 +1517,21 @@
         <v>89.1649</v>
       </c>
       <c r="G30" t="n">
+        <v>453.0333333333332</v>
+      </c>
+      <c r="H30" t="n">
         <v>462.245</v>
       </c>
-      <c r="H30" t="n">
-        <v>0</v>
-      </c>
       <c r="I30" t="n">
         <v>0</v>
       </c>
-      <c r="J30" t="inlineStr"/>
+      <c r="J30" t="n">
+        <v>0</v>
+      </c>
       <c r="K30" t="inlineStr"/>
       <c r="L30" t="inlineStr"/>
-      <c r="M30" t="n">
+      <c r="M30" t="inlineStr"/>
+      <c r="N30" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1463,18 +1555,21 @@
         <v>8.019399999999999</v>
       </c>
       <c r="G31" t="n">
+        <v>453.1</v>
+      </c>
+      <c r="H31" t="n">
         <v>461.94</v>
       </c>
-      <c r="H31" t="n">
-        <v>0</v>
-      </c>
       <c r="I31" t="n">
         <v>0</v>
       </c>
-      <c r="J31" t="inlineStr"/>
+      <c r="J31" t="n">
+        <v>0</v>
+      </c>
       <c r="K31" t="inlineStr"/>
       <c r="L31" t="inlineStr"/>
-      <c r="M31" t="n">
+      <c r="M31" t="inlineStr"/>
+      <c r="N31" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1498,18 +1593,21 @@
         <v>723.3516</v>
       </c>
       <c r="G32" t="n">
+        <v>453.1666666666666</v>
+      </c>
+      <c r="H32" t="n">
         <v>461.64</v>
       </c>
-      <c r="H32" t="n">
-        <v>0</v>
-      </c>
       <c r="I32" t="n">
         <v>0</v>
       </c>
-      <c r="J32" t="inlineStr"/>
+      <c r="J32" t="n">
+        <v>0</v>
+      </c>
       <c r="K32" t="inlineStr"/>
       <c r="L32" t="inlineStr"/>
-      <c r="M32" t="n">
+      <c r="M32" t="inlineStr"/>
+      <c r="N32" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1533,18 +1631,21 @@
         <v>1321.31</v>
       </c>
       <c r="G33" t="n">
+        <v>453.24</v>
+      </c>
+      <c r="H33" t="n">
         <v>461.3416666666666</v>
       </c>
-      <c r="H33" t="n">
-        <v>0</v>
-      </c>
       <c r="I33" t="n">
         <v>0</v>
       </c>
-      <c r="J33" t="inlineStr"/>
+      <c r="J33" t="n">
+        <v>0</v>
+      </c>
       <c r="K33" t="inlineStr"/>
       <c r="L33" t="inlineStr"/>
-      <c r="M33" t="n">
+      <c r="M33" t="inlineStr"/>
+      <c r="N33" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1568,18 +1669,21 @@
         <v>2800</v>
       </c>
       <c r="G34" t="n">
+        <v>453.2933333333333</v>
+      </c>
+      <c r="H34" t="n">
         <v>461.035</v>
       </c>
-      <c r="H34" t="n">
-        <v>0</v>
-      </c>
       <c r="I34" t="n">
         <v>0</v>
       </c>
-      <c r="J34" t="inlineStr"/>
+      <c r="J34" t="n">
+        <v>0</v>
+      </c>
       <c r="K34" t="inlineStr"/>
       <c r="L34" t="inlineStr"/>
-      <c r="M34" t="n">
+      <c r="M34" t="inlineStr"/>
+      <c r="N34" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1603,18 +1707,21 @@
         <v>720.1798</v>
       </c>
       <c r="G35" t="n">
+        <v>453.6199999999999</v>
+      </c>
+      <c r="H35" t="n">
         <v>460.8050000000001</v>
       </c>
-      <c r="H35" t="n">
-        <v>0</v>
-      </c>
       <c r="I35" t="n">
         <v>0</v>
       </c>
-      <c r="J35" t="inlineStr"/>
+      <c r="J35" t="n">
+        <v>0</v>
+      </c>
       <c r="K35" t="inlineStr"/>
       <c r="L35" t="inlineStr"/>
-      <c r="M35" t="n">
+      <c r="M35" t="inlineStr"/>
+      <c r="N35" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1638,18 +1745,21 @@
         <v>7713.7844</v>
       </c>
       <c r="G36" t="n">
+        <v>453.6333333333333</v>
+      </c>
+      <c r="H36" t="n">
         <v>460.4950000000001</v>
       </c>
-      <c r="H36" t="n">
-        <v>0</v>
-      </c>
       <c r="I36" t="n">
         <v>0</v>
       </c>
-      <c r="J36" t="inlineStr"/>
+      <c r="J36" t="n">
+        <v>0</v>
+      </c>
       <c r="K36" t="inlineStr"/>
       <c r="L36" t="inlineStr"/>
-      <c r="M36" t="n">
+      <c r="M36" t="inlineStr"/>
+      <c r="N36" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1673,18 +1783,21 @@
         <v>1.1</v>
       </c>
       <c r="G37" t="n">
+        <v>453.9533333333333</v>
+      </c>
+      <c r="H37" t="n">
         <v>460.21</v>
       </c>
-      <c r="H37" t="n">
-        <v>0</v>
-      </c>
       <c r="I37" t="n">
         <v>0</v>
       </c>
-      <c r="J37" t="inlineStr"/>
+      <c r="J37" t="n">
+        <v>0</v>
+      </c>
       <c r="K37" t="inlineStr"/>
       <c r="L37" t="inlineStr"/>
-      <c r="M37" t="n">
+      <c r="M37" t="inlineStr"/>
+      <c r="N37" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1708,18 +1821,21 @@
         <v>1400</v>
       </c>
       <c r="G38" t="n">
+        <v>453.8933333333333</v>
+      </c>
+      <c r="H38" t="n">
         <v>459.895</v>
       </c>
-      <c r="H38" t="n">
-        <v>0</v>
-      </c>
       <c r="I38" t="n">
         <v>0</v>
       </c>
-      <c r="J38" t="inlineStr"/>
+      <c r="J38" t="n">
+        <v>0</v>
+      </c>
       <c r="K38" t="inlineStr"/>
       <c r="L38" t="inlineStr"/>
-      <c r="M38" t="n">
+      <c r="M38" t="inlineStr"/>
+      <c r="N38" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1743,18 +1859,21 @@
         <v>1.1</v>
       </c>
       <c r="G39" t="n">
+        <v>454.2133333333333</v>
+      </c>
+      <c r="H39" t="n">
         <v>459.675</v>
       </c>
-      <c r="H39" t="n">
-        <v>0</v>
-      </c>
       <c r="I39" t="n">
         <v>0</v>
       </c>
-      <c r="J39" t="inlineStr"/>
+      <c r="J39" t="n">
+        <v>0</v>
+      </c>
       <c r="K39" t="inlineStr"/>
       <c r="L39" t="inlineStr"/>
-      <c r="M39" t="n">
+      <c r="M39" t="inlineStr"/>
+      <c r="N39" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1778,18 +1897,21 @@
         <v>1170.1267</v>
       </c>
       <c r="G40" t="n">
+        <v>454.8733333333333</v>
+      </c>
+      <c r="H40" t="n">
         <v>459.49</v>
       </c>
-      <c r="H40" t="n">
-        <v>0</v>
-      </c>
       <c r="I40" t="n">
         <v>0</v>
       </c>
-      <c r="J40" t="inlineStr"/>
+      <c r="J40" t="n">
+        <v>0</v>
+      </c>
       <c r="K40" t="inlineStr"/>
       <c r="L40" t="inlineStr"/>
-      <c r="M40" t="n">
+      <c r="M40" t="inlineStr"/>
+      <c r="N40" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1813,18 +1935,21 @@
         <v>415</v>
       </c>
       <c r="G41" t="n">
+        <v>454.6733333333333</v>
+      </c>
+      <c r="H41" t="n">
         <v>459.3233333333334</v>
       </c>
-      <c r="H41" t="n">
-        <v>0</v>
-      </c>
       <c r="I41" t="n">
         <v>0</v>
       </c>
-      <c r="J41" t="inlineStr"/>
+      <c r="J41" t="n">
+        <v>0</v>
+      </c>
       <c r="K41" t="inlineStr"/>
       <c r="L41" t="inlineStr"/>
-      <c r="M41" t="n">
+      <c r="M41" t="inlineStr"/>
+      <c r="N41" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1848,18 +1973,21 @@
         <v>1400</v>
       </c>
       <c r="G42" t="n">
+        <v>454.8066666666666</v>
+      </c>
+      <c r="H42" t="n">
         <v>459.155</v>
       </c>
-      <c r="H42" t="n">
-        <v>0</v>
-      </c>
       <c r="I42" t="n">
         <v>0</v>
       </c>
-      <c r="J42" t="inlineStr"/>
+      <c r="J42" t="n">
+        <v>0</v>
+      </c>
       <c r="K42" t="inlineStr"/>
       <c r="L42" t="inlineStr"/>
-      <c r="M42" t="n">
+      <c r="M42" t="inlineStr"/>
+      <c r="N42" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1883,18 +2011,21 @@
         <v>1650.1247</v>
       </c>
       <c r="G43" t="n">
+        <v>454.8266666666667</v>
+      </c>
+      <c r="H43" t="n">
         <v>458.9533333333333</v>
       </c>
-      <c r="H43" t="n">
-        <v>0</v>
-      </c>
       <c r="I43" t="n">
         <v>0</v>
       </c>
-      <c r="J43" t="inlineStr"/>
+      <c r="J43" t="n">
+        <v>0</v>
+      </c>
       <c r="K43" t="inlineStr"/>
       <c r="L43" t="inlineStr"/>
-      <c r="M43" t="n">
+      <c r="M43" t="inlineStr"/>
+      <c r="N43" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1918,18 +2049,21 @@
         <v>500</v>
       </c>
       <c r="G44" t="n">
+        <v>455.2133333333333</v>
+      </c>
+      <c r="H44" t="n">
         <v>458.7383333333333</v>
       </c>
-      <c r="H44" t="n">
-        <v>0</v>
-      </c>
       <c r="I44" t="n">
         <v>0</v>
       </c>
-      <c r="J44" t="inlineStr"/>
+      <c r="J44" t="n">
+        <v>0</v>
+      </c>
       <c r="K44" t="inlineStr"/>
       <c r="L44" t="inlineStr"/>
-      <c r="M44" t="n">
+      <c r="M44" t="inlineStr"/>
+      <c r="N44" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1953,18 +2087,21 @@
         <v>100</v>
       </c>
       <c r="G45" t="n">
+        <v>455.6</v>
+      </c>
+      <c r="H45" t="n">
         <v>458.5266666666666</v>
       </c>
-      <c r="H45" t="n">
-        <v>0</v>
-      </c>
       <c r="I45" t="n">
         <v>0</v>
       </c>
-      <c r="J45" t="inlineStr"/>
+      <c r="J45" t="n">
+        <v>0</v>
+      </c>
       <c r="K45" t="inlineStr"/>
       <c r="L45" t="inlineStr"/>
-      <c r="M45" t="n">
+      <c r="M45" t="inlineStr"/>
+      <c r="N45" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1988,18 +2125,21 @@
         <v>1447.782</v>
       </c>
       <c r="G46" t="n">
+        <v>455.9866666666667</v>
+      </c>
+      <c r="H46" t="n">
         <v>458.4283333333332</v>
       </c>
-      <c r="H46" t="n">
-        <v>0</v>
-      </c>
       <c r="I46" t="n">
         <v>0</v>
       </c>
-      <c r="J46" t="inlineStr"/>
+      <c r="J46" t="n">
+        <v>0</v>
+      </c>
       <c r="K46" t="inlineStr"/>
       <c r="L46" t="inlineStr"/>
-      <c r="M46" t="n">
+      <c r="M46" t="inlineStr"/>
+      <c r="N46" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2023,18 +2163,21 @@
         <v>436.0394</v>
       </c>
       <c r="G47" t="n">
+        <v>456.3733333333333</v>
+      </c>
+      <c r="H47" t="n">
         <v>458.3299999999999</v>
       </c>
-      <c r="H47" t="n">
-        <v>0</v>
-      </c>
       <c r="I47" t="n">
         <v>0</v>
       </c>
-      <c r="J47" t="inlineStr"/>
+      <c r="J47" t="n">
+        <v>0</v>
+      </c>
       <c r="K47" t="inlineStr"/>
       <c r="L47" t="inlineStr"/>
-      <c r="M47" t="n">
+      <c r="M47" t="inlineStr"/>
+      <c r="N47" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2058,18 +2201,21 @@
         <v>2495.7737</v>
       </c>
       <c r="G48" t="n">
+        <v>456.7533333333333</v>
+      </c>
+      <c r="H48" t="n">
         <v>458.2316666666665</v>
       </c>
-      <c r="H48" t="n">
-        <v>0</v>
-      </c>
       <c r="I48" t="n">
         <v>0</v>
       </c>
-      <c r="J48" t="inlineStr"/>
+      <c r="J48" t="n">
+        <v>0</v>
+      </c>
       <c r="K48" t="inlineStr"/>
       <c r="L48" t="inlineStr"/>
-      <c r="M48" t="n">
+      <c r="M48" t="inlineStr"/>
+      <c r="N48" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2093,18 +2239,21 @@
         <v>2748.5675</v>
       </c>
       <c r="G49" t="n">
+        <v>457.24</v>
+      </c>
+      <c r="H49" t="n">
         <v>458.1716666666665</v>
       </c>
-      <c r="H49" t="n">
-        <v>0</v>
-      </c>
       <c r="I49" t="n">
         <v>0</v>
       </c>
-      <c r="J49" t="inlineStr"/>
+      <c r="J49" t="n">
+        <v>0</v>
+      </c>
       <c r="K49" t="inlineStr"/>
       <c r="L49" t="inlineStr"/>
-      <c r="M49" t="n">
+      <c r="M49" t="inlineStr"/>
+      <c r="N49" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2128,18 +2277,21 @@
         <v>1400</v>
       </c>
       <c r="G50" t="n">
+        <v>457.6266666666667</v>
+      </c>
+      <c r="H50" t="n">
         <v>458.1649999999999</v>
       </c>
-      <c r="H50" t="n">
-        <v>0</v>
-      </c>
       <c r="I50" t="n">
         <v>0</v>
       </c>
-      <c r="J50" t="inlineStr"/>
+      <c r="J50" t="n">
+        <v>0</v>
+      </c>
       <c r="K50" t="inlineStr"/>
       <c r="L50" t="inlineStr"/>
-      <c r="M50" t="n">
+      <c r="M50" t="inlineStr"/>
+      <c r="N50" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2163,18 +2315,21 @@
         <v>832.0592</v>
       </c>
       <c r="G51" t="n">
+        <v>458.16</v>
+      </c>
+      <c r="H51" t="n">
         <v>458.1166666666666</v>
       </c>
-      <c r="H51" t="n">
-        <v>0</v>
-      </c>
       <c r="I51" t="n">
         <v>0</v>
       </c>
-      <c r="J51" t="inlineStr"/>
+      <c r="J51" t="n">
+        <v>0</v>
+      </c>
       <c r="K51" t="inlineStr"/>
       <c r="L51" t="inlineStr"/>
-      <c r="M51" t="n">
+      <c r="M51" t="inlineStr"/>
+      <c r="N51" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2198,18 +2353,21 @@
         <v>2827.7746</v>
       </c>
       <c r="G52" t="n">
+        <v>458.4800000000001</v>
+      </c>
+      <c r="H52" t="n">
         <v>458.0616666666666</v>
       </c>
-      <c r="H52" t="n">
-        <v>0</v>
-      </c>
       <c r="I52" t="n">
         <v>0</v>
       </c>
-      <c r="J52" t="inlineStr"/>
+      <c r="J52" t="n">
+        <v>0</v>
+      </c>
       <c r="K52" t="inlineStr"/>
       <c r="L52" t="inlineStr"/>
-      <c r="M52" t="n">
+      <c r="M52" t="inlineStr"/>
+      <c r="N52" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2233,18 +2391,21 @@
         <v>110</v>
       </c>
       <c r="G53" t="n">
+        <v>459.0866666666667</v>
+      </c>
+      <c r="H53" t="n">
         <v>457.9849999999999</v>
       </c>
-      <c r="H53" t="n">
-        <v>0</v>
-      </c>
       <c r="I53" t="n">
         <v>0</v>
       </c>
-      <c r="J53" t="inlineStr"/>
+      <c r="J53" t="n">
+        <v>0</v>
+      </c>
       <c r="K53" t="inlineStr"/>
       <c r="L53" t="inlineStr"/>
-      <c r="M53" t="n">
+      <c r="M53" t="inlineStr"/>
+      <c r="N53" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2268,18 +2429,21 @@
         <v>28.4176</v>
       </c>
       <c r="G54" t="n">
+        <v>459.3</v>
+      </c>
+      <c r="H54" t="n">
         <v>457.9499999999999</v>
       </c>
-      <c r="H54" t="n">
-        <v>0</v>
-      </c>
       <c r="I54" t="n">
         <v>0</v>
       </c>
-      <c r="J54" t="inlineStr"/>
+      <c r="J54" t="n">
+        <v>0</v>
+      </c>
       <c r="K54" t="inlineStr"/>
       <c r="L54" t="inlineStr"/>
-      <c r="M54" t="n">
+      <c r="M54" t="inlineStr"/>
+      <c r="N54" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2303,18 +2467,21 @@
         <v>1335.2401</v>
       </c>
       <c r="G55" t="n">
+        <v>459.3066666666667</v>
+      </c>
+      <c r="H55" t="n">
         <v>457.8516666666666</v>
       </c>
-      <c r="H55" t="n">
-        <v>0</v>
-      </c>
       <c r="I55" t="n">
         <v>0</v>
       </c>
-      <c r="J55" t="inlineStr"/>
+      <c r="J55" t="n">
+        <v>0</v>
+      </c>
       <c r="K55" t="inlineStr"/>
       <c r="L55" t="inlineStr"/>
-      <c r="M55" t="n">
+      <c r="M55" t="inlineStr"/>
+      <c r="N55" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2338,18 +2505,21 @@
         <v>1400</v>
       </c>
       <c r="G56" t="n">
+        <v>459.4533333333333</v>
+      </c>
+      <c r="H56" t="n">
         <v>457.7366666666666</v>
       </c>
-      <c r="H56" t="n">
-        <v>0</v>
-      </c>
       <c r="I56" t="n">
         <v>0</v>
       </c>
-      <c r="J56" t="inlineStr"/>
+      <c r="J56" t="n">
+        <v>0</v>
+      </c>
       <c r="K56" t="inlineStr"/>
       <c r="L56" t="inlineStr"/>
-      <c r="M56" t="n">
+      <c r="M56" t="inlineStr"/>
+      <c r="N56" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2373,18 +2543,21 @@
         <v>790.3939</v>
       </c>
       <c r="G57" t="n">
+        <v>459.6</v>
+      </c>
+      <c r="H57" t="n">
         <v>457.6816666666666</v>
       </c>
-      <c r="H57" t="n">
-        <v>0</v>
-      </c>
       <c r="I57" t="n">
         <v>0</v>
       </c>
-      <c r="J57" t="inlineStr"/>
+      <c r="J57" t="n">
+        <v>0</v>
+      </c>
       <c r="K57" t="inlineStr"/>
       <c r="L57" t="inlineStr"/>
-      <c r="M57" t="n">
+      <c r="M57" t="inlineStr"/>
+      <c r="N57" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2408,18 +2581,21 @@
         <v>2484.5913</v>
       </c>
       <c r="G58" t="n">
+        <v>459.6866666666667</v>
+      </c>
+      <c r="H58" t="n">
         <v>457.6149999999999</v>
       </c>
-      <c r="H58" t="n">
-        <v>0</v>
-      </c>
       <c r="I58" t="n">
         <v>0</v>
       </c>
-      <c r="J58" t="inlineStr"/>
+      <c r="J58" t="n">
+        <v>0</v>
+      </c>
       <c r="K58" t="inlineStr"/>
       <c r="L58" t="inlineStr"/>
-      <c r="M58" t="n">
+      <c r="M58" t="inlineStr"/>
+      <c r="N58" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2443,18 +2619,21 @@
         <v>267.8303</v>
       </c>
       <c r="G59" t="n">
+        <v>459.7733333333334</v>
+      </c>
+      <c r="H59" t="n">
         <v>457.5483333333332</v>
       </c>
-      <c r="H59" t="n">
-        <v>0</v>
-      </c>
       <c r="I59" t="n">
         <v>0</v>
       </c>
-      <c r="J59" t="inlineStr"/>
+      <c r="J59" t="n">
+        <v>0</v>
+      </c>
       <c r="K59" t="inlineStr"/>
       <c r="L59" t="inlineStr"/>
-      <c r="M59" t="n">
+      <c r="M59" t="inlineStr"/>
+      <c r="N59" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2478,18 +2657,21 @@
         <v>25</v>
       </c>
       <c r="G60" t="n">
+        <v>459.86</v>
+      </c>
+      <c r="H60" t="n">
         <v>457.4816666666666</v>
       </c>
-      <c r="H60" t="n">
-        <v>0</v>
-      </c>
       <c r="I60" t="n">
         <v>0</v>
       </c>
-      <c r="J60" t="inlineStr"/>
+      <c r="J60" t="n">
+        <v>0</v>
+      </c>
       <c r="K60" t="inlineStr"/>
       <c r="L60" t="inlineStr"/>
-      <c r="M60" t="n">
+      <c r="M60" t="inlineStr"/>
+      <c r="N60" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2513,18 +2695,21 @@
         <v>1395</v>
       </c>
       <c r="G61" t="n">
+        <v>459.84</v>
+      </c>
+      <c r="H61" t="n">
         <v>457.3883333333333</v>
       </c>
-      <c r="H61" t="n">
-        <v>0</v>
-      </c>
       <c r="I61" t="n">
         <v>0</v>
       </c>
-      <c r="J61" t="inlineStr"/>
+      <c r="J61" t="n">
+        <v>0</v>
+      </c>
       <c r="K61" t="inlineStr"/>
       <c r="L61" t="inlineStr"/>
-      <c r="M61" t="n">
+      <c r="M61" t="inlineStr"/>
+      <c r="N61" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2548,18 +2733,21 @@
         <v>240</v>
       </c>
       <c r="G62" t="n">
+        <v>459.82</v>
+      </c>
+      <c r="H62" t="n">
         <v>457.295</v>
       </c>
-      <c r="H62" t="n">
-        <v>0</v>
-      </c>
       <c r="I62" t="n">
         <v>0</v>
       </c>
-      <c r="J62" t="inlineStr"/>
+      <c r="J62" t="n">
+        <v>0</v>
+      </c>
       <c r="K62" t="inlineStr"/>
       <c r="L62" t="inlineStr"/>
-      <c r="M62" t="n">
+      <c r="M62" t="inlineStr"/>
+      <c r="N62" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2583,18 +2771,21 @@
         <v>6625.4231</v>
       </c>
       <c r="G63" t="n">
+        <v>459.5266666666666</v>
+      </c>
+      <c r="H63" t="n">
         <v>457.1333333333333</v>
       </c>
-      <c r="H63" t="n">
-        <v>0</v>
-      </c>
       <c r="I63" t="n">
         <v>0</v>
       </c>
-      <c r="J63" t="inlineStr"/>
+      <c r="J63" t="n">
+        <v>0</v>
+      </c>
       <c r="K63" t="inlineStr"/>
       <c r="L63" t="inlineStr"/>
-      <c r="M63" t="n">
+      <c r="M63" t="inlineStr"/>
+      <c r="N63" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2618,18 +2809,21 @@
         <v>1998.9506</v>
       </c>
       <c r="G64" t="n">
+        <v>459.0733333333333</v>
+      </c>
+      <c r="H64" t="n">
         <v>456.96</v>
       </c>
-      <c r="H64" t="n">
-        <v>0</v>
-      </c>
       <c r="I64" t="n">
         <v>0</v>
       </c>
-      <c r="J64" t="inlineStr"/>
+      <c r="J64" t="n">
+        <v>0</v>
+      </c>
       <c r="K64" t="inlineStr"/>
       <c r="L64" t="inlineStr"/>
-      <c r="M64" t="n">
+      <c r="M64" t="inlineStr"/>
+      <c r="N64" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2653,18 +2847,21 @@
         <v>7000</v>
       </c>
       <c r="G65" t="n">
+        <v>458.36</v>
+      </c>
+      <c r="H65" t="n">
         <v>456.7766666666667</v>
       </c>
-      <c r="H65" t="n">
-        <v>0</v>
-      </c>
       <c r="I65" t="n">
         <v>0</v>
       </c>
-      <c r="J65" t="inlineStr"/>
+      <c r="J65" t="n">
+        <v>0</v>
+      </c>
       <c r="K65" t="inlineStr"/>
       <c r="L65" t="inlineStr"/>
-      <c r="M65" t="n">
+      <c r="M65" t="inlineStr"/>
+      <c r="N65" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2688,18 +2885,21 @@
         <v>1998.9507</v>
       </c>
       <c r="G66" t="n">
+        <v>457.7133333333333</v>
+      </c>
+      <c r="H66" t="n">
         <v>456.5833333333334</v>
       </c>
-      <c r="H66" t="n">
-        <v>0</v>
-      </c>
       <c r="I66" t="n">
         <v>0</v>
       </c>
-      <c r="J66" t="inlineStr"/>
+      <c r="J66" t="n">
+        <v>0</v>
+      </c>
       <c r="K66" t="inlineStr"/>
       <c r="L66" t="inlineStr"/>
-      <c r="M66" t="n">
+      <c r="M66" t="inlineStr"/>
+      <c r="N66" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2723,18 +2923,21 @@
         <v>8183.2338</v>
       </c>
       <c r="G67" t="n">
+        <v>456.9066666666666</v>
+      </c>
+      <c r="H67" t="n">
         <v>456.3900000000001</v>
       </c>
-      <c r="H67" t="n">
-        <v>0</v>
-      </c>
       <c r="I67" t="n">
         <v>0</v>
       </c>
-      <c r="J67" t="inlineStr"/>
+      <c r="J67" t="n">
+        <v>0</v>
+      </c>
       <c r="K67" t="inlineStr"/>
       <c r="L67" t="inlineStr"/>
-      <c r="M67" t="n">
+      <c r="M67" t="inlineStr"/>
+      <c r="N67" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2758,18 +2961,21 @@
         <v>4200</v>
       </c>
       <c r="G68" t="n">
+        <v>456.1933333333333</v>
+      </c>
+      <c r="H68" t="n">
         <v>456.2300000000001</v>
       </c>
-      <c r="H68" t="n">
-        <v>0</v>
-      </c>
       <c r="I68" t="n">
         <v>0</v>
       </c>
-      <c r="J68" t="inlineStr"/>
+      <c r="J68" t="n">
+        <v>0</v>
+      </c>
       <c r="K68" t="inlineStr"/>
       <c r="L68" t="inlineStr"/>
-      <c r="M68" t="n">
+      <c r="M68" t="inlineStr"/>
+      <c r="N68" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2793,18 +2999,21 @@
         <v>250</v>
       </c>
       <c r="G69" t="n">
+        <v>455.4933333333333</v>
+      </c>
+      <c r="H69" t="n">
         <v>456.0716666666668</v>
       </c>
-      <c r="H69" t="n">
-        <v>0</v>
-      </c>
       <c r="I69" t="n">
         <v>0</v>
       </c>
-      <c r="J69" t="inlineStr"/>
+      <c r="J69" t="n">
+        <v>0</v>
+      </c>
       <c r="K69" t="inlineStr"/>
       <c r="L69" t="inlineStr"/>
-      <c r="M69" t="n">
+      <c r="M69" t="inlineStr"/>
+      <c r="N69" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2828,18 +3037,21 @@
         <v>1625.5359</v>
       </c>
       <c r="G70" t="n">
+        <v>454.86</v>
+      </c>
+      <c r="H70" t="n">
         <v>455.8650000000001</v>
       </c>
-      <c r="H70" t="n">
-        <v>0</v>
-      </c>
       <c r="I70" t="n">
         <v>0</v>
       </c>
-      <c r="J70" t="inlineStr"/>
+      <c r="J70" t="n">
+        <v>0</v>
+      </c>
       <c r="K70" t="inlineStr"/>
       <c r="L70" t="inlineStr"/>
-      <c r="M70" t="n">
+      <c r="M70" t="inlineStr"/>
+      <c r="N70" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2863,18 +3075,21 @@
         <v>590</v>
       </c>
       <c r="G71" t="n">
+        <v>454.2266666666666</v>
+      </c>
+      <c r="H71" t="n">
         <v>455.6750000000001</v>
       </c>
-      <c r="H71" t="n">
-        <v>0</v>
-      </c>
       <c r="I71" t="n">
         <v>0</v>
       </c>
-      <c r="J71" t="inlineStr"/>
+      <c r="J71" t="n">
+        <v>0</v>
+      </c>
       <c r="K71" t="inlineStr"/>
       <c r="L71" t="inlineStr"/>
-      <c r="M71" t="n">
+      <c r="M71" t="inlineStr"/>
+      <c r="N71" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2898,18 +3113,21 @@
         <v>405.0162</v>
       </c>
       <c r="G72" t="n">
+        <v>453.5933333333333</v>
+      </c>
+      <c r="H72" t="n">
         <v>455.5166666666667</v>
       </c>
-      <c r="H72" t="n">
-        <v>0</v>
-      </c>
       <c r="I72" t="n">
         <v>0</v>
       </c>
-      <c r="J72" t="inlineStr"/>
+      <c r="J72" t="n">
+        <v>0</v>
+      </c>
       <c r="K72" t="inlineStr"/>
       <c r="L72" t="inlineStr"/>
-      <c r="M72" t="n">
+      <c r="M72" t="inlineStr"/>
+      <c r="N72" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2933,18 +3151,21 @@
         <v>56.4699</v>
       </c>
       <c r="G73" t="n">
+        <v>453.0199999999999</v>
+      </c>
+      <c r="H73" t="n">
         <v>455.3583333333334</v>
       </c>
-      <c r="H73" t="n">
-        <v>0</v>
-      </c>
       <c r="I73" t="n">
         <v>0</v>
       </c>
-      <c r="J73" t="inlineStr"/>
+      <c r="J73" t="n">
+        <v>0</v>
+      </c>
       <c r="K73" t="inlineStr"/>
       <c r="L73" t="inlineStr"/>
-      <c r="M73" t="n">
+      <c r="M73" t="inlineStr"/>
+      <c r="N73" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2968,18 +3189,21 @@
         <v>850</v>
       </c>
       <c r="G74" t="n">
+        <v>452.4533333333333</v>
+      </c>
+      <c r="H74" t="n">
         <v>455.2016666666667</v>
       </c>
-      <c r="H74" t="n">
-        <v>0</v>
-      </c>
       <c r="I74" t="n">
         <v>0</v>
       </c>
-      <c r="J74" t="inlineStr"/>
+      <c r="J74" t="n">
+        <v>0</v>
+      </c>
       <c r="K74" t="inlineStr"/>
       <c r="L74" t="inlineStr"/>
-      <c r="M74" t="n">
+      <c r="M74" t="inlineStr"/>
+      <c r="N74" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3003,18 +3227,21 @@
         <v>1220.9633</v>
       </c>
       <c r="G75" t="n">
+        <v>451.92</v>
+      </c>
+      <c r="H75" t="n">
         <v>455.1033333333334</v>
       </c>
-      <c r="H75" t="n">
-        <v>0</v>
-      </c>
       <c r="I75" t="n">
         <v>0</v>
       </c>
-      <c r="J75" t="inlineStr"/>
+      <c r="J75" t="n">
+        <v>0</v>
+      </c>
       <c r="K75" t="inlineStr"/>
       <c r="L75" t="inlineStr"/>
-      <c r="M75" t="n">
+      <c r="M75" t="inlineStr"/>
+      <c r="N75" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3038,18 +3265,21 @@
         <v>27</v>
       </c>
       <c r="G76" t="n">
+        <v>451.5533333333333</v>
+      </c>
+      <c r="H76" t="n">
         <v>455.12</v>
       </c>
-      <c r="H76" t="n">
-        <v>0</v>
-      </c>
       <c r="I76" t="n">
         <v>0</v>
       </c>
-      <c r="J76" t="inlineStr"/>
+      <c r="J76" t="n">
+        <v>0</v>
+      </c>
       <c r="K76" t="inlineStr"/>
       <c r="L76" t="inlineStr"/>
-      <c r="M76" t="n">
+      <c r="M76" t="inlineStr"/>
+      <c r="N76" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3073,18 +3303,21 @@
         <v>5.6246</v>
       </c>
       <c r="G77" t="n">
+        <v>451.1866666666666</v>
+      </c>
+      <c r="H77" t="n">
         <v>455.1366666666667</v>
       </c>
-      <c r="H77" t="n">
-        <v>0</v>
-      </c>
       <c r="I77" t="n">
         <v>0</v>
       </c>
-      <c r="J77" t="inlineStr"/>
+      <c r="J77" t="n">
+        <v>0</v>
+      </c>
       <c r="K77" t="inlineStr"/>
       <c r="L77" t="inlineStr"/>
-      <c r="M77" t="n">
+      <c r="M77" t="inlineStr"/>
+      <c r="N77" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3108,18 +3341,21 @@
         <v>921</v>
       </c>
       <c r="G78" t="n">
+        <v>451</v>
+      </c>
+      <c r="H78" t="n">
         <v>455.13</v>
       </c>
-      <c r="H78" t="n">
-        <v>0</v>
-      </c>
       <c r="I78" t="n">
         <v>0</v>
       </c>
-      <c r="J78" t="inlineStr"/>
+      <c r="J78" t="n">
+        <v>0</v>
+      </c>
       <c r="K78" t="inlineStr"/>
       <c r="L78" t="inlineStr"/>
-      <c r="M78" t="n">
+      <c r="M78" t="inlineStr"/>
+      <c r="N78" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3143,18 +3379,21 @@
         <v>7650.0583</v>
       </c>
       <c r="G79" t="n">
+        <v>450.8533333333334</v>
+      </c>
+      <c r="H79" t="n">
         <v>455.115</v>
       </c>
-      <c r="H79" t="n">
-        <v>0</v>
-      </c>
       <c r="I79" t="n">
         <v>0</v>
       </c>
-      <c r="J79" t="inlineStr"/>
+      <c r="J79" t="n">
+        <v>0</v>
+      </c>
       <c r="K79" t="inlineStr"/>
       <c r="L79" t="inlineStr"/>
-      <c r="M79" t="n">
+      <c r="M79" t="inlineStr"/>
+      <c r="N79" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3178,18 +3417,21 @@
         <v>513.7296</v>
       </c>
       <c r="G80" t="n">
+        <v>450.7533333333333</v>
+      </c>
+      <c r="H80" t="n">
         <v>455.09</v>
       </c>
-      <c r="H80" t="n">
-        <v>0</v>
-      </c>
       <c r="I80" t="n">
         <v>0</v>
       </c>
-      <c r="J80" t="inlineStr"/>
+      <c r="J80" t="n">
+        <v>0</v>
+      </c>
       <c r="K80" t="inlineStr"/>
       <c r="L80" t="inlineStr"/>
-      <c r="M80" t="n">
+      <c r="M80" t="inlineStr"/>
+      <c r="N80" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3213,18 +3455,21 @@
         <v>2124.041</v>
       </c>
       <c r="G81" t="n">
+        <v>450.52</v>
+      </c>
+      <c r="H81" t="n">
         <v>455.0066666666666</v>
       </c>
-      <c r="H81" t="n">
-        <v>0</v>
-      </c>
       <c r="I81" t="n">
         <v>0</v>
       </c>
-      <c r="J81" t="inlineStr"/>
+      <c r="J81" t="n">
+        <v>0</v>
+      </c>
       <c r="K81" t="inlineStr"/>
       <c r="L81" t="inlineStr"/>
-      <c r="M81" t="n">
+      <c r="M81" t="inlineStr"/>
+      <c r="N81" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3248,18 +3493,21 @@
         <v>4.1545</v>
       </c>
       <c r="G82" t="n">
+        <v>450.2666666666667</v>
+      </c>
+      <c r="H82" t="n">
         <v>454.9016666666666</v>
       </c>
-      <c r="H82" t="n">
-        <v>0</v>
-      </c>
       <c r="I82" t="n">
         <v>0</v>
       </c>
-      <c r="J82" t="inlineStr"/>
+      <c r="J82" t="n">
+        <v>0</v>
+      </c>
       <c r="K82" t="inlineStr"/>
       <c r="L82" t="inlineStr"/>
-      <c r="M82" t="n">
+      <c r="M82" t="inlineStr"/>
+      <c r="N82" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3283,18 +3531,21 @@
         <v>1845.4336</v>
       </c>
       <c r="G83" t="n">
+        <v>450.0133333333333</v>
+      </c>
+      <c r="H83" t="n">
         <v>454.7966666666667</v>
       </c>
-      <c r="H83" t="n">
-        <v>0</v>
-      </c>
       <c r="I83" t="n">
         <v>0</v>
       </c>
-      <c r="J83" t="inlineStr"/>
+      <c r="J83" t="n">
+        <v>0</v>
+      </c>
       <c r="K83" t="inlineStr"/>
       <c r="L83" t="inlineStr"/>
-      <c r="M83" t="n">
+      <c r="M83" t="inlineStr"/>
+      <c r="N83" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3318,22 +3569,21 @@
         <v>4</v>
       </c>
       <c r="G84" t="n">
+        <v>449.8</v>
+      </c>
+      <c r="H84" t="n">
         <v>454.7016666666667</v>
       </c>
-      <c r="H84" t="n">
-        <v>1</v>
-      </c>
       <c r="I84" t="n">
         <v>0</v>
       </c>
       <c r="J84" t="n">
-        <v>446.7</v>
-      </c>
-      <c r="K84" t="n">
-        <v>446.7</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="K84" t="inlineStr"/>
       <c r="L84" t="inlineStr"/>
-      <c r="M84" t="n">
+      <c r="M84" t="inlineStr"/>
+      <c r="N84" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3357,930 +3607,1371 @@
         <v>1.2</v>
       </c>
       <c r="G85" t="n">
+        <v>449.8266666666667</v>
+      </c>
+      <c r="H85" t="n">
         <v>454.7166666666666</v>
       </c>
-      <c r="H85" t="n">
-        <v>1</v>
-      </c>
       <c r="I85" t="n">
         <v>0</v>
       </c>
       <c r="J85" t="n">
+        <v>0</v>
+      </c>
+      <c r="K85" t="inlineStr"/>
+      <c r="L85" t="inlineStr"/>
+      <c r="M85" t="inlineStr"/>
+      <c r="N85" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" s="1" t="n">
+        <v>84</v>
+      </c>
+      <c r="B86" t="n">
         <v>447.3</v>
       </c>
-      <c r="K85" t="n">
-        <v>446.7</v>
-      </c>
-      <c r="L85" t="inlineStr">
+      <c r="C86" t="n">
+        <v>447.3</v>
+      </c>
+      <c r="D86" t="n">
+        <v>447.3</v>
+      </c>
+      <c r="E86" t="n">
+        <v>447.3</v>
+      </c>
+      <c r="F86" t="n">
+        <v>384</v>
+      </c>
+      <c r="G86" t="n">
+        <v>449.6133333333333</v>
+      </c>
+      <c r="H86" t="n">
+        <v>454.4916666666667</v>
+      </c>
+      <c r="I86" t="n">
+        <v>0</v>
+      </c>
+      <c r="J86" t="n">
+        <v>0</v>
+      </c>
+      <c r="K86" t="inlineStr"/>
+      <c r="L86" t="inlineStr"/>
+      <c r="M86" t="inlineStr"/>
+      <c r="N86" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" s="1" t="n">
+        <v>85</v>
+      </c>
+      <c r="B87" t="n">
+        <v>450.9</v>
+      </c>
+      <c r="C87" t="n">
+        <v>450.9</v>
+      </c>
+      <c r="D87" t="n">
+        <v>450.9</v>
+      </c>
+      <c r="E87" t="n">
+        <v>450.9</v>
+      </c>
+      <c r="F87" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="G87" t="n">
+        <v>449.64</v>
+      </c>
+      <c r="H87" t="n">
+        <v>454.41</v>
+      </c>
+      <c r="I87" t="n">
+        <v>0</v>
+      </c>
+      <c r="J87" t="n">
+        <v>0</v>
+      </c>
+      <c r="K87" t="inlineStr"/>
+      <c r="L87" t="inlineStr"/>
+      <c r="M87" t="inlineStr"/>
+      <c r="N87" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" s="1" t="n">
+        <v>86</v>
+      </c>
+      <c r="B88" t="n">
+        <v>446.8</v>
+      </c>
+      <c r="C88" t="n">
+        <v>444.2</v>
+      </c>
+      <c r="D88" t="n">
+        <v>446.8</v>
+      </c>
+      <c r="E88" t="n">
+        <v>444.2</v>
+      </c>
+      <c r="F88" t="n">
+        <v>7056.3011</v>
+      </c>
+      <c r="G88" t="n">
+        <v>449.22</v>
+      </c>
+      <c r="H88" t="n">
+        <v>454.1883333333334</v>
+      </c>
+      <c r="I88" t="n">
+        <v>0</v>
+      </c>
+      <c r="J88" t="n">
+        <v>0</v>
+      </c>
+      <c r="K88" t="inlineStr"/>
+      <c r="L88" t="inlineStr"/>
+      <c r="M88" t="inlineStr"/>
+      <c r="N88" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" s="1" t="n">
+        <v>87</v>
+      </c>
+      <c r="B89" t="n">
+        <v>445.7</v>
+      </c>
+      <c r="C89" t="n">
+        <v>445.7</v>
+      </c>
+      <c r="D89" t="n">
+        <v>445.7</v>
+      </c>
+      <c r="E89" t="n">
+        <v>445.7</v>
+      </c>
+      <c r="F89" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="G89" t="n">
+        <v>448.8933333333333</v>
+      </c>
+      <c r="H89" t="n">
+        <v>454.0833333333334</v>
+      </c>
+      <c r="I89" t="n">
+        <v>0</v>
+      </c>
+      <c r="J89" t="n">
+        <v>0</v>
+      </c>
+      <c r="K89" t="inlineStr"/>
+      <c r="L89" t="inlineStr"/>
+      <c r="M89" t="inlineStr"/>
+      <c r="N89" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" s="1" t="n">
+        <v>88</v>
+      </c>
+      <c r="B90" t="n">
+        <v>445.7</v>
+      </c>
+      <c r="C90" t="n">
+        <v>445.7</v>
+      </c>
+      <c r="D90" t="n">
+        <v>445.7</v>
+      </c>
+      <c r="E90" t="n">
+        <v>445.7</v>
+      </c>
+      <c r="F90" t="n">
+        <v>20</v>
+      </c>
+      <c r="G90" t="n">
+        <v>448.5333333333332</v>
+      </c>
+      <c r="H90" t="n">
+        <v>453.9783333333334</v>
+      </c>
+      <c r="I90" t="n">
+        <v>0</v>
+      </c>
+      <c r="J90" t="n">
+        <v>0</v>
+      </c>
+      <c r="K90" t="inlineStr"/>
+      <c r="L90" t="inlineStr"/>
+      <c r="M90" t="inlineStr"/>
+      <c r="N90" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" s="1" t="n">
+        <v>89</v>
+      </c>
+      <c r="B91" t="n">
+        <v>444.3</v>
+      </c>
+      <c r="C91" t="n">
+        <v>443.3</v>
+      </c>
+      <c r="D91" t="n">
+        <v>448</v>
+      </c>
+      <c r="E91" t="n">
+        <v>442.2</v>
+      </c>
+      <c r="F91" t="n">
+        <v>19452.2485</v>
+      </c>
+      <c r="G91" t="n">
+        <v>447.9533333333332</v>
+      </c>
+      <c r="H91" t="n">
+        <v>453.8333333333334</v>
+      </c>
+      <c r="I91" t="n">
+        <v>0</v>
+      </c>
+      <c r="J91" t="n">
+        <v>0</v>
+      </c>
+      <c r="K91" t="inlineStr"/>
+      <c r="L91" t="inlineStr"/>
+      <c r="M91" t="inlineStr"/>
+      <c r="N91" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" s="1" t="n">
+        <v>90</v>
+      </c>
+      <c r="B92" t="n">
+        <v>443.2</v>
+      </c>
+      <c r="C92" t="n">
+        <v>443.3</v>
+      </c>
+      <c r="D92" t="n">
+        <v>443.3</v>
+      </c>
+      <c r="E92" t="n">
+        <v>443.2</v>
+      </c>
+      <c r="F92" t="n">
+        <v>15769</v>
+      </c>
+      <c r="G92" t="n">
+        <v>447.3733333333332</v>
+      </c>
+      <c r="H92" t="n">
+        <v>453.6883333333334</v>
+      </c>
+      <c r="I92" t="n">
+        <v>0</v>
+      </c>
+      <c r="J92" t="n">
+        <v>0</v>
+      </c>
+      <c r="K92" t="inlineStr"/>
+      <c r="L92" t="inlineStr"/>
+      <c r="M92" t="inlineStr"/>
+      <c r="N92" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" s="1" t="n">
+        <v>91</v>
+      </c>
+      <c r="B93" t="n">
+        <v>443.3</v>
+      </c>
+      <c r="C93" t="n">
+        <v>442.7</v>
+      </c>
+      <c r="D93" t="n">
+        <v>443.3</v>
+      </c>
+      <c r="E93" t="n">
+        <v>442.7</v>
+      </c>
+      <c r="F93" t="n">
+        <v>1917.6155</v>
+      </c>
+      <c r="G93" t="n">
+        <v>446.8466666666665</v>
+      </c>
+      <c r="H93" t="n">
+        <v>453.5316666666668</v>
+      </c>
+      <c r="I93" t="n">
+        <v>0</v>
+      </c>
+      <c r="J93" t="n">
+        <v>0</v>
+      </c>
+      <c r="K93" t="inlineStr"/>
+      <c r="L93" t="inlineStr"/>
+      <c r="M93" t="inlineStr"/>
+      <c r="N93" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" s="1" t="n">
+        <v>92</v>
+      </c>
+      <c r="B94" t="n">
+        <v>443.3</v>
+      </c>
+      <c r="C94" t="n">
+        <v>443.3</v>
+      </c>
+      <c r="D94" t="n">
+        <v>443.3</v>
+      </c>
+      <c r="E94" t="n">
+        <v>443.3</v>
+      </c>
+      <c r="F94" t="n">
+        <v>30</v>
+      </c>
+      <c r="G94" t="n">
+        <v>446.3666666666666</v>
+      </c>
+      <c r="H94" t="n">
+        <v>453.3833333333334</v>
+      </c>
+      <c r="I94" t="n">
+        <v>0</v>
+      </c>
+      <c r="J94" t="n">
+        <v>0</v>
+      </c>
+      <c r="K94" t="inlineStr"/>
+      <c r="L94" t="inlineStr"/>
+      <c r="M94" t="inlineStr"/>
+      <c r="N94" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" s="1" t="n">
+        <v>93</v>
+      </c>
+      <c r="B95" t="n">
+        <v>443.3</v>
+      </c>
+      <c r="C95" t="n">
+        <v>443.3</v>
+      </c>
+      <c r="D95" t="n">
+        <v>443.3</v>
+      </c>
+      <c r="E95" t="n">
+        <v>443.3</v>
+      </c>
+      <c r="F95" t="n">
+        <v>306.5682</v>
+      </c>
+      <c r="G95" t="n">
+        <v>445.8866666666665</v>
+      </c>
+      <c r="H95" t="n">
+        <v>453.1566666666667</v>
+      </c>
+      <c r="I95" t="n">
+        <v>0</v>
+      </c>
+      <c r="J95" t="n">
+        <v>0</v>
+      </c>
+      <c r="K95" t="inlineStr"/>
+      <c r="L95" t="inlineStr"/>
+      <c r="M95" t="inlineStr"/>
+      <c r="N95" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" s="1" t="n">
+        <v>94</v>
+      </c>
+      <c r="B96" t="n">
+        <v>443.3</v>
+      </c>
+      <c r="C96" t="n">
+        <v>443.3</v>
+      </c>
+      <c r="D96" t="n">
+        <v>443.3</v>
+      </c>
+      <c r="E96" t="n">
+        <v>443.3</v>
+      </c>
+      <c r="F96" t="n">
+        <v>229.8658</v>
+      </c>
+      <c r="G96" t="n">
+        <v>445.6399999999999</v>
+      </c>
+      <c r="H96" t="n">
+        <v>453.0083333333333</v>
+      </c>
+      <c r="I96" t="n">
+        <v>0</v>
+      </c>
+      <c r="J96" t="n">
+        <v>0</v>
+      </c>
+      <c r="K96" t="inlineStr"/>
+      <c r="L96" t="inlineStr"/>
+      <c r="M96" t="inlineStr"/>
+      <c r="N96" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" s="1" t="n">
+        <v>95</v>
+      </c>
+      <c r="B97" t="n">
+        <v>443.3</v>
+      </c>
+      <c r="C97" t="n">
+        <v>443.3</v>
+      </c>
+      <c r="D97" t="n">
+        <v>443.3</v>
+      </c>
+      <c r="E97" t="n">
+        <v>443.3</v>
+      </c>
+      <c r="F97" t="n">
+        <v>435</v>
+      </c>
+      <c r="G97" t="n">
+        <v>445.4133333333332</v>
+      </c>
+      <c r="H97" t="n">
+        <v>452.7666666666667</v>
+      </c>
+      <c r="I97" t="n">
+        <v>1</v>
+      </c>
+      <c r="J97" t="n">
+        <v>0</v>
+      </c>
+      <c r="K97" t="n">
+        <v>443.3</v>
+      </c>
+      <c r="L97" t="n">
+        <v>443.3</v>
+      </c>
+      <c r="M97" t="inlineStr"/>
+      <c r="N97" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" s="1" t="n">
+        <v>96</v>
+      </c>
+      <c r="B98" t="n">
+        <v>443.3</v>
+      </c>
+      <c r="C98" t="n">
+        <v>443.3</v>
+      </c>
+      <c r="D98" t="n">
+        <v>443.3</v>
+      </c>
+      <c r="E98" t="n">
+        <v>443.3</v>
+      </c>
+      <c r="F98" t="n">
+        <v>118.0814</v>
+      </c>
+      <c r="G98" t="n">
+        <v>445.1866666666666</v>
+      </c>
+      <c r="H98" t="n">
+        <v>452.62</v>
+      </c>
+      <c r="I98" t="n">
+        <v>1</v>
+      </c>
+      <c r="J98" t="n">
+        <v>0</v>
+      </c>
+      <c r="K98" t="n">
+        <v>443.3</v>
+      </c>
+      <c r="L98" t="n">
+        <v>443.3</v>
+      </c>
+      <c r="M98" t="inlineStr">
         <is>
           <t>매수 대기</t>
         </is>
       </c>
-      <c r="M85" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="86">
-      <c r="A86" s="1" t="n">
-        <v>84</v>
-      </c>
-      <c r="B86" t="n">
-        <v>447.3</v>
-      </c>
-      <c r="C86" t="n">
-        <v>447.3</v>
-      </c>
-      <c r="D86" t="n">
-        <v>447.3</v>
-      </c>
-      <c r="E86" t="n">
-        <v>447.3</v>
-      </c>
-      <c r="F86" t="n">
-        <v>384</v>
-      </c>
-      <c r="G86" t="n">
-        <v>454.4916666666667</v>
-      </c>
-      <c r="H86" t="n">
-        <v>1</v>
-      </c>
-      <c r="I86" t="n">
-        <v>0</v>
-      </c>
-      <c r="J86" t="n">
-        <v>450.9</v>
-      </c>
-      <c r="K86" t="n">
-        <v>446.7</v>
-      </c>
-      <c r="L86" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="M86" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="87">
-      <c r="A87" s="1" t="n">
-        <v>85</v>
-      </c>
-      <c r="B87" t="n">
-        <v>450.9</v>
-      </c>
-      <c r="C87" t="n">
-        <v>450.9</v>
-      </c>
-      <c r="D87" t="n">
-        <v>450.9</v>
-      </c>
-      <c r="E87" t="n">
-        <v>450.9</v>
-      </c>
-      <c r="F87" t="n">
-        <v>1.2</v>
-      </c>
-      <c r="G87" t="n">
-        <v>454.41</v>
-      </c>
-      <c r="H87" t="n">
-        <v>1</v>
-      </c>
-      <c r="I87" t="n">
-        <v>0</v>
-      </c>
-      <c r="J87" t="n">
-        <v>447.3</v>
-      </c>
-      <c r="K87" t="n">
-        <v>447.3</v>
-      </c>
-      <c r="L87" t="inlineStr"/>
-      <c r="M87" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="88">
-      <c r="A88" s="1" t="n">
-        <v>86</v>
-      </c>
-      <c r="B88" t="n">
-        <v>446.8</v>
-      </c>
-      <c r="C88" t="n">
-        <v>444.2</v>
-      </c>
-      <c r="D88" t="n">
-        <v>446.8</v>
-      </c>
-      <c r="E88" t="n">
-        <v>444.2</v>
-      </c>
-      <c r="F88" t="n">
-        <v>7056.3011</v>
-      </c>
-      <c r="G88" t="n">
-        <v>454.1883333333334</v>
-      </c>
-      <c r="H88" t="n">
-        <v>1</v>
-      </c>
-      <c r="I88" t="n">
-        <v>0</v>
-      </c>
-      <c r="J88" t="n">
-        <v>450.9</v>
-      </c>
-      <c r="K88" t="n">
-        <v>447.3</v>
-      </c>
-      <c r="L88" t="inlineStr">
+      <c r="N98" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" s="1" t="n">
+        <v>97</v>
+      </c>
+      <c r="B99" t="n">
+        <v>443.3</v>
+      </c>
+      <c r="C99" t="n">
+        <v>447.7</v>
+      </c>
+      <c r="D99" t="n">
+        <v>447.7</v>
+      </c>
+      <c r="E99" t="n">
+        <v>443.3</v>
+      </c>
+      <c r="F99" t="n">
+        <v>2523.4146</v>
+      </c>
+      <c r="G99" t="n">
+        <v>445.2133333333333</v>
+      </c>
+      <c r="H99" t="n">
+        <v>452.4516666666667</v>
+      </c>
+      <c r="I99" t="n">
+        <v>1</v>
+      </c>
+      <c r="J99" t="n">
+        <v>0</v>
+      </c>
+      <c r="K99" t="n">
+        <v>443.3</v>
+      </c>
+      <c r="L99" t="n">
+        <v>443.3</v>
+      </c>
+      <c r="M99" t="inlineStr">
         <is>
           <t>매수 체결</t>
         </is>
       </c>
-      <c r="M88" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="89">
-      <c r="A89" s="1" t="n">
-        <v>87</v>
-      </c>
-      <c r="B89" t="n">
-        <v>445.7</v>
-      </c>
-      <c r="C89" t="n">
-        <v>445.7</v>
-      </c>
-      <c r="D89" t="n">
-        <v>445.7</v>
-      </c>
-      <c r="E89" t="n">
-        <v>445.7</v>
-      </c>
-      <c r="F89" t="n">
-        <v>1.2</v>
-      </c>
-      <c r="G89" t="n">
-        <v>454.0833333333334</v>
-      </c>
-      <c r="H89" t="n">
-        <v>0</v>
-      </c>
-      <c r="I89" t="n">
-        <v>0</v>
-      </c>
-      <c r="J89" t="inlineStr"/>
-      <c r="K89" t="n">
-        <v>447.3</v>
-      </c>
-      <c r="L89" t="inlineStr">
+      <c r="N99" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" s="1" t="n">
+        <v>98</v>
+      </c>
+      <c r="B100" t="n">
+        <v>443.4</v>
+      </c>
+      <c r="C100" t="n">
+        <v>443.3</v>
+      </c>
+      <c r="D100" t="n">
+        <v>443.4</v>
+      </c>
+      <c r="E100" t="n">
+        <v>443.3</v>
+      </c>
+      <c r="F100" t="n">
+        <v>2265.7641</v>
+      </c>
+      <c r="G100" t="n">
+        <v>444.7066666666666</v>
+      </c>
+      <c r="H100" t="n">
+        <v>452.175</v>
+      </c>
+      <c r="I100" t="n">
+        <v>1</v>
+      </c>
+      <c r="J100" t="n">
+        <v>0</v>
+      </c>
+      <c r="K100" t="n">
+        <v>447.7</v>
+      </c>
+      <c r="L100" t="n">
+        <v>443.3</v>
+      </c>
+      <c r="M100" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M89" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="90">
-      <c r="A90" s="1" t="n">
-        <v>88</v>
-      </c>
-      <c r="B90" t="n">
-        <v>445.7</v>
-      </c>
-      <c r="C90" t="n">
-        <v>445.7</v>
-      </c>
-      <c r="D90" t="n">
-        <v>445.7</v>
-      </c>
-      <c r="E90" t="n">
-        <v>445.7</v>
-      </c>
-      <c r="F90" t="n">
-        <v>20</v>
-      </c>
-      <c r="G90" t="n">
-        <v>453.9783333333334</v>
-      </c>
-      <c r="H90" t="n">
-        <v>0</v>
-      </c>
-      <c r="I90" t="n">
-        <v>0</v>
-      </c>
-      <c r="J90" t="inlineStr"/>
-      <c r="K90" t="n">
-        <v>447.3</v>
-      </c>
-      <c r="L90" t="inlineStr">
+      <c r="N100" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" s="1" t="n">
+        <v>99</v>
+      </c>
+      <c r="B101" t="n">
+        <v>447.7</v>
+      </c>
+      <c r="C101" t="n">
+        <v>447.7</v>
+      </c>
+      <c r="D101" t="n">
+        <v>447.7</v>
+      </c>
+      <c r="E101" t="n">
+        <v>447.7</v>
+      </c>
+      <c r="F101" t="n">
+        <v>8.5162</v>
+      </c>
+      <c r="G101" t="n">
+        <v>444.7333333333333</v>
+      </c>
+      <c r="H101" t="n">
+        <v>452.0066666666667</v>
+      </c>
+      <c r="I101" t="n">
+        <v>1</v>
+      </c>
+      <c r="J101" t="n">
+        <v>0</v>
+      </c>
+      <c r="K101" t="n">
+        <v>443.3</v>
+      </c>
+      <c r="L101" t="n">
+        <v>443.3</v>
+      </c>
+      <c r="M101" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M90" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="91">
-      <c r="A91" s="1" t="n">
-        <v>89</v>
-      </c>
-      <c r="B91" t="n">
-        <v>444.3</v>
-      </c>
-      <c r="C91" t="n">
-        <v>443.3</v>
-      </c>
-      <c r="D91" t="n">
-        <v>448</v>
-      </c>
-      <c r="E91" t="n">
-        <v>442.2</v>
-      </c>
-      <c r="F91" t="n">
-        <v>19452.2485</v>
-      </c>
-      <c r="G91" t="n">
-        <v>453.8333333333334</v>
-      </c>
-      <c r="H91" t="n">
-        <v>0</v>
-      </c>
-      <c r="I91" t="n">
-        <v>0</v>
-      </c>
-      <c r="J91" t="inlineStr"/>
-      <c r="K91" t="n">
-        <v>447.3</v>
-      </c>
-      <c r="L91" t="inlineStr">
+      <c r="N101" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" s="1" t="n">
+        <v>100</v>
+      </c>
+      <c r="B102" t="n">
+        <v>446.7</v>
+      </c>
+      <c r="C102" t="n">
+        <v>446.7</v>
+      </c>
+      <c r="D102" t="n">
+        <v>446.7</v>
+      </c>
+      <c r="E102" t="n">
+        <v>446.7</v>
+      </c>
+      <c r="F102" t="n">
+        <v>99.9999</v>
+      </c>
+      <c r="G102" t="n">
+        <v>444.4533333333333</v>
+      </c>
+      <c r="H102" t="n">
+        <v>451.8216666666667</v>
+      </c>
+      <c r="I102" t="n">
+        <v>1</v>
+      </c>
+      <c r="J102" t="n">
+        <v>0</v>
+      </c>
+      <c r="K102" t="n">
+        <v>447.7</v>
+      </c>
+      <c r="L102" t="n">
+        <v>443.3</v>
+      </c>
+      <c r="M102" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M91" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="92">
-      <c r="A92" s="1" t="n">
-        <v>90</v>
-      </c>
-      <c r="B92" t="n">
-        <v>443.2</v>
-      </c>
-      <c r="C92" t="n">
-        <v>443.3</v>
-      </c>
-      <c r="D92" t="n">
-        <v>443.3</v>
-      </c>
-      <c r="E92" t="n">
-        <v>443.2</v>
-      </c>
-      <c r="F92" t="n">
-        <v>15769</v>
-      </c>
-      <c r="G92" t="n">
-        <v>453.6883333333334</v>
-      </c>
-      <c r="H92" t="n">
-        <v>0</v>
-      </c>
-      <c r="I92" t="n">
-        <v>0</v>
-      </c>
-      <c r="J92" t="inlineStr"/>
-      <c r="K92" t="n">
-        <v>447.3</v>
-      </c>
-      <c r="L92" t="inlineStr">
+      <c r="N102" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" s="1" t="n">
+        <v>101</v>
+      </c>
+      <c r="B103" t="n">
+        <v>447.7</v>
+      </c>
+      <c r="C103" t="n">
+        <v>448</v>
+      </c>
+      <c r="D103" t="n">
+        <v>448</v>
+      </c>
+      <c r="E103" t="n">
+        <v>447.7</v>
+      </c>
+      <c r="F103" t="n">
+        <v>289.2084</v>
+      </c>
+      <c r="G103" t="n">
+        <v>444.7066666666666</v>
+      </c>
+      <c r="H103" t="n">
+        <v>451.6583333333334</v>
+      </c>
+      <c r="I103" t="n">
+        <v>0</v>
+      </c>
+      <c r="J103" t="n">
+        <v>0</v>
+      </c>
+      <c r="K103" t="inlineStr"/>
+      <c r="L103" t="n">
+        <v>443.3</v>
+      </c>
+      <c r="M103" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M92" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="93">
-      <c r="A93" s="1" t="n">
-        <v>91</v>
-      </c>
-      <c r="B93" t="n">
-        <v>443.3</v>
-      </c>
-      <c r="C93" t="n">
-        <v>442.7</v>
-      </c>
-      <c r="D93" t="n">
-        <v>443.3</v>
-      </c>
-      <c r="E93" t="n">
-        <v>442.7</v>
-      </c>
-      <c r="F93" t="n">
-        <v>1917.6155</v>
-      </c>
-      <c r="G93" t="n">
-        <v>453.5316666666668</v>
-      </c>
-      <c r="H93" t="n">
-        <v>0</v>
-      </c>
-      <c r="I93" t="n">
-        <v>0</v>
-      </c>
-      <c r="J93" t="inlineStr"/>
-      <c r="K93" t="n">
-        <v>447.3</v>
-      </c>
-      <c r="L93" t="inlineStr">
+      <c r="N103" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" s="1" t="n">
+        <v>102</v>
+      </c>
+      <c r="B104" t="n">
+        <v>447.5</v>
+      </c>
+      <c r="C104" t="n">
+        <v>447.6</v>
+      </c>
+      <c r="D104" t="n">
+        <v>447.6</v>
+      </c>
+      <c r="E104" t="n">
+        <v>447.5</v>
+      </c>
+      <c r="F104" t="n">
+        <v>709.1495</v>
+      </c>
+      <c r="G104" t="n">
+        <v>444.8333333333333</v>
+      </c>
+      <c r="H104" t="n">
+        <v>451.4883333333334</v>
+      </c>
+      <c r="I104" t="n">
+        <v>0</v>
+      </c>
+      <c r="J104" t="n">
+        <v>0</v>
+      </c>
+      <c r="K104" t="inlineStr"/>
+      <c r="L104" t="n">
+        <v>443.3</v>
+      </c>
+      <c r="M104" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M93" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="94">
-      <c r="A94" s="1" t="n">
-        <v>92</v>
-      </c>
-      <c r="B94" t="n">
-        <v>443.3</v>
-      </c>
-      <c r="C94" t="n">
-        <v>443.3</v>
-      </c>
-      <c r="D94" t="n">
-        <v>443.3</v>
-      </c>
-      <c r="E94" t="n">
-        <v>443.3</v>
-      </c>
-      <c r="F94" t="n">
-        <v>30</v>
-      </c>
-      <c r="G94" t="n">
-        <v>453.3833333333334</v>
-      </c>
-      <c r="H94" t="n">
-        <v>0</v>
-      </c>
-      <c r="I94" t="n">
-        <v>0</v>
-      </c>
-      <c r="J94" t="inlineStr"/>
-      <c r="K94" t="n">
-        <v>447.3</v>
-      </c>
-      <c r="L94" t="inlineStr">
+      <c r="N104" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" s="1" t="n">
+        <v>103</v>
+      </c>
+      <c r="B105" t="n">
+        <v>447.5</v>
+      </c>
+      <c r="C105" t="n">
+        <v>447.5</v>
+      </c>
+      <c r="D105" t="n">
+        <v>447.5</v>
+      </c>
+      <c r="E105" t="n">
+        <v>447.5</v>
+      </c>
+      <c r="F105" t="n">
+        <v>3.2094</v>
+      </c>
+      <c r="G105" t="n">
+        <v>444.9533333333333</v>
+      </c>
+      <c r="H105" t="n">
+        <v>451.3166666666667</v>
+      </c>
+      <c r="I105" t="n">
+        <v>0</v>
+      </c>
+      <c r="J105" t="n">
+        <v>0</v>
+      </c>
+      <c r="K105" t="inlineStr"/>
+      <c r="L105" t="n">
+        <v>443.3</v>
+      </c>
+      <c r="M105" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M94" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="95">
-      <c r="A95" s="1" t="n">
-        <v>93</v>
-      </c>
-      <c r="B95" t="n">
-        <v>443.3</v>
-      </c>
-      <c r="C95" t="n">
-        <v>443.3</v>
-      </c>
-      <c r="D95" t="n">
-        <v>443.3</v>
-      </c>
-      <c r="E95" t="n">
-        <v>443.3</v>
-      </c>
-      <c r="F95" t="n">
-        <v>306.5682</v>
-      </c>
-      <c r="G95" t="n">
-        <v>453.1566666666667</v>
-      </c>
-      <c r="H95" t="n">
-        <v>0</v>
-      </c>
-      <c r="I95" t="n">
-        <v>1</v>
-      </c>
-      <c r="J95" t="inlineStr"/>
-      <c r="K95" t="n">
-        <v>447.3</v>
-      </c>
-      <c r="L95" t="inlineStr">
+      <c r="N105" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" s="1" t="n">
+        <v>104</v>
+      </c>
+      <c r="B106" t="n">
+        <v>449</v>
+      </c>
+      <c r="C106" t="n">
+        <v>448</v>
+      </c>
+      <c r="D106" t="n">
+        <v>449</v>
+      </c>
+      <c r="E106" t="n">
+        <v>448</v>
+      </c>
+      <c r="F106" t="n">
+        <v>2800</v>
+      </c>
+      <c r="G106" t="n">
+        <v>445.2666666666667</v>
+      </c>
+      <c r="H106" t="n">
+        <v>451.1533333333334</v>
+      </c>
+      <c r="I106" t="n">
+        <v>0</v>
+      </c>
+      <c r="J106" t="n">
+        <v>0</v>
+      </c>
+      <c r="K106" t="inlineStr"/>
+      <c r="L106" t="n">
+        <v>443.3</v>
+      </c>
+      <c r="M106" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M95" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="96">
-      <c r="A96" s="1" t="n">
-        <v>94</v>
-      </c>
-      <c r="B96" t="n">
-        <v>443.3</v>
-      </c>
-      <c r="C96" t="n">
-        <v>443.3</v>
-      </c>
-      <c r="D96" t="n">
-        <v>443.3</v>
-      </c>
-      <c r="E96" t="n">
-        <v>443.3</v>
-      </c>
-      <c r="F96" t="n">
-        <v>229.8658</v>
-      </c>
-      <c r="G96" t="n">
-        <v>453.0083333333333</v>
-      </c>
-      <c r="H96" t="n">
-        <v>0</v>
-      </c>
-      <c r="I96" t="n">
-        <v>0</v>
-      </c>
-      <c r="J96" t="inlineStr"/>
-      <c r="K96" t="n">
-        <v>447.3</v>
-      </c>
-      <c r="L96" t="inlineStr">
+      <c r="N106" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" s="1" t="n">
+        <v>105</v>
+      </c>
+      <c r="B107" t="n">
+        <v>450.9</v>
+      </c>
+      <c r="C107" t="n">
+        <v>450.9</v>
+      </c>
+      <c r="D107" t="n">
+        <v>450.9</v>
+      </c>
+      <c r="E107" t="n">
+        <v>450.9</v>
+      </c>
+      <c r="F107" t="n">
+        <v>1007.203371035706</v>
+      </c>
+      <c r="G107" t="n">
+        <v>445.7733333333333</v>
+      </c>
+      <c r="H107" t="n">
+        <v>451.0383333333335</v>
+      </c>
+      <c r="I107" t="n">
+        <v>0</v>
+      </c>
+      <c r="J107" t="n">
+        <v>0</v>
+      </c>
+      <c r="K107" t="inlineStr"/>
+      <c r="L107" t="n">
+        <v>443.3</v>
+      </c>
+      <c r="M107" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M96" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="97">
-      <c r="A97" s="1" t="n">
-        <v>95</v>
-      </c>
-      <c r="B97" t="n">
-        <v>443.3</v>
-      </c>
-      <c r="C97" t="n">
-        <v>443.3</v>
-      </c>
-      <c r="D97" t="n">
-        <v>443.3</v>
-      </c>
-      <c r="E97" t="n">
-        <v>443.3</v>
-      </c>
-      <c r="F97" t="n">
-        <v>435</v>
-      </c>
-      <c r="G97" t="n">
-        <v>452.7666666666667</v>
-      </c>
-      <c r="H97" t="n">
-        <v>0</v>
-      </c>
-      <c r="I97" t="n">
-        <v>0</v>
-      </c>
-      <c r="J97" t="inlineStr"/>
-      <c r="K97" t="n">
-        <v>447.3</v>
-      </c>
-      <c r="L97" t="inlineStr">
+      <c r="N107" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" s="1" t="n">
+        <v>106</v>
+      </c>
+      <c r="B108" t="n">
+        <v>451</v>
+      </c>
+      <c r="C108" t="n">
+        <v>451</v>
+      </c>
+      <c r="D108" t="n">
+        <v>451</v>
+      </c>
+      <c r="E108" t="n">
+        <v>451</v>
+      </c>
+      <c r="F108" t="n">
+        <v>205</v>
+      </c>
+      <c r="G108" t="n">
+        <v>446.3266666666667</v>
+      </c>
+      <c r="H108" t="n">
+        <v>450.9250000000001</v>
+      </c>
+      <c r="I108" t="n">
+        <v>0</v>
+      </c>
+      <c r="J108" t="n">
+        <v>0</v>
+      </c>
+      <c r="K108" t="inlineStr"/>
+      <c r="L108" t="n">
+        <v>443.3</v>
+      </c>
+      <c r="M108" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M97" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="98">
-      <c r="A98" s="1" t="n">
-        <v>96</v>
-      </c>
-      <c r="B98" t="n">
-        <v>443.3</v>
-      </c>
-      <c r="C98" t="n">
-        <v>443.3</v>
-      </c>
-      <c r="D98" t="n">
-        <v>443.3</v>
-      </c>
-      <c r="E98" t="n">
-        <v>443.3</v>
-      </c>
-      <c r="F98" t="n">
-        <v>118.0814</v>
-      </c>
-      <c r="G98" t="n">
-        <v>452.62</v>
-      </c>
-      <c r="H98" t="n">
-        <v>0</v>
-      </c>
-      <c r="I98" t="n">
-        <v>0</v>
-      </c>
-      <c r="J98" t="inlineStr"/>
-      <c r="K98" t="n">
-        <v>447.3</v>
-      </c>
-      <c r="L98" t="inlineStr">
+      <c r="N108" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" s="1" t="n">
+        <v>107</v>
+      </c>
+      <c r="B109" t="n">
+        <v>451</v>
+      </c>
+      <c r="C109" t="n">
+        <v>451</v>
+      </c>
+      <c r="D109" t="n">
+        <v>451</v>
+      </c>
+      <c r="E109" t="n">
+        <v>451</v>
+      </c>
+      <c r="F109" t="n">
+        <v>141.6783</v>
+      </c>
+      <c r="G109" t="n">
+        <v>446.84</v>
+      </c>
+      <c r="H109" t="n">
+        <v>450.7833333333335</v>
+      </c>
+      <c r="I109" t="n">
+        <v>0</v>
+      </c>
+      <c r="J109" t="n">
+        <v>0</v>
+      </c>
+      <c r="K109" t="inlineStr"/>
+      <c r="L109" t="n">
+        <v>443.3</v>
+      </c>
+      <c r="M109" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M98" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="99">
-      <c r="A99" s="1" t="n">
-        <v>97</v>
-      </c>
-      <c r="B99" t="n">
-        <v>443.3</v>
-      </c>
-      <c r="C99" t="n">
-        <v>447.7</v>
-      </c>
-      <c r="D99" t="n">
-        <v>447.7</v>
-      </c>
-      <c r="E99" t="n">
-        <v>443.3</v>
-      </c>
-      <c r="F99" t="n">
-        <v>2523.4146</v>
-      </c>
-      <c r="G99" t="n">
-        <v>452.4516666666667</v>
-      </c>
-      <c r="H99" t="n">
-        <v>0</v>
-      </c>
-      <c r="I99" t="n">
-        <v>0</v>
-      </c>
-      <c r="J99" t="inlineStr"/>
-      <c r="K99" t="n">
-        <v>447.3</v>
-      </c>
-      <c r="L99" t="inlineStr">
+      <c r="N109" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" s="1" t="n">
+        <v>108</v>
+      </c>
+      <c r="B110" t="n">
+        <v>451</v>
+      </c>
+      <c r="C110" t="n">
+        <v>458.1</v>
+      </c>
+      <c r="D110" t="n">
+        <v>458.1</v>
+      </c>
+      <c r="E110" t="n">
+        <v>451</v>
+      </c>
+      <c r="F110" t="n">
+        <v>810</v>
+      </c>
+      <c r="G110" t="n">
+        <v>447.8266666666667</v>
+      </c>
+      <c r="H110" t="n">
+        <v>450.7066666666668</v>
+      </c>
+      <c r="I110" t="n">
+        <v>0</v>
+      </c>
+      <c r="J110" t="n">
+        <v>0</v>
+      </c>
+      <c r="K110" t="inlineStr"/>
+      <c r="L110" t="n">
+        <v>443.3</v>
+      </c>
+      <c r="M110" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M99" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="100">
-      <c r="A100" s="1" t="n">
-        <v>98</v>
-      </c>
-      <c r="B100" t="n">
-        <v>443.4</v>
-      </c>
-      <c r="C100" t="n">
-        <v>443.3</v>
-      </c>
-      <c r="D100" t="n">
-        <v>443.4</v>
-      </c>
-      <c r="E100" t="n">
-        <v>443.3</v>
-      </c>
-      <c r="F100" t="n">
-        <v>2265.7641</v>
-      </c>
-      <c r="G100" t="n">
-        <v>452.175</v>
-      </c>
-      <c r="H100" t="n">
-        <v>0</v>
-      </c>
-      <c r="I100" t="n">
-        <v>0</v>
-      </c>
-      <c r="J100" t="inlineStr"/>
-      <c r="K100" t="n">
-        <v>447.3</v>
-      </c>
-      <c r="L100" t="inlineStr">
+      <c r="N110" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" s="1" t="n">
+        <v>109</v>
+      </c>
+      <c r="B111" t="n">
+        <v>451</v>
+      </c>
+      <c r="C111" t="n">
+        <v>449.8</v>
+      </c>
+      <c r="D111" t="n">
+        <v>451</v>
+      </c>
+      <c r="E111" t="n">
+        <v>448.9</v>
+      </c>
+      <c r="F111" t="n">
+        <v>400</v>
+      </c>
+      <c r="G111" t="n">
+        <v>448.26</v>
+      </c>
+      <c r="H111" t="n">
+        <v>450.5333333333334</v>
+      </c>
+      <c r="I111" t="n">
+        <v>0</v>
+      </c>
+      <c r="J111" t="n">
+        <v>0</v>
+      </c>
+      <c r="K111" t="inlineStr"/>
+      <c r="L111" t="n">
+        <v>443.3</v>
+      </c>
+      <c r="M111" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M100" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="101">
-      <c r="A101" s="1" t="n">
-        <v>99</v>
-      </c>
-      <c r="B101" t="n">
-        <v>447.7</v>
-      </c>
-      <c r="C101" t="n">
-        <v>447.7</v>
-      </c>
-      <c r="D101" t="n">
-        <v>447.7</v>
-      </c>
-      <c r="E101" t="n">
-        <v>447.7</v>
-      </c>
-      <c r="F101" t="n">
-        <v>8.5162</v>
-      </c>
-      <c r="G101" t="n">
-        <v>452.0066666666667</v>
-      </c>
-      <c r="H101" t="n">
-        <v>0</v>
-      </c>
-      <c r="I101" t="n">
-        <v>0</v>
-      </c>
-      <c r="J101" t="inlineStr"/>
-      <c r="K101" t="n">
-        <v>447.3</v>
-      </c>
-      <c r="L101" t="inlineStr">
+      <c r="N111" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" s="1" t="n">
+        <v>110</v>
+      </c>
+      <c r="B112" t="n">
+        <v>454.9</v>
+      </c>
+      <c r="C112" t="n">
+        <v>454.9</v>
+      </c>
+      <c r="D112" t="n">
+        <v>454.9</v>
+      </c>
+      <c r="E112" t="n">
+        <v>454.9</v>
+      </c>
+      <c r="F112" t="n">
+        <v>995.4521999999999</v>
+      </c>
+      <c r="G112" t="n">
+        <v>449.0333333333332</v>
+      </c>
+      <c r="H112" t="n">
+        <v>450.4050000000001</v>
+      </c>
+      <c r="I112" t="n">
+        <v>0</v>
+      </c>
+      <c r="J112" t="n">
+        <v>0</v>
+      </c>
+      <c r="K112" t="inlineStr"/>
+      <c r="L112" t="n">
+        <v>443.3</v>
+      </c>
+      <c r="M112" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M101" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="102">
-      <c r="A102" s="1" t="n">
-        <v>100</v>
-      </c>
-      <c r="B102" t="n">
-        <v>446.7</v>
-      </c>
-      <c r="C102" t="n">
-        <v>446.7</v>
-      </c>
-      <c r="D102" t="n">
-        <v>446.7</v>
-      </c>
-      <c r="E102" t="n">
-        <v>446.7</v>
-      </c>
-      <c r="F102" t="n">
-        <v>99.9999</v>
-      </c>
-      <c r="G102" t="n">
-        <v>451.8216666666667</v>
-      </c>
-      <c r="H102" t="n">
-        <v>0</v>
-      </c>
-      <c r="I102" t="n">
-        <v>0</v>
-      </c>
-      <c r="J102" t="inlineStr"/>
-      <c r="K102" t="n">
-        <v>447.3</v>
-      </c>
-      <c r="L102" t="inlineStr">
+      <c r="N112" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" s="1" t="n">
+        <v>111</v>
+      </c>
+      <c r="B113" t="n">
+        <v>453</v>
+      </c>
+      <c r="C113" t="n">
+        <v>452</v>
+      </c>
+      <c r="D113" t="n">
+        <v>453</v>
+      </c>
+      <c r="E113" t="n">
+        <v>452</v>
+      </c>
+      <c r="F113" t="n">
+        <v>150</v>
+      </c>
+      <c r="G113" t="n">
+        <v>449.6133333333333</v>
+      </c>
+      <c r="H113" t="n">
+        <v>450.2516666666668</v>
+      </c>
+      <c r="I113" t="n">
+        <v>0</v>
+      </c>
+      <c r="J113" t="n">
+        <v>0</v>
+      </c>
+      <c r="K113" t="inlineStr"/>
+      <c r="L113" t="n">
+        <v>443.3</v>
+      </c>
+      <c r="M113" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M102" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="103">
-      <c r="A103" s="1" t="n">
-        <v>101</v>
-      </c>
-      <c r="B103" t="n">
-        <v>447.7</v>
-      </c>
-      <c r="C103" t="n">
-        <v>448</v>
-      </c>
-      <c r="D103" t="n">
-        <v>448</v>
-      </c>
-      <c r="E103" t="n">
-        <v>447.7</v>
-      </c>
-      <c r="F103" t="n">
-        <v>289.2084</v>
-      </c>
-      <c r="G103" t="n">
-        <v>451.6583333333334</v>
-      </c>
-      <c r="H103" t="n">
-        <v>0</v>
-      </c>
-      <c r="I103" t="n">
-        <v>0</v>
-      </c>
-      <c r="J103" t="inlineStr"/>
-      <c r="K103" t="n">
-        <v>447.3</v>
-      </c>
-      <c r="L103" t="inlineStr">
+      <c r="N113" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" s="1" t="n">
+        <v>112</v>
+      </c>
+      <c r="B114" t="n">
+        <v>452.6</v>
+      </c>
+      <c r="C114" t="n">
+        <v>452.6</v>
+      </c>
+      <c r="D114" t="n">
+        <v>452.6</v>
+      </c>
+      <c r="E114" t="n">
+        <v>452.6</v>
+      </c>
+      <c r="F114" t="n">
+        <v>260.1491</v>
+      </c>
+      <c r="G114" t="n">
+        <v>449.9399999999999</v>
+      </c>
+      <c r="H114" t="n">
+        <v>450.1116666666667</v>
+      </c>
+      <c r="I114" t="n">
+        <v>0</v>
+      </c>
+      <c r="J114" t="n">
+        <v>0</v>
+      </c>
+      <c r="K114" t="inlineStr"/>
+      <c r="L114" t="n">
+        <v>443.3</v>
+      </c>
+      <c r="M114" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M103" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="104">
-      <c r="A104" s="1" t="n">
-        <v>102</v>
-      </c>
-      <c r="B104" t="n">
-        <v>447.5</v>
-      </c>
-      <c r="C104" t="n">
-        <v>447.6</v>
-      </c>
-      <c r="D104" t="n">
-        <v>447.6</v>
-      </c>
-      <c r="E104" t="n">
-        <v>447.5</v>
-      </c>
-      <c r="F104" t="n">
-        <v>709.1495</v>
-      </c>
-      <c r="G104" t="n">
-        <v>451.4883333333334</v>
-      </c>
-      <c r="H104" t="n">
-        <v>0</v>
-      </c>
-      <c r="I104" t="n">
-        <v>0</v>
-      </c>
-      <c r="J104" t="inlineStr"/>
-      <c r="K104" t="n">
-        <v>447.3</v>
-      </c>
-      <c r="L104" t="inlineStr">
+      <c r="N114" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" s="1" t="n">
+        <v>113</v>
+      </c>
+      <c r="B115" t="n">
+        <v>452</v>
+      </c>
+      <c r="C115" t="n">
+        <v>453</v>
+      </c>
+      <c r="D115" t="n">
+        <v>453</v>
+      </c>
+      <c r="E115" t="n">
+        <v>452</v>
+      </c>
+      <c r="F115" t="n">
+        <v>400</v>
+      </c>
+      <c r="G115" t="n">
+        <v>450.5866666666666</v>
+      </c>
+      <c r="H115" t="n">
+        <v>449.9950000000001</v>
+      </c>
+      <c r="I115" t="n">
+        <v>0</v>
+      </c>
+      <c r="J115" t="n">
+        <v>0</v>
+      </c>
+      <c r="K115" t="inlineStr"/>
+      <c r="L115" t="n">
+        <v>443.3</v>
+      </c>
+      <c r="M115" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M104" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="105">
-      <c r="A105" s="1" t="n">
-        <v>103</v>
-      </c>
-      <c r="B105" t="n">
-        <v>447.5</v>
-      </c>
-      <c r="C105" t="n">
-        <v>447.5</v>
-      </c>
-      <c r="D105" t="n">
-        <v>447.5</v>
-      </c>
-      <c r="E105" t="n">
-        <v>447.5</v>
-      </c>
-      <c r="F105" t="n">
-        <v>3.2094</v>
-      </c>
-      <c r="G105" t="n">
-        <v>451.3166666666667</v>
-      </c>
-      <c r="H105" t="n">
-        <v>0</v>
-      </c>
-      <c r="I105" t="n">
-        <v>0</v>
-      </c>
-      <c r="J105" t="inlineStr"/>
-      <c r="K105" t="n">
-        <v>447.3</v>
-      </c>
-      <c r="L105" t="inlineStr">
+      <c r="N115" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" s="1" t="n">
+        <v>114</v>
+      </c>
+      <c r="B116" t="n">
+        <v>453.9</v>
+      </c>
+      <c r="C116" t="n">
+        <v>453.9</v>
+      </c>
+      <c r="D116" t="n">
+        <v>453.9</v>
+      </c>
+      <c r="E116" t="n">
+        <v>453.9</v>
+      </c>
+      <c r="F116" t="n">
+        <v>2800</v>
+      </c>
+      <c r="G116" t="n">
+        <v>450.9999999999999</v>
+      </c>
+      <c r="H116" t="n">
+        <v>449.8933333333334</v>
+      </c>
+      <c r="I116" t="n">
+        <v>0</v>
+      </c>
+      <c r="J116" t="n">
+        <v>0</v>
+      </c>
+      <c r="K116" t="inlineStr"/>
+      <c r="L116" t="n">
+        <v>443.3</v>
+      </c>
+      <c r="M116" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M105" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="106">
-      <c r="A106" s="1" t="n">
-        <v>104</v>
-      </c>
-      <c r="B106" t="n">
-        <v>449</v>
-      </c>
-      <c r="C106" t="n">
-        <v>448</v>
-      </c>
-      <c r="D106" t="n">
-        <v>449</v>
-      </c>
-      <c r="E106" t="n">
-        <v>448</v>
-      </c>
-      <c r="F106" t="n">
-        <v>2800</v>
-      </c>
-      <c r="G106" t="n">
-        <v>451.1533333333334</v>
-      </c>
-      <c r="H106" t="n">
-        <v>0</v>
-      </c>
-      <c r="I106" t="n">
-        <v>0</v>
-      </c>
-      <c r="J106" t="inlineStr"/>
-      <c r="K106" t="n">
-        <v>447.3</v>
-      </c>
-      <c r="L106" t="inlineStr">
+      <c r="N116" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" s="1" t="n">
+        <v>115</v>
+      </c>
+      <c r="B117" t="n">
+        <v>453.9</v>
+      </c>
+      <c r="C117" t="n">
+        <v>453.9</v>
+      </c>
+      <c r="D117" t="n">
+        <v>453.9</v>
+      </c>
+      <c r="E117" t="n">
+        <v>453.9</v>
+      </c>
+      <c r="F117" t="n">
+        <v>1541</v>
+      </c>
+      <c r="G117" t="n">
+        <v>451.4799999999999</v>
+      </c>
+      <c r="H117" t="n">
+        <v>449.7916666666668</v>
+      </c>
+      <c r="I117" t="n">
+        <v>0</v>
+      </c>
+      <c r="J117" t="n">
+        <v>0</v>
+      </c>
+      <c r="K117" t="inlineStr"/>
+      <c r="L117" t="n">
+        <v>443.3</v>
+      </c>
+      <c r="M117" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M106" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="107">
-      <c r="A107" s="1" t="n">
-        <v>105</v>
-      </c>
-      <c r="B107" t="n">
-        <v>450.9</v>
-      </c>
-      <c r="C107" t="n">
-        <v>450.9</v>
-      </c>
-      <c r="D107" t="n">
-        <v>450.9</v>
-      </c>
-      <c r="E107" t="n">
-        <v>450.9</v>
-      </c>
-      <c r="F107" t="n">
-        <v>1007.203371035706</v>
-      </c>
-      <c r="G107" t="n">
-        <v>451.0383333333335</v>
-      </c>
-      <c r="H107" t="n">
-        <v>0</v>
-      </c>
-      <c r="I107" t="n">
-        <v>0</v>
-      </c>
-      <c r="J107" t="inlineStr"/>
-      <c r="K107" t="n">
-        <v>447.3</v>
-      </c>
-      <c r="L107" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M107" t="n">
+      <c r="N117" t="n">
         <v>1</v>
       </c>
     </row>

--- a/BackTest/2020-01-24 BackTest WTC.xlsx
+++ b/BackTest/2020-01-24 BackTest WTC.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N117"/>
+  <dimension ref="A1:M146"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -394,40 +394,35 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>CMO</t>
+          <t>OBV</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>MA60</t>
+          <t>low_check</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>low_check</t>
+          <t>high_check</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
-          <t>high_check</t>
+          <t>BuyPrice</t>
         </is>
       </c>
       <c r="K1" s="1" t="inlineStr">
         <is>
-          <t>BuyPrice</t>
+          <t>bprelay</t>
         </is>
       </c>
       <c r="L1" s="1" t="inlineStr">
         <is>
-          <t>bprelay</t>
+          <t>Condition</t>
         </is>
       </c>
       <c r="M1" s="1" t="inlineStr">
-        <is>
-          <t>Condition</t>
-        </is>
-      </c>
-      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>Profits</t>
         </is>
@@ -438,36 +433,33 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>463.1</v>
+        <v>470</v>
       </c>
       <c r="C2" t="n">
-        <v>463.1</v>
+        <v>470</v>
       </c>
       <c r="D2" t="n">
-        <v>463.1</v>
+        <v>470</v>
       </c>
       <c r="E2" t="n">
-        <v>463.1</v>
+        <v>470</v>
       </c>
       <c r="F2" t="n">
-        <v>4970</v>
+        <v>29.4391</v>
       </c>
       <c r="G2" t="n">
-        <v>463.9600000000001</v>
+        <v>-37519.729</v>
       </c>
       <c r="H2" t="n">
-        <v>471.805</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
       </c>
-      <c r="J2" t="n">
-        <v>1</v>
-      </c>
+      <c r="J2" t="inlineStr"/>
       <c r="K2" t="inlineStr"/>
       <c r="L2" t="inlineStr"/>
-      <c r="M2" t="inlineStr"/>
-      <c r="N2" t="n">
+      <c r="M2" t="n">
         <v>1</v>
       </c>
     </row>
@@ -476,36 +468,33 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>463.1</v>
+        <v>470.5</v>
       </c>
       <c r="C3" t="n">
-        <v>463.1</v>
+        <v>470.6</v>
       </c>
       <c r="D3" t="n">
-        <v>463.1</v>
+        <v>470.7</v>
       </c>
       <c r="E3" t="n">
-        <v>463.1</v>
+        <v>470.5</v>
       </c>
       <c r="F3" t="n">
-        <v>2362</v>
+        <v>1029.9537</v>
       </c>
       <c r="G3" t="n">
-        <v>463.9200000000001</v>
+        <v>-36489.7753</v>
       </c>
       <c r="H3" t="n">
-        <v>471.4916666666666</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
       </c>
-      <c r="J3" t="n">
-        <v>1</v>
-      </c>
+      <c r="J3" t="inlineStr"/>
       <c r="K3" t="inlineStr"/>
       <c r="L3" t="inlineStr"/>
-      <c r="M3" t="inlineStr"/>
-      <c r="N3" t="n">
+      <c r="M3" t="n">
         <v>1</v>
       </c>
     </row>
@@ -514,36 +503,33 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>463.1</v>
+        <v>470.6</v>
       </c>
       <c r="C4" t="n">
-        <v>463.1</v>
+        <v>470.7</v>
       </c>
       <c r="D4" t="n">
-        <v>463.1</v>
+        <v>470.7</v>
       </c>
       <c r="E4" t="n">
-        <v>463.1</v>
+        <v>470.6</v>
       </c>
       <c r="F4" t="n">
-        <v>3681</v>
+        <v>347.8479</v>
       </c>
       <c r="G4" t="n">
-        <v>463.9200000000001</v>
+        <v>-36141.9274</v>
       </c>
       <c r="H4" t="n">
-        <v>471.2216666666666</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
-      </c>
-      <c r="J4" t="n">
-        <v>1</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="J4" t="inlineStr"/>
       <c r="K4" t="inlineStr"/>
       <c r="L4" t="inlineStr"/>
-      <c r="M4" t="inlineStr"/>
-      <c r="N4" t="n">
+      <c r="M4" t="n">
         <v>1</v>
       </c>
     </row>
@@ -552,36 +538,33 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>463.1</v>
+        <v>470.8</v>
       </c>
       <c r="C5" t="n">
-        <v>463</v>
+        <v>470.8</v>
       </c>
       <c r="D5" t="n">
-        <v>463.6</v>
+        <v>470.8</v>
       </c>
       <c r="E5" t="n">
-        <v>463</v>
+        <v>470.8</v>
       </c>
       <c r="F5" t="n">
-        <v>3176.4406</v>
+        <v>117.1</v>
       </c>
       <c r="G5" t="n">
-        <v>463.9133333333335</v>
+        <v>-36024.8274</v>
       </c>
       <c r="H5" t="n">
-        <v>470.9049999999999</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
-      </c>
-      <c r="J5" t="n">
-        <v>1</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="J5" t="inlineStr"/>
       <c r="K5" t="inlineStr"/>
       <c r="L5" t="inlineStr"/>
-      <c r="M5" t="inlineStr"/>
-      <c r="N5" t="n">
+      <c r="M5" t="n">
         <v>1</v>
       </c>
     </row>
@@ -590,36 +573,33 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>462.1</v>
+        <v>474.9</v>
       </c>
       <c r="C6" t="n">
-        <v>462.1</v>
+        <v>474.9</v>
       </c>
       <c r="D6" t="n">
-        <v>462.1</v>
+        <v>474.9</v>
       </c>
       <c r="E6" t="n">
-        <v>462.1</v>
+        <v>474.9</v>
       </c>
       <c r="F6" t="n">
-        <v>1430</v>
+        <v>1.2</v>
       </c>
       <c r="G6" t="n">
-        <v>463.8466666666667</v>
+        <v>-36023.6274</v>
       </c>
       <c r="H6" t="n">
-        <v>470.5316666666666</v>
+        <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
-      </c>
-      <c r="J6" t="n">
-        <v>1</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="J6" t="inlineStr"/>
       <c r="K6" t="inlineStr"/>
       <c r="L6" t="inlineStr"/>
-      <c r="M6" t="inlineStr"/>
-      <c r="N6" t="n">
+      <c r="M6" t="n">
         <v>1</v>
       </c>
     </row>
@@ -628,36 +608,33 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>462.1</v>
+        <v>471</v>
       </c>
       <c r="C7" t="n">
-        <v>462.1</v>
+        <v>471</v>
       </c>
       <c r="D7" t="n">
-        <v>462.1</v>
+        <v>471</v>
       </c>
       <c r="E7" t="n">
-        <v>462.1</v>
+        <v>471</v>
       </c>
       <c r="F7" t="n">
-        <v>34.804</v>
+        <v>1.07</v>
       </c>
       <c r="G7" t="n">
-        <v>463.5933333333335</v>
+        <v>-36024.6974</v>
       </c>
       <c r="H7" t="n">
-        <v>470.1616666666666</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
-      </c>
-      <c r="J7" t="n">
-        <v>1</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="J7" t="inlineStr"/>
       <c r="K7" t="inlineStr"/>
       <c r="L7" t="inlineStr"/>
-      <c r="M7" t="inlineStr"/>
-      <c r="N7" t="n">
+      <c r="M7" t="n">
         <v>1</v>
       </c>
     </row>
@@ -666,36 +643,33 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>461.7</v>
+        <v>471</v>
       </c>
       <c r="C8" t="n">
-        <v>460.1</v>
+        <v>471</v>
       </c>
       <c r="D8" t="n">
-        <v>461.7</v>
+        <v>471</v>
       </c>
       <c r="E8" t="n">
-        <v>460.1</v>
+        <v>471</v>
       </c>
       <c r="F8" t="n">
-        <v>653.6479</v>
+        <v>158.1363</v>
       </c>
       <c r="G8" t="n">
-        <v>463.2133333333335</v>
+        <v>-36024.6974</v>
       </c>
       <c r="H8" t="n">
-        <v>469.7533333333332</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
-      </c>
-      <c r="J8" t="n">
-        <v>1</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="J8" t="inlineStr"/>
       <c r="K8" t="inlineStr"/>
       <c r="L8" t="inlineStr"/>
-      <c r="M8" t="inlineStr"/>
-      <c r="N8" t="n">
+      <c r="M8" t="n">
         <v>1</v>
       </c>
     </row>
@@ -704,36 +678,33 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>460.5</v>
+        <v>471</v>
       </c>
       <c r="C9" t="n">
-        <v>460</v>
+        <v>471</v>
       </c>
       <c r="D9" t="n">
-        <v>460.5</v>
+        <v>471</v>
       </c>
       <c r="E9" t="n">
-        <v>460</v>
+        <v>471</v>
       </c>
       <c r="F9" t="n">
-        <v>17256.472</v>
+        <v>215.6406</v>
       </c>
       <c r="G9" t="n">
-        <v>463.0066666666668</v>
+        <v>-36024.6974</v>
       </c>
       <c r="H9" t="n">
-        <v>469.3433333333332</v>
+        <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>0</v>
-      </c>
-      <c r="J9" t="n">
-        <v>1</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="J9" t="inlineStr"/>
       <c r="K9" t="inlineStr"/>
       <c r="L9" t="inlineStr"/>
-      <c r="M9" t="inlineStr"/>
-      <c r="N9" t="n">
+      <c r="M9" t="n">
         <v>1</v>
       </c>
     </row>
@@ -742,36 +713,33 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>462.9</v>
+        <v>470</v>
       </c>
       <c r="C10" t="n">
-        <v>462.9</v>
+        <v>467.8</v>
       </c>
       <c r="D10" t="n">
-        <v>462.9</v>
+        <v>470</v>
       </c>
       <c r="E10" t="n">
-        <v>462.9</v>
+        <v>467.8</v>
       </c>
       <c r="F10" t="n">
-        <v>100</v>
+        <v>620.7521</v>
       </c>
       <c r="G10" t="n">
-        <v>462.8066666666668</v>
+        <v>-36645.4495</v>
       </c>
       <c r="H10" t="n">
-        <v>468.9816666666666</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
       </c>
-      <c r="J10" t="n">
-        <v>1</v>
-      </c>
+      <c r="J10" t="inlineStr"/>
       <c r="K10" t="inlineStr"/>
       <c r="L10" t="inlineStr"/>
-      <c r="M10" t="inlineStr"/>
-      <c r="N10" t="n">
+      <c r="M10" t="n">
         <v>1</v>
       </c>
     </row>
@@ -780,36 +748,33 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>461.9</v>
+        <v>467.9</v>
       </c>
       <c r="C11" t="n">
-        <v>461.9</v>
+        <v>467.9</v>
       </c>
       <c r="D11" t="n">
-        <v>461.9</v>
+        <v>467.9</v>
       </c>
       <c r="E11" t="n">
-        <v>461.9</v>
+        <v>467.9</v>
       </c>
       <c r="F11" t="n">
-        <v>2</v>
+        <v>4082.02</v>
       </c>
       <c r="G11" t="n">
-        <v>462.4733333333335</v>
+        <v>-32563.4295</v>
       </c>
       <c r="H11" t="n">
-        <v>468.6033333333334</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
       </c>
-      <c r="J11" t="n">
-        <v>1</v>
-      </c>
+      <c r="J11" t="inlineStr"/>
       <c r="K11" t="inlineStr"/>
       <c r="L11" t="inlineStr"/>
-      <c r="M11" t="inlineStr"/>
-      <c r="N11" t="n">
+      <c r="M11" t="n">
         <v>1</v>
       </c>
     </row>
@@ -818,36 +783,33 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>460.2</v>
+        <v>467.7</v>
       </c>
       <c r="C12" t="n">
-        <v>460</v>
+        <v>469.9</v>
       </c>
       <c r="D12" t="n">
-        <v>460.2</v>
+        <v>469.9</v>
       </c>
       <c r="E12" t="n">
-        <v>460</v>
+        <v>467.3</v>
       </c>
       <c r="F12" t="n">
-        <v>1163.522</v>
+        <v>2942.3592</v>
       </c>
       <c r="G12" t="n">
-        <v>462.2533333333334</v>
+        <v>-29621.0703</v>
       </c>
       <c r="H12" t="n">
-        <v>468.2816666666667</v>
+        <v>0</v>
       </c>
       <c r="I12" t="n">
         <v>0</v>
       </c>
-      <c r="J12" t="n">
-        <v>1</v>
-      </c>
+      <c r="J12" t="inlineStr"/>
       <c r="K12" t="inlineStr"/>
       <c r="L12" t="inlineStr"/>
-      <c r="M12" t="inlineStr"/>
-      <c r="N12" t="n">
+      <c r="M12" t="n">
         <v>1</v>
       </c>
     </row>
@@ -856,36 +818,33 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>460</v>
+        <v>466.8</v>
       </c>
       <c r="C13" t="n">
-        <v>460</v>
+        <v>470.7</v>
       </c>
       <c r="D13" t="n">
-        <v>460</v>
+        <v>470.7</v>
       </c>
       <c r="E13" t="n">
-        <v>460</v>
+        <v>466.8</v>
       </c>
       <c r="F13" t="n">
-        <v>2768.4405</v>
+        <v>890.6792</v>
       </c>
       <c r="G13" t="n">
-        <v>462.0466666666668</v>
+        <v>-28730.3911</v>
       </c>
       <c r="H13" t="n">
-        <v>467.9483333333334</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
       </c>
-      <c r="J13" t="n">
-        <v>1</v>
-      </c>
+      <c r="J13" t="inlineStr"/>
       <c r="K13" t="inlineStr"/>
       <c r="L13" t="inlineStr"/>
-      <c r="M13" t="inlineStr"/>
-      <c r="N13" t="n">
+      <c r="M13" t="n">
         <v>1</v>
       </c>
     </row>
@@ -894,36 +853,33 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>460</v>
+        <v>469.6</v>
       </c>
       <c r="C14" t="n">
-        <v>460</v>
+        <v>470.5</v>
       </c>
       <c r="D14" t="n">
-        <v>460</v>
+        <v>470.5</v>
       </c>
       <c r="E14" t="n">
-        <v>460</v>
+        <v>469.6</v>
       </c>
       <c r="F14" t="n">
-        <v>613.706</v>
+        <v>81.23390000000001</v>
       </c>
       <c r="G14" t="n">
-        <v>461.8400000000001</v>
+        <v>-28811.625</v>
       </c>
       <c r="H14" t="n">
-        <v>467.6216666666667</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
       </c>
-      <c r="J14" t="n">
-        <v>1</v>
-      </c>
+      <c r="J14" t="inlineStr"/>
       <c r="K14" t="inlineStr"/>
       <c r="L14" t="inlineStr"/>
-      <c r="M14" t="inlineStr"/>
-      <c r="N14" t="n">
+      <c r="M14" t="n">
         <v>1</v>
       </c>
     </row>
@@ -932,36 +888,33 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>459</v>
+        <v>470.5</v>
       </c>
       <c r="C15" t="n">
-        <v>457</v>
+        <v>463.7</v>
       </c>
       <c r="D15" t="n">
-        <v>459</v>
+        <v>470.5</v>
       </c>
       <c r="E15" t="n">
-        <v>457</v>
+        <v>463.7</v>
       </c>
       <c r="F15" t="n">
-        <v>2545</v>
+        <v>830.6659</v>
       </c>
       <c r="G15" t="n">
-        <v>461.4333333333334</v>
+        <v>-29642.2909</v>
       </c>
       <c r="H15" t="n">
-        <v>467.2516666666667</v>
+        <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
-      </c>
-      <c r="J15" t="n">
-        <v>1</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="J15" t="inlineStr"/>
       <c r="K15" t="inlineStr"/>
       <c r="L15" t="inlineStr"/>
-      <c r="M15" t="inlineStr"/>
-      <c r="N15" t="n">
+      <c r="M15" t="n">
         <v>1</v>
       </c>
     </row>
@@ -970,36 +923,33 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>457</v>
+        <v>465</v>
       </c>
       <c r="C16" t="n">
-        <v>451</v>
+        <v>463.7</v>
       </c>
       <c r="D16" t="n">
-        <v>457</v>
+        <v>465</v>
       </c>
       <c r="E16" t="n">
-        <v>451</v>
+        <v>463.7</v>
       </c>
       <c r="F16" t="n">
-        <v>6820</v>
+        <v>2141</v>
       </c>
       <c r="G16" t="n">
-        <v>460.6266666666667</v>
+        <v>-29642.2909</v>
       </c>
       <c r="H16" t="n">
-        <v>466.7816666666667</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
       </c>
-      <c r="J16" t="n">
-        <v>1</v>
-      </c>
+      <c r="J16" t="inlineStr"/>
       <c r="K16" t="inlineStr"/>
       <c r="L16" t="inlineStr"/>
-      <c r="M16" t="inlineStr"/>
-      <c r="N16" t="n">
+      <c r="M16" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1008,36 +958,33 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>451.1</v>
+        <v>463.9</v>
       </c>
       <c r="C17" t="n">
-        <v>451</v>
+        <v>463.7</v>
       </c>
       <c r="D17" t="n">
-        <v>452</v>
+        <v>463.9</v>
       </c>
       <c r="E17" t="n">
-        <v>450.9</v>
+        <v>463.7</v>
       </c>
       <c r="F17" t="n">
-        <v>11396.0494</v>
+        <v>791.6233999999999</v>
       </c>
       <c r="G17" t="n">
-        <v>459.82</v>
+        <v>-29642.2909</v>
       </c>
       <c r="H17" t="n">
-        <v>466.3566666666667</v>
+        <v>0</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
       </c>
-      <c r="J17" t="n">
-        <v>0</v>
-      </c>
+      <c r="J17" t="inlineStr"/>
       <c r="K17" t="inlineStr"/>
       <c r="L17" t="inlineStr"/>
-      <c r="M17" t="inlineStr"/>
-      <c r="N17" t="n">
+      <c r="M17" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1046,36 +993,33 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>451.1</v>
+        <v>463.1</v>
       </c>
       <c r="C18" t="n">
-        <v>451</v>
+        <v>463.1</v>
       </c>
       <c r="D18" t="n">
-        <v>451.1</v>
+        <v>463.1</v>
       </c>
       <c r="E18" t="n">
-        <v>451</v>
+        <v>463.1</v>
       </c>
       <c r="F18" t="n">
-        <v>1525</v>
+        <v>45</v>
       </c>
       <c r="G18" t="n">
-        <v>459.0133333333333</v>
+        <v>-29687.2909</v>
       </c>
       <c r="H18" t="n">
-        <v>465.9316666666667</v>
+        <v>0</v>
       </c>
       <c r="I18" t="n">
         <v>0</v>
       </c>
-      <c r="J18" t="n">
-        <v>0</v>
-      </c>
+      <c r="J18" t="inlineStr"/>
       <c r="K18" t="inlineStr"/>
       <c r="L18" t="inlineStr"/>
-      <c r="M18" t="inlineStr"/>
-      <c r="N18" t="n">
+      <c r="M18" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1084,36 +1028,33 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>465.9</v>
+        <v>463.2</v>
       </c>
       <c r="C19" t="n">
-        <v>451.4</v>
+        <v>463.1</v>
       </c>
       <c r="D19" t="n">
-        <v>465.9</v>
+        <v>463.2</v>
       </c>
       <c r="E19" t="n">
-        <v>451.3</v>
+        <v>463.1</v>
       </c>
       <c r="F19" t="n">
-        <v>1175</v>
+        <v>4400</v>
       </c>
       <c r="G19" t="n">
-        <v>458.2333333333333</v>
+        <v>-29687.2909</v>
       </c>
       <c r="H19" t="n">
-        <v>465.5133333333334</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
       </c>
-      <c r="J19" t="n">
-        <v>0</v>
-      </c>
+      <c r="J19" t="inlineStr"/>
       <c r="K19" t="inlineStr"/>
       <c r="L19" t="inlineStr"/>
-      <c r="M19" t="inlineStr"/>
-      <c r="N19" t="n">
+      <c r="M19" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1122,36 +1063,33 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>452</v>
+        <v>463.2</v>
       </c>
       <c r="C20" t="n">
-        <v>452</v>
+        <v>463.1</v>
       </c>
       <c r="D20" t="n">
-        <v>452</v>
+        <v>463.2</v>
       </c>
       <c r="E20" t="n">
-        <v>452</v>
+        <v>463.1</v>
       </c>
       <c r="F20" t="n">
-        <v>1450</v>
+        <v>1400</v>
       </c>
       <c r="G20" t="n">
-        <v>457.4999999999999</v>
+        <v>-29687.2909</v>
       </c>
       <c r="H20" t="n">
-        <v>465.1050000000001</v>
+        <v>0</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
       </c>
-      <c r="J20" t="n">
-        <v>0</v>
-      </c>
+      <c r="J20" t="inlineStr"/>
       <c r="K20" t="inlineStr"/>
       <c r="L20" t="inlineStr"/>
-      <c r="M20" t="inlineStr"/>
-      <c r="N20" t="n">
+      <c r="M20" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1160,36 +1098,33 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>452</v>
+        <v>465.9</v>
       </c>
       <c r="C21" t="n">
-        <v>452</v>
+        <v>465.9</v>
       </c>
       <c r="D21" t="n">
-        <v>452</v>
+        <v>465.9</v>
       </c>
       <c r="E21" t="n">
-        <v>452</v>
+        <v>465.9</v>
       </c>
       <c r="F21" t="n">
-        <v>455</v>
+        <v>428.205</v>
       </c>
       <c r="G21" t="n">
-        <v>456.8266666666666</v>
+        <v>-29259.0859</v>
       </c>
       <c r="H21" t="n">
-        <v>464.7950000000001</v>
+        <v>0</v>
       </c>
       <c r="I21" t="n">
         <v>0</v>
       </c>
-      <c r="J21" t="n">
-        <v>0</v>
-      </c>
+      <c r="J21" t="inlineStr"/>
       <c r="K21" t="inlineStr"/>
       <c r="L21" t="inlineStr"/>
-      <c r="M21" t="inlineStr"/>
-      <c r="N21" t="n">
+      <c r="M21" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1198,36 +1133,33 @@
         <v>20</v>
       </c>
       <c r="B22" t="n">
-        <v>453</v>
+        <v>465.8</v>
       </c>
       <c r="C22" t="n">
-        <v>453</v>
+        <v>465.8</v>
       </c>
       <c r="D22" t="n">
-        <v>453.1</v>
+        <v>465.8</v>
       </c>
       <c r="E22" t="n">
-        <v>453</v>
+        <v>465.8</v>
       </c>
       <c r="F22" t="n">
-        <v>350</v>
+        <v>62.0995</v>
       </c>
       <c r="G22" t="n">
-        <v>456.2199999999999</v>
+        <v>-29321.1854</v>
       </c>
       <c r="H22" t="n">
-        <v>464.4750000000001</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
-      </c>
-      <c r="J22" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="J22" t="inlineStr"/>
       <c r="K22" t="inlineStr"/>
       <c r="L22" t="inlineStr"/>
-      <c r="M22" t="inlineStr"/>
-      <c r="N22" t="n">
+      <c r="M22" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1236,36 +1168,33 @@
         <v>21</v>
       </c>
       <c r="B23" t="n">
-        <v>453</v>
+        <v>465.8</v>
       </c>
       <c r="C23" t="n">
-        <v>453</v>
+        <v>463.1</v>
       </c>
       <c r="D23" t="n">
-        <v>453</v>
+        <v>465.8</v>
       </c>
       <c r="E23" t="n">
-        <v>453</v>
+        <v>463.1</v>
       </c>
       <c r="F23" t="n">
-        <v>2100</v>
+        <v>2119.8725</v>
       </c>
       <c r="G23" t="n">
-        <v>455.7466666666666</v>
+        <v>-31441.0579</v>
       </c>
       <c r="H23" t="n">
-        <v>464.1833333333334</v>
+        <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>0</v>
-      </c>
-      <c r="J23" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="J23" t="inlineStr"/>
       <c r="K23" t="inlineStr"/>
       <c r="L23" t="inlineStr"/>
-      <c r="M23" t="inlineStr"/>
-      <c r="N23" t="n">
+      <c r="M23" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1274,36 +1203,33 @@
         <v>22</v>
       </c>
       <c r="B24" t="n">
-        <v>453</v>
+        <v>465.9</v>
       </c>
       <c r="C24" t="n">
-        <v>453</v>
+        <v>465.9</v>
       </c>
       <c r="D24" t="n">
-        <v>453</v>
+        <v>465.9</v>
       </c>
       <c r="E24" t="n">
-        <v>453</v>
+        <v>465.9</v>
       </c>
       <c r="F24" t="n">
-        <v>4791.7288</v>
+        <v>17.3888</v>
       </c>
       <c r="G24" t="n">
-        <v>455.2799999999999</v>
+        <v>-31423.6691</v>
       </c>
       <c r="H24" t="n">
-        <v>463.8516666666667</v>
+        <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
-      </c>
-      <c r="J24" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="J24" t="inlineStr"/>
       <c r="K24" t="inlineStr"/>
       <c r="L24" t="inlineStr"/>
-      <c r="M24" t="inlineStr"/>
-      <c r="N24" t="n">
+      <c r="M24" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1312,36 +1238,33 @@
         <v>23</v>
       </c>
       <c r="B25" t="n">
-        <v>453</v>
+        <v>465.9</v>
       </c>
       <c r="C25" t="n">
-        <v>450</v>
+        <v>466.9</v>
       </c>
       <c r="D25" t="n">
-        <v>453</v>
+        <v>466.9</v>
       </c>
       <c r="E25" t="n">
-        <v>450</v>
+        <v>465.9</v>
       </c>
       <c r="F25" t="n">
-        <v>1590</v>
+        <v>1480</v>
       </c>
       <c r="G25" t="n">
-        <v>454.4199999999999</v>
+        <v>-29943.6691</v>
       </c>
       <c r="H25" t="n">
-        <v>463.51</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
-      </c>
-      <c r="J25" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="J25" t="inlineStr"/>
       <c r="K25" t="inlineStr"/>
       <c r="L25" t="inlineStr"/>
-      <c r="M25" t="inlineStr"/>
-      <c r="N25" t="n">
+      <c r="M25" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1350,36 +1273,33 @@
         <v>24</v>
       </c>
       <c r="B26" t="n">
-        <v>459.5</v>
+        <v>463.3</v>
       </c>
       <c r="C26" t="n">
-        <v>460.8</v>
+        <v>463.3</v>
       </c>
       <c r="D26" t="n">
-        <v>460.8</v>
+        <v>463.3</v>
       </c>
       <c r="E26" t="n">
-        <v>459.5</v>
+        <v>463.3</v>
       </c>
       <c r="F26" t="n">
-        <v>81.6078</v>
+        <v>78.57089999999999</v>
       </c>
       <c r="G26" t="n">
-        <v>454.3466666666666</v>
+        <v>-30022.24</v>
       </c>
       <c r="H26" t="n">
-        <v>463.3233333333334</v>
+        <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>0</v>
-      </c>
-      <c r="J26" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="J26" t="inlineStr"/>
       <c r="K26" t="inlineStr"/>
       <c r="L26" t="inlineStr"/>
-      <c r="M26" t="inlineStr"/>
-      <c r="N26" t="n">
+      <c r="M26" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1388,36 +1308,33 @@
         <v>25</v>
       </c>
       <c r="B27" t="n">
-        <v>459.9</v>
+        <v>463.3</v>
       </c>
       <c r="C27" t="n">
-        <v>455.8</v>
+        <v>463.1</v>
       </c>
       <c r="D27" t="n">
-        <v>459.9</v>
+        <v>463.3</v>
       </c>
       <c r="E27" t="n">
-        <v>451</v>
+        <v>463.1</v>
       </c>
       <c r="F27" t="n">
-        <v>1262.9037</v>
+        <v>1445</v>
       </c>
       <c r="G27" t="n">
-        <v>454.0666666666666</v>
+        <v>-31467.24</v>
       </c>
       <c r="H27" t="n">
-        <v>463.0783333333333</v>
+        <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
-      </c>
-      <c r="J27" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="J27" t="inlineStr"/>
       <c r="K27" t="inlineStr"/>
       <c r="L27" t="inlineStr"/>
-      <c r="M27" t="inlineStr"/>
-      <c r="N27" t="n">
+      <c r="M27" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1426,36 +1343,33 @@
         <v>26</v>
       </c>
       <c r="B28" t="n">
-        <v>453</v>
+        <v>463.1</v>
       </c>
       <c r="C28" t="n">
-        <v>457.5</v>
+        <v>463.1</v>
       </c>
       <c r="D28" t="n">
-        <v>457.5</v>
+        <v>463.1</v>
       </c>
       <c r="E28" t="n">
-        <v>453</v>
+        <v>463.1</v>
       </c>
       <c r="F28" t="n">
-        <v>2500</v>
+        <v>10340.5075</v>
       </c>
       <c r="G28" t="n">
-        <v>453.8999999999999</v>
+        <v>-31467.24</v>
       </c>
       <c r="H28" t="n">
-        <v>462.8616666666667</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
       </c>
-      <c r="J28" t="n">
-        <v>0</v>
-      </c>
+      <c r="J28" t="inlineStr"/>
       <c r="K28" t="inlineStr"/>
       <c r="L28" t="inlineStr"/>
-      <c r="M28" t="inlineStr"/>
-      <c r="N28" t="n">
+      <c r="M28" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1464,36 +1378,33 @@
         <v>27</v>
       </c>
       <c r="B29" t="n">
-        <v>452</v>
+        <v>463.1</v>
       </c>
       <c r="C29" t="n">
-        <v>452</v>
+        <v>463.1</v>
       </c>
       <c r="D29" t="n">
-        <v>452</v>
+        <v>463.1</v>
       </c>
       <c r="E29" t="n">
-        <v>452</v>
+        <v>463.1</v>
       </c>
       <c r="F29" t="n">
-        <v>76.01000000000001</v>
+        <v>350</v>
       </c>
       <c r="G29" t="n">
-        <v>453.3666666666666</v>
+        <v>-31467.24</v>
       </c>
       <c r="H29" t="n">
-        <v>462.5533333333333</v>
+        <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>0</v>
-      </c>
-      <c r="J29" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="J29" t="inlineStr"/>
       <c r="K29" t="inlineStr"/>
       <c r="L29" t="inlineStr"/>
-      <c r="M29" t="inlineStr"/>
-      <c r="N29" t="n">
+      <c r="M29" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1502,36 +1413,33 @@
         <v>28</v>
       </c>
       <c r="B30" t="n">
-        <v>452.1</v>
+        <v>463.1</v>
       </c>
       <c r="C30" t="n">
-        <v>452</v>
+        <v>463.1</v>
       </c>
       <c r="D30" t="n">
-        <v>452.1</v>
+        <v>463.1</v>
       </c>
       <c r="E30" t="n">
-        <v>452</v>
+        <v>463.1</v>
       </c>
       <c r="F30" t="n">
-        <v>89.1649</v>
+        <v>2731</v>
       </c>
       <c r="G30" t="n">
-        <v>453.0333333333332</v>
+        <v>-31467.24</v>
       </c>
       <c r="H30" t="n">
-        <v>462.245</v>
+        <v>0</v>
       </c>
       <c r="I30" t="n">
         <v>0</v>
       </c>
-      <c r="J30" t="n">
-        <v>0</v>
-      </c>
+      <c r="J30" t="inlineStr"/>
       <c r="K30" t="inlineStr"/>
       <c r="L30" t="inlineStr"/>
-      <c r="M30" t="inlineStr"/>
-      <c r="N30" t="n">
+      <c r="M30" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1540,36 +1448,33 @@
         <v>29</v>
       </c>
       <c r="B31" t="n">
-        <v>452</v>
+        <v>463.1</v>
       </c>
       <c r="C31" t="n">
-        <v>452</v>
+        <v>463.1</v>
       </c>
       <c r="D31" t="n">
-        <v>452</v>
+        <v>463.1</v>
       </c>
       <c r="E31" t="n">
-        <v>452</v>
+        <v>463.1</v>
       </c>
       <c r="F31" t="n">
-        <v>8.019399999999999</v>
+        <v>4970</v>
       </c>
       <c r="G31" t="n">
-        <v>453.1</v>
+        <v>-31467.24</v>
       </c>
       <c r="H31" t="n">
-        <v>461.94</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
-      </c>
-      <c r="J31" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="J31" t="inlineStr"/>
       <c r="K31" t="inlineStr"/>
       <c r="L31" t="inlineStr"/>
-      <c r="M31" t="inlineStr"/>
-      <c r="N31" t="n">
+      <c r="M31" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1578,36 +1483,33 @@
         <v>30</v>
       </c>
       <c r="B32" t="n">
-        <v>452</v>
+        <v>463.1</v>
       </c>
       <c r="C32" t="n">
-        <v>452</v>
+        <v>463.1</v>
       </c>
       <c r="D32" t="n">
-        <v>452</v>
+        <v>463.1</v>
       </c>
       <c r="E32" t="n">
-        <v>452</v>
+        <v>463.1</v>
       </c>
       <c r="F32" t="n">
-        <v>723.3516</v>
+        <v>2362</v>
       </c>
       <c r="G32" t="n">
-        <v>453.1666666666666</v>
+        <v>-31467.24</v>
       </c>
       <c r="H32" t="n">
-        <v>461.64</v>
+        <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>0</v>
-      </c>
-      <c r="J32" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="J32" t="inlineStr"/>
       <c r="K32" t="inlineStr"/>
       <c r="L32" t="inlineStr"/>
-      <c r="M32" t="inlineStr"/>
-      <c r="N32" t="n">
+      <c r="M32" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1616,36 +1518,33 @@
         <v>31</v>
       </c>
       <c r="B33" t="n">
-        <v>452.1</v>
+        <v>463.1</v>
       </c>
       <c r="C33" t="n">
-        <v>452.1</v>
+        <v>463.1</v>
       </c>
       <c r="D33" t="n">
-        <v>453</v>
+        <v>463.1</v>
       </c>
       <c r="E33" t="n">
-        <v>452.1</v>
+        <v>463.1</v>
       </c>
       <c r="F33" t="n">
-        <v>1321.31</v>
+        <v>3681</v>
       </c>
       <c r="G33" t="n">
-        <v>453.24</v>
+        <v>-31467.24</v>
       </c>
       <c r="H33" t="n">
-        <v>461.3416666666666</v>
+        <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
-      </c>
-      <c r="J33" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="J33" t="inlineStr"/>
       <c r="K33" t="inlineStr"/>
       <c r="L33" t="inlineStr"/>
-      <c r="M33" t="inlineStr"/>
-      <c r="N33" t="n">
+      <c r="M33" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1654,36 +1553,33 @@
         <v>32</v>
       </c>
       <c r="B34" t="n">
-        <v>453</v>
+        <v>463.1</v>
       </c>
       <c r="C34" t="n">
-        <v>452.2</v>
+        <v>463</v>
       </c>
       <c r="D34" t="n">
-        <v>453</v>
+        <v>463.6</v>
       </c>
       <c r="E34" t="n">
-        <v>452.2</v>
+        <v>463</v>
       </c>
       <c r="F34" t="n">
-        <v>2800</v>
+        <v>3176.4406</v>
       </c>
       <c r="G34" t="n">
-        <v>453.2933333333333</v>
+        <v>-34643.6806</v>
       </c>
       <c r="H34" t="n">
-        <v>461.035</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
-      </c>
-      <c r="J34" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="J34" t="inlineStr"/>
       <c r="K34" t="inlineStr"/>
       <c r="L34" t="inlineStr"/>
-      <c r="M34" t="inlineStr"/>
-      <c r="N34" t="n">
+      <c r="M34" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1692,36 +1588,33 @@
         <v>33</v>
       </c>
       <c r="B35" t="n">
-        <v>456.9</v>
+        <v>462.1</v>
       </c>
       <c r="C35" t="n">
-        <v>456.9</v>
+        <v>462.1</v>
       </c>
       <c r="D35" t="n">
-        <v>456.9</v>
+        <v>462.1</v>
       </c>
       <c r="E35" t="n">
-        <v>456.9</v>
+        <v>462.1</v>
       </c>
       <c r="F35" t="n">
-        <v>720.1798</v>
+        <v>1430</v>
       </c>
       <c r="G35" t="n">
-        <v>453.6199999999999</v>
+        <v>-36073.6806</v>
       </c>
       <c r="H35" t="n">
-        <v>460.8050000000001</v>
+        <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>0</v>
-      </c>
-      <c r="J35" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="J35" t="inlineStr"/>
       <c r="K35" t="inlineStr"/>
       <c r="L35" t="inlineStr"/>
-      <c r="M35" t="inlineStr"/>
-      <c r="N35" t="n">
+      <c r="M35" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1730,36 +1623,33 @@
         <v>34</v>
       </c>
       <c r="B36" t="n">
-        <v>456.9</v>
+        <v>462.1</v>
       </c>
       <c r="C36" t="n">
-        <v>452.2</v>
+        <v>462.1</v>
       </c>
       <c r="D36" t="n">
-        <v>456.9</v>
+        <v>462.1</v>
       </c>
       <c r="E36" t="n">
-        <v>452.2</v>
+        <v>462.1</v>
       </c>
       <c r="F36" t="n">
-        <v>7713.7844</v>
+        <v>34.804</v>
       </c>
       <c r="G36" t="n">
-        <v>453.6333333333333</v>
+        <v>-36073.6806</v>
       </c>
       <c r="H36" t="n">
-        <v>460.4950000000001</v>
+        <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
-      </c>
-      <c r="J36" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="J36" t="inlineStr"/>
       <c r="K36" t="inlineStr"/>
       <c r="L36" t="inlineStr"/>
-      <c r="M36" t="inlineStr"/>
-      <c r="N36" t="n">
+      <c r="M36" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1768,36 +1658,33 @@
         <v>35</v>
       </c>
       <c r="B37" t="n">
-        <v>457.8</v>
+        <v>461.7</v>
       </c>
       <c r="C37" t="n">
-        <v>457.8</v>
+        <v>460.1</v>
       </c>
       <c r="D37" t="n">
-        <v>457.8</v>
+        <v>461.7</v>
       </c>
       <c r="E37" t="n">
-        <v>457.8</v>
+        <v>460.1</v>
       </c>
       <c r="F37" t="n">
-        <v>1.1</v>
+        <v>653.6479</v>
       </c>
       <c r="G37" t="n">
-        <v>453.9533333333333</v>
+        <v>-36727.3285</v>
       </c>
       <c r="H37" t="n">
-        <v>460.21</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
-      </c>
-      <c r="J37" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="J37" t="inlineStr"/>
       <c r="K37" t="inlineStr"/>
       <c r="L37" t="inlineStr"/>
-      <c r="M37" t="inlineStr"/>
-      <c r="N37" t="n">
+      <c r="M37" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1806,36 +1693,33 @@
         <v>36</v>
       </c>
       <c r="B38" t="n">
-        <v>452.3</v>
+        <v>460.5</v>
       </c>
       <c r="C38" t="n">
-        <v>452.1</v>
+        <v>460</v>
       </c>
       <c r="D38" t="n">
-        <v>452.3</v>
+        <v>460.5</v>
       </c>
       <c r="E38" t="n">
-        <v>452.1</v>
+        <v>460</v>
       </c>
       <c r="F38" t="n">
-        <v>1400</v>
+        <v>17256.472</v>
       </c>
       <c r="G38" t="n">
-        <v>453.8933333333333</v>
+        <v>-53983.8005</v>
       </c>
       <c r="H38" t="n">
-        <v>459.895</v>
+        <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>0</v>
-      </c>
-      <c r="J38" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="J38" t="inlineStr"/>
       <c r="K38" t="inlineStr"/>
       <c r="L38" t="inlineStr"/>
-      <c r="M38" t="inlineStr"/>
-      <c r="N38" t="n">
+      <c r="M38" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1844,36 +1728,33 @@
         <v>37</v>
       </c>
       <c r="B39" t="n">
-        <v>457.8</v>
+        <v>462.9</v>
       </c>
       <c r="C39" t="n">
-        <v>457.8</v>
+        <v>462.9</v>
       </c>
       <c r="D39" t="n">
-        <v>457.8</v>
+        <v>462.9</v>
       </c>
       <c r="E39" t="n">
-        <v>457.8</v>
+        <v>462.9</v>
       </c>
       <c r="F39" t="n">
-        <v>1.1</v>
+        <v>100</v>
       </c>
       <c r="G39" t="n">
-        <v>454.2133333333333</v>
+        <v>-53883.8005</v>
       </c>
       <c r="H39" t="n">
-        <v>459.675</v>
+        <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
-      </c>
-      <c r="J39" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="J39" t="inlineStr"/>
       <c r="K39" t="inlineStr"/>
       <c r="L39" t="inlineStr"/>
-      <c r="M39" t="inlineStr"/>
-      <c r="N39" t="n">
+      <c r="M39" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1882,36 +1763,33 @@
         <v>38</v>
       </c>
       <c r="B40" t="n">
-        <v>459.9</v>
+        <v>461.9</v>
       </c>
       <c r="C40" t="n">
-        <v>459.9</v>
+        <v>461.9</v>
       </c>
       <c r="D40" t="n">
-        <v>459.9</v>
+        <v>461.9</v>
       </c>
       <c r="E40" t="n">
-        <v>459.9</v>
+        <v>461.9</v>
       </c>
       <c r="F40" t="n">
-        <v>1170.1267</v>
+        <v>2</v>
       </c>
       <c r="G40" t="n">
-        <v>454.8733333333333</v>
+        <v>-53885.8005</v>
       </c>
       <c r="H40" t="n">
-        <v>459.49</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
-      </c>
-      <c r="J40" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="J40" t="inlineStr"/>
       <c r="K40" t="inlineStr"/>
       <c r="L40" t="inlineStr"/>
-      <c r="M40" t="inlineStr"/>
-      <c r="N40" t="n">
+      <c r="M40" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1920,36 +1798,33 @@
         <v>39</v>
       </c>
       <c r="B41" t="n">
-        <v>457.8</v>
+        <v>460.2</v>
       </c>
       <c r="C41" t="n">
-        <v>457.8</v>
+        <v>460</v>
       </c>
       <c r="D41" t="n">
-        <v>457.8</v>
+        <v>460.2</v>
       </c>
       <c r="E41" t="n">
-        <v>457.8</v>
+        <v>460</v>
       </c>
       <c r="F41" t="n">
-        <v>415</v>
+        <v>1163.522</v>
       </c>
       <c r="G41" t="n">
-        <v>454.6733333333333</v>
+        <v>-55049.3225</v>
       </c>
       <c r="H41" t="n">
-        <v>459.3233333333334</v>
+        <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>0</v>
-      </c>
-      <c r="J41" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="J41" t="inlineStr"/>
       <c r="K41" t="inlineStr"/>
       <c r="L41" t="inlineStr"/>
-      <c r="M41" t="inlineStr"/>
-      <c r="N41" t="n">
+      <c r="M41" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1958,36 +1833,33 @@
         <v>40</v>
       </c>
       <c r="B42" t="n">
-        <v>457.8</v>
+        <v>460</v>
       </c>
       <c r="C42" t="n">
-        <v>457.8</v>
+        <v>460</v>
       </c>
       <c r="D42" t="n">
-        <v>457.8</v>
+        <v>460</v>
       </c>
       <c r="E42" t="n">
-        <v>457.8</v>
+        <v>460</v>
       </c>
       <c r="F42" t="n">
-        <v>1400</v>
+        <v>2768.4405</v>
       </c>
       <c r="G42" t="n">
-        <v>454.8066666666666</v>
+        <v>-55049.3225</v>
       </c>
       <c r="H42" t="n">
-        <v>459.155</v>
+        <v>0</v>
       </c>
       <c r="I42" t="n">
         <v>0</v>
       </c>
-      <c r="J42" t="n">
-        <v>0</v>
-      </c>
+      <c r="J42" t="inlineStr"/>
       <c r="K42" t="inlineStr"/>
       <c r="L42" t="inlineStr"/>
-      <c r="M42" t="inlineStr"/>
-      <c r="N42" t="n">
+      <c r="M42" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1996,36 +1868,33 @@
         <v>41</v>
       </c>
       <c r="B43" t="n">
-        <v>457.8</v>
+        <v>460</v>
       </c>
       <c r="C43" t="n">
-        <v>457.8</v>
+        <v>460</v>
       </c>
       <c r="D43" t="n">
-        <v>457.8</v>
+        <v>460</v>
       </c>
       <c r="E43" t="n">
-        <v>457.8</v>
+        <v>460</v>
       </c>
       <c r="F43" t="n">
-        <v>1650.1247</v>
+        <v>613.706</v>
       </c>
       <c r="G43" t="n">
-        <v>454.8266666666667</v>
+        <v>-55049.3225</v>
       </c>
       <c r="H43" t="n">
-        <v>458.9533333333333</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
       </c>
-      <c r="J43" t="n">
-        <v>0</v>
-      </c>
+      <c r="J43" t="inlineStr"/>
       <c r="K43" t="inlineStr"/>
       <c r="L43" t="inlineStr"/>
-      <c r="M43" t="inlineStr"/>
-      <c r="N43" t="n">
+      <c r="M43" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2034,36 +1903,33 @@
         <v>42</v>
       </c>
       <c r="B44" t="n">
-        <v>457.8</v>
+        <v>459</v>
       </c>
       <c r="C44" t="n">
-        <v>457.8</v>
+        <v>457</v>
       </c>
       <c r="D44" t="n">
-        <v>457.8</v>
+        <v>459</v>
       </c>
       <c r="E44" t="n">
-        <v>457.8</v>
+        <v>457</v>
       </c>
       <c r="F44" t="n">
-        <v>500</v>
+        <v>2545</v>
       </c>
       <c r="G44" t="n">
-        <v>455.2133333333333</v>
+        <v>-57594.3225</v>
       </c>
       <c r="H44" t="n">
-        <v>458.7383333333333</v>
+        <v>0</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
       </c>
-      <c r="J44" t="n">
-        <v>0</v>
-      </c>
+      <c r="J44" t="inlineStr"/>
       <c r="K44" t="inlineStr"/>
       <c r="L44" t="inlineStr"/>
-      <c r="M44" t="inlineStr"/>
-      <c r="N44" t="n">
+      <c r="M44" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2072,36 +1938,33 @@
         <v>43</v>
       </c>
       <c r="B45" t="n">
-        <v>457.8</v>
+        <v>457</v>
       </c>
       <c r="C45" t="n">
-        <v>457.8</v>
+        <v>451</v>
       </c>
       <c r="D45" t="n">
-        <v>457.8</v>
+        <v>457</v>
       </c>
       <c r="E45" t="n">
-        <v>457.8</v>
+        <v>451</v>
       </c>
       <c r="F45" t="n">
-        <v>100</v>
+        <v>6820</v>
       </c>
       <c r="G45" t="n">
-        <v>455.6</v>
+        <v>-64414.3225</v>
       </c>
       <c r="H45" t="n">
-        <v>458.5266666666666</v>
+        <v>0</v>
       </c>
       <c r="I45" t="n">
         <v>0</v>
       </c>
-      <c r="J45" t="n">
-        <v>0</v>
-      </c>
+      <c r="J45" t="inlineStr"/>
       <c r="K45" t="inlineStr"/>
       <c r="L45" t="inlineStr"/>
-      <c r="M45" t="inlineStr"/>
-      <c r="N45" t="n">
+      <c r="M45" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2110,36 +1973,33 @@
         <v>44</v>
       </c>
       <c r="B46" t="n">
-        <v>457.8</v>
+        <v>451.1</v>
       </c>
       <c r="C46" t="n">
-        <v>457.8</v>
+        <v>451</v>
       </c>
       <c r="D46" t="n">
-        <v>457.8</v>
+        <v>452</v>
       </c>
       <c r="E46" t="n">
-        <v>457.8</v>
+        <v>450.9</v>
       </c>
       <c r="F46" t="n">
-        <v>1447.782</v>
+        <v>11396.0494</v>
       </c>
       <c r="G46" t="n">
-        <v>455.9866666666667</v>
+        <v>-64414.3225</v>
       </c>
       <c r="H46" t="n">
-        <v>458.4283333333332</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
       </c>
-      <c r="J46" t="n">
-        <v>0</v>
-      </c>
+      <c r="J46" t="inlineStr"/>
       <c r="K46" t="inlineStr"/>
       <c r="L46" t="inlineStr"/>
-      <c r="M46" t="inlineStr"/>
-      <c r="N46" t="n">
+      <c r="M46" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2148,36 +2008,33 @@
         <v>45</v>
       </c>
       <c r="B47" t="n">
-        <v>457.8</v>
+        <v>451.1</v>
       </c>
       <c r="C47" t="n">
-        <v>457.8</v>
+        <v>451</v>
       </c>
       <c r="D47" t="n">
-        <v>457.8</v>
+        <v>451.1</v>
       </c>
       <c r="E47" t="n">
-        <v>457.8</v>
+        <v>451</v>
       </c>
       <c r="F47" t="n">
-        <v>436.0394</v>
+        <v>1525</v>
       </c>
       <c r="G47" t="n">
-        <v>456.3733333333333</v>
+        <v>-64414.3225</v>
       </c>
       <c r="H47" t="n">
-        <v>458.3299999999999</v>
+        <v>0</v>
       </c>
       <c r="I47" t="n">
         <v>0</v>
       </c>
-      <c r="J47" t="n">
-        <v>0</v>
-      </c>
+      <c r="J47" t="inlineStr"/>
       <c r="K47" t="inlineStr"/>
       <c r="L47" t="inlineStr"/>
-      <c r="M47" t="inlineStr"/>
-      <c r="N47" t="n">
+      <c r="M47" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2186,36 +2043,33 @@
         <v>46</v>
       </c>
       <c r="B48" t="n">
-        <v>457</v>
+        <v>465.9</v>
       </c>
       <c r="C48" t="n">
-        <v>457.8</v>
+        <v>451.4</v>
       </c>
       <c r="D48" t="n">
-        <v>457.8</v>
+        <v>465.9</v>
       </c>
       <c r="E48" t="n">
-        <v>457</v>
+        <v>451.3</v>
       </c>
       <c r="F48" t="n">
-        <v>2495.7737</v>
+        <v>1175</v>
       </c>
       <c r="G48" t="n">
-        <v>456.7533333333333</v>
+        <v>-63239.3225</v>
       </c>
       <c r="H48" t="n">
-        <v>458.2316666666665</v>
+        <v>0</v>
       </c>
       <c r="I48" t="n">
         <v>0</v>
       </c>
-      <c r="J48" t="n">
-        <v>0</v>
-      </c>
+      <c r="J48" t="inlineStr"/>
       <c r="K48" t="inlineStr"/>
       <c r="L48" t="inlineStr"/>
-      <c r="M48" t="inlineStr"/>
-      <c r="N48" t="n">
+      <c r="M48" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2224,36 +2078,33 @@
         <v>47</v>
       </c>
       <c r="B49" t="n">
-        <v>457.8</v>
+        <v>452</v>
       </c>
       <c r="C49" t="n">
-        <v>459.5</v>
+        <v>452</v>
       </c>
       <c r="D49" t="n">
-        <v>459.5</v>
+        <v>452</v>
       </c>
       <c r="E49" t="n">
-        <v>457.8</v>
+        <v>452</v>
       </c>
       <c r="F49" t="n">
-        <v>2748.5675</v>
+        <v>1450</v>
       </c>
       <c r="G49" t="n">
-        <v>457.24</v>
+        <v>-61789.3225</v>
       </c>
       <c r="H49" t="n">
-        <v>458.1716666666665</v>
+        <v>0</v>
       </c>
       <c r="I49" t="n">
         <v>0</v>
       </c>
-      <c r="J49" t="n">
-        <v>0</v>
-      </c>
+      <c r="J49" t="inlineStr"/>
       <c r="K49" t="inlineStr"/>
       <c r="L49" t="inlineStr"/>
-      <c r="M49" t="inlineStr"/>
-      <c r="N49" t="n">
+      <c r="M49" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2262,36 +2113,33 @@
         <v>48</v>
       </c>
       <c r="B50" t="n">
-        <v>461.6</v>
+        <v>452</v>
       </c>
       <c r="C50" t="n">
-        <v>462.7</v>
+        <v>452</v>
       </c>
       <c r="D50" t="n">
-        <v>462.7</v>
+        <v>452</v>
       </c>
       <c r="E50" t="n">
-        <v>461.6</v>
+        <v>452</v>
       </c>
       <c r="F50" t="n">
-        <v>1400</v>
+        <v>455</v>
       </c>
       <c r="G50" t="n">
-        <v>457.6266666666667</v>
+        <v>-61789.3225</v>
       </c>
       <c r="H50" t="n">
-        <v>458.1649999999999</v>
+        <v>0</v>
       </c>
       <c r="I50" t="n">
         <v>0</v>
       </c>
-      <c r="J50" t="n">
-        <v>0</v>
-      </c>
+      <c r="J50" t="inlineStr"/>
       <c r="K50" t="inlineStr"/>
       <c r="L50" t="inlineStr"/>
-      <c r="M50" t="inlineStr"/>
-      <c r="N50" t="n">
+      <c r="M50" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2300,36 +2148,33 @@
         <v>49</v>
       </c>
       <c r="B51" t="n">
-        <v>460.2</v>
+        <v>453</v>
       </c>
       <c r="C51" t="n">
-        <v>460.2</v>
+        <v>453</v>
       </c>
       <c r="D51" t="n">
-        <v>460.2</v>
+        <v>453.1</v>
       </c>
       <c r="E51" t="n">
-        <v>460.2</v>
+        <v>453</v>
       </c>
       <c r="F51" t="n">
-        <v>832.0592</v>
+        <v>350</v>
       </c>
       <c r="G51" t="n">
-        <v>458.16</v>
+        <v>-61439.3225</v>
       </c>
       <c r="H51" t="n">
-        <v>458.1166666666666</v>
+        <v>0</v>
       </c>
       <c r="I51" t="n">
         <v>0</v>
       </c>
-      <c r="J51" t="n">
-        <v>0</v>
-      </c>
+      <c r="J51" t="inlineStr"/>
       <c r="K51" t="inlineStr"/>
       <c r="L51" t="inlineStr"/>
-      <c r="M51" t="inlineStr"/>
-      <c r="N51" t="n">
+      <c r="M51" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2338,36 +2183,37 @@
         <v>50</v>
       </c>
       <c r="B52" t="n">
-        <v>462.6</v>
+        <v>453</v>
       </c>
       <c r="C52" t="n">
-        <v>462.6</v>
+        <v>453</v>
       </c>
       <c r="D52" t="n">
-        <v>462.6</v>
+        <v>453</v>
       </c>
       <c r="E52" t="n">
-        <v>462.6</v>
+        <v>453</v>
       </c>
       <c r="F52" t="n">
-        <v>2827.7746</v>
+        <v>2100</v>
       </c>
       <c r="G52" t="n">
-        <v>458.4800000000001</v>
+        <v>-61439.3225</v>
       </c>
       <c r="H52" t="n">
-        <v>458.0616666666666</v>
+        <v>1</v>
       </c>
       <c r="I52" t="n">
         <v>0</v>
       </c>
       <c r="J52" t="n">
-        <v>0</v>
-      </c>
-      <c r="K52" t="inlineStr"/>
+        <v>453</v>
+      </c>
+      <c r="K52" t="n">
+        <v>453</v>
+      </c>
       <c r="L52" t="inlineStr"/>
-      <c r="M52" t="inlineStr"/>
-      <c r="N52" t="n">
+      <c r="M52" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2376,36 +2222,39 @@
         <v>51</v>
       </c>
       <c r="B53" t="n">
-        <v>461.2</v>
+        <v>453</v>
       </c>
       <c r="C53" t="n">
-        <v>461.2</v>
+        <v>453</v>
       </c>
       <c r="D53" t="n">
-        <v>461.2</v>
+        <v>453</v>
       </c>
       <c r="E53" t="n">
-        <v>461.2</v>
+        <v>453</v>
       </c>
       <c r="F53" t="n">
-        <v>110</v>
+        <v>4791.7288</v>
       </c>
       <c r="G53" t="n">
-        <v>459.0866666666667</v>
+        <v>-61439.3225</v>
       </c>
       <c r="H53" t="n">
-        <v>457.9849999999999</v>
+        <v>0</v>
       </c>
       <c r="I53" t="n">
         <v>0</v>
       </c>
-      <c r="J53" t="n">
-        <v>0</v>
-      </c>
-      <c r="K53" t="inlineStr"/>
-      <c r="L53" t="inlineStr"/>
-      <c r="M53" t="inlineStr"/>
-      <c r="N53" t="n">
+      <c r="J53" t="inlineStr"/>
+      <c r="K53" t="n">
+        <v>453</v>
+      </c>
+      <c r="L53" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="M53" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2414,36 +2263,41 @@
         <v>52</v>
       </c>
       <c r="B54" t="n">
-        <v>461</v>
+        <v>453</v>
       </c>
       <c r="C54" t="n">
-        <v>461</v>
+        <v>450</v>
       </c>
       <c r="D54" t="n">
-        <v>461</v>
+        <v>453</v>
       </c>
       <c r="E54" t="n">
-        <v>461</v>
+        <v>450</v>
       </c>
       <c r="F54" t="n">
-        <v>28.4176</v>
+        <v>1590</v>
       </c>
       <c r="G54" t="n">
-        <v>459.3</v>
+        <v>-63029.3225</v>
       </c>
       <c r="H54" t="n">
-        <v>457.9499999999999</v>
+        <v>1</v>
       </c>
       <c r="I54" t="n">
         <v>0</v>
       </c>
       <c r="J54" t="n">
-        <v>0</v>
-      </c>
-      <c r="K54" t="inlineStr"/>
-      <c r="L54" t="inlineStr"/>
-      <c r="M54" t="inlineStr"/>
-      <c r="N54" t="n">
+        <v>453</v>
+      </c>
+      <c r="K54" t="n">
+        <v>453</v>
+      </c>
+      <c r="L54" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
+      <c r="M54" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2452,36 +2306,39 @@
         <v>53</v>
       </c>
       <c r="B55" t="n">
-        <v>461</v>
+        <v>459.5</v>
       </c>
       <c r="C55" t="n">
-        <v>460</v>
+        <v>460.8</v>
       </c>
       <c r="D55" t="n">
-        <v>461</v>
+        <v>460.8</v>
       </c>
       <c r="E55" t="n">
-        <v>460</v>
+        <v>459.5</v>
       </c>
       <c r="F55" t="n">
-        <v>1335.2401</v>
+        <v>81.6078</v>
       </c>
       <c r="G55" t="n">
-        <v>459.3066666666667</v>
+        <v>-62947.7147</v>
       </c>
       <c r="H55" t="n">
-        <v>457.8516666666666</v>
+        <v>0</v>
       </c>
       <c r="I55" t="n">
         <v>0</v>
       </c>
-      <c r="J55" t="n">
-        <v>0</v>
-      </c>
-      <c r="K55" t="inlineStr"/>
-      <c r="L55" t="inlineStr"/>
-      <c r="M55" t="inlineStr"/>
-      <c r="N55" t="n">
+      <c r="J55" t="inlineStr"/>
+      <c r="K55" t="n">
+        <v>453</v>
+      </c>
+      <c r="L55" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M55" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2490,36 +2347,39 @@
         <v>54</v>
       </c>
       <c r="B56" t="n">
-        <v>460</v>
+        <v>459.9</v>
       </c>
       <c r="C56" t="n">
-        <v>460</v>
+        <v>455.8</v>
       </c>
       <c r="D56" t="n">
-        <v>460</v>
+        <v>459.9</v>
       </c>
       <c r="E56" t="n">
-        <v>460</v>
+        <v>451</v>
       </c>
       <c r="F56" t="n">
-        <v>1400</v>
+        <v>1262.9037</v>
       </c>
       <c r="G56" t="n">
-        <v>459.4533333333333</v>
+        <v>-64210.61840000001</v>
       </c>
       <c r="H56" t="n">
-        <v>457.7366666666666</v>
+        <v>0</v>
       </c>
       <c r="I56" t="n">
         <v>0</v>
       </c>
-      <c r="J56" t="n">
-        <v>0</v>
-      </c>
-      <c r="K56" t="inlineStr"/>
-      <c r="L56" t="inlineStr"/>
-      <c r="M56" t="inlineStr"/>
-      <c r="N56" t="n">
+      <c r="J56" t="inlineStr"/>
+      <c r="K56" t="n">
+        <v>453</v>
+      </c>
+      <c r="L56" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M56" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2528,36 +2388,39 @@
         <v>55</v>
       </c>
       <c r="B57" t="n">
-        <v>460</v>
+        <v>453</v>
       </c>
       <c r="C57" t="n">
-        <v>460</v>
+        <v>457.5</v>
       </c>
       <c r="D57" t="n">
-        <v>460</v>
+        <v>457.5</v>
       </c>
       <c r="E57" t="n">
-        <v>460</v>
+        <v>453</v>
       </c>
       <c r="F57" t="n">
-        <v>790.3939</v>
+        <v>2500</v>
       </c>
       <c r="G57" t="n">
-        <v>459.6</v>
+        <v>-61710.61840000001</v>
       </c>
       <c r="H57" t="n">
-        <v>457.6816666666666</v>
+        <v>0</v>
       </c>
       <c r="I57" t="n">
         <v>0</v>
       </c>
-      <c r="J57" t="n">
-        <v>0</v>
-      </c>
-      <c r="K57" t="inlineStr"/>
-      <c r="L57" t="inlineStr"/>
-      <c r="M57" t="inlineStr"/>
-      <c r="N57" t="n">
+      <c r="J57" t="inlineStr"/>
+      <c r="K57" t="n">
+        <v>453</v>
+      </c>
+      <c r="L57" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M57" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2566,36 +2429,39 @@
         <v>56</v>
       </c>
       <c r="B58" t="n">
-        <v>459.1</v>
+        <v>452</v>
       </c>
       <c r="C58" t="n">
-        <v>459.1</v>
+        <v>452</v>
       </c>
       <c r="D58" t="n">
-        <v>459.1</v>
+        <v>452</v>
       </c>
       <c r="E58" t="n">
-        <v>459.1</v>
+        <v>452</v>
       </c>
       <c r="F58" t="n">
-        <v>2484.5913</v>
+        <v>76.01000000000001</v>
       </c>
       <c r="G58" t="n">
-        <v>459.6866666666667</v>
+        <v>-61786.62840000001</v>
       </c>
       <c r="H58" t="n">
-        <v>457.6149999999999</v>
+        <v>0</v>
       </c>
       <c r="I58" t="n">
         <v>0</v>
       </c>
-      <c r="J58" t="n">
-        <v>0</v>
-      </c>
-      <c r="K58" t="inlineStr"/>
-      <c r="L58" t="inlineStr"/>
-      <c r="M58" t="inlineStr"/>
-      <c r="N58" t="n">
+      <c r="J58" t="inlineStr"/>
+      <c r="K58" t="n">
+        <v>453</v>
+      </c>
+      <c r="L58" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M58" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2604,36 +2470,39 @@
         <v>57</v>
       </c>
       <c r="B59" t="n">
-        <v>459.1</v>
+        <v>452.1</v>
       </c>
       <c r="C59" t="n">
-        <v>459.1</v>
+        <v>452</v>
       </c>
       <c r="D59" t="n">
-        <v>459.1</v>
+        <v>452.1</v>
       </c>
       <c r="E59" t="n">
-        <v>459.1</v>
+        <v>452</v>
       </c>
       <c r="F59" t="n">
-        <v>267.8303</v>
+        <v>89.1649</v>
       </c>
       <c r="G59" t="n">
-        <v>459.7733333333334</v>
+        <v>-61786.62840000001</v>
       </c>
       <c r="H59" t="n">
-        <v>457.5483333333332</v>
+        <v>0</v>
       </c>
       <c r="I59" t="n">
         <v>0</v>
       </c>
-      <c r="J59" t="n">
-        <v>0</v>
-      </c>
-      <c r="K59" t="inlineStr"/>
-      <c r="L59" t="inlineStr"/>
-      <c r="M59" t="inlineStr"/>
-      <c r="N59" t="n">
+      <c r="J59" t="inlineStr"/>
+      <c r="K59" t="n">
+        <v>453</v>
+      </c>
+      <c r="L59" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M59" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2642,36 +2511,39 @@
         <v>58</v>
       </c>
       <c r="B60" t="n">
-        <v>459.1</v>
+        <v>452</v>
       </c>
       <c r="C60" t="n">
-        <v>459.1</v>
+        <v>452</v>
       </c>
       <c r="D60" t="n">
-        <v>459.1</v>
+        <v>452</v>
       </c>
       <c r="E60" t="n">
-        <v>459.1</v>
+        <v>452</v>
       </c>
       <c r="F60" t="n">
-        <v>25</v>
+        <v>8.019399999999999</v>
       </c>
       <c r="G60" t="n">
-        <v>459.86</v>
+        <v>-61786.62840000001</v>
       </c>
       <c r="H60" t="n">
-        <v>457.4816666666666</v>
+        <v>0</v>
       </c>
       <c r="I60" t="n">
         <v>0</v>
       </c>
-      <c r="J60" t="n">
-        <v>0</v>
-      </c>
-      <c r="K60" t="inlineStr"/>
-      <c r="L60" t="inlineStr"/>
-      <c r="M60" t="inlineStr"/>
-      <c r="N60" t="n">
+      <c r="J60" t="inlineStr"/>
+      <c r="K60" t="n">
+        <v>453</v>
+      </c>
+      <c r="L60" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M60" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2680,36 +2552,39 @@
         <v>59</v>
       </c>
       <c r="B61" t="n">
-        <v>457.5</v>
+        <v>452</v>
       </c>
       <c r="C61" t="n">
-        <v>457.5</v>
+        <v>452</v>
       </c>
       <c r="D61" t="n">
-        <v>457.5</v>
+        <v>452</v>
       </c>
       <c r="E61" t="n">
-        <v>457.5</v>
+        <v>452</v>
       </c>
       <c r="F61" t="n">
-        <v>1395</v>
+        <v>723.3516</v>
       </c>
       <c r="G61" t="n">
-        <v>459.84</v>
+        <v>-61786.62840000001</v>
       </c>
       <c r="H61" t="n">
-        <v>457.3883333333333</v>
+        <v>0</v>
       </c>
       <c r="I61" t="n">
         <v>0</v>
       </c>
-      <c r="J61" t="n">
-        <v>0</v>
-      </c>
-      <c r="K61" t="inlineStr"/>
-      <c r="L61" t="inlineStr"/>
-      <c r="M61" t="inlineStr"/>
-      <c r="N61" t="n">
+      <c r="J61" t="inlineStr"/>
+      <c r="K61" t="n">
+        <v>453</v>
+      </c>
+      <c r="L61" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M61" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2718,36 +2593,39 @@
         <v>60</v>
       </c>
       <c r="B62" t="n">
-        <v>457.5</v>
+        <v>452.1</v>
       </c>
       <c r="C62" t="n">
-        <v>457.5</v>
+        <v>452.1</v>
       </c>
       <c r="D62" t="n">
-        <v>457.5</v>
+        <v>453</v>
       </c>
       <c r="E62" t="n">
-        <v>457.5</v>
+        <v>452.1</v>
       </c>
       <c r="F62" t="n">
-        <v>240</v>
+        <v>1321.31</v>
       </c>
       <c r="G62" t="n">
-        <v>459.82</v>
+        <v>-60465.31840000001</v>
       </c>
       <c r="H62" t="n">
-        <v>457.295</v>
+        <v>0</v>
       </c>
       <c r="I62" t="n">
         <v>0</v>
       </c>
-      <c r="J62" t="n">
-        <v>0</v>
-      </c>
-      <c r="K62" t="inlineStr"/>
-      <c r="L62" t="inlineStr"/>
-      <c r="M62" t="inlineStr"/>
-      <c r="N62" t="n">
+      <c r="J62" t="inlineStr"/>
+      <c r="K62" t="n">
+        <v>453</v>
+      </c>
+      <c r="L62" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M62" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2756,36 +2634,39 @@
         <v>61</v>
       </c>
       <c r="B63" t="n">
-        <v>457.5</v>
+        <v>453</v>
       </c>
       <c r="C63" t="n">
-        <v>453.4</v>
+        <v>452.2</v>
       </c>
       <c r="D63" t="n">
-        <v>457.5</v>
+        <v>453</v>
       </c>
       <c r="E63" t="n">
-        <v>453.4</v>
+        <v>452.2</v>
       </c>
       <c r="F63" t="n">
-        <v>6625.4231</v>
+        <v>2800</v>
       </c>
       <c r="G63" t="n">
-        <v>459.5266666666666</v>
+        <v>-57665.31840000001</v>
       </c>
       <c r="H63" t="n">
-        <v>457.1333333333333</v>
+        <v>0</v>
       </c>
       <c r="I63" t="n">
         <v>0</v>
       </c>
-      <c r="J63" t="n">
-        <v>0</v>
-      </c>
-      <c r="K63" t="inlineStr"/>
-      <c r="L63" t="inlineStr"/>
-      <c r="M63" t="inlineStr"/>
-      <c r="N63" t="n">
+      <c r="J63" t="inlineStr"/>
+      <c r="K63" t="n">
+        <v>453</v>
+      </c>
+      <c r="L63" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M63" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2794,36 +2675,39 @@
         <v>62</v>
       </c>
       <c r="B64" t="n">
-        <v>453.4</v>
+        <v>456.9</v>
       </c>
       <c r="C64" t="n">
-        <v>452.7</v>
+        <v>456.9</v>
       </c>
       <c r="D64" t="n">
-        <v>453.4</v>
+        <v>456.9</v>
       </c>
       <c r="E64" t="n">
-        <v>452.7</v>
+        <v>456.9</v>
       </c>
       <c r="F64" t="n">
-        <v>1998.9506</v>
+        <v>720.1798</v>
       </c>
       <c r="G64" t="n">
-        <v>459.0733333333333</v>
+        <v>-56945.13860000001</v>
       </c>
       <c r="H64" t="n">
-        <v>456.96</v>
+        <v>0</v>
       </c>
       <c r="I64" t="n">
         <v>0</v>
       </c>
-      <c r="J64" t="n">
-        <v>0</v>
-      </c>
-      <c r="K64" t="inlineStr"/>
-      <c r="L64" t="inlineStr"/>
-      <c r="M64" t="inlineStr"/>
-      <c r="N64" t="n">
+      <c r="J64" t="inlineStr"/>
+      <c r="K64" t="n">
+        <v>453</v>
+      </c>
+      <c r="L64" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M64" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2832,36 +2716,39 @@
         <v>63</v>
       </c>
       <c r="B65" t="n">
-        <v>453</v>
+        <v>456.9</v>
       </c>
       <c r="C65" t="n">
-        <v>452</v>
+        <v>452.2</v>
       </c>
       <c r="D65" t="n">
-        <v>453</v>
+        <v>456.9</v>
       </c>
       <c r="E65" t="n">
-        <v>452</v>
+        <v>452.2</v>
       </c>
       <c r="F65" t="n">
-        <v>7000</v>
+        <v>7713.7844</v>
       </c>
       <c r="G65" t="n">
-        <v>458.36</v>
+        <v>-64658.92300000001</v>
       </c>
       <c r="H65" t="n">
-        <v>456.7766666666667</v>
+        <v>0</v>
       </c>
       <c r="I65" t="n">
         <v>0</v>
       </c>
-      <c r="J65" t="n">
-        <v>0</v>
-      </c>
-      <c r="K65" t="inlineStr"/>
-      <c r="L65" t="inlineStr"/>
-      <c r="M65" t="inlineStr"/>
-      <c r="N65" t="n">
+      <c r="J65" t="inlineStr"/>
+      <c r="K65" t="n">
+        <v>453</v>
+      </c>
+      <c r="L65" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M65" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2870,36 +2757,39 @@
         <v>64</v>
       </c>
       <c r="B66" t="n">
-        <v>452</v>
+        <v>457.8</v>
       </c>
       <c r="C66" t="n">
-        <v>450.5</v>
+        <v>457.8</v>
       </c>
       <c r="D66" t="n">
-        <v>452</v>
+        <v>457.8</v>
       </c>
       <c r="E66" t="n">
-        <v>450.5</v>
+        <v>457.8</v>
       </c>
       <c r="F66" t="n">
-        <v>1998.9507</v>
+        <v>1.1</v>
       </c>
       <c r="G66" t="n">
-        <v>457.7133333333333</v>
+        <v>-64657.82300000001</v>
       </c>
       <c r="H66" t="n">
-        <v>456.5833333333334</v>
+        <v>0</v>
       </c>
       <c r="I66" t="n">
         <v>0</v>
       </c>
-      <c r="J66" t="n">
-        <v>0</v>
-      </c>
-      <c r="K66" t="inlineStr"/>
-      <c r="L66" t="inlineStr"/>
-      <c r="M66" t="inlineStr"/>
-      <c r="N66" t="n">
+      <c r="J66" t="inlineStr"/>
+      <c r="K66" t="n">
+        <v>453</v>
+      </c>
+      <c r="L66" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M66" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2908,36 +2798,39 @@
         <v>65</v>
       </c>
       <c r="B67" t="n">
-        <v>450.6</v>
+        <v>452.3</v>
       </c>
       <c r="C67" t="n">
-        <v>450.5</v>
+        <v>452.1</v>
       </c>
       <c r="D67" t="n">
-        <v>452</v>
+        <v>452.3</v>
       </c>
       <c r="E67" t="n">
-        <v>450.5</v>
+        <v>452.1</v>
       </c>
       <c r="F67" t="n">
-        <v>8183.2338</v>
+        <v>1400</v>
       </c>
       <c r="G67" t="n">
-        <v>456.9066666666666</v>
+        <v>-66057.823</v>
       </c>
       <c r="H67" t="n">
-        <v>456.3900000000001</v>
+        <v>0</v>
       </c>
       <c r="I67" t="n">
         <v>0</v>
       </c>
-      <c r="J67" t="n">
-        <v>0</v>
-      </c>
-      <c r="K67" t="inlineStr"/>
-      <c r="L67" t="inlineStr"/>
-      <c r="M67" t="inlineStr"/>
-      <c r="N67" t="n">
+      <c r="J67" t="inlineStr"/>
+      <c r="K67" t="n">
+        <v>453</v>
+      </c>
+      <c r="L67" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M67" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2946,36 +2839,39 @@
         <v>66</v>
       </c>
       <c r="B68" t="n">
-        <v>450.5</v>
+        <v>457.8</v>
       </c>
       <c r="C68" t="n">
-        <v>450.5</v>
+        <v>457.8</v>
       </c>
       <c r="D68" t="n">
-        <v>450.5</v>
+        <v>457.8</v>
       </c>
       <c r="E68" t="n">
-        <v>450.5</v>
+        <v>457.8</v>
       </c>
       <c r="F68" t="n">
-        <v>4200</v>
+        <v>1.1</v>
       </c>
       <c r="G68" t="n">
-        <v>456.1933333333333</v>
+        <v>-66056.723</v>
       </c>
       <c r="H68" t="n">
-        <v>456.2300000000001</v>
+        <v>0</v>
       </c>
       <c r="I68" t="n">
         <v>0</v>
       </c>
-      <c r="J68" t="n">
-        <v>0</v>
-      </c>
-      <c r="K68" t="inlineStr"/>
-      <c r="L68" t="inlineStr"/>
-      <c r="M68" t="inlineStr"/>
-      <c r="N68" t="n">
+      <c r="J68" t="inlineStr"/>
+      <c r="K68" t="n">
+        <v>453</v>
+      </c>
+      <c r="L68" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M68" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2984,36 +2880,39 @@
         <v>67</v>
       </c>
       <c r="B69" t="n">
-        <v>450.5</v>
+        <v>459.9</v>
       </c>
       <c r="C69" t="n">
-        <v>450.5</v>
+        <v>459.9</v>
       </c>
       <c r="D69" t="n">
-        <v>450.5</v>
+        <v>459.9</v>
       </c>
       <c r="E69" t="n">
-        <v>450.5</v>
+        <v>459.9</v>
       </c>
       <c r="F69" t="n">
-        <v>250</v>
+        <v>1170.1267</v>
       </c>
       <c r="G69" t="n">
-        <v>455.4933333333333</v>
+        <v>-64886.5963</v>
       </c>
       <c r="H69" t="n">
-        <v>456.0716666666668</v>
+        <v>0</v>
       </c>
       <c r="I69" t="n">
         <v>0</v>
       </c>
-      <c r="J69" t="n">
-        <v>0</v>
-      </c>
-      <c r="K69" t="inlineStr"/>
-      <c r="L69" t="inlineStr"/>
-      <c r="M69" t="inlineStr"/>
-      <c r="N69" t="n">
+      <c r="J69" t="inlineStr"/>
+      <c r="K69" t="n">
+        <v>453</v>
+      </c>
+      <c r="L69" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M69" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3022,36 +2921,39 @@
         <v>68</v>
       </c>
       <c r="B70" t="n">
-        <v>450.5</v>
+        <v>457.8</v>
       </c>
       <c r="C70" t="n">
-        <v>450.5</v>
+        <v>457.8</v>
       </c>
       <c r="D70" t="n">
-        <v>450.5</v>
+        <v>457.8</v>
       </c>
       <c r="E70" t="n">
-        <v>450.5</v>
+        <v>457.8</v>
       </c>
       <c r="F70" t="n">
-        <v>1625.5359</v>
+        <v>415</v>
       </c>
       <c r="G70" t="n">
-        <v>454.86</v>
+        <v>-65301.5963</v>
       </c>
       <c r="H70" t="n">
-        <v>455.8650000000001</v>
+        <v>0</v>
       </c>
       <c r="I70" t="n">
         <v>0</v>
       </c>
-      <c r="J70" t="n">
-        <v>0</v>
-      </c>
-      <c r="K70" t="inlineStr"/>
-      <c r="L70" t="inlineStr"/>
-      <c r="M70" t="inlineStr"/>
-      <c r="N70" t="n">
+      <c r="J70" t="inlineStr"/>
+      <c r="K70" t="n">
+        <v>453</v>
+      </c>
+      <c r="L70" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M70" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3060,36 +2962,39 @@
         <v>69</v>
       </c>
       <c r="B71" t="n">
-        <v>450.5</v>
+        <v>457.8</v>
       </c>
       <c r="C71" t="n">
-        <v>450.5</v>
+        <v>457.8</v>
       </c>
       <c r="D71" t="n">
-        <v>450.5</v>
+        <v>457.8</v>
       </c>
       <c r="E71" t="n">
-        <v>450.5</v>
+        <v>457.8</v>
       </c>
       <c r="F71" t="n">
-        <v>590</v>
+        <v>1400</v>
       </c>
       <c r="G71" t="n">
-        <v>454.2266666666666</v>
+        <v>-65301.5963</v>
       </c>
       <c r="H71" t="n">
-        <v>455.6750000000001</v>
+        <v>0</v>
       </c>
       <c r="I71" t="n">
         <v>0</v>
       </c>
-      <c r="J71" t="n">
-        <v>0</v>
-      </c>
-      <c r="K71" t="inlineStr"/>
-      <c r="L71" t="inlineStr"/>
-      <c r="M71" t="inlineStr"/>
-      <c r="N71" t="n">
+      <c r="J71" t="inlineStr"/>
+      <c r="K71" t="n">
+        <v>453</v>
+      </c>
+      <c r="L71" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M71" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3098,36 +3003,39 @@
         <v>70</v>
       </c>
       <c r="B72" t="n">
-        <v>450.5</v>
+        <v>457.8</v>
       </c>
       <c r="C72" t="n">
-        <v>450.5</v>
+        <v>457.8</v>
       </c>
       <c r="D72" t="n">
-        <v>450.5</v>
+        <v>457.8</v>
       </c>
       <c r="E72" t="n">
-        <v>450.5</v>
+        <v>457.8</v>
       </c>
       <c r="F72" t="n">
-        <v>405.0162</v>
+        <v>1650.1247</v>
       </c>
       <c r="G72" t="n">
-        <v>453.5933333333333</v>
+        <v>-65301.5963</v>
       </c>
       <c r="H72" t="n">
-        <v>455.5166666666667</v>
+        <v>0</v>
       </c>
       <c r="I72" t="n">
         <v>0</v>
       </c>
-      <c r="J72" t="n">
-        <v>0</v>
-      </c>
-      <c r="K72" t="inlineStr"/>
-      <c r="L72" t="inlineStr"/>
-      <c r="M72" t="inlineStr"/>
-      <c r="N72" t="n">
+      <c r="J72" t="inlineStr"/>
+      <c r="K72" t="n">
+        <v>453</v>
+      </c>
+      <c r="L72" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M72" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3136,36 +3044,39 @@
         <v>71</v>
       </c>
       <c r="B73" t="n">
-        <v>450.5</v>
+        <v>457.8</v>
       </c>
       <c r="C73" t="n">
-        <v>450.5</v>
+        <v>457.8</v>
       </c>
       <c r="D73" t="n">
-        <v>450.5</v>
+        <v>457.8</v>
       </c>
       <c r="E73" t="n">
-        <v>450.5</v>
+        <v>457.8</v>
       </c>
       <c r="F73" t="n">
-        <v>56.4699</v>
+        <v>500</v>
       </c>
       <c r="G73" t="n">
-        <v>453.0199999999999</v>
+        <v>-65301.5963</v>
       </c>
       <c r="H73" t="n">
-        <v>455.3583333333334</v>
+        <v>0</v>
       </c>
       <c r="I73" t="n">
         <v>0</v>
       </c>
-      <c r="J73" t="n">
-        <v>0</v>
-      </c>
-      <c r="K73" t="inlineStr"/>
-      <c r="L73" t="inlineStr"/>
-      <c r="M73" t="inlineStr"/>
-      <c r="N73" t="n">
+      <c r="J73" t="inlineStr"/>
+      <c r="K73" t="n">
+        <v>453</v>
+      </c>
+      <c r="L73" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M73" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3174,36 +3085,39 @@
         <v>72</v>
       </c>
       <c r="B74" t="n">
-        <v>450.6</v>
+        <v>457.8</v>
       </c>
       <c r="C74" t="n">
-        <v>450.6</v>
+        <v>457.8</v>
       </c>
       <c r="D74" t="n">
-        <v>450.6</v>
+        <v>457.8</v>
       </c>
       <c r="E74" t="n">
-        <v>450.6</v>
+        <v>457.8</v>
       </c>
       <c r="F74" t="n">
-        <v>850</v>
+        <v>100</v>
       </c>
       <c r="G74" t="n">
-        <v>452.4533333333333</v>
+        <v>-65301.5963</v>
       </c>
       <c r="H74" t="n">
-        <v>455.2016666666667</v>
+        <v>0</v>
       </c>
       <c r="I74" t="n">
         <v>0</v>
       </c>
-      <c r="J74" t="n">
-        <v>0</v>
-      </c>
-      <c r="K74" t="inlineStr"/>
-      <c r="L74" t="inlineStr"/>
-      <c r="M74" t="inlineStr"/>
-      <c r="N74" t="n">
+      <c r="J74" t="inlineStr"/>
+      <c r="K74" t="n">
+        <v>453</v>
+      </c>
+      <c r="L74" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M74" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3212,36 +3126,39 @@
         <v>73</v>
       </c>
       <c r="B75" t="n">
-        <v>450.6</v>
+        <v>457.8</v>
       </c>
       <c r="C75" t="n">
-        <v>451.1</v>
+        <v>457.8</v>
       </c>
       <c r="D75" t="n">
-        <v>451.1</v>
+        <v>457.8</v>
       </c>
       <c r="E75" t="n">
-        <v>450.6</v>
+        <v>457.8</v>
       </c>
       <c r="F75" t="n">
-        <v>1220.9633</v>
+        <v>1447.782</v>
       </c>
       <c r="G75" t="n">
-        <v>451.92</v>
+        <v>-65301.5963</v>
       </c>
       <c r="H75" t="n">
-        <v>455.1033333333334</v>
+        <v>0</v>
       </c>
       <c r="I75" t="n">
         <v>0</v>
       </c>
-      <c r="J75" t="n">
-        <v>0</v>
-      </c>
-      <c r="K75" t="inlineStr"/>
-      <c r="L75" t="inlineStr"/>
-      <c r="M75" t="inlineStr"/>
-      <c r="N75" t="n">
+      <c r="J75" t="inlineStr"/>
+      <c r="K75" t="n">
+        <v>453</v>
+      </c>
+      <c r="L75" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M75" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3250,36 +3167,39 @@
         <v>74</v>
       </c>
       <c r="B76" t="n">
-        <v>452</v>
+        <v>457.8</v>
       </c>
       <c r="C76" t="n">
-        <v>452</v>
+        <v>457.8</v>
       </c>
       <c r="D76" t="n">
-        <v>452</v>
+        <v>457.8</v>
       </c>
       <c r="E76" t="n">
-        <v>452</v>
+        <v>457.8</v>
       </c>
       <c r="F76" t="n">
-        <v>27</v>
+        <v>436.0394</v>
       </c>
       <c r="G76" t="n">
-        <v>451.5533333333333</v>
+        <v>-65301.5963</v>
       </c>
       <c r="H76" t="n">
-        <v>455.12</v>
+        <v>0</v>
       </c>
       <c r="I76" t="n">
         <v>0</v>
       </c>
-      <c r="J76" t="n">
-        <v>0</v>
-      </c>
-      <c r="K76" t="inlineStr"/>
-      <c r="L76" t="inlineStr"/>
-      <c r="M76" t="inlineStr"/>
-      <c r="N76" t="n">
+      <c r="J76" t="inlineStr"/>
+      <c r="K76" t="n">
+        <v>453</v>
+      </c>
+      <c r="L76" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M76" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3288,36 +3208,39 @@
         <v>75</v>
       </c>
       <c r="B77" t="n">
-        <v>452</v>
+        <v>457</v>
       </c>
       <c r="C77" t="n">
-        <v>452</v>
+        <v>457.8</v>
       </c>
       <c r="D77" t="n">
-        <v>452</v>
+        <v>457.8</v>
       </c>
       <c r="E77" t="n">
-        <v>452</v>
+        <v>457</v>
       </c>
       <c r="F77" t="n">
-        <v>5.6246</v>
+        <v>2495.7737</v>
       </c>
       <c r="G77" t="n">
-        <v>451.1866666666666</v>
+        <v>-65301.5963</v>
       </c>
       <c r="H77" t="n">
-        <v>455.1366666666667</v>
+        <v>0</v>
       </c>
       <c r="I77" t="n">
         <v>0</v>
       </c>
-      <c r="J77" t="n">
-        <v>0</v>
-      </c>
-      <c r="K77" t="inlineStr"/>
-      <c r="L77" t="inlineStr"/>
-      <c r="M77" t="inlineStr"/>
-      <c r="N77" t="n">
+      <c r="J77" t="inlineStr"/>
+      <c r="K77" t="n">
+        <v>453</v>
+      </c>
+      <c r="L77" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M77" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3326,36 +3249,39 @@
         <v>76</v>
       </c>
       <c r="B78" t="n">
-        <v>450.6</v>
+        <v>457.8</v>
       </c>
       <c r="C78" t="n">
-        <v>450.6</v>
+        <v>459.5</v>
       </c>
       <c r="D78" t="n">
-        <v>450.6</v>
+        <v>459.5</v>
       </c>
       <c r="E78" t="n">
-        <v>450.6</v>
+        <v>457.8</v>
       </c>
       <c r="F78" t="n">
-        <v>921</v>
+        <v>2748.5675</v>
       </c>
       <c r="G78" t="n">
-        <v>451</v>
+        <v>-62553.0288</v>
       </c>
       <c r="H78" t="n">
-        <v>455.13</v>
+        <v>0</v>
       </c>
       <c r="I78" t="n">
         <v>0</v>
       </c>
-      <c r="J78" t="n">
-        <v>0</v>
-      </c>
-      <c r="K78" t="inlineStr"/>
-      <c r="L78" t="inlineStr"/>
-      <c r="M78" t="inlineStr"/>
-      <c r="N78" t="n">
+      <c r="J78" t="inlineStr"/>
+      <c r="K78" t="n">
+        <v>453</v>
+      </c>
+      <c r="L78" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M78" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3364,36 +3290,39 @@
         <v>77</v>
       </c>
       <c r="B79" t="n">
-        <v>450.9</v>
+        <v>461.6</v>
       </c>
       <c r="C79" t="n">
-        <v>450.5</v>
+        <v>462.7</v>
       </c>
       <c r="D79" t="n">
-        <v>450.9</v>
+        <v>462.7</v>
       </c>
       <c r="E79" t="n">
-        <v>450.5</v>
+        <v>461.6</v>
       </c>
       <c r="F79" t="n">
-        <v>7650.0583</v>
+        <v>1400</v>
       </c>
       <c r="G79" t="n">
-        <v>450.8533333333334</v>
+        <v>-61153.0288</v>
       </c>
       <c r="H79" t="n">
-        <v>455.115</v>
+        <v>0</v>
       </c>
       <c r="I79" t="n">
         <v>0</v>
       </c>
-      <c r="J79" t="n">
-        <v>0</v>
-      </c>
-      <c r="K79" t="inlineStr"/>
-      <c r="L79" t="inlineStr"/>
-      <c r="M79" t="inlineStr"/>
-      <c r="N79" t="n">
+      <c r="J79" t="inlineStr"/>
+      <c r="K79" t="n">
+        <v>453</v>
+      </c>
+      <c r="L79" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M79" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3402,36 +3331,39 @@
         <v>78</v>
       </c>
       <c r="B80" t="n">
-        <v>450.5</v>
+        <v>460.2</v>
       </c>
       <c r="C80" t="n">
-        <v>450.5</v>
+        <v>460.2</v>
       </c>
       <c r="D80" t="n">
-        <v>450.5</v>
+        <v>460.2</v>
       </c>
       <c r="E80" t="n">
-        <v>450.5</v>
+        <v>460.2</v>
       </c>
       <c r="F80" t="n">
-        <v>513.7296</v>
+        <v>832.0592</v>
       </c>
       <c r="G80" t="n">
-        <v>450.7533333333333</v>
+        <v>-61985.088</v>
       </c>
       <c r="H80" t="n">
-        <v>455.09</v>
+        <v>0</v>
       </c>
       <c r="I80" t="n">
         <v>0</v>
       </c>
-      <c r="J80" t="n">
-        <v>0</v>
-      </c>
-      <c r="K80" t="inlineStr"/>
-      <c r="L80" t="inlineStr"/>
-      <c r="M80" t="inlineStr"/>
-      <c r="N80" t="n">
+      <c r="J80" t="inlineStr"/>
+      <c r="K80" t="n">
+        <v>453</v>
+      </c>
+      <c r="L80" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M80" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3440,36 +3372,39 @@
         <v>79</v>
       </c>
       <c r="B81" t="n">
-        <v>450</v>
+        <v>462.6</v>
       </c>
       <c r="C81" t="n">
-        <v>447</v>
+        <v>462.6</v>
       </c>
       <c r="D81" t="n">
-        <v>450</v>
+        <v>462.6</v>
       </c>
       <c r="E81" t="n">
-        <v>447</v>
+        <v>462.6</v>
       </c>
       <c r="F81" t="n">
-        <v>2124.041</v>
+        <v>2827.7746</v>
       </c>
       <c r="G81" t="n">
-        <v>450.52</v>
+        <v>-59157.31340000001</v>
       </c>
       <c r="H81" t="n">
-        <v>455.0066666666666</v>
+        <v>0</v>
       </c>
       <c r="I81" t="n">
         <v>0</v>
       </c>
-      <c r="J81" t="n">
-        <v>0</v>
-      </c>
-      <c r="K81" t="inlineStr"/>
-      <c r="L81" t="inlineStr"/>
-      <c r="M81" t="inlineStr"/>
-      <c r="N81" t="n">
+      <c r="J81" t="inlineStr"/>
+      <c r="K81" t="n">
+        <v>453</v>
+      </c>
+      <c r="L81" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M81" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3478,36 +3413,39 @@
         <v>80</v>
       </c>
       <c r="B82" t="n">
-        <v>446.7</v>
+        <v>461.2</v>
       </c>
       <c r="C82" t="n">
-        <v>446.7</v>
+        <v>461.2</v>
       </c>
       <c r="D82" t="n">
-        <v>446.7</v>
+        <v>461.2</v>
       </c>
       <c r="E82" t="n">
-        <v>446.7</v>
+        <v>461.2</v>
       </c>
       <c r="F82" t="n">
-        <v>4.1545</v>
+        <v>110</v>
       </c>
       <c r="G82" t="n">
-        <v>450.2666666666667</v>
+        <v>-59267.31340000001</v>
       </c>
       <c r="H82" t="n">
-        <v>454.9016666666666</v>
+        <v>0</v>
       </c>
       <c r="I82" t="n">
         <v>0</v>
       </c>
-      <c r="J82" t="n">
-        <v>0</v>
-      </c>
-      <c r="K82" t="inlineStr"/>
-      <c r="L82" t="inlineStr"/>
-      <c r="M82" t="inlineStr"/>
-      <c r="N82" t="n">
+      <c r="J82" t="inlineStr"/>
+      <c r="K82" t="n">
+        <v>453</v>
+      </c>
+      <c r="L82" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M82" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3516,36 +3454,39 @@
         <v>81</v>
       </c>
       <c r="B83" t="n">
-        <v>446.7</v>
+        <v>461</v>
       </c>
       <c r="C83" t="n">
-        <v>446.7</v>
+        <v>461</v>
       </c>
       <c r="D83" t="n">
-        <v>446.7</v>
+        <v>461</v>
       </c>
       <c r="E83" t="n">
-        <v>446.7</v>
+        <v>461</v>
       </c>
       <c r="F83" t="n">
-        <v>1845.4336</v>
+        <v>28.4176</v>
       </c>
       <c r="G83" t="n">
-        <v>450.0133333333333</v>
+        <v>-59295.73100000001</v>
       </c>
       <c r="H83" t="n">
-        <v>454.7966666666667</v>
+        <v>0</v>
       </c>
       <c r="I83" t="n">
         <v>0</v>
       </c>
-      <c r="J83" t="n">
-        <v>0</v>
-      </c>
-      <c r="K83" t="inlineStr"/>
-      <c r="L83" t="inlineStr"/>
-      <c r="M83" t="inlineStr"/>
-      <c r="N83" t="n">
+      <c r="J83" t="inlineStr"/>
+      <c r="K83" t="n">
+        <v>453</v>
+      </c>
+      <c r="L83" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M83" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3554,36 +3495,39 @@
         <v>82</v>
       </c>
       <c r="B84" t="n">
-        <v>447.1</v>
+        <v>461</v>
       </c>
       <c r="C84" t="n">
-        <v>447.3</v>
+        <v>460</v>
       </c>
       <c r="D84" t="n">
-        <v>447.3</v>
+        <v>461</v>
       </c>
       <c r="E84" t="n">
-        <v>447.1</v>
+        <v>460</v>
       </c>
       <c r="F84" t="n">
-        <v>4</v>
+        <v>1335.2401</v>
       </c>
       <c r="G84" t="n">
-        <v>449.8</v>
+        <v>-60630.97110000001</v>
       </c>
       <c r="H84" t="n">
-        <v>454.7016666666667</v>
+        <v>0</v>
       </c>
       <c r="I84" t="n">
         <v>0</v>
       </c>
-      <c r="J84" t="n">
-        <v>0</v>
-      </c>
-      <c r="K84" t="inlineStr"/>
-      <c r="L84" t="inlineStr"/>
-      <c r="M84" t="inlineStr"/>
-      <c r="N84" t="n">
+      <c r="J84" t="inlineStr"/>
+      <c r="K84" t="n">
+        <v>453</v>
+      </c>
+      <c r="L84" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M84" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3592,36 +3536,39 @@
         <v>83</v>
       </c>
       <c r="B85" t="n">
-        <v>450.9</v>
+        <v>460</v>
       </c>
       <c r="C85" t="n">
-        <v>450.9</v>
+        <v>460</v>
       </c>
       <c r="D85" t="n">
-        <v>450.9</v>
+        <v>460</v>
       </c>
       <c r="E85" t="n">
-        <v>450.9</v>
+        <v>460</v>
       </c>
       <c r="F85" t="n">
-        <v>1.2</v>
+        <v>1400</v>
       </c>
       <c r="G85" t="n">
-        <v>449.8266666666667</v>
+        <v>-60630.97110000001</v>
       </c>
       <c r="H85" t="n">
-        <v>454.7166666666666</v>
+        <v>0</v>
       </c>
       <c r="I85" t="n">
         <v>0</v>
       </c>
-      <c r="J85" t="n">
-        <v>0</v>
-      </c>
-      <c r="K85" t="inlineStr"/>
-      <c r="L85" t="inlineStr"/>
-      <c r="M85" t="inlineStr"/>
-      <c r="N85" t="n">
+      <c r="J85" t="inlineStr"/>
+      <c r="K85" t="n">
+        <v>453</v>
+      </c>
+      <c r="L85" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M85" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3630,36 +3577,39 @@
         <v>84</v>
       </c>
       <c r="B86" t="n">
-        <v>447.3</v>
+        <v>460</v>
       </c>
       <c r="C86" t="n">
-        <v>447.3</v>
+        <v>460</v>
       </c>
       <c r="D86" t="n">
-        <v>447.3</v>
+        <v>460</v>
       </c>
       <c r="E86" t="n">
-        <v>447.3</v>
+        <v>460</v>
       </c>
       <c r="F86" t="n">
-        <v>384</v>
+        <v>790.3939</v>
       </c>
       <c r="G86" t="n">
-        <v>449.6133333333333</v>
+        <v>-60630.97110000001</v>
       </c>
       <c r="H86" t="n">
-        <v>454.4916666666667</v>
+        <v>0</v>
       </c>
       <c r="I86" t="n">
         <v>0</v>
       </c>
-      <c r="J86" t="n">
-        <v>0</v>
-      </c>
-      <c r="K86" t="inlineStr"/>
-      <c r="L86" t="inlineStr"/>
-      <c r="M86" t="inlineStr"/>
-      <c r="N86" t="n">
+      <c r="J86" t="inlineStr"/>
+      <c r="K86" t="n">
+        <v>453</v>
+      </c>
+      <c r="L86" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M86" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3668,36 +3618,39 @@
         <v>85</v>
       </c>
       <c r="B87" t="n">
-        <v>450.9</v>
+        <v>459.1</v>
       </c>
       <c r="C87" t="n">
-        <v>450.9</v>
+        <v>459.1</v>
       </c>
       <c r="D87" t="n">
-        <v>450.9</v>
+        <v>459.1</v>
       </c>
       <c r="E87" t="n">
-        <v>450.9</v>
+        <v>459.1</v>
       </c>
       <c r="F87" t="n">
-        <v>1.2</v>
+        <v>2484.5913</v>
       </c>
       <c r="G87" t="n">
-        <v>449.64</v>
+        <v>-63115.56240000001</v>
       </c>
       <c r="H87" t="n">
-        <v>454.41</v>
+        <v>0</v>
       </c>
       <c r="I87" t="n">
         <v>0</v>
       </c>
-      <c r="J87" t="n">
-        <v>0</v>
-      </c>
-      <c r="K87" t="inlineStr"/>
-      <c r="L87" t="inlineStr"/>
-      <c r="M87" t="inlineStr"/>
-      <c r="N87" t="n">
+      <c r="J87" t="inlineStr"/>
+      <c r="K87" t="n">
+        <v>453</v>
+      </c>
+      <c r="L87" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M87" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3706,36 +3659,39 @@
         <v>86</v>
       </c>
       <c r="B88" t="n">
-        <v>446.8</v>
+        <v>459.1</v>
       </c>
       <c r="C88" t="n">
-        <v>444.2</v>
+        <v>459.1</v>
       </c>
       <c r="D88" t="n">
-        <v>446.8</v>
+        <v>459.1</v>
       </c>
       <c r="E88" t="n">
-        <v>444.2</v>
+        <v>459.1</v>
       </c>
       <c r="F88" t="n">
-        <v>7056.3011</v>
+        <v>267.8303</v>
       </c>
       <c r="G88" t="n">
-        <v>449.22</v>
+        <v>-63115.56240000001</v>
       </c>
       <c r="H88" t="n">
-        <v>454.1883333333334</v>
+        <v>0</v>
       </c>
       <c r="I88" t="n">
         <v>0</v>
       </c>
-      <c r="J88" t="n">
-        <v>0</v>
-      </c>
-      <c r="K88" t="inlineStr"/>
-      <c r="L88" t="inlineStr"/>
-      <c r="M88" t="inlineStr"/>
-      <c r="N88" t="n">
+      <c r="J88" t="inlineStr"/>
+      <c r="K88" t="n">
+        <v>453</v>
+      </c>
+      <c r="L88" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M88" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3744,36 +3700,39 @@
         <v>87</v>
       </c>
       <c r="B89" t="n">
-        <v>445.7</v>
+        <v>459.1</v>
       </c>
       <c r="C89" t="n">
-        <v>445.7</v>
+        <v>459.1</v>
       </c>
       <c r="D89" t="n">
-        <v>445.7</v>
+        <v>459.1</v>
       </c>
       <c r="E89" t="n">
-        <v>445.7</v>
+        <v>459.1</v>
       </c>
       <c r="F89" t="n">
-        <v>1.2</v>
+        <v>25</v>
       </c>
       <c r="G89" t="n">
-        <v>448.8933333333333</v>
+        <v>-63115.56240000001</v>
       </c>
       <c r="H89" t="n">
-        <v>454.0833333333334</v>
+        <v>0</v>
       </c>
       <c r="I89" t="n">
         <v>0</v>
       </c>
-      <c r="J89" t="n">
-        <v>0</v>
-      </c>
-      <c r="K89" t="inlineStr"/>
-      <c r="L89" t="inlineStr"/>
-      <c r="M89" t="inlineStr"/>
-      <c r="N89" t="n">
+      <c r="J89" t="inlineStr"/>
+      <c r="K89" t="n">
+        <v>453</v>
+      </c>
+      <c r="L89" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M89" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3782,36 +3741,39 @@
         <v>88</v>
       </c>
       <c r="B90" t="n">
-        <v>445.7</v>
+        <v>457.5</v>
       </c>
       <c r="C90" t="n">
-        <v>445.7</v>
+        <v>457.5</v>
       </c>
       <c r="D90" t="n">
-        <v>445.7</v>
+        <v>457.5</v>
       </c>
       <c r="E90" t="n">
-        <v>445.7</v>
+        <v>457.5</v>
       </c>
       <c r="F90" t="n">
-        <v>20</v>
+        <v>1395</v>
       </c>
       <c r="G90" t="n">
-        <v>448.5333333333332</v>
+        <v>-64510.56240000001</v>
       </c>
       <c r="H90" t="n">
-        <v>453.9783333333334</v>
+        <v>0</v>
       </c>
       <c r="I90" t="n">
         <v>0</v>
       </c>
-      <c r="J90" t="n">
-        <v>0</v>
-      </c>
-      <c r="K90" t="inlineStr"/>
-      <c r="L90" t="inlineStr"/>
-      <c r="M90" t="inlineStr"/>
-      <c r="N90" t="n">
+      <c r="J90" t="inlineStr"/>
+      <c r="K90" t="n">
+        <v>453</v>
+      </c>
+      <c r="L90" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M90" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3820,36 +3782,39 @@
         <v>89</v>
       </c>
       <c r="B91" t="n">
-        <v>444.3</v>
+        <v>457.5</v>
       </c>
       <c r="C91" t="n">
-        <v>443.3</v>
+        <v>457.5</v>
       </c>
       <c r="D91" t="n">
-        <v>448</v>
+        <v>457.5</v>
       </c>
       <c r="E91" t="n">
-        <v>442.2</v>
+        <v>457.5</v>
       </c>
       <c r="F91" t="n">
-        <v>19452.2485</v>
+        <v>240</v>
       </c>
       <c r="G91" t="n">
-        <v>447.9533333333332</v>
+        <v>-64510.56240000001</v>
       </c>
       <c r="H91" t="n">
-        <v>453.8333333333334</v>
+        <v>0</v>
       </c>
       <c r="I91" t="n">
         <v>0</v>
       </c>
-      <c r="J91" t="n">
-        <v>0</v>
-      </c>
-      <c r="K91" t="inlineStr"/>
-      <c r="L91" t="inlineStr"/>
-      <c r="M91" t="inlineStr"/>
-      <c r="N91" t="n">
+      <c r="J91" t="inlineStr"/>
+      <c r="K91" t="n">
+        <v>453</v>
+      </c>
+      <c r="L91" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M91" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3858,36 +3823,39 @@
         <v>90</v>
       </c>
       <c r="B92" t="n">
-        <v>443.2</v>
+        <v>457.5</v>
       </c>
       <c r="C92" t="n">
-        <v>443.3</v>
+        <v>453.4</v>
       </c>
       <c r="D92" t="n">
-        <v>443.3</v>
+        <v>457.5</v>
       </c>
       <c r="E92" t="n">
-        <v>443.2</v>
+        <v>453.4</v>
       </c>
       <c r="F92" t="n">
-        <v>15769</v>
+        <v>6625.4231</v>
       </c>
       <c r="G92" t="n">
-        <v>447.3733333333332</v>
+        <v>-71135.98550000001</v>
       </c>
       <c r="H92" t="n">
-        <v>453.6883333333334</v>
+        <v>0</v>
       </c>
       <c r="I92" t="n">
         <v>0</v>
       </c>
-      <c r="J92" t="n">
-        <v>0</v>
-      </c>
-      <c r="K92" t="inlineStr"/>
-      <c r="L92" t="inlineStr"/>
-      <c r="M92" t="inlineStr"/>
-      <c r="N92" t="n">
+      <c r="J92" t="inlineStr"/>
+      <c r="K92" t="n">
+        <v>453</v>
+      </c>
+      <c r="L92" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M92" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3896,36 +3864,39 @@
         <v>91</v>
       </c>
       <c r="B93" t="n">
-        <v>443.3</v>
+        <v>453.4</v>
       </c>
       <c r="C93" t="n">
-        <v>442.7</v>
+        <v>452.7</v>
       </c>
       <c r="D93" t="n">
-        <v>443.3</v>
+        <v>453.4</v>
       </c>
       <c r="E93" t="n">
-        <v>442.7</v>
+        <v>452.7</v>
       </c>
       <c r="F93" t="n">
-        <v>1917.6155</v>
+        <v>1998.9506</v>
       </c>
       <c r="G93" t="n">
-        <v>446.8466666666665</v>
+        <v>-73134.93610000001</v>
       </c>
       <c r="H93" t="n">
-        <v>453.5316666666668</v>
+        <v>0</v>
       </c>
       <c r="I93" t="n">
         <v>0</v>
       </c>
-      <c r="J93" t="n">
-        <v>0</v>
-      </c>
-      <c r="K93" t="inlineStr"/>
-      <c r="L93" t="inlineStr"/>
-      <c r="M93" t="inlineStr"/>
-      <c r="N93" t="n">
+      <c r="J93" t="inlineStr"/>
+      <c r="K93" t="n">
+        <v>453</v>
+      </c>
+      <c r="L93" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M93" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3934,36 +3905,39 @@
         <v>92</v>
       </c>
       <c r="B94" t="n">
-        <v>443.3</v>
+        <v>453</v>
       </c>
       <c r="C94" t="n">
-        <v>443.3</v>
+        <v>452</v>
       </c>
       <c r="D94" t="n">
-        <v>443.3</v>
+        <v>453</v>
       </c>
       <c r="E94" t="n">
-        <v>443.3</v>
+        <v>452</v>
       </c>
       <c r="F94" t="n">
-        <v>30</v>
+        <v>7000</v>
       </c>
       <c r="G94" t="n">
-        <v>446.3666666666666</v>
+        <v>-80134.93610000001</v>
       </c>
       <c r="H94" t="n">
-        <v>453.3833333333334</v>
+        <v>0</v>
       </c>
       <c r="I94" t="n">
         <v>0</v>
       </c>
-      <c r="J94" t="n">
-        <v>0</v>
-      </c>
-      <c r="K94" t="inlineStr"/>
-      <c r="L94" t="inlineStr"/>
-      <c r="M94" t="inlineStr"/>
-      <c r="N94" t="n">
+      <c r="J94" t="inlineStr"/>
+      <c r="K94" t="n">
+        <v>453</v>
+      </c>
+      <c r="L94" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M94" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3972,36 +3946,39 @@
         <v>93</v>
       </c>
       <c r="B95" t="n">
-        <v>443.3</v>
+        <v>452</v>
       </c>
       <c r="C95" t="n">
-        <v>443.3</v>
+        <v>450.5</v>
       </c>
       <c r="D95" t="n">
-        <v>443.3</v>
+        <v>452</v>
       </c>
       <c r="E95" t="n">
-        <v>443.3</v>
+        <v>450.5</v>
       </c>
       <c r="F95" t="n">
-        <v>306.5682</v>
+        <v>1998.9507</v>
       </c>
       <c r="G95" t="n">
-        <v>445.8866666666665</v>
+        <v>-82133.88680000001</v>
       </c>
       <c r="H95" t="n">
-        <v>453.1566666666667</v>
+        <v>0</v>
       </c>
       <c r="I95" t="n">
         <v>0</v>
       </c>
-      <c r="J95" t="n">
-        <v>0</v>
-      </c>
-      <c r="K95" t="inlineStr"/>
-      <c r="L95" t="inlineStr"/>
-      <c r="M95" t="inlineStr"/>
-      <c r="N95" t="n">
+      <c r="J95" t="inlineStr"/>
+      <c r="K95" t="n">
+        <v>453</v>
+      </c>
+      <c r="L95" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M95" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4010,36 +3987,39 @@
         <v>94</v>
       </c>
       <c r="B96" t="n">
-        <v>443.3</v>
+        <v>450.6</v>
       </c>
       <c r="C96" t="n">
-        <v>443.3</v>
+        <v>450.5</v>
       </c>
       <c r="D96" t="n">
-        <v>443.3</v>
+        <v>452</v>
       </c>
       <c r="E96" t="n">
-        <v>443.3</v>
+        <v>450.5</v>
       </c>
       <c r="F96" t="n">
-        <v>229.8658</v>
+        <v>8183.2338</v>
       </c>
       <c r="G96" t="n">
-        <v>445.6399999999999</v>
+        <v>-82133.88680000001</v>
       </c>
       <c r="H96" t="n">
-        <v>453.0083333333333</v>
+        <v>0</v>
       </c>
       <c r="I96" t="n">
         <v>0</v>
       </c>
-      <c r="J96" t="n">
-        <v>0</v>
-      </c>
-      <c r="K96" t="inlineStr"/>
-      <c r="L96" t="inlineStr"/>
-      <c r="M96" t="inlineStr"/>
-      <c r="N96" t="n">
+      <c r="J96" t="inlineStr"/>
+      <c r="K96" t="n">
+        <v>453</v>
+      </c>
+      <c r="L96" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M96" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4048,40 +4028,39 @@
         <v>95</v>
       </c>
       <c r="B97" t="n">
-        <v>443.3</v>
+        <v>450.5</v>
       </c>
       <c r="C97" t="n">
-        <v>443.3</v>
+        <v>450.5</v>
       </c>
       <c r="D97" t="n">
-        <v>443.3</v>
+        <v>450.5</v>
       </c>
       <c r="E97" t="n">
-        <v>443.3</v>
+        <v>450.5</v>
       </c>
       <c r="F97" t="n">
-        <v>435</v>
+        <v>4200</v>
       </c>
       <c r="G97" t="n">
-        <v>445.4133333333332</v>
+        <v>-82133.88680000001</v>
       </c>
       <c r="H97" t="n">
-        <v>452.7666666666667</v>
+        <v>0</v>
       </c>
       <c r="I97" t="n">
-        <v>1</v>
-      </c>
-      <c r="J97" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J97" t="inlineStr"/>
       <c r="K97" t="n">
-        <v>443.3</v>
-      </c>
-      <c r="L97" t="n">
-        <v>443.3</v>
-      </c>
-      <c r="M97" t="inlineStr"/>
-      <c r="N97" t="n">
+        <v>453</v>
+      </c>
+      <c r="L97" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M97" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4090,44 +4069,39 @@
         <v>96</v>
       </c>
       <c r="B98" t="n">
-        <v>443.3</v>
+        <v>450.5</v>
       </c>
       <c r="C98" t="n">
-        <v>443.3</v>
+        <v>450.5</v>
       </c>
       <c r="D98" t="n">
-        <v>443.3</v>
+        <v>450.5</v>
       </c>
       <c r="E98" t="n">
-        <v>443.3</v>
+        <v>450.5</v>
       </c>
       <c r="F98" t="n">
-        <v>118.0814</v>
+        <v>250</v>
       </c>
       <c r="G98" t="n">
-        <v>445.1866666666666</v>
+        <v>-82133.88680000001</v>
       </c>
       <c r="H98" t="n">
-        <v>452.62</v>
+        <v>0</v>
       </c>
       <c r="I98" t="n">
-        <v>1</v>
-      </c>
-      <c r="J98" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J98" t="inlineStr"/>
       <c r="K98" t="n">
-        <v>443.3</v>
-      </c>
-      <c r="L98" t="n">
-        <v>443.3</v>
-      </c>
-      <c r="M98" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="N98" t="n">
+        <v>453</v>
+      </c>
+      <c r="L98" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M98" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4136,44 +4110,39 @@
         <v>97</v>
       </c>
       <c r="B99" t="n">
-        <v>443.3</v>
+        <v>450.5</v>
       </c>
       <c r="C99" t="n">
-        <v>447.7</v>
+        <v>450.5</v>
       </c>
       <c r="D99" t="n">
-        <v>447.7</v>
+        <v>450.5</v>
       </c>
       <c r="E99" t="n">
-        <v>443.3</v>
+        <v>450.5</v>
       </c>
       <c r="F99" t="n">
-        <v>2523.4146</v>
+        <v>1625.5359</v>
       </c>
       <c r="G99" t="n">
-        <v>445.2133333333333</v>
+        <v>-82133.88680000001</v>
       </c>
       <c r="H99" t="n">
-        <v>452.4516666666667</v>
+        <v>0</v>
       </c>
       <c r="I99" t="n">
-        <v>1</v>
-      </c>
-      <c r="J99" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J99" t="inlineStr"/>
       <c r="K99" t="n">
-        <v>443.3</v>
-      </c>
-      <c r="L99" t="n">
-        <v>443.3</v>
-      </c>
-      <c r="M99" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
-      <c r="N99" t="n">
+        <v>453</v>
+      </c>
+      <c r="L99" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M99" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4182,44 +4151,39 @@
         <v>98</v>
       </c>
       <c r="B100" t="n">
-        <v>443.4</v>
+        <v>450.5</v>
       </c>
       <c r="C100" t="n">
-        <v>443.3</v>
+        <v>450.5</v>
       </c>
       <c r="D100" t="n">
-        <v>443.4</v>
+        <v>450.5</v>
       </c>
       <c r="E100" t="n">
-        <v>443.3</v>
+        <v>450.5</v>
       </c>
       <c r="F100" t="n">
-        <v>2265.7641</v>
+        <v>590</v>
       </c>
       <c r="G100" t="n">
-        <v>444.7066666666666</v>
+        <v>-82133.88680000001</v>
       </c>
       <c r="H100" t="n">
-        <v>452.175</v>
+        <v>0</v>
       </c>
       <c r="I100" t="n">
-        <v>1</v>
-      </c>
-      <c r="J100" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J100" t="inlineStr"/>
       <c r="K100" t="n">
-        <v>447.7</v>
-      </c>
-      <c r="L100" t="n">
-        <v>443.3</v>
-      </c>
-      <c r="M100" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N100" t="n">
+        <v>453</v>
+      </c>
+      <c r="L100" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M100" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4228,44 +4192,41 @@
         <v>99</v>
       </c>
       <c r="B101" t="n">
-        <v>447.7</v>
+        <v>450.5</v>
       </c>
       <c r="C101" t="n">
-        <v>447.7</v>
+        <v>450.5</v>
       </c>
       <c r="D101" t="n">
-        <v>447.7</v>
+        <v>450.5</v>
       </c>
       <c r="E101" t="n">
-        <v>447.7</v>
+        <v>450.5</v>
       </c>
       <c r="F101" t="n">
-        <v>8.5162</v>
+        <v>405.0162</v>
       </c>
       <c r="G101" t="n">
-        <v>444.7333333333333</v>
+        <v>-82133.88680000001</v>
       </c>
       <c r="H101" t="n">
-        <v>452.0066666666667</v>
+        <v>1</v>
       </c>
       <c r="I101" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J101" t="n">
-        <v>0</v>
+        <v>450.5</v>
       </c>
       <c r="K101" t="n">
-        <v>443.3</v>
-      </c>
-      <c r="L101" t="n">
-        <v>443.3</v>
-      </c>
-      <c r="M101" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N101" t="n">
+        <v>453</v>
+      </c>
+      <c r="L101" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M101" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4274,44 +4235,39 @@
         <v>100</v>
       </c>
       <c r="B102" t="n">
-        <v>446.7</v>
+        <v>450.5</v>
       </c>
       <c r="C102" t="n">
-        <v>446.7</v>
+        <v>450.5</v>
       </c>
       <c r="D102" t="n">
-        <v>446.7</v>
+        <v>450.5</v>
       </c>
       <c r="E102" t="n">
-        <v>446.7</v>
+        <v>450.5</v>
       </c>
       <c r="F102" t="n">
-        <v>99.9999</v>
+        <v>56.4699</v>
       </c>
       <c r="G102" t="n">
-        <v>444.4533333333333</v>
+        <v>-82133.88680000001</v>
       </c>
       <c r="H102" t="n">
-        <v>451.8216666666667</v>
+        <v>0</v>
       </c>
       <c r="I102" t="n">
-        <v>1</v>
-      </c>
-      <c r="J102" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J102" t="inlineStr"/>
       <c r="K102" t="n">
-        <v>447.7</v>
-      </c>
-      <c r="L102" t="n">
-        <v>443.3</v>
-      </c>
-      <c r="M102" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N102" t="n">
+        <v>453</v>
+      </c>
+      <c r="L102" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M102" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4320,42 +4276,41 @@
         <v>101</v>
       </c>
       <c r="B103" t="n">
-        <v>447.7</v>
+        <v>450.6</v>
       </c>
       <c r="C103" t="n">
-        <v>448</v>
+        <v>450.6</v>
       </c>
       <c r="D103" t="n">
-        <v>448</v>
+        <v>450.6</v>
       </c>
       <c r="E103" t="n">
-        <v>447.7</v>
+        <v>450.6</v>
       </c>
       <c r="F103" t="n">
-        <v>289.2084</v>
+        <v>850</v>
       </c>
       <c r="G103" t="n">
-        <v>444.7066666666666</v>
+        <v>-81283.88680000001</v>
       </c>
       <c r="H103" t="n">
-        <v>451.6583333333334</v>
+        <v>1</v>
       </c>
       <c r="I103" t="n">
         <v>0</v>
       </c>
       <c r="J103" t="n">
-        <v>0</v>
-      </c>
-      <c r="K103" t="inlineStr"/>
-      <c r="L103" t="n">
-        <v>443.3</v>
-      </c>
-      <c r="M103" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N103" t="n">
+        <v>450.5</v>
+      </c>
+      <c r="K103" t="n">
+        <v>453</v>
+      </c>
+      <c r="L103" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M103" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4364,42 +4319,41 @@
         <v>102</v>
       </c>
       <c r="B104" t="n">
-        <v>447.5</v>
+        <v>450.6</v>
       </c>
       <c r="C104" t="n">
-        <v>447.6</v>
+        <v>451.1</v>
       </c>
       <c r="D104" t="n">
-        <v>447.6</v>
+        <v>451.1</v>
       </c>
       <c r="E104" t="n">
-        <v>447.5</v>
+        <v>450.6</v>
       </c>
       <c r="F104" t="n">
-        <v>709.1495</v>
+        <v>1220.9633</v>
       </c>
       <c r="G104" t="n">
-        <v>444.8333333333333</v>
+        <v>-80062.9235</v>
       </c>
       <c r="H104" t="n">
-        <v>451.4883333333334</v>
+        <v>1</v>
       </c>
       <c r="I104" t="n">
         <v>0</v>
       </c>
       <c r="J104" t="n">
-        <v>0</v>
-      </c>
-      <c r="K104" t="inlineStr"/>
-      <c r="L104" t="n">
-        <v>443.3</v>
-      </c>
-      <c r="M104" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N104" t="n">
+        <v>450.6</v>
+      </c>
+      <c r="K104" t="n">
+        <v>453</v>
+      </c>
+      <c r="L104" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M104" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4408,42 +4362,41 @@
         <v>103</v>
       </c>
       <c r="B105" t="n">
-        <v>447.5</v>
+        <v>452</v>
       </c>
       <c r="C105" t="n">
-        <v>447.5</v>
+        <v>452</v>
       </c>
       <c r="D105" t="n">
-        <v>447.5</v>
+        <v>452</v>
       </c>
       <c r="E105" t="n">
-        <v>447.5</v>
+        <v>452</v>
       </c>
       <c r="F105" t="n">
-        <v>3.2094</v>
+        <v>27</v>
       </c>
       <c r="G105" t="n">
-        <v>444.9533333333333</v>
+        <v>-80035.9235</v>
       </c>
       <c r="H105" t="n">
-        <v>451.3166666666667</v>
+        <v>1</v>
       </c>
       <c r="I105" t="n">
         <v>0</v>
       </c>
       <c r="J105" t="n">
-        <v>0</v>
-      </c>
-      <c r="K105" t="inlineStr"/>
-      <c r="L105" t="n">
-        <v>443.3</v>
-      </c>
-      <c r="M105" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N105" t="n">
+        <v>451.1</v>
+      </c>
+      <c r="K105" t="n">
+        <v>453</v>
+      </c>
+      <c r="L105" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M105" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4452,42 +4405,41 @@
         <v>104</v>
       </c>
       <c r="B106" t="n">
-        <v>449</v>
+        <v>452</v>
       </c>
       <c r="C106" t="n">
-        <v>448</v>
+        <v>452</v>
       </c>
       <c r="D106" t="n">
-        <v>449</v>
+        <v>452</v>
       </c>
       <c r="E106" t="n">
-        <v>448</v>
+        <v>452</v>
       </c>
       <c r="F106" t="n">
-        <v>2800</v>
+        <v>5.6246</v>
       </c>
       <c r="G106" t="n">
-        <v>445.2666666666667</v>
+        <v>-80035.9235</v>
       </c>
       <c r="H106" t="n">
-        <v>451.1533333333334</v>
+        <v>1</v>
       </c>
       <c r="I106" t="n">
         <v>0</v>
       </c>
       <c r="J106" t="n">
-        <v>0</v>
-      </c>
-      <c r="K106" t="inlineStr"/>
-      <c r="L106" t="n">
-        <v>443.3</v>
-      </c>
-      <c r="M106" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N106" t="n">
+        <v>452</v>
+      </c>
+      <c r="K106" t="n">
+        <v>453</v>
+      </c>
+      <c r="L106" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M106" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4496,42 +4448,41 @@
         <v>105</v>
       </c>
       <c r="B107" t="n">
-        <v>450.9</v>
+        <v>450.6</v>
       </c>
       <c r="C107" t="n">
-        <v>450.9</v>
+        <v>450.6</v>
       </c>
       <c r="D107" t="n">
-        <v>450.9</v>
+        <v>450.6</v>
       </c>
       <c r="E107" t="n">
-        <v>450.9</v>
+        <v>450.6</v>
       </c>
       <c r="F107" t="n">
-        <v>1007.203371035706</v>
+        <v>921</v>
       </c>
       <c r="G107" t="n">
-        <v>445.7733333333333</v>
+        <v>-80956.9235</v>
       </c>
       <c r="H107" t="n">
-        <v>451.0383333333335</v>
+        <v>1</v>
       </c>
       <c r="I107" t="n">
         <v>0</v>
       </c>
       <c r="J107" t="n">
-        <v>0</v>
-      </c>
-      <c r="K107" t="inlineStr"/>
-      <c r="L107" t="n">
-        <v>443.3</v>
-      </c>
-      <c r="M107" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N107" t="n">
+        <v>452</v>
+      </c>
+      <c r="K107" t="n">
+        <v>453</v>
+      </c>
+      <c r="L107" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M107" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4540,42 +4491,39 @@
         <v>106</v>
       </c>
       <c r="B108" t="n">
-        <v>451</v>
+        <v>450.9</v>
       </c>
       <c r="C108" t="n">
-        <v>451</v>
+        <v>450.5</v>
       </c>
       <c r="D108" t="n">
-        <v>451</v>
+        <v>450.9</v>
       </c>
       <c r="E108" t="n">
-        <v>451</v>
+        <v>450.5</v>
       </c>
       <c r="F108" t="n">
-        <v>205</v>
+        <v>7650.0583</v>
       </c>
       <c r="G108" t="n">
-        <v>446.3266666666667</v>
+        <v>-88606.98180000001</v>
       </c>
       <c r="H108" t="n">
-        <v>450.9250000000001</v>
+        <v>0</v>
       </c>
       <c r="I108" t="n">
         <v>0</v>
       </c>
-      <c r="J108" t="n">
-        <v>0</v>
-      </c>
-      <c r="K108" t="inlineStr"/>
-      <c r="L108" t="n">
-        <v>443.3</v>
-      </c>
-      <c r="M108" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N108" t="n">
+      <c r="J108" t="inlineStr"/>
+      <c r="K108" t="n">
+        <v>453</v>
+      </c>
+      <c r="L108" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M108" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4584,42 +4532,41 @@
         <v>107</v>
       </c>
       <c r="B109" t="n">
-        <v>451</v>
+        <v>450.5</v>
       </c>
       <c r="C109" t="n">
-        <v>451</v>
+        <v>450.5</v>
       </c>
       <c r="D109" t="n">
-        <v>451</v>
+        <v>450.5</v>
       </c>
       <c r="E109" t="n">
-        <v>451</v>
+        <v>450.5</v>
       </c>
       <c r="F109" t="n">
-        <v>141.6783</v>
+        <v>513.7296</v>
       </c>
       <c r="G109" t="n">
-        <v>446.84</v>
+        <v>-88606.98180000001</v>
       </c>
       <c r="H109" t="n">
-        <v>450.7833333333335</v>
+        <v>1</v>
       </c>
       <c r="I109" t="n">
         <v>0</v>
       </c>
       <c r="J109" t="n">
-        <v>0</v>
-      </c>
-      <c r="K109" t="inlineStr"/>
-      <c r="L109" t="n">
-        <v>443.3</v>
-      </c>
-      <c r="M109" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N109" t="n">
+        <v>450.5</v>
+      </c>
+      <c r="K109" t="n">
+        <v>453</v>
+      </c>
+      <c r="L109" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M109" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4628,42 +4575,39 @@
         <v>108</v>
       </c>
       <c r="B110" t="n">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="C110" t="n">
-        <v>458.1</v>
+        <v>447</v>
       </c>
       <c r="D110" t="n">
-        <v>458.1</v>
+        <v>450</v>
       </c>
       <c r="E110" t="n">
-        <v>451</v>
+        <v>447</v>
       </c>
       <c r="F110" t="n">
-        <v>810</v>
+        <v>2124.041</v>
       </c>
       <c r="G110" t="n">
-        <v>447.8266666666667</v>
+        <v>-90731.02280000001</v>
       </c>
       <c r="H110" t="n">
-        <v>450.7066666666668</v>
+        <v>0</v>
       </c>
       <c r="I110" t="n">
         <v>0</v>
       </c>
-      <c r="J110" t="n">
-        <v>0</v>
-      </c>
-      <c r="K110" t="inlineStr"/>
-      <c r="L110" t="n">
-        <v>443.3</v>
-      </c>
-      <c r="M110" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N110" t="n">
+      <c r="J110" t="inlineStr"/>
+      <c r="K110" t="n">
+        <v>453</v>
+      </c>
+      <c r="L110" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M110" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4672,42 +4616,41 @@
         <v>109</v>
       </c>
       <c r="B111" t="n">
-        <v>451</v>
+        <v>446.7</v>
       </c>
       <c r="C111" t="n">
-        <v>449.8</v>
+        <v>446.7</v>
       </c>
       <c r="D111" t="n">
-        <v>451</v>
+        <v>446.7</v>
       </c>
       <c r="E111" t="n">
-        <v>448.9</v>
+        <v>446.7</v>
       </c>
       <c r="F111" t="n">
-        <v>400</v>
+        <v>4.1545</v>
       </c>
       <c r="G111" t="n">
-        <v>448.26</v>
+        <v>-90735.17730000001</v>
       </c>
       <c r="H111" t="n">
-        <v>450.5333333333334</v>
+        <v>1</v>
       </c>
       <c r="I111" t="n">
         <v>0</v>
       </c>
       <c r="J111" t="n">
-        <v>0</v>
-      </c>
-      <c r="K111" t="inlineStr"/>
-      <c r="L111" t="n">
-        <v>443.3</v>
-      </c>
-      <c r="M111" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N111" t="n">
+        <v>447</v>
+      </c>
+      <c r="K111" t="n">
+        <v>453</v>
+      </c>
+      <c r="L111" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M111" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4716,42 +4659,41 @@
         <v>110</v>
       </c>
       <c r="B112" t="n">
-        <v>454.9</v>
+        <v>446.7</v>
       </c>
       <c r="C112" t="n">
-        <v>454.9</v>
+        <v>446.7</v>
       </c>
       <c r="D112" t="n">
-        <v>454.9</v>
+        <v>446.7</v>
       </c>
       <c r="E112" t="n">
-        <v>454.9</v>
+        <v>446.7</v>
       </c>
       <c r="F112" t="n">
-        <v>995.4521999999999</v>
+        <v>1845.4336</v>
       </c>
       <c r="G112" t="n">
-        <v>449.0333333333332</v>
+        <v>-90735.17730000001</v>
       </c>
       <c r="H112" t="n">
-        <v>450.4050000000001</v>
+        <v>1</v>
       </c>
       <c r="I112" t="n">
         <v>0</v>
       </c>
       <c r="J112" t="n">
-        <v>0</v>
-      </c>
-      <c r="K112" t="inlineStr"/>
-      <c r="L112" t="n">
-        <v>443.3</v>
-      </c>
-      <c r="M112" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N112" t="n">
+        <v>446.7</v>
+      </c>
+      <c r="K112" t="n">
+        <v>453</v>
+      </c>
+      <c r="L112" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M112" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4760,42 +4702,41 @@
         <v>111</v>
       </c>
       <c r="B113" t="n">
-        <v>453</v>
+        <v>447.1</v>
       </c>
       <c r="C113" t="n">
-        <v>452</v>
+        <v>447.3</v>
       </c>
       <c r="D113" t="n">
-        <v>453</v>
+        <v>447.3</v>
       </c>
       <c r="E113" t="n">
-        <v>452</v>
+        <v>447.1</v>
       </c>
       <c r="F113" t="n">
-        <v>150</v>
+        <v>4</v>
       </c>
       <c r="G113" t="n">
-        <v>449.6133333333333</v>
+        <v>-90731.17730000001</v>
       </c>
       <c r="H113" t="n">
-        <v>450.2516666666668</v>
+        <v>1</v>
       </c>
       <c r="I113" t="n">
         <v>0</v>
       </c>
       <c r="J113" t="n">
-        <v>0</v>
-      </c>
-      <c r="K113" t="inlineStr"/>
-      <c r="L113" t="n">
-        <v>443.3</v>
-      </c>
-      <c r="M113" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N113" t="n">
+        <v>446.7</v>
+      </c>
+      <c r="K113" t="n">
+        <v>453</v>
+      </c>
+      <c r="L113" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M113" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4804,42 +4745,41 @@
         <v>112</v>
       </c>
       <c r="B114" t="n">
-        <v>452.6</v>
+        <v>450.9</v>
       </c>
       <c r="C114" t="n">
-        <v>452.6</v>
+        <v>450.9</v>
       </c>
       <c r="D114" t="n">
-        <v>452.6</v>
+        <v>450.9</v>
       </c>
       <c r="E114" t="n">
-        <v>452.6</v>
+        <v>450.9</v>
       </c>
       <c r="F114" t="n">
-        <v>260.1491</v>
+        <v>1.2</v>
       </c>
       <c r="G114" t="n">
-        <v>449.9399999999999</v>
+        <v>-90729.97730000001</v>
       </c>
       <c r="H114" t="n">
-        <v>450.1116666666667</v>
+        <v>1</v>
       </c>
       <c r="I114" t="n">
         <v>0</v>
       </c>
       <c r="J114" t="n">
-        <v>0</v>
-      </c>
-      <c r="K114" t="inlineStr"/>
-      <c r="L114" t="n">
-        <v>443.3</v>
-      </c>
-      <c r="M114" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N114" t="n">
+        <v>447.3</v>
+      </c>
+      <c r="K114" t="n">
+        <v>453</v>
+      </c>
+      <c r="L114" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M114" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4848,42 +4788,39 @@
         <v>113</v>
       </c>
       <c r="B115" t="n">
-        <v>452</v>
+        <v>447.3</v>
       </c>
       <c r="C115" t="n">
-        <v>453</v>
+        <v>447.3</v>
       </c>
       <c r="D115" t="n">
-        <v>453</v>
+        <v>447.3</v>
       </c>
       <c r="E115" t="n">
-        <v>452</v>
+        <v>447.3</v>
       </c>
       <c r="F115" t="n">
-        <v>400</v>
+        <v>384</v>
       </c>
       <c r="G115" t="n">
-        <v>450.5866666666666</v>
+        <v>-91113.97730000001</v>
       </c>
       <c r="H115" t="n">
-        <v>449.9950000000001</v>
+        <v>0</v>
       </c>
       <c r="I115" t="n">
         <v>0</v>
       </c>
-      <c r="J115" t="n">
-        <v>0</v>
-      </c>
-      <c r="K115" t="inlineStr"/>
-      <c r="L115" t="n">
-        <v>443.3</v>
-      </c>
-      <c r="M115" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N115" t="n">
+      <c r="J115" t="inlineStr"/>
+      <c r="K115" t="n">
+        <v>453</v>
+      </c>
+      <c r="L115" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M115" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4892,42 +4829,39 @@
         <v>114</v>
       </c>
       <c r="B116" t="n">
-        <v>453.9</v>
+        <v>450.9</v>
       </c>
       <c r="C116" t="n">
-        <v>453.9</v>
+        <v>450.9</v>
       </c>
       <c r="D116" t="n">
-        <v>453.9</v>
+        <v>450.9</v>
       </c>
       <c r="E116" t="n">
-        <v>453.9</v>
+        <v>450.9</v>
       </c>
       <c r="F116" t="n">
-        <v>2800</v>
+        <v>1.2</v>
       </c>
       <c r="G116" t="n">
-        <v>450.9999999999999</v>
+        <v>-91112.77730000002</v>
       </c>
       <c r="H116" t="n">
-        <v>449.8933333333334</v>
+        <v>0</v>
       </c>
       <c r="I116" t="n">
         <v>0</v>
       </c>
-      <c r="J116" t="n">
-        <v>0</v>
-      </c>
-      <c r="K116" t="inlineStr"/>
-      <c r="L116" t="n">
-        <v>443.3</v>
-      </c>
-      <c r="M116" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N116" t="n">
+      <c r="J116" t="inlineStr"/>
+      <c r="K116" t="n">
+        <v>453</v>
+      </c>
+      <c r="L116" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M116" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4936,42 +4870,1250 @@
         <v>115</v>
       </c>
       <c r="B117" t="n">
+        <v>446.8</v>
+      </c>
+      <c r="C117" t="n">
+        <v>444.2</v>
+      </c>
+      <c r="D117" t="n">
+        <v>446.8</v>
+      </c>
+      <c r="E117" t="n">
+        <v>444.2</v>
+      </c>
+      <c r="F117" t="n">
+        <v>7056.3011</v>
+      </c>
+      <c r="G117" t="n">
+        <v>-98169.07840000001</v>
+      </c>
+      <c r="H117" t="n">
+        <v>0</v>
+      </c>
+      <c r="I117" t="n">
+        <v>0</v>
+      </c>
+      <c r="J117" t="inlineStr"/>
+      <c r="K117" t="n">
+        <v>453</v>
+      </c>
+      <c r="L117" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M117" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" s="1" t="n">
+        <v>116</v>
+      </c>
+      <c r="B118" t="n">
+        <v>445.7</v>
+      </c>
+      <c r="C118" t="n">
+        <v>445.7</v>
+      </c>
+      <c r="D118" t="n">
+        <v>445.7</v>
+      </c>
+      <c r="E118" t="n">
+        <v>445.7</v>
+      </c>
+      <c r="F118" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="G118" t="n">
+        <v>-98167.87840000002</v>
+      </c>
+      <c r="H118" t="n">
+        <v>0</v>
+      </c>
+      <c r="I118" t="n">
+        <v>0</v>
+      </c>
+      <c r="J118" t="inlineStr"/>
+      <c r="K118" t="n">
+        <v>453</v>
+      </c>
+      <c r="L118" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M118" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" s="1" t="n">
+        <v>117</v>
+      </c>
+      <c r="B119" t="n">
+        <v>445.7</v>
+      </c>
+      <c r="C119" t="n">
+        <v>445.7</v>
+      </c>
+      <c r="D119" t="n">
+        <v>445.7</v>
+      </c>
+      <c r="E119" t="n">
+        <v>445.7</v>
+      </c>
+      <c r="F119" t="n">
+        <v>20</v>
+      </c>
+      <c r="G119" t="n">
+        <v>-98167.87840000002</v>
+      </c>
+      <c r="H119" t="n">
+        <v>0</v>
+      </c>
+      <c r="I119" t="n">
+        <v>0</v>
+      </c>
+      <c r="J119" t="inlineStr"/>
+      <c r="K119" t="n">
+        <v>453</v>
+      </c>
+      <c r="L119" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M119" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" s="1" t="n">
+        <v>118</v>
+      </c>
+      <c r="B120" t="n">
+        <v>444.3</v>
+      </c>
+      <c r="C120" t="n">
+        <v>443.3</v>
+      </c>
+      <c r="D120" t="n">
+        <v>448</v>
+      </c>
+      <c r="E120" t="n">
+        <v>442.2</v>
+      </c>
+      <c r="F120" t="n">
+        <v>19452.2485</v>
+      </c>
+      <c r="G120" t="n">
+        <v>-117620.1269</v>
+      </c>
+      <c r="H120" t="n">
+        <v>0</v>
+      </c>
+      <c r="I120" t="n">
+        <v>0</v>
+      </c>
+      <c r="J120" t="inlineStr"/>
+      <c r="K120" t="n">
+        <v>453</v>
+      </c>
+      <c r="L120" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M120" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" s="1" t="n">
+        <v>119</v>
+      </c>
+      <c r="B121" t="n">
+        <v>443.2</v>
+      </c>
+      <c r="C121" t="n">
+        <v>443.3</v>
+      </c>
+      <c r="D121" t="n">
+        <v>443.3</v>
+      </c>
+      <c r="E121" t="n">
+        <v>443.2</v>
+      </c>
+      <c r="F121" t="n">
+        <v>15769</v>
+      </c>
+      <c r="G121" t="n">
+        <v>-117620.1269</v>
+      </c>
+      <c r="H121" t="n">
+        <v>0</v>
+      </c>
+      <c r="I121" t="n">
+        <v>0</v>
+      </c>
+      <c r="J121" t="inlineStr"/>
+      <c r="K121" t="n">
+        <v>453</v>
+      </c>
+      <c r="L121" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M121" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" s="1" t="n">
+        <v>120</v>
+      </c>
+      <c r="B122" t="n">
+        <v>443.3</v>
+      </c>
+      <c r="C122" t="n">
+        <v>442.7</v>
+      </c>
+      <c r="D122" t="n">
+        <v>443.3</v>
+      </c>
+      <c r="E122" t="n">
+        <v>442.7</v>
+      </c>
+      <c r="F122" t="n">
+        <v>1917.6155</v>
+      </c>
+      <c r="G122" t="n">
+        <v>-119537.7424</v>
+      </c>
+      <c r="H122" t="n">
+        <v>0</v>
+      </c>
+      <c r="I122" t="n">
+        <v>0</v>
+      </c>
+      <c r="J122" t="inlineStr"/>
+      <c r="K122" t="n">
+        <v>453</v>
+      </c>
+      <c r="L122" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M122" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" s="1" t="n">
+        <v>121</v>
+      </c>
+      <c r="B123" t="n">
+        <v>443.3</v>
+      </c>
+      <c r="C123" t="n">
+        <v>443.3</v>
+      </c>
+      <c r="D123" t="n">
+        <v>443.3</v>
+      </c>
+      <c r="E123" t="n">
+        <v>443.3</v>
+      </c>
+      <c r="F123" t="n">
+        <v>30</v>
+      </c>
+      <c r="G123" t="n">
+        <v>-119507.7424</v>
+      </c>
+      <c r="H123" t="n">
+        <v>0</v>
+      </c>
+      <c r="I123" t="n">
+        <v>0</v>
+      </c>
+      <c r="J123" t="inlineStr"/>
+      <c r="K123" t="n">
+        <v>453</v>
+      </c>
+      <c r="L123" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M123" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" s="1" t="n">
+        <v>122</v>
+      </c>
+      <c r="B124" t="n">
+        <v>443.3</v>
+      </c>
+      <c r="C124" t="n">
+        <v>443.3</v>
+      </c>
+      <c r="D124" t="n">
+        <v>443.3</v>
+      </c>
+      <c r="E124" t="n">
+        <v>443.3</v>
+      </c>
+      <c r="F124" t="n">
+        <v>306.5682</v>
+      </c>
+      <c r="G124" t="n">
+        <v>-119507.7424</v>
+      </c>
+      <c r="H124" t="n">
+        <v>0</v>
+      </c>
+      <c r="I124" t="n">
+        <v>0</v>
+      </c>
+      <c r="J124" t="inlineStr"/>
+      <c r="K124" t="n">
+        <v>453</v>
+      </c>
+      <c r="L124" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M124" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" s="1" t="n">
+        <v>123</v>
+      </c>
+      <c r="B125" t="n">
+        <v>443.3</v>
+      </c>
+      <c r="C125" t="n">
+        <v>443.3</v>
+      </c>
+      <c r="D125" t="n">
+        <v>443.3</v>
+      </c>
+      <c r="E125" t="n">
+        <v>443.3</v>
+      </c>
+      <c r="F125" t="n">
+        <v>229.8658</v>
+      </c>
+      <c r="G125" t="n">
+        <v>-119507.7424</v>
+      </c>
+      <c r="H125" t="n">
+        <v>0</v>
+      </c>
+      <c r="I125" t="n">
+        <v>0</v>
+      </c>
+      <c r="J125" t="inlineStr"/>
+      <c r="K125" t="n">
+        <v>453</v>
+      </c>
+      <c r="L125" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M125" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" s="1" t="n">
+        <v>124</v>
+      </c>
+      <c r="B126" t="n">
+        <v>443.3</v>
+      </c>
+      <c r="C126" t="n">
+        <v>443.3</v>
+      </c>
+      <c r="D126" t="n">
+        <v>443.3</v>
+      </c>
+      <c r="E126" t="n">
+        <v>443.3</v>
+      </c>
+      <c r="F126" t="n">
+        <v>435</v>
+      </c>
+      <c r="G126" t="n">
+        <v>-119507.7424</v>
+      </c>
+      <c r="H126" t="n">
+        <v>0</v>
+      </c>
+      <c r="I126" t="n">
+        <v>0</v>
+      </c>
+      <c r="J126" t="inlineStr"/>
+      <c r="K126" t="n">
+        <v>453</v>
+      </c>
+      <c r="L126" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M126" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" s="1" t="n">
+        <v>125</v>
+      </c>
+      <c r="B127" t="n">
+        <v>443.3</v>
+      </c>
+      <c r="C127" t="n">
+        <v>443.3</v>
+      </c>
+      <c r="D127" t="n">
+        <v>443.3</v>
+      </c>
+      <c r="E127" t="n">
+        <v>443.3</v>
+      </c>
+      <c r="F127" t="n">
+        <v>118.0814</v>
+      </c>
+      <c r="G127" t="n">
+        <v>-119507.7424</v>
+      </c>
+      <c r="H127" t="n">
+        <v>1</v>
+      </c>
+      <c r="I127" t="n">
+        <v>0</v>
+      </c>
+      <c r="J127" t="n">
+        <v>443.3</v>
+      </c>
+      <c r="K127" t="n">
+        <v>453</v>
+      </c>
+      <c r="L127" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M127" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" s="1" t="n">
+        <v>126</v>
+      </c>
+      <c r="B128" t="n">
+        <v>443.3</v>
+      </c>
+      <c r="C128" t="n">
+        <v>447.7</v>
+      </c>
+      <c r="D128" t="n">
+        <v>447.7</v>
+      </c>
+      <c r="E128" t="n">
+        <v>443.3</v>
+      </c>
+      <c r="F128" t="n">
+        <v>2523.4146</v>
+      </c>
+      <c r="G128" t="n">
+        <v>-116984.3278</v>
+      </c>
+      <c r="H128" t="n">
+        <v>1</v>
+      </c>
+      <c r="I128" t="n">
+        <v>0</v>
+      </c>
+      <c r="J128" t="n">
+        <v>443.3</v>
+      </c>
+      <c r="K128" t="n">
+        <v>453</v>
+      </c>
+      <c r="L128" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M128" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" s="1" t="n">
+        <v>127</v>
+      </c>
+      <c r="B129" t="n">
+        <v>443.4</v>
+      </c>
+      <c r="C129" t="n">
+        <v>443.3</v>
+      </c>
+      <c r="D129" t="n">
+        <v>443.4</v>
+      </c>
+      <c r="E129" t="n">
+        <v>443.3</v>
+      </c>
+      <c r="F129" t="n">
+        <v>2265.7641</v>
+      </c>
+      <c r="G129" t="n">
+        <v>-119250.0919</v>
+      </c>
+      <c r="H129" t="n">
+        <v>1</v>
+      </c>
+      <c r="I129" t="n">
+        <v>0</v>
+      </c>
+      <c r="J129" t="n">
+        <v>447.7</v>
+      </c>
+      <c r="K129" t="n">
+        <v>453</v>
+      </c>
+      <c r="L129" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M129" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" s="1" t="n">
+        <v>128</v>
+      </c>
+      <c r="B130" t="n">
+        <v>447.7</v>
+      </c>
+      <c r="C130" t="n">
+        <v>447.7</v>
+      </c>
+      <c r="D130" t="n">
+        <v>447.7</v>
+      </c>
+      <c r="E130" t="n">
+        <v>447.7</v>
+      </c>
+      <c r="F130" t="n">
+        <v>8.5162</v>
+      </c>
+      <c r="G130" t="n">
+        <v>-119241.5757</v>
+      </c>
+      <c r="H130" t="n">
+        <v>0</v>
+      </c>
+      <c r="I130" t="n">
+        <v>0</v>
+      </c>
+      <c r="J130" t="inlineStr"/>
+      <c r="K130" t="n">
+        <v>453</v>
+      </c>
+      <c r="L130" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M130" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" s="1" t="n">
+        <v>129</v>
+      </c>
+      <c r="B131" t="n">
+        <v>446.7</v>
+      </c>
+      <c r="C131" t="n">
+        <v>446.7</v>
+      </c>
+      <c r="D131" t="n">
+        <v>446.7</v>
+      </c>
+      <c r="E131" t="n">
+        <v>446.7</v>
+      </c>
+      <c r="F131" t="n">
+        <v>99.9999</v>
+      </c>
+      <c r="G131" t="n">
+        <v>-119341.5756</v>
+      </c>
+      <c r="H131" t="n">
+        <v>0</v>
+      </c>
+      <c r="I131" t="n">
+        <v>0</v>
+      </c>
+      <c r="J131" t="inlineStr"/>
+      <c r="K131" t="n">
+        <v>453</v>
+      </c>
+      <c r="L131" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M131" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" s="1" t="n">
+        <v>130</v>
+      </c>
+      <c r="B132" t="n">
+        <v>447.7</v>
+      </c>
+      <c r="C132" t="n">
+        <v>448</v>
+      </c>
+      <c r="D132" t="n">
+        <v>448</v>
+      </c>
+      <c r="E132" t="n">
+        <v>447.7</v>
+      </c>
+      <c r="F132" t="n">
+        <v>289.2084</v>
+      </c>
+      <c r="G132" t="n">
+        <v>-119052.3672</v>
+      </c>
+      <c r="H132" t="n">
+        <v>0</v>
+      </c>
+      <c r="I132" t="n">
+        <v>0</v>
+      </c>
+      <c r="J132" t="inlineStr"/>
+      <c r="K132" t="n">
+        <v>453</v>
+      </c>
+      <c r="L132" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M132" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" s="1" t="n">
+        <v>131</v>
+      </c>
+      <c r="B133" t="n">
+        <v>447.5</v>
+      </c>
+      <c r="C133" t="n">
+        <v>447.6</v>
+      </c>
+      <c r="D133" t="n">
+        <v>447.6</v>
+      </c>
+      <c r="E133" t="n">
+        <v>447.5</v>
+      </c>
+      <c r="F133" t="n">
+        <v>709.1495</v>
+      </c>
+      <c r="G133" t="n">
+        <v>-119761.5167</v>
+      </c>
+      <c r="H133" t="n">
+        <v>0</v>
+      </c>
+      <c r="I133" t="n">
+        <v>0</v>
+      </c>
+      <c r="J133" t="inlineStr"/>
+      <c r="K133" t="n">
+        <v>453</v>
+      </c>
+      <c r="L133" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M133" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" s="1" t="n">
+        <v>132</v>
+      </c>
+      <c r="B134" t="n">
+        <v>447.5</v>
+      </c>
+      <c r="C134" t="n">
+        <v>447.5</v>
+      </c>
+      <c r="D134" t="n">
+        <v>447.5</v>
+      </c>
+      <c r="E134" t="n">
+        <v>447.5</v>
+      </c>
+      <c r="F134" t="n">
+        <v>3.2094</v>
+      </c>
+      <c r="G134" t="n">
+        <v>-119764.7261</v>
+      </c>
+      <c r="H134" t="n">
+        <v>1</v>
+      </c>
+      <c r="I134" t="n">
+        <v>0</v>
+      </c>
+      <c r="J134" t="n">
+        <v>447.6</v>
+      </c>
+      <c r="K134" t="n">
+        <v>453</v>
+      </c>
+      <c r="L134" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M134" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" s="1" t="n">
+        <v>133</v>
+      </c>
+      <c r="B135" t="n">
+        <v>449</v>
+      </c>
+      <c r="C135" t="n">
+        <v>448</v>
+      </c>
+      <c r="D135" t="n">
+        <v>449</v>
+      </c>
+      <c r="E135" t="n">
+        <v>448</v>
+      </c>
+      <c r="F135" t="n">
+        <v>2800</v>
+      </c>
+      <c r="G135" t="n">
+        <v>-116964.7261</v>
+      </c>
+      <c r="H135" t="n">
+        <v>1</v>
+      </c>
+      <c r="I135" t="n">
+        <v>0</v>
+      </c>
+      <c r="J135" t="n">
+        <v>447.5</v>
+      </c>
+      <c r="K135" t="n">
+        <v>453</v>
+      </c>
+      <c r="L135" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M135" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" s="1" t="n">
+        <v>134</v>
+      </c>
+      <c r="B136" t="n">
+        <v>450.9</v>
+      </c>
+      <c r="C136" t="n">
+        <v>450.9</v>
+      </c>
+      <c r="D136" t="n">
+        <v>450.9</v>
+      </c>
+      <c r="E136" t="n">
+        <v>450.9</v>
+      </c>
+      <c r="F136" t="n">
+        <v>1007.203371035706</v>
+      </c>
+      <c r="G136" t="n">
+        <v>-115957.5227289643</v>
+      </c>
+      <c r="H136" t="n">
+        <v>1</v>
+      </c>
+      <c r="I136" t="n">
+        <v>0</v>
+      </c>
+      <c r="J136" t="n">
+        <v>448</v>
+      </c>
+      <c r="K136" t="n">
+        <v>453</v>
+      </c>
+      <c r="L136" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M136" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" s="1" t="n">
+        <v>135</v>
+      </c>
+      <c r="B137" t="n">
+        <v>451</v>
+      </c>
+      <c r="C137" t="n">
+        <v>451</v>
+      </c>
+      <c r="D137" t="n">
+        <v>451</v>
+      </c>
+      <c r="E137" t="n">
+        <v>451</v>
+      </c>
+      <c r="F137" t="n">
+        <v>205</v>
+      </c>
+      <c r="G137" t="n">
+        <v>-115752.5227289643</v>
+      </c>
+      <c r="H137" t="n">
+        <v>1</v>
+      </c>
+      <c r="I137" t="n">
+        <v>0</v>
+      </c>
+      <c r="J137" t="n">
+        <v>450.9</v>
+      </c>
+      <c r="K137" t="n">
+        <v>453</v>
+      </c>
+      <c r="L137" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M137" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" s="1" t="n">
+        <v>136</v>
+      </c>
+      <c r="B138" t="n">
+        <v>451</v>
+      </c>
+      <c r="C138" t="n">
+        <v>451</v>
+      </c>
+      <c r="D138" t="n">
+        <v>451</v>
+      </c>
+      <c r="E138" t="n">
+        <v>451</v>
+      </c>
+      <c r="F138" t="n">
+        <v>141.6783</v>
+      </c>
+      <c r="G138" t="n">
+        <v>-115752.5227289643</v>
+      </c>
+      <c r="H138" t="n">
+        <v>1</v>
+      </c>
+      <c r="I138" t="n">
+        <v>0</v>
+      </c>
+      <c r="J138" t="n">
+        <v>451</v>
+      </c>
+      <c r="K138" t="n">
+        <v>453</v>
+      </c>
+      <c r="L138" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M138" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" s="1" t="n">
+        <v>137</v>
+      </c>
+      <c r="B139" t="n">
+        <v>451</v>
+      </c>
+      <c r="C139" t="n">
+        <v>458.1</v>
+      </c>
+      <c r="D139" t="n">
+        <v>458.1</v>
+      </c>
+      <c r="E139" t="n">
+        <v>451</v>
+      </c>
+      <c r="F139" t="n">
+        <v>810</v>
+      </c>
+      <c r="G139" t="n">
+        <v>-114942.5227289643</v>
+      </c>
+      <c r="H139" t="n">
+        <v>1</v>
+      </c>
+      <c r="I139" t="n">
+        <v>0</v>
+      </c>
+      <c r="J139" t="n">
+        <v>451</v>
+      </c>
+      <c r="K139" t="n">
+        <v>453</v>
+      </c>
+      <c r="L139" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M139" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" s="1" t="n">
+        <v>138</v>
+      </c>
+      <c r="B140" t="n">
+        <v>451</v>
+      </c>
+      <c r="C140" t="n">
+        <v>449.8</v>
+      </c>
+      <c r="D140" t="n">
+        <v>451</v>
+      </c>
+      <c r="E140" t="n">
+        <v>448.9</v>
+      </c>
+      <c r="F140" t="n">
+        <v>400</v>
+      </c>
+      <c r="G140" t="n">
+        <v>-115342.5227289643</v>
+      </c>
+      <c r="H140" t="n">
+        <v>1</v>
+      </c>
+      <c r="I140" t="n">
+        <v>0</v>
+      </c>
+      <c r="J140" t="n">
+        <v>458.1</v>
+      </c>
+      <c r="K140" t="n">
+        <v>453</v>
+      </c>
+      <c r="L140" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M140" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" s="1" t="n">
+        <v>139</v>
+      </c>
+      <c r="B141" t="n">
+        <v>454.9</v>
+      </c>
+      <c r="C141" t="n">
+        <v>454.9</v>
+      </c>
+      <c r="D141" t="n">
+        <v>454.9</v>
+      </c>
+      <c r="E141" t="n">
+        <v>454.9</v>
+      </c>
+      <c r="F141" t="n">
+        <v>995.4521999999999</v>
+      </c>
+      <c r="G141" t="n">
+        <v>-114347.0705289643</v>
+      </c>
+      <c r="H141" t="n">
+        <v>0</v>
+      </c>
+      <c r="I141" t="n">
+        <v>0</v>
+      </c>
+      <c r="J141" t="inlineStr"/>
+      <c r="K141" t="n">
+        <v>453</v>
+      </c>
+      <c r="L141" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M141" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" s="1" t="n">
+        <v>140</v>
+      </c>
+      <c r="B142" t="n">
+        <v>453</v>
+      </c>
+      <c r="C142" t="n">
+        <v>452</v>
+      </c>
+      <c r="D142" t="n">
+        <v>453</v>
+      </c>
+      <c r="E142" t="n">
+        <v>452</v>
+      </c>
+      <c r="F142" t="n">
+        <v>150</v>
+      </c>
+      <c r="G142" t="n">
+        <v>-114497.0705289643</v>
+      </c>
+      <c r="H142" t="n">
+        <v>1</v>
+      </c>
+      <c r="I142" t="n">
+        <v>0</v>
+      </c>
+      <c r="J142" t="n">
+        <v>454.9</v>
+      </c>
+      <c r="K142" t="n">
+        <v>453</v>
+      </c>
+      <c r="L142" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M142" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" s="1" t="n">
+        <v>141</v>
+      </c>
+      <c r="B143" t="n">
+        <v>452.6</v>
+      </c>
+      <c r="C143" t="n">
+        <v>452.6</v>
+      </c>
+      <c r="D143" t="n">
+        <v>452.6</v>
+      </c>
+      <c r="E143" t="n">
+        <v>452.6</v>
+      </c>
+      <c r="F143" t="n">
+        <v>260.1491</v>
+      </c>
+      <c r="G143" t="n">
+        <v>-114236.9214289643</v>
+      </c>
+      <c r="H143" t="n">
+        <v>0</v>
+      </c>
+      <c r="I143" t="n">
+        <v>0</v>
+      </c>
+      <c r="J143" t="inlineStr"/>
+      <c r="K143" t="n">
+        <v>453</v>
+      </c>
+      <c r="L143" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M143" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" s="1" t="n">
+        <v>142</v>
+      </c>
+      <c r="B144" t="n">
+        <v>452</v>
+      </c>
+      <c r="C144" t="n">
+        <v>453</v>
+      </c>
+      <c r="D144" t="n">
+        <v>453</v>
+      </c>
+      <c r="E144" t="n">
+        <v>452</v>
+      </c>
+      <c r="F144" t="n">
+        <v>400</v>
+      </c>
+      <c r="G144" t="n">
+        <v>-113836.9214289643</v>
+      </c>
+      <c r="H144" t="n">
+        <v>0</v>
+      </c>
+      <c r="I144" t="n">
+        <v>0</v>
+      </c>
+      <c r="J144" t="inlineStr"/>
+      <c r="K144" t="n">
+        <v>453</v>
+      </c>
+      <c r="L144" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M144" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" s="1" t="n">
+        <v>143</v>
+      </c>
+      <c r="B145" t="n">
         <v>453.9</v>
       </c>
-      <c r="C117" t="n">
+      <c r="C145" t="n">
         <v>453.9</v>
       </c>
-      <c r="D117" t="n">
+      <c r="D145" t="n">
         <v>453.9</v>
       </c>
-      <c r="E117" t="n">
+      <c r="E145" t="n">
         <v>453.9</v>
       </c>
-      <c r="F117" t="n">
+      <c r="F145" t="n">
+        <v>2800</v>
+      </c>
+      <c r="G145" t="n">
+        <v>-111036.9214289643</v>
+      </c>
+      <c r="H145" t="n">
+        <v>0</v>
+      </c>
+      <c r="I145" t="n">
+        <v>0</v>
+      </c>
+      <c r="J145" t="inlineStr"/>
+      <c r="K145" t="n">
+        <v>453</v>
+      </c>
+      <c r="L145" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M145" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" s="1" t="n">
+        <v>144</v>
+      </c>
+      <c r="B146" t="n">
+        <v>453.9</v>
+      </c>
+      <c r="C146" t="n">
+        <v>453.9</v>
+      </c>
+      <c r="D146" t="n">
+        <v>453.9</v>
+      </c>
+      <c r="E146" t="n">
+        <v>453.9</v>
+      </c>
+      <c r="F146" t="n">
         <v>1541</v>
       </c>
-      <c r="G117" t="n">
-        <v>451.4799999999999</v>
-      </c>
-      <c r="H117" t="n">
-        <v>449.7916666666668</v>
-      </c>
-      <c r="I117" t="n">
-        <v>0</v>
-      </c>
-      <c r="J117" t="n">
-        <v>0</v>
-      </c>
-      <c r="K117" t="inlineStr"/>
-      <c r="L117" t="n">
-        <v>443.3</v>
-      </c>
-      <c r="M117" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N117" t="n">
+      <c r="G146" t="n">
+        <v>-111036.9214289643</v>
+      </c>
+      <c r="H146" t="n">
+        <v>0</v>
+      </c>
+      <c r="I146" t="n">
+        <v>0</v>
+      </c>
+      <c r="J146" t="inlineStr"/>
+      <c r="K146" t="n">
+        <v>453</v>
+      </c>
+      <c r="L146" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M146" t="n">
         <v>1</v>
       </c>
     </row>

--- a/BackTest/2020-01-24 BackTest WTC.xlsx
+++ b/BackTest/2020-01-24 BackTest WTC.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N104"/>
+  <dimension ref="A1:N175"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -438,22 +438,22 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>459</v>
+        <v>479.3</v>
       </c>
       <c r="C2" t="n">
-        <v>457</v>
+        <v>479.3</v>
       </c>
       <c r="D2" t="n">
-        <v>459</v>
+        <v>479.3</v>
       </c>
       <c r="E2" t="n">
-        <v>457</v>
+        <v>479.3</v>
       </c>
       <c r="F2" t="n">
-        <v>2545</v>
+        <v>12.7385</v>
       </c>
       <c r="G2" t="n">
-        <v>-57594.3225</v>
+        <v>-22721.12629999999</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -474,22 +474,22 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>457</v>
+        <v>481.9</v>
       </c>
       <c r="C3" t="n">
-        <v>451</v>
+        <v>482</v>
       </c>
       <c r="D3" t="n">
-        <v>457</v>
+        <v>482</v>
       </c>
       <c r="E3" t="n">
-        <v>451</v>
+        <v>481.9</v>
       </c>
       <c r="F3" t="n">
-        <v>6820</v>
+        <v>1009.769</v>
       </c>
       <c r="G3" t="n">
-        <v>-64414.3225</v>
+        <v>-21711.35729999999</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -510,28 +510,28 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>451.1</v>
+        <v>482</v>
       </c>
       <c r="C4" t="n">
-        <v>451</v>
+        <v>484.5</v>
       </c>
       <c r="D4" t="n">
-        <v>452</v>
+        <v>484.5</v>
       </c>
       <c r="E4" t="n">
-        <v>450.9</v>
+        <v>482</v>
       </c>
       <c r="F4" t="n">
-        <v>11396.0494</v>
+        <v>791.824</v>
       </c>
       <c r="G4" t="n">
-        <v>-64414.3225</v>
+        <v>-20919.53329999999</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J4" t="inlineStr"/>
       <c r="K4" t="inlineStr"/>
@@ -546,28 +546,28 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>451.1</v>
+        <v>484.3</v>
       </c>
       <c r="C5" t="n">
-        <v>451</v>
+        <v>484.3</v>
       </c>
       <c r="D5" t="n">
-        <v>451.1</v>
+        <v>484.5</v>
       </c>
       <c r="E5" t="n">
-        <v>451</v>
+        <v>484.3</v>
       </c>
       <c r="F5" t="n">
-        <v>1525</v>
+        <v>5074.4589</v>
       </c>
       <c r="G5" t="n">
-        <v>-64414.3225</v>
+        <v>-25993.99219999999</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J5" t="inlineStr"/>
       <c r="K5" t="inlineStr"/>
@@ -582,28 +582,28 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>465.9</v>
+        <v>484.6</v>
       </c>
       <c r="C6" t="n">
-        <v>451.4</v>
+        <v>484.6</v>
       </c>
       <c r="D6" t="n">
-        <v>465.9</v>
+        <v>484.6</v>
       </c>
       <c r="E6" t="n">
-        <v>451.3</v>
+        <v>484.6</v>
       </c>
       <c r="F6" t="n">
-        <v>1175</v>
+        <v>90.7046</v>
       </c>
       <c r="G6" t="n">
-        <v>-63239.3225</v>
+        <v>-25903.28759999999</v>
       </c>
       <c r="H6" t="n">
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J6" t="inlineStr"/>
       <c r="K6" t="inlineStr"/>
@@ -618,28 +618,28 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>452</v>
+        <v>484.6</v>
       </c>
       <c r="C7" t="n">
-        <v>452</v>
+        <v>484.6</v>
       </c>
       <c r="D7" t="n">
-        <v>452</v>
+        <v>484.6</v>
       </c>
       <c r="E7" t="n">
-        <v>452</v>
+        <v>484.6</v>
       </c>
       <c r="F7" t="n">
-        <v>1450</v>
+        <v>182.2718</v>
       </c>
       <c r="G7" t="n">
-        <v>-61789.3225</v>
+        <v>-25903.28759999999</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J7" t="inlineStr"/>
       <c r="K7" t="inlineStr"/>
@@ -654,28 +654,28 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>452</v>
+        <v>484.6</v>
       </c>
       <c r="C8" t="n">
-        <v>452</v>
+        <v>484.6</v>
       </c>
       <c r="D8" t="n">
-        <v>452</v>
+        <v>484.6</v>
       </c>
       <c r="E8" t="n">
-        <v>452</v>
+        <v>484.6</v>
       </c>
       <c r="F8" t="n">
-        <v>455</v>
+        <v>204.2593</v>
       </c>
       <c r="G8" t="n">
-        <v>-61789.3225</v>
+        <v>-25903.28759999999</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J8" t="inlineStr"/>
       <c r="K8" t="inlineStr"/>
@@ -690,28 +690,28 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>453</v>
+        <v>484.6</v>
       </c>
       <c r="C9" t="n">
-        <v>453</v>
+        <v>484.6</v>
       </c>
       <c r="D9" t="n">
-        <v>453.1</v>
+        <v>484.6</v>
       </c>
       <c r="E9" t="n">
-        <v>453</v>
+        <v>484.6</v>
       </c>
       <c r="F9" t="n">
-        <v>350</v>
+        <v>174.8456</v>
       </c>
       <c r="G9" t="n">
-        <v>-61439.3225</v>
+        <v>-25903.28759999999</v>
       </c>
       <c r="H9" t="n">
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J9" t="inlineStr"/>
       <c r="K9" t="inlineStr"/>
@@ -726,28 +726,28 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>453</v>
+        <v>480.3</v>
       </c>
       <c r="C10" t="n">
-        <v>453</v>
+        <v>479.3</v>
       </c>
       <c r="D10" t="n">
-        <v>453</v>
+        <v>480.3</v>
       </c>
       <c r="E10" t="n">
-        <v>453</v>
+        <v>479.3</v>
       </c>
       <c r="F10" t="n">
-        <v>2100</v>
+        <v>136</v>
       </c>
       <c r="G10" t="n">
-        <v>-61439.3225</v>
+        <v>-26039.28759999999</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J10" t="inlineStr"/>
       <c r="K10" t="inlineStr"/>
@@ -762,22 +762,22 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>453</v>
+        <v>480.3</v>
       </c>
       <c r="C11" t="n">
-        <v>453</v>
+        <v>480</v>
       </c>
       <c r="D11" t="n">
-        <v>453</v>
+        <v>480.3</v>
       </c>
       <c r="E11" t="n">
-        <v>453</v>
+        <v>480</v>
       </c>
       <c r="F11" t="n">
-        <v>4791.7288</v>
+        <v>3785.1514</v>
       </c>
       <c r="G11" t="n">
-        <v>-61439.3225</v>
+        <v>-22254.13619999999</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -798,28 +798,28 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>453</v>
+        <v>481</v>
       </c>
       <c r="C12" t="n">
-        <v>450</v>
+        <v>479.6</v>
       </c>
       <c r="D12" t="n">
-        <v>453</v>
+        <v>481</v>
       </c>
       <c r="E12" t="n">
-        <v>450</v>
+        <v>479.6</v>
       </c>
       <c r="F12" t="n">
-        <v>1590</v>
+        <v>1288.7099</v>
       </c>
       <c r="G12" t="n">
-        <v>-63029.3225</v>
+        <v>-23542.8461</v>
       </c>
       <c r="H12" t="n">
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J12" t="inlineStr"/>
       <c r="K12" t="inlineStr"/>
@@ -834,22 +834,22 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>459.5</v>
+        <v>479.6</v>
       </c>
       <c r="C13" t="n">
-        <v>460.8</v>
+        <v>479.2</v>
       </c>
       <c r="D13" t="n">
-        <v>460.8</v>
+        <v>479.6</v>
       </c>
       <c r="E13" t="n">
-        <v>459.5</v>
+        <v>479.2</v>
       </c>
       <c r="F13" t="n">
-        <v>81.6078</v>
+        <v>211.3603</v>
       </c>
       <c r="G13" t="n">
-        <v>-62947.7147</v>
+        <v>-23754.2064</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -870,22 +870,22 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>459.9</v>
+        <v>479.2</v>
       </c>
       <c r="C14" t="n">
-        <v>455.8</v>
+        <v>479.2</v>
       </c>
       <c r="D14" t="n">
-        <v>459.9</v>
+        <v>479.2</v>
       </c>
       <c r="E14" t="n">
-        <v>451</v>
+        <v>479.2</v>
       </c>
       <c r="F14" t="n">
-        <v>1262.9037</v>
+        <v>3.3394</v>
       </c>
       <c r="G14" t="n">
-        <v>-64210.61840000001</v>
+        <v>-23754.2064</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -906,28 +906,28 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>453</v>
+        <v>476.5</v>
       </c>
       <c r="C15" t="n">
-        <v>457.5</v>
+        <v>476.5</v>
       </c>
       <c r="D15" t="n">
-        <v>457.5</v>
+        <v>476.5</v>
       </c>
       <c r="E15" t="n">
-        <v>453</v>
+        <v>476.5</v>
       </c>
       <c r="F15" t="n">
-        <v>2500</v>
+        <v>265</v>
       </c>
       <c r="G15" t="n">
-        <v>-61710.61840000001</v>
+        <v>-24019.2064</v>
       </c>
       <c r="H15" t="n">
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J15" t="inlineStr"/>
       <c r="K15" t="inlineStr"/>
@@ -942,28 +942,28 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>452</v>
+        <v>476.5</v>
       </c>
       <c r="C16" t="n">
-        <v>452</v>
+        <v>476.5</v>
       </c>
       <c r="D16" t="n">
-        <v>452</v>
+        <v>476.5</v>
       </c>
       <c r="E16" t="n">
-        <v>452</v>
+        <v>476.5</v>
       </c>
       <c r="F16" t="n">
-        <v>76.01000000000001</v>
+        <v>1050.5536</v>
       </c>
       <c r="G16" t="n">
-        <v>-61786.62840000001</v>
+        <v>-24019.2064</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J16" t="inlineStr"/>
       <c r="K16" t="inlineStr"/>
@@ -978,22 +978,22 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>452.1</v>
+        <v>476.5</v>
       </c>
       <c r="C17" t="n">
-        <v>452</v>
+        <v>476.5</v>
       </c>
       <c r="D17" t="n">
-        <v>452.1</v>
+        <v>476.5</v>
       </c>
       <c r="E17" t="n">
-        <v>452</v>
+        <v>476.5</v>
       </c>
       <c r="F17" t="n">
-        <v>89.1649</v>
+        <v>767.5219</v>
       </c>
       <c r="G17" t="n">
-        <v>-61786.62840000001</v>
+        <v>-24019.2064</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -1014,22 +1014,22 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>452</v>
+        <v>476.5</v>
       </c>
       <c r="C18" t="n">
-        <v>452</v>
+        <v>476.5</v>
       </c>
       <c r="D18" t="n">
-        <v>452</v>
+        <v>476.5</v>
       </c>
       <c r="E18" t="n">
-        <v>452</v>
+        <v>476.5</v>
       </c>
       <c r="F18" t="n">
-        <v>8.019399999999999</v>
+        <v>218.7389</v>
       </c>
       <c r="G18" t="n">
-        <v>-61786.62840000001</v>
+        <v>-24019.2064</v>
       </c>
       <c r="H18" t="n">
         <v>0</v>
@@ -1050,22 +1050,22 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>452</v>
+        <v>476.6</v>
       </c>
       <c r="C19" t="n">
-        <v>452</v>
+        <v>470.6</v>
       </c>
       <c r="D19" t="n">
-        <v>452</v>
+        <v>476.6</v>
       </c>
       <c r="E19" t="n">
-        <v>452</v>
+        <v>470.5</v>
       </c>
       <c r="F19" t="n">
-        <v>723.3516</v>
+        <v>9188.527700000001</v>
       </c>
       <c r="G19" t="n">
-        <v>-61786.62840000001</v>
+        <v>-33207.73409999999</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -1086,22 +1086,22 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>452.1</v>
+        <v>472.2</v>
       </c>
       <c r="C20" t="n">
-        <v>452.1</v>
+        <v>472.2</v>
       </c>
       <c r="D20" t="n">
-        <v>453</v>
+        <v>472.2</v>
       </c>
       <c r="E20" t="n">
-        <v>452.1</v>
+        <v>472.2</v>
       </c>
       <c r="F20" t="n">
-        <v>1321.31</v>
+        <v>65.39570000000001</v>
       </c>
       <c r="G20" t="n">
-        <v>-60465.31840000001</v>
+        <v>-33142.33839999999</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -1122,22 +1122,22 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>453</v>
+        <v>472</v>
       </c>
       <c r="C21" t="n">
-        <v>452.2</v>
+        <v>470.5</v>
       </c>
       <c r="D21" t="n">
-        <v>453</v>
+        <v>472</v>
       </c>
       <c r="E21" t="n">
-        <v>452.2</v>
+        <v>470.5</v>
       </c>
       <c r="F21" t="n">
-        <v>2800</v>
+        <v>2285</v>
       </c>
       <c r="G21" t="n">
-        <v>-57665.31840000001</v>
+        <v>-35427.33839999999</v>
       </c>
       <c r="H21" t="n">
         <v>0</v>
@@ -1158,22 +1158,22 @@
         <v>20</v>
       </c>
       <c r="B22" t="n">
-        <v>456.9</v>
+        <v>470.5</v>
       </c>
       <c r="C22" t="n">
-        <v>456.9</v>
+        <v>472.9</v>
       </c>
       <c r="D22" t="n">
-        <v>456.9</v>
+        <v>472.9</v>
       </c>
       <c r="E22" t="n">
-        <v>456.9</v>
+        <v>470.5</v>
       </c>
       <c r="F22" t="n">
-        <v>720.1798</v>
+        <v>1687.0485</v>
       </c>
       <c r="G22" t="n">
-        <v>-56945.13860000001</v>
+        <v>-33740.2899</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -1194,22 +1194,22 @@
         <v>21</v>
       </c>
       <c r="B23" t="n">
-        <v>456.9</v>
+        <v>470.5</v>
       </c>
       <c r="C23" t="n">
-        <v>452.2</v>
+        <v>470.5</v>
       </c>
       <c r="D23" t="n">
-        <v>456.9</v>
+        <v>470.5</v>
       </c>
       <c r="E23" t="n">
-        <v>452.2</v>
+        <v>470.5</v>
       </c>
       <c r="F23" t="n">
-        <v>7713.7844</v>
+        <v>2300</v>
       </c>
       <c r="G23" t="n">
-        <v>-64658.92300000001</v>
+        <v>-36040.2899</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
@@ -1230,22 +1230,22 @@
         <v>22</v>
       </c>
       <c r="B24" t="n">
-        <v>457.8</v>
+        <v>472.9</v>
       </c>
       <c r="C24" t="n">
-        <v>457.8</v>
+        <v>472</v>
       </c>
       <c r="D24" t="n">
-        <v>457.8</v>
+        <v>473</v>
       </c>
       <c r="E24" t="n">
-        <v>457.8</v>
+        <v>470.5</v>
       </c>
       <c r="F24" t="n">
-        <v>1.1</v>
+        <v>3654.2564</v>
       </c>
       <c r="G24" t="n">
-        <v>-64657.82300000001</v>
+        <v>-32386.0335</v>
       </c>
       <c r="H24" t="n">
         <v>0</v>
@@ -1266,22 +1266,22 @@
         <v>23</v>
       </c>
       <c r="B25" t="n">
-        <v>452.3</v>
+        <v>472</v>
       </c>
       <c r="C25" t="n">
-        <v>452.1</v>
+        <v>470.5</v>
       </c>
       <c r="D25" t="n">
-        <v>452.3</v>
+        <v>472</v>
       </c>
       <c r="E25" t="n">
-        <v>452.1</v>
+        <v>470.5</v>
       </c>
       <c r="F25" t="n">
-        <v>1400</v>
+        <v>535</v>
       </c>
       <c r="G25" t="n">
-        <v>-66057.823</v>
+        <v>-32921.0335</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -1302,22 +1302,22 @@
         <v>24</v>
       </c>
       <c r="B26" t="n">
-        <v>457.8</v>
+        <v>470.5</v>
       </c>
       <c r="C26" t="n">
-        <v>457.8</v>
+        <v>470.5</v>
       </c>
       <c r="D26" t="n">
-        <v>457.8</v>
+        <v>470.6</v>
       </c>
       <c r="E26" t="n">
-        <v>457.8</v>
+        <v>470.5</v>
       </c>
       <c r="F26" t="n">
-        <v>1.1</v>
+        <v>4829.3503</v>
       </c>
       <c r="G26" t="n">
-        <v>-66056.723</v>
+        <v>-32921.0335</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -1338,22 +1338,22 @@
         <v>25</v>
       </c>
       <c r="B27" t="n">
-        <v>459.9</v>
+        <v>470.5</v>
       </c>
       <c r="C27" t="n">
-        <v>459.9</v>
+        <v>470.5</v>
       </c>
       <c r="D27" t="n">
-        <v>459.9</v>
+        <v>470.5</v>
       </c>
       <c r="E27" t="n">
-        <v>459.9</v>
+        <v>470.5</v>
       </c>
       <c r="F27" t="n">
-        <v>1170.1267</v>
+        <v>973.6066</v>
       </c>
       <c r="G27" t="n">
-        <v>-64886.5963</v>
+        <v>-32921.0335</v>
       </c>
       <c r="H27" t="n">
         <v>0</v>
@@ -1374,22 +1374,22 @@
         <v>26</v>
       </c>
       <c r="B28" t="n">
-        <v>457.8</v>
+        <v>470.5</v>
       </c>
       <c r="C28" t="n">
-        <v>457.8</v>
+        <v>470.5</v>
       </c>
       <c r="D28" t="n">
-        <v>457.8</v>
+        <v>470.5</v>
       </c>
       <c r="E28" t="n">
-        <v>457.8</v>
+        <v>470.5</v>
       </c>
       <c r="F28" t="n">
-        <v>415</v>
+        <v>241.0977</v>
       </c>
       <c r="G28" t="n">
-        <v>-65301.5963</v>
+        <v>-32921.0335</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -1410,22 +1410,22 @@
         <v>27</v>
       </c>
       <c r="B29" t="n">
-        <v>457.8</v>
+        <v>470.3</v>
       </c>
       <c r="C29" t="n">
-        <v>457.8</v>
+        <v>470.3</v>
       </c>
       <c r="D29" t="n">
-        <v>457.8</v>
+        <v>470.3</v>
       </c>
       <c r="E29" t="n">
-        <v>457.8</v>
+        <v>470.3</v>
       </c>
       <c r="F29" t="n">
-        <v>1400</v>
+        <v>128.1616</v>
       </c>
       <c r="G29" t="n">
-        <v>-65301.5963</v>
+        <v>-33049.1951</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -1446,22 +1446,22 @@
         <v>28</v>
       </c>
       <c r="B30" t="n">
-        <v>457.8</v>
+        <v>470.3</v>
       </c>
       <c r="C30" t="n">
-        <v>457.8</v>
+        <v>470</v>
       </c>
       <c r="D30" t="n">
-        <v>457.8</v>
+        <v>470.3</v>
       </c>
       <c r="E30" t="n">
-        <v>457.8</v>
+        <v>469.9</v>
       </c>
       <c r="F30" t="n">
-        <v>1650.1247</v>
+        <v>4470.5339</v>
       </c>
       <c r="G30" t="n">
-        <v>-65301.5963</v>
+        <v>-37519.729</v>
       </c>
       <c r="H30" t="n">
         <v>0</v>
@@ -1482,22 +1482,22 @@
         <v>29</v>
       </c>
       <c r="B31" t="n">
-        <v>457.8</v>
+        <v>470</v>
       </c>
       <c r="C31" t="n">
-        <v>457.8</v>
+        <v>470</v>
       </c>
       <c r="D31" t="n">
-        <v>457.8</v>
+        <v>470</v>
       </c>
       <c r="E31" t="n">
-        <v>457.8</v>
+        <v>470</v>
       </c>
       <c r="F31" t="n">
-        <v>500</v>
+        <v>29.4391</v>
       </c>
       <c r="G31" t="n">
-        <v>-65301.5963</v>
+        <v>-37519.729</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -1518,22 +1518,22 @@
         <v>30</v>
       </c>
       <c r="B32" t="n">
-        <v>457.8</v>
+        <v>470.5</v>
       </c>
       <c r="C32" t="n">
-        <v>457.8</v>
+        <v>470.6</v>
       </c>
       <c r="D32" t="n">
-        <v>457.8</v>
+        <v>470.7</v>
       </c>
       <c r="E32" t="n">
-        <v>457.8</v>
+        <v>470.5</v>
       </c>
       <c r="F32" t="n">
-        <v>100</v>
+        <v>1029.9537</v>
       </c>
       <c r="G32" t="n">
-        <v>-65301.5963</v>
+        <v>-36489.7753</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
@@ -1554,22 +1554,22 @@
         <v>31</v>
       </c>
       <c r="B33" t="n">
-        <v>457.8</v>
+        <v>470.6</v>
       </c>
       <c r="C33" t="n">
-        <v>457.8</v>
+        <v>470.7</v>
       </c>
       <c r="D33" t="n">
-        <v>457.8</v>
+        <v>470.7</v>
       </c>
       <c r="E33" t="n">
-        <v>457.8</v>
+        <v>470.6</v>
       </c>
       <c r="F33" t="n">
-        <v>1447.782</v>
+        <v>347.8479</v>
       </c>
       <c r="G33" t="n">
-        <v>-65301.5963</v>
+        <v>-36141.9274</v>
       </c>
       <c r="H33" t="n">
         <v>0</v>
@@ -1590,22 +1590,22 @@
         <v>32</v>
       </c>
       <c r="B34" t="n">
-        <v>457.8</v>
+        <v>470.8</v>
       </c>
       <c r="C34" t="n">
-        <v>457.8</v>
+        <v>470.8</v>
       </c>
       <c r="D34" t="n">
-        <v>457.8</v>
+        <v>470.8</v>
       </c>
       <c r="E34" t="n">
-        <v>457.8</v>
+        <v>470.8</v>
       </c>
       <c r="F34" t="n">
-        <v>436.0394</v>
+        <v>117.1</v>
       </c>
       <c r="G34" t="n">
-        <v>-65301.5963</v>
+        <v>-36024.8274</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -1626,22 +1626,22 @@
         <v>33</v>
       </c>
       <c r="B35" t="n">
-        <v>457</v>
+        <v>474.9</v>
       </c>
       <c r="C35" t="n">
-        <v>457.8</v>
+        <v>474.9</v>
       </c>
       <c r="D35" t="n">
-        <v>457.8</v>
+        <v>474.9</v>
       </c>
       <c r="E35" t="n">
-        <v>457</v>
+        <v>474.9</v>
       </c>
       <c r="F35" t="n">
-        <v>2495.7737</v>
+        <v>1.2</v>
       </c>
       <c r="G35" t="n">
-        <v>-65301.5963</v>
+        <v>-36023.6274</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -1662,22 +1662,22 @@
         <v>34</v>
       </c>
       <c r="B36" t="n">
-        <v>457.8</v>
+        <v>471</v>
       </c>
       <c r="C36" t="n">
-        <v>459.5</v>
+        <v>471</v>
       </c>
       <c r="D36" t="n">
-        <v>459.5</v>
+        <v>471</v>
       </c>
       <c r="E36" t="n">
-        <v>457.8</v>
+        <v>471</v>
       </c>
       <c r="F36" t="n">
-        <v>2748.5675</v>
+        <v>1.07</v>
       </c>
       <c r="G36" t="n">
-        <v>-62553.0288</v>
+        <v>-36024.6974</v>
       </c>
       <c r="H36" t="n">
         <v>0</v>
@@ -1698,22 +1698,22 @@
         <v>35</v>
       </c>
       <c r="B37" t="n">
-        <v>461.6</v>
+        <v>471</v>
       </c>
       <c r="C37" t="n">
-        <v>462.7</v>
+        <v>471</v>
       </c>
       <c r="D37" t="n">
-        <v>462.7</v>
+        <v>471</v>
       </c>
       <c r="E37" t="n">
-        <v>461.6</v>
+        <v>471</v>
       </c>
       <c r="F37" t="n">
-        <v>1400</v>
+        <v>158.1363</v>
       </c>
       <c r="G37" t="n">
-        <v>-61153.0288</v>
+        <v>-36024.6974</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -1734,22 +1734,22 @@
         <v>36</v>
       </c>
       <c r="B38" t="n">
-        <v>460.2</v>
+        <v>471</v>
       </c>
       <c r="C38" t="n">
-        <v>460.2</v>
+        <v>471</v>
       </c>
       <c r="D38" t="n">
-        <v>460.2</v>
+        <v>471</v>
       </c>
       <c r="E38" t="n">
-        <v>460.2</v>
+        <v>471</v>
       </c>
       <c r="F38" t="n">
-        <v>832.0592</v>
+        <v>215.6406</v>
       </c>
       <c r="G38" t="n">
-        <v>-61985.088</v>
+        <v>-36024.6974</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -1770,22 +1770,22 @@
         <v>37</v>
       </c>
       <c r="B39" t="n">
-        <v>462.6</v>
+        <v>470</v>
       </c>
       <c r="C39" t="n">
-        <v>462.6</v>
+        <v>467.8</v>
       </c>
       <c r="D39" t="n">
-        <v>462.6</v>
+        <v>470</v>
       </c>
       <c r="E39" t="n">
-        <v>462.6</v>
+        <v>467.8</v>
       </c>
       <c r="F39" t="n">
-        <v>2827.7746</v>
+        <v>620.7521</v>
       </c>
       <c r="G39" t="n">
-        <v>-59157.31340000001</v>
+        <v>-36645.4495</v>
       </c>
       <c r="H39" t="n">
         <v>0</v>
@@ -1806,22 +1806,22 @@
         <v>38</v>
       </c>
       <c r="B40" t="n">
-        <v>461.2</v>
+        <v>467.9</v>
       </c>
       <c r="C40" t="n">
-        <v>461.2</v>
+        <v>467.9</v>
       </c>
       <c r="D40" t="n">
-        <v>461.2</v>
+        <v>467.9</v>
       </c>
       <c r="E40" t="n">
-        <v>461.2</v>
+        <v>467.9</v>
       </c>
       <c r="F40" t="n">
-        <v>110</v>
+        <v>4082.02</v>
       </c>
       <c r="G40" t="n">
-        <v>-59267.31340000001</v>
+        <v>-32563.4295</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -1842,22 +1842,22 @@
         <v>39</v>
       </c>
       <c r="B41" t="n">
-        <v>461</v>
+        <v>467.7</v>
       </c>
       <c r="C41" t="n">
-        <v>461</v>
+        <v>469.9</v>
       </c>
       <c r="D41" t="n">
-        <v>461</v>
+        <v>469.9</v>
       </c>
       <c r="E41" t="n">
-        <v>461</v>
+        <v>467.3</v>
       </c>
       <c r="F41" t="n">
-        <v>28.4176</v>
+        <v>2942.3592</v>
       </c>
       <c r="G41" t="n">
-        <v>-59295.73100000001</v>
+        <v>-29621.0703</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -1878,22 +1878,22 @@
         <v>40</v>
       </c>
       <c r="B42" t="n">
-        <v>461</v>
+        <v>466.8</v>
       </c>
       <c r="C42" t="n">
-        <v>460</v>
+        <v>470.7</v>
       </c>
       <c r="D42" t="n">
-        <v>461</v>
+        <v>470.7</v>
       </c>
       <c r="E42" t="n">
-        <v>460</v>
+        <v>466.8</v>
       </c>
       <c r="F42" t="n">
-        <v>1335.2401</v>
+        <v>890.6792</v>
       </c>
       <c r="G42" t="n">
-        <v>-60630.97110000001</v>
+        <v>-28730.3911</v>
       </c>
       <c r="H42" t="n">
         <v>0</v>
@@ -1914,22 +1914,22 @@
         <v>41</v>
       </c>
       <c r="B43" t="n">
-        <v>460</v>
+        <v>469.6</v>
       </c>
       <c r="C43" t="n">
-        <v>460</v>
+        <v>470.5</v>
       </c>
       <c r="D43" t="n">
-        <v>460</v>
+        <v>470.5</v>
       </c>
       <c r="E43" t="n">
-        <v>460</v>
+        <v>469.6</v>
       </c>
       <c r="F43" t="n">
-        <v>1400</v>
+        <v>81.23390000000001</v>
       </c>
       <c r="G43" t="n">
-        <v>-60630.97110000001</v>
+        <v>-28811.625</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -1950,22 +1950,22 @@
         <v>42</v>
       </c>
       <c r="B44" t="n">
-        <v>460</v>
+        <v>470.5</v>
       </c>
       <c r="C44" t="n">
-        <v>460</v>
+        <v>463.7</v>
       </c>
       <c r="D44" t="n">
-        <v>460</v>
+        <v>470.5</v>
       </c>
       <c r="E44" t="n">
-        <v>460</v>
+        <v>463.7</v>
       </c>
       <c r="F44" t="n">
-        <v>790.3939</v>
+        <v>830.6659</v>
       </c>
       <c r="G44" t="n">
-        <v>-60630.97110000001</v>
+        <v>-29642.2909</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
@@ -1986,22 +1986,22 @@
         <v>43</v>
       </c>
       <c r="B45" t="n">
-        <v>459.1</v>
+        <v>465</v>
       </c>
       <c r="C45" t="n">
-        <v>459.1</v>
+        <v>463.7</v>
       </c>
       <c r="D45" t="n">
-        <v>459.1</v>
+        <v>465</v>
       </c>
       <c r="E45" t="n">
-        <v>459.1</v>
+        <v>463.7</v>
       </c>
       <c r="F45" t="n">
-        <v>2484.5913</v>
+        <v>2141</v>
       </c>
       <c r="G45" t="n">
-        <v>-63115.56240000001</v>
+        <v>-29642.2909</v>
       </c>
       <c r="H45" t="n">
         <v>0</v>
@@ -2022,22 +2022,22 @@
         <v>44</v>
       </c>
       <c r="B46" t="n">
-        <v>459.1</v>
+        <v>463.9</v>
       </c>
       <c r="C46" t="n">
-        <v>459.1</v>
+        <v>463.7</v>
       </c>
       <c r="D46" t="n">
-        <v>459.1</v>
+        <v>463.9</v>
       </c>
       <c r="E46" t="n">
-        <v>459.1</v>
+        <v>463.7</v>
       </c>
       <c r="F46" t="n">
-        <v>267.8303</v>
+        <v>791.6233999999999</v>
       </c>
       <c r="G46" t="n">
-        <v>-63115.56240000001</v>
+        <v>-29642.2909</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -2058,22 +2058,22 @@
         <v>45</v>
       </c>
       <c r="B47" t="n">
-        <v>459.1</v>
+        <v>463.1</v>
       </c>
       <c r="C47" t="n">
-        <v>459.1</v>
+        <v>463.1</v>
       </c>
       <c r="D47" t="n">
-        <v>459.1</v>
+        <v>463.1</v>
       </c>
       <c r="E47" t="n">
-        <v>459.1</v>
+        <v>463.1</v>
       </c>
       <c r="F47" t="n">
-        <v>25</v>
+        <v>45</v>
       </c>
       <c r="G47" t="n">
-        <v>-63115.56240000001</v>
+        <v>-29687.2909</v>
       </c>
       <c r="H47" t="n">
         <v>0</v>
@@ -2094,22 +2094,22 @@
         <v>46</v>
       </c>
       <c r="B48" t="n">
-        <v>457.5</v>
+        <v>463.2</v>
       </c>
       <c r="C48" t="n">
-        <v>457.5</v>
+        <v>463.1</v>
       </c>
       <c r="D48" t="n">
-        <v>457.5</v>
+        <v>463.2</v>
       </c>
       <c r="E48" t="n">
-        <v>457.5</v>
+        <v>463.1</v>
       </c>
       <c r="F48" t="n">
-        <v>1395</v>
+        <v>4400</v>
       </c>
       <c r="G48" t="n">
-        <v>-64510.56240000001</v>
+        <v>-29687.2909</v>
       </c>
       <c r="H48" t="n">
         <v>0</v>
@@ -2130,22 +2130,22 @@
         <v>47</v>
       </c>
       <c r="B49" t="n">
-        <v>457.5</v>
+        <v>463.2</v>
       </c>
       <c r="C49" t="n">
-        <v>457.5</v>
+        <v>463.1</v>
       </c>
       <c r="D49" t="n">
-        <v>457.5</v>
+        <v>463.2</v>
       </c>
       <c r="E49" t="n">
-        <v>457.5</v>
+        <v>463.1</v>
       </c>
       <c r="F49" t="n">
-        <v>240</v>
+        <v>1400</v>
       </c>
       <c r="G49" t="n">
-        <v>-64510.56240000001</v>
+        <v>-29687.2909</v>
       </c>
       <c r="H49" t="n">
         <v>0</v>
@@ -2166,22 +2166,22 @@
         <v>48</v>
       </c>
       <c r="B50" t="n">
-        <v>457.5</v>
+        <v>465.9</v>
       </c>
       <c r="C50" t="n">
-        <v>453.4</v>
+        <v>465.9</v>
       </c>
       <c r="D50" t="n">
-        <v>457.5</v>
+        <v>465.9</v>
       </c>
       <c r="E50" t="n">
-        <v>453.4</v>
+        <v>465.9</v>
       </c>
       <c r="F50" t="n">
-        <v>6625.4231</v>
+        <v>428.205</v>
       </c>
       <c r="G50" t="n">
-        <v>-71135.98550000001</v>
+        <v>-29259.0859</v>
       </c>
       <c r="H50" t="n">
         <v>0</v>
@@ -2202,22 +2202,22 @@
         <v>49</v>
       </c>
       <c r="B51" t="n">
-        <v>453.4</v>
+        <v>465.8</v>
       </c>
       <c r="C51" t="n">
-        <v>452.7</v>
+        <v>465.8</v>
       </c>
       <c r="D51" t="n">
-        <v>453.4</v>
+        <v>465.8</v>
       </c>
       <c r="E51" t="n">
-        <v>452.7</v>
+        <v>465.8</v>
       </c>
       <c r="F51" t="n">
-        <v>1998.9506</v>
+        <v>62.0995</v>
       </c>
       <c r="G51" t="n">
-        <v>-73134.93610000001</v>
+        <v>-29321.1854</v>
       </c>
       <c r="H51" t="n">
         <v>0</v>
@@ -2238,22 +2238,22 @@
         <v>50</v>
       </c>
       <c r="B52" t="n">
-        <v>453</v>
+        <v>465.8</v>
       </c>
       <c r="C52" t="n">
-        <v>452</v>
+        <v>463.1</v>
       </c>
       <c r="D52" t="n">
-        <v>453</v>
+        <v>465.8</v>
       </c>
       <c r="E52" t="n">
-        <v>452</v>
+        <v>463.1</v>
       </c>
       <c r="F52" t="n">
-        <v>7000</v>
+        <v>2119.8725</v>
       </c>
       <c r="G52" t="n">
-        <v>-80134.93610000001</v>
+        <v>-31441.0579</v>
       </c>
       <c r="H52" t="n">
         <v>0</v>
@@ -2274,22 +2274,22 @@
         <v>51</v>
       </c>
       <c r="B53" t="n">
-        <v>452</v>
+        <v>465.9</v>
       </c>
       <c r="C53" t="n">
-        <v>450.5</v>
+        <v>465.9</v>
       </c>
       <c r="D53" t="n">
-        <v>452</v>
+        <v>465.9</v>
       </c>
       <c r="E53" t="n">
-        <v>450.5</v>
+        <v>465.9</v>
       </c>
       <c r="F53" t="n">
-        <v>1998.9507</v>
+        <v>17.3888</v>
       </c>
       <c r="G53" t="n">
-        <v>-82133.88680000001</v>
+        <v>-31423.6691</v>
       </c>
       <c r="H53" t="n">
         <v>0</v>
@@ -2310,22 +2310,22 @@
         <v>52</v>
       </c>
       <c r="B54" t="n">
-        <v>450.6</v>
+        <v>465.9</v>
       </c>
       <c r="C54" t="n">
-        <v>450.5</v>
+        <v>466.9</v>
       </c>
       <c r="D54" t="n">
-        <v>452</v>
+        <v>466.9</v>
       </c>
       <c r="E54" t="n">
-        <v>450.5</v>
+        <v>465.9</v>
       </c>
       <c r="F54" t="n">
-        <v>8183.2338</v>
+        <v>1480</v>
       </c>
       <c r="G54" t="n">
-        <v>-82133.88680000001</v>
+        <v>-29943.6691</v>
       </c>
       <c r="H54" t="n">
         <v>0</v>
@@ -2346,22 +2346,22 @@
         <v>53</v>
       </c>
       <c r="B55" t="n">
-        <v>450.5</v>
+        <v>463.3</v>
       </c>
       <c r="C55" t="n">
-        <v>450.5</v>
+        <v>463.3</v>
       </c>
       <c r="D55" t="n">
-        <v>450.5</v>
+        <v>463.3</v>
       </c>
       <c r="E55" t="n">
-        <v>450.5</v>
+        <v>463.3</v>
       </c>
       <c r="F55" t="n">
-        <v>4200</v>
+        <v>78.57089999999999</v>
       </c>
       <c r="G55" t="n">
-        <v>-82133.88680000001</v>
+        <v>-30022.24</v>
       </c>
       <c r="H55" t="n">
         <v>0</v>
@@ -2382,22 +2382,22 @@
         <v>54</v>
       </c>
       <c r="B56" t="n">
-        <v>450.5</v>
+        <v>463.3</v>
       </c>
       <c r="C56" t="n">
-        <v>450.5</v>
+        <v>463.1</v>
       </c>
       <c r="D56" t="n">
-        <v>450.5</v>
+        <v>463.3</v>
       </c>
       <c r="E56" t="n">
-        <v>450.5</v>
+        <v>463.1</v>
       </c>
       <c r="F56" t="n">
-        <v>250</v>
+        <v>1445</v>
       </c>
       <c r="G56" t="n">
-        <v>-82133.88680000001</v>
+        <v>-31467.24</v>
       </c>
       <c r="H56" t="n">
         <v>0</v>
@@ -2418,22 +2418,22 @@
         <v>55</v>
       </c>
       <c r="B57" t="n">
-        <v>450.5</v>
+        <v>463.1</v>
       </c>
       <c r="C57" t="n">
-        <v>450.5</v>
+        <v>463.1</v>
       </c>
       <c r="D57" t="n">
-        <v>450.5</v>
+        <v>463.1</v>
       </c>
       <c r="E57" t="n">
-        <v>450.5</v>
+        <v>463.1</v>
       </c>
       <c r="F57" t="n">
-        <v>1625.5359</v>
+        <v>10340.5075</v>
       </c>
       <c r="G57" t="n">
-        <v>-82133.88680000001</v>
+        <v>-31467.24</v>
       </c>
       <c r="H57" t="n">
         <v>0</v>
@@ -2454,22 +2454,22 @@
         <v>56</v>
       </c>
       <c r="B58" t="n">
-        <v>450.5</v>
+        <v>463.1</v>
       </c>
       <c r="C58" t="n">
-        <v>450.5</v>
+        <v>463.1</v>
       </c>
       <c r="D58" t="n">
-        <v>450.5</v>
+        <v>463.1</v>
       </c>
       <c r="E58" t="n">
-        <v>450.5</v>
+        <v>463.1</v>
       </c>
       <c r="F58" t="n">
-        <v>590</v>
+        <v>350</v>
       </c>
       <c r="G58" t="n">
-        <v>-82133.88680000001</v>
+        <v>-31467.24</v>
       </c>
       <c r="H58" t="n">
         <v>0</v>
@@ -2490,22 +2490,22 @@
         <v>57</v>
       </c>
       <c r="B59" t="n">
-        <v>450.5</v>
+        <v>463.1</v>
       </c>
       <c r="C59" t="n">
-        <v>450.5</v>
+        <v>463.1</v>
       </c>
       <c r="D59" t="n">
-        <v>450.5</v>
+        <v>463.1</v>
       </c>
       <c r="E59" t="n">
-        <v>450.5</v>
+        <v>463.1</v>
       </c>
       <c r="F59" t="n">
-        <v>405.0162</v>
+        <v>2731</v>
       </c>
       <c r="G59" t="n">
-        <v>-82133.88680000001</v>
+        <v>-31467.24</v>
       </c>
       <c r="H59" t="n">
         <v>0</v>
@@ -2526,22 +2526,22 @@
         <v>58</v>
       </c>
       <c r="B60" t="n">
-        <v>450.5</v>
+        <v>463.1</v>
       </c>
       <c r="C60" t="n">
-        <v>450.5</v>
+        <v>463.1</v>
       </c>
       <c r="D60" t="n">
-        <v>450.5</v>
+        <v>463.1</v>
       </c>
       <c r="E60" t="n">
-        <v>450.5</v>
+        <v>463.1</v>
       </c>
       <c r="F60" t="n">
-        <v>56.4699</v>
+        <v>4970</v>
       </c>
       <c r="G60" t="n">
-        <v>-82133.88680000001</v>
+        <v>-31467.24</v>
       </c>
       <c r="H60" t="n">
         <v>0</v>
@@ -2562,22 +2562,22 @@
         <v>59</v>
       </c>
       <c r="B61" t="n">
-        <v>450.6</v>
+        <v>463.1</v>
       </c>
       <c r="C61" t="n">
-        <v>450.6</v>
+        <v>463.1</v>
       </c>
       <c r="D61" t="n">
-        <v>450.6</v>
+        <v>463.1</v>
       </c>
       <c r="E61" t="n">
-        <v>450.6</v>
+        <v>463.1</v>
       </c>
       <c r="F61" t="n">
-        <v>850</v>
+        <v>2362</v>
       </c>
       <c r="G61" t="n">
-        <v>-81283.88680000001</v>
+        <v>-31467.24</v>
       </c>
       <c r="H61" t="n">
         <v>0</v>
@@ -2598,22 +2598,22 @@
         <v>60</v>
       </c>
       <c r="B62" t="n">
-        <v>450.6</v>
+        <v>463.1</v>
       </c>
       <c r="C62" t="n">
-        <v>451.1</v>
+        <v>463.1</v>
       </c>
       <c r="D62" t="n">
-        <v>451.1</v>
+        <v>463.1</v>
       </c>
       <c r="E62" t="n">
-        <v>450.6</v>
+        <v>463.1</v>
       </c>
       <c r="F62" t="n">
-        <v>1220.9633</v>
+        <v>3681</v>
       </c>
       <c r="G62" t="n">
-        <v>-80062.9235</v>
+        <v>-31467.24</v>
       </c>
       <c r="H62" t="n">
         <v>0</v>
@@ -2634,22 +2634,22 @@
         <v>61</v>
       </c>
       <c r="B63" t="n">
-        <v>452</v>
+        <v>463.1</v>
       </c>
       <c r="C63" t="n">
-        <v>452</v>
+        <v>463</v>
       </c>
       <c r="D63" t="n">
-        <v>452</v>
+        <v>463.6</v>
       </c>
       <c r="E63" t="n">
-        <v>452</v>
+        <v>463</v>
       </c>
       <c r="F63" t="n">
-        <v>27</v>
+        <v>3176.4406</v>
       </c>
       <c r="G63" t="n">
-        <v>-80035.9235</v>
+        <v>-34643.6806</v>
       </c>
       <c r="H63" t="n">
         <v>0</v>
@@ -2670,22 +2670,22 @@
         <v>62</v>
       </c>
       <c r="B64" t="n">
-        <v>452</v>
+        <v>462.1</v>
       </c>
       <c r="C64" t="n">
-        <v>452</v>
+        <v>462.1</v>
       </c>
       <c r="D64" t="n">
-        <v>452</v>
+        <v>462.1</v>
       </c>
       <c r="E64" t="n">
-        <v>452</v>
+        <v>462.1</v>
       </c>
       <c r="F64" t="n">
-        <v>5.6246</v>
+        <v>1430</v>
       </c>
       <c r="G64" t="n">
-        <v>-80035.9235</v>
+        <v>-36073.6806</v>
       </c>
       <c r="H64" t="n">
         <v>0</v>
@@ -2706,22 +2706,22 @@
         <v>63</v>
       </c>
       <c r="B65" t="n">
-        <v>450.6</v>
+        <v>462.1</v>
       </c>
       <c r="C65" t="n">
-        <v>450.6</v>
+        <v>462.1</v>
       </c>
       <c r="D65" t="n">
-        <v>450.6</v>
+        <v>462.1</v>
       </c>
       <c r="E65" t="n">
-        <v>450.6</v>
+        <v>462.1</v>
       </c>
       <c r="F65" t="n">
-        <v>921</v>
+        <v>34.804</v>
       </c>
       <c r="G65" t="n">
-        <v>-80956.9235</v>
+        <v>-36073.6806</v>
       </c>
       <c r="H65" t="n">
         <v>0</v>
@@ -2742,22 +2742,22 @@
         <v>64</v>
       </c>
       <c r="B66" t="n">
-        <v>450.9</v>
+        <v>461.7</v>
       </c>
       <c r="C66" t="n">
-        <v>450.5</v>
+        <v>460.1</v>
       </c>
       <c r="D66" t="n">
-        <v>450.9</v>
+        <v>461.7</v>
       </c>
       <c r="E66" t="n">
-        <v>450.5</v>
+        <v>460.1</v>
       </c>
       <c r="F66" t="n">
-        <v>7650.0583</v>
+        <v>653.6479</v>
       </c>
       <c r="G66" t="n">
-        <v>-88606.98180000001</v>
+        <v>-36727.3285</v>
       </c>
       <c r="H66" t="n">
         <v>0</v>
@@ -2778,22 +2778,22 @@
         <v>65</v>
       </c>
       <c r="B67" t="n">
-        <v>450.5</v>
+        <v>460.5</v>
       </c>
       <c r="C67" t="n">
-        <v>450.5</v>
+        <v>460</v>
       </c>
       <c r="D67" t="n">
-        <v>450.5</v>
+        <v>460.5</v>
       </c>
       <c r="E67" t="n">
-        <v>450.5</v>
+        <v>460</v>
       </c>
       <c r="F67" t="n">
-        <v>513.7296</v>
+        <v>17256.472</v>
       </c>
       <c r="G67" t="n">
-        <v>-88606.98180000001</v>
+        <v>-53983.8005</v>
       </c>
       <c r="H67" t="n">
         <v>0</v>
@@ -2814,22 +2814,22 @@
         <v>66</v>
       </c>
       <c r="B68" t="n">
-        <v>450</v>
+        <v>462.9</v>
       </c>
       <c r="C68" t="n">
-        <v>447</v>
+        <v>462.9</v>
       </c>
       <c r="D68" t="n">
-        <v>450</v>
+        <v>462.9</v>
       </c>
       <c r="E68" t="n">
-        <v>447</v>
+        <v>462.9</v>
       </c>
       <c r="F68" t="n">
-        <v>2124.041</v>
+        <v>100</v>
       </c>
       <c r="G68" t="n">
-        <v>-90731.02280000001</v>
+        <v>-53883.8005</v>
       </c>
       <c r="H68" t="n">
         <v>0</v>
@@ -2850,22 +2850,22 @@
         <v>67</v>
       </c>
       <c r="B69" t="n">
-        <v>446.7</v>
+        <v>461.9</v>
       </c>
       <c r="C69" t="n">
-        <v>446.7</v>
+        <v>461.9</v>
       </c>
       <c r="D69" t="n">
-        <v>446.7</v>
+        <v>461.9</v>
       </c>
       <c r="E69" t="n">
-        <v>446.7</v>
+        <v>461.9</v>
       </c>
       <c r="F69" t="n">
-        <v>4.1545</v>
+        <v>2</v>
       </c>
       <c r="G69" t="n">
-        <v>-90735.17730000001</v>
+        <v>-53885.8005</v>
       </c>
       <c r="H69" t="n">
         <v>0</v>
@@ -2886,22 +2886,22 @@
         <v>68</v>
       </c>
       <c r="B70" t="n">
-        <v>446.7</v>
+        <v>460.2</v>
       </c>
       <c r="C70" t="n">
-        <v>446.7</v>
+        <v>460</v>
       </c>
       <c r="D70" t="n">
-        <v>446.7</v>
+        <v>460.2</v>
       </c>
       <c r="E70" t="n">
-        <v>446.7</v>
+        <v>460</v>
       </c>
       <c r="F70" t="n">
-        <v>1845.4336</v>
+        <v>1163.522</v>
       </c>
       <c r="G70" t="n">
-        <v>-90735.17730000001</v>
+        <v>-55049.3225</v>
       </c>
       <c r="H70" t="n">
         <v>0</v>
@@ -2922,22 +2922,22 @@
         <v>69</v>
       </c>
       <c r="B71" t="n">
-        <v>447.1</v>
+        <v>460</v>
       </c>
       <c r="C71" t="n">
-        <v>447.3</v>
+        <v>460</v>
       </c>
       <c r="D71" t="n">
-        <v>447.3</v>
+        <v>460</v>
       </c>
       <c r="E71" t="n">
-        <v>447.1</v>
+        <v>460</v>
       </c>
       <c r="F71" t="n">
-        <v>4</v>
+        <v>2768.4405</v>
       </c>
       <c r="G71" t="n">
-        <v>-90731.17730000001</v>
+        <v>-55049.3225</v>
       </c>
       <c r="H71" t="n">
         <v>0</v>
@@ -2958,22 +2958,22 @@
         <v>70</v>
       </c>
       <c r="B72" t="n">
-        <v>450.9</v>
+        <v>460</v>
       </c>
       <c r="C72" t="n">
-        <v>450.9</v>
+        <v>460</v>
       </c>
       <c r="D72" t="n">
-        <v>450.9</v>
+        <v>460</v>
       </c>
       <c r="E72" t="n">
-        <v>450.9</v>
+        <v>460</v>
       </c>
       <c r="F72" t="n">
-        <v>1.2</v>
+        <v>613.706</v>
       </c>
       <c r="G72" t="n">
-        <v>-90729.97730000001</v>
+        <v>-55049.3225</v>
       </c>
       <c r="H72" t="n">
         <v>0</v>
@@ -2994,22 +2994,22 @@
         <v>71</v>
       </c>
       <c r="B73" t="n">
-        <v>447.3</v>
+        <v>459</v>
       </c>
       <c r="C73" t="n">
-        <v>447.3</v>
+        <v>457</v>
       </c>
       <c r="D73" t="n">
-        <v>447.3</v>
+        <v>459</v>
       </c>
       <c r="E73" t="n">
-        <v>447.3</v>
+        <v>457</v>
       </c>
       <c r="F73" t="n">
-        <v>384</v>
+        <v>2545</v>
       </c>
       <c r="G73" t="n">
-        <v>-91113.97730000001</v>
+        <v>-57594.3225</v>
       </c>
       <c r="H73" t="n">
         <v>0</v>
@@ -3030,22 +3030,22 @@
         <v>72</v>
       </c>
       <c r="B74" t="n">
-        <v>450.9</v>
+        <v>457</v>
       </c>
       <c r="C74" t="n">
-        <v>450.9</v>
+        <v>451</v>
       </c>
       <c r="D74" t="n">
-        <v>450.9</v>
+        <v>457</v>
       </c>
       <c r="E74" t="n">
-        <v>450.9</v>
+        <v>451</v>
       </c>
       <c r="F74" t="n">
-        <v>1.2</v>
+        <v>6820</v>
       </c>
       <c r="G74" t="n">
-        <v>-91112.77730000002</v>
+        <v>-64414.3225</v>
       </c>
       <c r="H74" t="n">
         <v>0</v>
@@ -3066,22 +3066,22 @@
         <v>73</v>
       </c>
       <c r="B75" t="n">
-        <v>446.8</v>
+        <v>451.1</v>
       </c>
       <c r="C75" t="n">
-        <v>444.2</v>
+        <v>451</v>
       </c>
       <c r="D75" t="n">
-        <v>446.8</v>
+        <v>452</v>
       </c>
       <c r="E75" t="n">
-        <v>444.2</v>
+        <v>450.9</v>
       </c>
       <c r="F75" t="n">
-        <v>7056.3011</v>
+        <v>11396.0494</v>
       </c>
       <c r="G75" t="n">
-        <v>-98169.07840000001</v>
+        <v>-64414.3225</v>
       </c>
       <c r="H75" t="n">
         <v>0</v>
@@ -3102,22 +3102,22 @@
         <v>74</v>
       </c>
       <c r="B76" t="n">
-        <v>445.7</v>
+        <v>451.1</v>
       </c>
       <c r="C76" t="n">
-        <v>445.7</v>
+        <v>451</v>
       </c>
       <c r="D76" t="n">
-        <v>445.7</v>
+        <v>451.1</v>
       </c>
       <c r="E76" t="n">
-        <v>445.7</v>
+        <v>451</v>
       </c>
       <c r="F76" t="n">
-        <v>1.2</v>
+        <v>1525</v>
       </c>
       <c r="G76" t="n">
-        <v>-98167.87840000002</v>
+        <v>-64414.3225</v>
       </c>
       <c r="H76" t="n">
         <v>0</v>
@@ -3138,22 +3138,22 @@
         <v>75</v>
       </c>
       <c r="B77" t="n">
-        <v>445.7</v>
+        <v>465.9</v>
       </c>
       <c r="C77" t="n">
-        <v>445.7</v>
+        <v>451.4</v>
       </c>
       <c r="D77" t="n">
-        <v>445.7</v>
+        <v>465.9</v>
       </c>
       <c r="E77" t="n">
-        <v>445.7</v>
+        <v>451.3</v>
       </c>
       <c r="F77" t="n">
-        <v>20</v>
+        <v>1175</v>
       </c>
       <c r="G77" t="n">
-        <v>-98167.87840000002</v>
+        <v>-63239.3225</v>
       </c>
       <c r="H77" t="n">
         <v>0</v>
@@ -3174,22 +3174,22 @@
         <v>76</v>
       </c>
       <c r="B78" t="n">
-        <v>444.3</v>
+        <v>452</v>
       </c>
       <c r="C78" t="n">
-        <v>443.3</v>
+        <v>452</v>
       </c>
       <c r="D78" t="n">
-        <v>448</v>
+        <v>452</v>
       </c>
       <c r="E78" t="n">
-        <v>442.2</v>
+        <v>452</v>
       </c>
       <c r="F78" t="n">
-        <v>19452.2485</v>
+        <v>1450</v>
       </c>
       <c r="G78" t="n">
-        <v>-117620.1269</v>
+        <v>-61789.3225</v>
       </c>
       <c r="H78" t="n">
         <v>0</v>
@@ -3210,22 +3210,22 @@
         <v>77</v>
       </c>
       <c r="B79" t="n">
-        <v>443.2</v>
+        <v>452</v>
       </c>
       <c r="C79" t="n">
-        <v>443.3</v>
+        <v>452</v>
       </c>
       <c r="D79" t="n">
-        <v>443.3</v>
+        <v>452</v>
       </c>
       <c r="E79" t="n">
-        <v>443.2</v>
+        <v>452</v>
       </c>
       <c r="F79" t="n">
-        <v>15769</v>
+        <v>455</v>
       </c>
       <c r="G79" t="n">
-        <v>-117620.1269</v>
+        <v>-61789.3225</v>
       </c>
       <c r="H79" t="n">
         <v>0</v>
@@ -3246,22 +3246,22 @@
         <v>78</v>
       </c>
       <c r="B80" t="n">
-        <v>443.3</v>
+        <v>453</v>
       </c>
       <c r="C80" t="n">
-        <v>442.7</v>
+        <v>453</v>
       </c>
       <c r="D80" t="n">
-        <v>443.3</v>
+        <v>453.1</v>
       </c>
       <c r="E80" t="n">
-        <v>442.7</v>
+        <v>453</v>
       </c>
       <c r="F80" t="n">
-        <v>1917.6155</v>
+        <v>350</v>
       </c>
       <c r="G80" t="n">
-        <v>-119537.7424</v>
+        <v>-61439.3225</v>
       </c>
       <c r="H80" t="n">
         <v>0</v>
@@ -3282,22 +3282,22 @@
         <v>79</v>
       </c>
       <c r="B81" t="n">
-        <v>443.3</v>
+        <v>453</v>
       </c>
       <c r="C81" t="n">
-        <v>443.3</v>
+        <v>453</v>
       </c>
       <c r="D81" t="n">
-        <v>443.3</v>
+        <v>453</v>
       </c>
       <c r="E81" t="n">
-        <v>443.3</v>
+        <v>453</v>
       </c>
       <c r="F81" t="n">
-        <v>30</v>
+        <v>2100</v>
       </c>
       <c r="G81" t="n">
-        <v>-119507.7424</v>
+        <v>-61439.3225</v>
       </c>
       <c r="H81" t="n">
         <v>0</v>
@@ -3318,22 +3318,22 @@
         <v>80</v>
       </c>
       <c r="B82" t="n">
-        <v>443.3</v>
+        <v>453</v>
       </c>
       <c r="C82" t="n">
-        <v>443.3</v>
+        <v>453</v>
       </c>
       <c r="D82" t="n">
-        <v>443.3</v>
+        <v>453</v>
       </c>
       <c r="E82" t="n">
-        <v>443.3</v>
+        <v>453</v>
       </c>
       <c r="F82" t="n">
-        <v>306.5682</v>
+        <v>4791.7288</v>
       </c>
       <c r="G82" t="n">
-        <v>-119507.7424</v>
+        <v>-61439.3225</v>
       </c>
       <c r="H82" t="n">
         <v>0</v>
@@ -3354,22 +3354,22 @@
         <v>81</v>
       </c>
       <c r="B83" t="n">
-        <v>443.3</v>
+        <v>453</v>
       </c>
       <c r="C83" t="n">
-        <v>443.3</v>
+        <v>450</v>
       </c>
       <c r="D83" t="n">
-        <v>443.3</v>
+        <v>453</v>
       </c>
       <c r="E83" t="n">
-        <v>443.3</v>
+        <v>450</v>
       </c>
       <c r="F83" t="n">
-        <v>229.8658</v>
+        <v>1590</v>
       </c>
       <c r="G83" t="n">
-        <v>-119507.7424</v>
+        <v>-63029.3225</v>
       </c>
       <c r="H83" t="n">
         <v>0</v>
@@ -3390,22 +3390,22 @@
         <v>82</v>
       </c>
       <c r="B84" t="n">
-        <v>443.3</v>
+        <v>459.5</v>
       </c>
       <c r="C84" t="n">
-        <v>443.3</v>
+        <v>460.8</v>
       </c>
       <c r="D84" t="n">
-        <v>443.3</v>
+        <v>460.8</v>
       </c>
       <c r="E84" t="n">
-        <v>443.3</v>
+        <v>459.5</v>
       </c>
       <c r="F84" t="n">
-        <v>435</v>
+        <v>81.6078</v>
       </c>
       <c r="G84" t="n">
-        <v>-119507.7424</v>
+        <v>-62947.7147</v>
       </c>
       <c r="H84" t="n">
         <v>0</v>
@@ -3426,22 +3426,22 @@
         <v>83</v>
       </c>
       <c r="B85" t="n">
-        <v>443.3</v>
+        <v>459.9</v>
       </c>
       <c r="C85" t="n">
-        <v>443.3</v>
+        <v>455.8</v>
       </c>
       <c r="D85" t="n">
-        <v>443.3</v>
+        <v>459.9</v>
       </c>
       <c r="E85" t="n">
-        <v>443.3</v>
+        <v>451</v>
       </c>
       <c r="F85" t="n">
-        <v>118.0814</v>
+        <v>1262.9037</v>
       </c>
       <c r="G85" t="n">
-        <v>-119507.7424</v>
+        <v>-64210.61840000001</v>
       </c>
       <c r="H85" t="n">
         <v>0</v>
@@ -3462,22 +3462,22 @@
         <v>84</v>
       </c>
       <c r="B86" t="n">
-        <v>443.3</v>
+        <v>453</v>
       </c>
       <c r="C86" t="n">
-        <v>447.7</v>
+        <v>457.5</v>
       </c>
       <c r="D86" t="n">
-        <v>447.7</v>
+        <v>457.5</v>
       </c>
       <c r="E86" t="n">
-        <v>443.3</v>
+        <v>453</v>
       </c>
       <c r="F86" t="n">
-        <v>2523.4146</v>
+        <v>2500</v>
       </c>
       <c r="G86" t="n">
-        <v>-116984.3278</v>
+        <v>-61710.61840000001</v>
       </c>
       <c r="H86" t="n">
         <v>0</v>
@@ -3498,22 +3498,22 @@
         <v>85</v>
       </c>
       <c r="B87" t="n">
-        <v>443.4</v>
+        <v>452</v>
       </c>
       <c r="C87" t="n">
-        <v>443.3</v>
+        <v>452</v>
       </c>
       <c r="D87" t="n">
-        <v>443.4</v>
+        <v>452</v>
       </c>
       <c r="E87" t="n">
-        <v>443.3</v>
+        <v>452</v>
       </c>
       <c r="F87" t="n">
-        <v>2265.7641</v>
+        <v>76.01000000000001</v>
       </c>
       <c r="G87" t="n">
-        <v>-119250.0919</v>
+        <v>-61786.62840000001</v>
       </c>
       <c r="H87" t="n">
         <v>0</v>
@@ -3534,22 +3534,22 @@
         <v>86</v>
       </c>
       <c r="B88" t="n">
-        <v>447.7</v>
+        <v>452.1</v>
       </c>
       <c r="C88" t="n">
-        <v>447.7</v>
+        <v>452</v>
       </c>
       <c r="D88" t="n">
-        <v>447.7</v>
+        <v>452.1</v>
       </c>
       <c r="E88" t="n">
-        <v>447.7</v>
+        <v>452</v>
       </c>
       <c r="F88" t="n">
-        <v>8.5162</v>
+        <v>89.1649</v>
       </c>
       <c r="G88" t="n">
-        <v>-119241.5757</v>
+        <v>-61786.62840000001</v>
       </c>
       <c r="H88" t="n">
         <v>0</v>
@@ -3570,22 +3570,22 @@
         <v>87</v>
       </c>
       <c r="B89" t="n">
-        <v>446.7</v>
+        <v>452</v>
       </c>
       <c r="C89" t="n">
-        <v>446.7</v>
+        <v>452</v>
       </c>
       <c r="D89" t="n">
-        <v>446.7</v>
+        <v>452</v>
       </c>
       <c r="E89" t="n">
-        <v>446.7</v>
+        <v>452</v>
       </c>
       <c r="F89" t="n">
-        <v>99.9999</v>
+        <v>8.019399999999999</v>
       </c>
       <c r="G89" t="n">
-        <v>-119341.5756</v>
+        <v>-61786.62840000001</v>
       </c>
       <c r="H89" t="n">
         <v>0</v>
@@ -3606,22 +3606,22 @@
         <v>88</v>
       </c>
       <c r="B90" t="n">
-        <v>447.7</v>
+        <v>452</v>
       </c>
       <c r="C90" t="n">
-        <v>448</v>
+        <v>452</v>
       </c>
       <c r="D90" t="n">
-        <v>448</v>
+        <v>452</v>
       </c>
       <c r="E90" t="n">
-        <v>447.7</v>
+        <v>452</v>
       </c>
       <c r="F90" t="n">
-        <v>289.2084</v>
+        <v>723.3516</v>
       </c>
       <c r="G90" t="n">
-        <v>-119052.3672</v>
+        <v>-61786.62840000001</v>
       </c>
       <c r="H90" t="n">
         <v>0</v>
@@ -3642,22 +3642,22 @@
         <v>89</v>
       </c>
       <c r="B91" t="n">
-        <v>447.5</v>
+        <v>452.1</v>
       </c>
       <c r="C91" t="n">
-        <v>447.6</v>
+        <v>452.1</v>
       </c>
       <c r="D91" t="n">
-        <v>447.6</v>
+        <v>453</v>
       </c>
       <c r="E91" t="n">
-        <v>447.5</v>
+        <v>452.1</v>
       </c>
       <c r="F91" t="n">
-        <v>709.1495</v>
+        <v>1321.31</v>
       </c>
       <c r="G91" t="n">
-        <v>-119761.5167</v>
+        <v>-60465.31840000001</v>
       </c>
       <c r="H91" t="n">
         <v>0</v>
@@ -3678,22 +3678,22 @@
         <v>90</v>
       </c>
       <c r="B92" t="n">
-        <v>447.5</v>
+        <v>453</v>
       </c>
       <c r="C92" t="n">
-        <v>447.5</v>
+        <v>452.2</v>
       </c>
       <c r="D92" t="n">
-        <v>447.5</v>
+        <v>453</v>
       </c>
       <c r="E92" t="n">
-        <v>447.5</v>
+        <v>452.2</v>
       </c>
       <c r="F92" t="n">
-        <v>3.2094</v>
+        <v>2800</v>
       </c>
       <c r="G92" t="n">
-        <v>-119764.7261</v>
+        <v>-57665.31840000001</v>
       </c>
       <c r="H92" t="n">
         <v>0</v>
@@ -3714,22 +3714,22 @@
         <v>91</v>
       </c>
       <c r="B93" t="n">
-        <v>449</v>
+        <v>456.9</v>
       </c>
       <c r="C93" t="n">
-        <v>448</v>
+        <v>456.9</v>
       </c>
       <c r="D93" t="n">
-        <v>449</v>
+        <v>456.9</v>
       </c>
       <c r="E93" t="n">
-        <v>448</v>
+        <v>456.9</v>
       </c>
       <c r="F93" t="n">
-        <v>2800</v>
+        <v>720.1798</v>
       </c>
       <c r="G93" t="n">
-        <v>-116964.7261</v>
+        <v>-56945.13860000001</v>
       </c>
       <c r="H93" t="n">
         <v>0</v>
@@ -3750,22 +3750,22 @@
         <v>92</v>
       </c>
       <c r="B94" t="n">
-        <v>450.9</v>
+        <v>456.9</v>
       </c>
       <c r="C94" t="n">
-        <v>450.9</v>
+        <v>452.2</v>
       </c>
       <c r="D94" t="n">
-        <v>450.9</v>
+        <v>456.9</v>
       </c>
       <c r="E94" t="n">
-        <v>450.9</v>
+        <v>452.2</v>
       </c>
       <c r="F94" t="n">
-        <v>1007.203371035706</v>
+        <v>7713.7844</v>
       </c>
       <c r="G94" t="n">
-        <v>-115957.5227289643</v>
+        <v>-64658.92300000001</v>
       </c>
       <c r="H94" t="n">
         <v>0</v>
@@ -3786,22 +3786,22 @@
         <v>93</v>
       </c>
       <c r="B95" t="n">
-        <v>451</v>
+        <v>457.8</v>
       </c>
       <c r="C95" t="n">
-        <v>451</v>
+        <v>457.8</v>
       </c>
       <c r="D95" t="n">
-        <v>451</v>
+        <v>457.8</v>
       </c>
       <c r="E95" t="n">
-        <v>451</v>
+        <v>457.8</v>
       </c>
       <c r="F95" t="n">
-        <v>205</v>
+        <v>1.1</v>
       </c>
       <c r="G95" t="n">
-        <v>-115752.5227289643</v>
+        <v>-64657.82300000001</v>
       </c>
       <c r="H95" t="n">
         <v>0</v>
@@ -3822,22 +3822,22 @@
         <v>94</v>
       </c>
       <c r="B96" t="n">
-        <v>451</v>
+        <v>452.3</v>
       </c>
       <c r="C96" t="n">
-        <v>451</v>
+        <v>452.1</v>
       </c>
       <c r="D96" t="n">
-        <v>451</v>
+        <v>452.3</v>
       </c>
       <c r="E96" t="n">
-        <v>451</v>
+        <v>452.1</v>
       </c>
       <c r="F96" t="n">
-        <v>141.6783</v>
+        <v>1400</v>
       </c>
       <c r="G96" t="n">
-        <v>-115752.5227289643</v>
+        <v>-66057.823</v>
       </c>
       <c r="H96" t="n">
         <v>0</v>
@@ -3858,22 +3858,22 @@
         <v>95</v>
       </c>
       <c r="B97" t="n">
-        <v>451</v>
+        <v>457.8</v>
       </c>
       <c r="C97" t="n">
-        <v>458.1</v>
+        <v>457.8</v>
       </c>
       <c r="D97" t="n">
-        <v>458.1</v>
+        <v>457.8</v>
       </c>
       <c r="E97" t="n">
-        <v>451</v>
+        <v>457.8</v>
       </c>
       <c r="F97" t="n">
-        <v>810</v>
+        <v>1.1</v>
       </c>
       <c r="G97" t="n">
-        <v>-114942.5227289643</v>
+        <v>-66056.723</v>
       </c>
       <c r="H97" t="n">
         <v>0</v>
@@ -3894,22 +3894,22 @@
         <v>96</v>
       </c>
       <c r="B98" t="n">
-        <v>451</v>
+        <v>459.9</v>
       </c>
       <c r="C98" t="n">
-        <v>449.8</v>
+        <v>459.9</v>
       </c>
       <c r="D98" t="n">
-        <v>451</v>
+        <v>459.9</v>
       </c>
       <c r="E98" t="n">
-        <v>448.9</v>
+        <v>459.9</v>
       </c>
       <c r="F98" t="n">
-        <v>400</v>
+        <v>1170.1267</v>
       </c>
       <c r="G98" t="n">
-        <v>-115342.5227289643</v>
+        <v>-64886.5963</v>
       </c>
       <c r="H98" t="n">
         <v>0</v>
@@ -3930,35 +3930,31 @@
         <v>97</v>
       </c>
       <c r="B99" t="n">
-        <v>454.9</v>
+        <v>457.8</v>
       </c>
       <c r="C99" t="n">
-        <v>454.9</v>
+        <v>457.8</v>
       </c>
       <c r="D99" t="n">
-        <v>454.9</v>
+        <v>457.8</v>
       </c>
       <c r="E99" t="n">
-        <v>454.9</v>
+        <v>457.8</v>
       </c>
       <c r="F99" t="n">
-        <v>995.4521999999999</v>
+        <v>415</v>
       </c>
       <c r="G99" t="n">
-        <v>-114347.0705289643</v>
+        <v>-65301.5963</v>
       </c>
       <c r="H99" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I99" t="n">
         <v>0</v>
       </c>
-      <c r="J99" t="n">
-        <v>449.8</v>
-      </c>
-      <c r="K99" t="n">
-        <v>449.8</v>
-      </c>
+      <c r="J99" t="inlineStr"/>
+      <c r="K99" t="inlineStr"/>
       <c r="L99" t="inlineStr"/>
       <c r="M99" t="n">
         <v>1</v>
@@ -3970,218 +3966,2884 @@
         <v>98</v>
       </c>
       <c r="B100" t="n">
+        <v>457.8</v>
+      </c>
+      <c r="C100" t="n">
+        <v>457.8</v>
+      </c>
+      <c r="D100" t="n">
+        <v>457.8</v>
+      </c>
+      <c r="E100" t="n">
+        <v>457.8</v>
+      </c>
+      <c r="F100" t="n">
+        <v>1400</v>
+      </c>
+      <c r="G100" t="n">
+        <v>-65301.5963</v>
+      </c>
+      <c r="H100" t="n">
+        <v>0</v>
+      </c>
+      <c r="I100" t="n">
+        <v>0</v>
+      </c>
+      <c r="J100" t="inlineStr"/>
+      <c r="K100" t="inlineStr"/>
+      <c r="L100" t="inlineStr"/>
+      <c r="M100" t="n">
+        <v>1</v>
+      </c>
+      <c r="N100" t="inlineStr"/>
+    </row>
+    <row r="101">
+      <c r="A101" s="1" t="n">
+        <v>99</v>
+      </c>
+      <c r="B101" t="n">
+        <v>457.8</v>
+      </c>
+      <c r="C101" t="n">
+        <v>457.8</v>
+      </c>
+      <c r="D101" t="n">
+        <v>457.8</v>
+      </c>
+      <c r="E101" t="n">
+        <v>457.8</v>
+      </c>
+      <c r="F101" t="n">
+        <v>1650.1247</v>
+      </c>
+      <c r="G101" t="n">
+        <v>-65301.5963</v>
+      </c>
+      <c r="H101" t="n">
+        <v>0</v>
+      </c>
+      <c r="I101" t="n">
+        <v>0</v>
+      </c>
+      <c r="J101" t="inlineStr"/>
+      <c r="K101" t="inlineStr"/>
+      <c r="L101" t="inlineStr"/>
+      <c r="M101" t="n">
+        <v>1</v>
+      </c>
+      <c r="N101" t="inlineStr"/>
+    </row>
+    <row r="102">
+      <c r="A102" s="1" t="n">
+        <v>100</v>
+      </c>
+      <c r="B102" t="n">
+        <v>457.8</v>
+      </c>
+      <c r="C102" t="n">
+        <v>457.8</v>
+      </c>
+      <c r="D102" t="n">
+        <v>457.8</v>
+      </c>
+      <c r="E102" t="n">
+        <v>457.8</v>
+      </c>
+      <c r="F102" t="n">
+        <v>500</v>
+      </c>
+      <c r="G102" t="n">
+        <v>-65301.5963</v>
+      </c>
+      <c r="H102" t="n">
+        <v>0</v>
+      </c>
+      <c r="I102" t="n">
+        <v>0</v>
+      </c>
+      <c r="J102" t="inlineStr"/>
+      <c r="K102" t="inlineStr"/>
+      <c r="L102" t="inlineStr"/>
+      <c r="M102" t="n">
+        <v>1</v>
+      </c>
+      <c r="N102" t="inlineStr"/>
+    </row>
+    <row r="103">
+      <c r="A103" s="1" t="n">
+        <v>101</v>
+      </c>
+      <c r="B103" t="n">
+        <v>457.8</v>
+      </c>
+      <c r="C103" t="n">
+        <v>457.8</v>
+      </c>
+      <c r="D103" t="n">
+        <v>457.8</v>
+      </c>
+      <c r="E103" t="n">
+        <v>457.8</v>
+      </c>
+      <c r="F103" t="n">
+        <v>100</v>
+      </c>
+      <c r="G103" t="n">
+        <v>-65301.5963</v>
+      </c>
+      <c r="H103" t="n">
+        <v>0</v>
+      </c>
+      <c r="I103" t="n">
+        <v>0</v>
+      </c>
+      <c r="J103" t="inlineStr"/>
+      <c r="K103" t="inlineStr"/>
+      <c r="L103" t="inlineStr"/>
+      <c r="M103" t="n">
+        <v>1</v>
+      </c>
+      <c r="N103" t="inlineStr"/>
+    </row>
+    <row r="104">
+      <c r="A104" s="1" t="n">
+        <v>102</v>
+      </c>
+      <c r="B104" t="n">
+        <v>457.8</v>
+      </c>
+      <c r="C104" t="n">
+        <v>457.8</v>
+      </c>
+      <c r="D104" t="n">
+        <v>457.8</v>
+      </c>
+      <c r="E104" t="n">
+        <v>457.8</v>
+      </c>
+      <c r="F104" t="n">
+        <v>1447.782</v>
+      </c>
+      <c r="G104" t="n">
+        <v>-65301.5963</v>
+      </c>
+      <c r="H104" t="n">
+        <v>0</v>
+      </c>
+      <c r="I104" t="n">
+        <v>0</v>
+      </c>
+      <c r="J104" t="inlineStr"/>
+      <c r="K104" t="inlineStr"/>
+      <c r="L104" t="inlineStr"/>
+      <c r="M104" t="n">
+        <v>1</v>
+      </c>
+      <c r="N104" t="inlineStr"/>
+    </row>
+    <row r="105">
+      <c r="A105" s="1" t="n">
+        <v>103</v>
+      </c>
+      <c r="B105" t="n">
+        <v>457.8</v>
+      </c>
+      <c r="C105" t="n">
+        <v>457.8</v>
+      </c>
+      <c r="D105" t="n">
+        <v>457.8</v>
+      </c>
+      <c r="E105" t="n">
+        <v>457.8</v>
+      </c>
+      <c r="F105" t="n">
+        <v>436.0394</v>
+      </c>
+      <c r="G105" t="n">
+        <v>-65301.5963</v>
+      </c>
+      <c r="H105" t="n">
+        <v>0</v>
+      </c>
+      <c r="I105" t="n">
+        <v>0</v>
+      </c>
+      <c r="J105" t="inlineStr"/>
+      <c r="K105" t="inlineStr"/>
+      <c r="L105" t="inlineStr"/>
+      <c r="M105" t="n">
+        <v>1</v>
+      </c>
+      <c r="N105" t="inlineStr"/>
+    </row>
+    <row r="106">
+      <c r="A106" s="1" t="n">
+        <v>104</v>
+      </c>
+      <c r="B106" t="n">
+        <v>457</v>
+      </c>
+      <c r="C106" t="n">
+        <v>457.8</v>
+      </c>
+      <c r="D106" t="n">
+        <v>457.8</v>
+      </c>
+      <c r="E106" t="n">
+        <v>457</v>
+      </c>
+      <c r="F106" t="n">
+        <v>2495.7737</v>
+      </c>
+      <c r="G106" t="n">
+        <v>-65301.5963</v>
+      </c>
+      <c r="H106" t="n">
+        <v>0</v>
+      </c>
+      <c r="I106" t="n">
+        <v>0</v>
+      </c>
+      <c r="J106" t="inlineStr"/>
+      <c r="K106" t="inlineStr"/>
+      <c r="L106" t="inlineStr"/>
+      <c r="M106" t="n">
+        <v>1</v>
+      </c>
+      <c r="N106" t="inlineStr"/>
+    </row>
+    <row r="107">
+      <c r="A107" s="1" t="n">
+        <v>105</v>
+      </c>
+      <c r="B107" t="n">
+        <v>457.8</v>
+      </c>
+      <c r="C107" t="n">
+        <v>459.5</v>
+      </c>
+      <c r="D107" t="n">
+        <v>459.5</v>
+      </c>
+      <c r="E107" t="n">
+        <v>457.8</v>
+      </c>
+      <c r="F107" t="n">
+        <v>2748.5675</v>
+      </c>
+      <c r="G107" t="n">
+        <v>-62553.0288</v>
+      </c>
+      <c r="H107" t="n">
+        <v>0</v>
+      </c>
+      <c r="I107" t="n">
+        <v>0</v>
+      </c>
+      <c r="J107" t="inlineStr"/>
+      <c r="K107" t="inlineStr"/>
+      <c r="L107" t="inlineStr"/>
+      <c r="M107" t="n">
+        <v>1</v>
+      </c>
+      <c r="N107" t="inlineStr"/>
+    </row>
+    <row r="108">
+      <c r="A108" s="1" t="n">
+        <v>106</v>
+      </c>
+      <c r="B108" t="n">
+        <v>461.6</v>
+      </c>
+      <c r="C108" t="n">
+        <v>462.7</v>
+      </c>
+      <c r="D108" t="n">
+        <v>462.7</v>
+      </c>
+      <c r="E108" t="n">
+        <v>461.6</v>
+      </c>
+      <c r="F108" t="n">
+        <v>1400</v>
+      </c>
+      <c r="G108" t="n">
+        <v>-61153.0288</v>
+      </c>
+      <c r="H108" t="n">
+        <v>0</v>
+      </c>
+      <c r="I108" t="n">
+        <v>0</v>
+      </c>
+      <c r="J108" t="inlineStr"/>
+      <c r="K108" t="inlineStr"/>
+      <c r="L108" t="inlineStr"/>
+      <c r="M108" t="n">
+        <v>1</v>
+      </c>
+      <c r="N108" t="inlineStr"/>
+    </row>
+    <row r="109">
+      <c r="A109" s="1" t="n">
+        <v>107</v>
+      </c>
+      <c r="B109" t="n">
+        <v>460.2</v>
+      </c>
+      <c r="C109" t="n">
+        <v>460.2</v>
+      </c>
+      <c r="D109" t="n">
+        <v>460.2</v>
+      </c>
+      <c r="E109" t="n">
+        <v>460.2</v>
+      </c>
+      <c r="F109" t="n">
+        <v>832.0592</v>
+      </c>
+      <c r="G109" t="n">
+        <v>-61985.088</v>
+      </c>
+      <c r="H109" t="n">
+        <v>0</v>
+      </c>
+      <c r="I109" t="n">
+        <v>0</v>
+      </c>
+      <c r="J109" t="inlineStr"/>
+      <c r="K109" t="inlineStr"/>
+      <c r="L109" t="inlineStr"/>
+      <c r="M109" t="n">
+        <v>1</v>
+      </c>
+      <c r="N109" t="inlineStr"/>
+    </row>
+    <row r="110">
+      <c r="A110" s="1" t="n">
+        <v>108</v>
+      </c>
+      <c r="B110" t="n">
+        <v>462.6</v>
+      </c>
+      <c r="C110" t="n">
+        <v>462.6</v>
+      </c>
+      <c r="D110" t="n">
+        <v>462.6</v>
+      </c>
+      <c r="E110" t="n">
+        <v>462.6</v>
+      </c>
+      <c r="F110" t="n">
+        <v>2827.7746</v>
+      </c>
+      <c r="G110" t="n">
+        <v>-59157.31340000001</v>
+      </c>
+      <c r="H110" t="n">
+        <v>0</v>
+      </c>
+      <c r="I110" t="n">
+        <v>0</v>
+      </c>
+      <c r="J110" t="inlineStr"/>
+      <c r="K110" t="inlineStr"/>
+      <c r="L110" t="inlineStr"/>
+      <c r="M110" t="n">
+        <v>1</v>
+      </c>
+      <c r="N110" t="inlineStr"/>
+    </row>
+    <row r="111">
+      <c r="A111" s="1" t="n">
+        <v>109</v>
+      </c>
+      <c r="B111" t="n">
+        <v>461.2</v>
+      </c>
+      <c r="C111" t="n">
+        <v>461.2</v>
+      </c>
+      <c r="D111" t="n">
+        <v>461.2</v>
+      </c>
+      <c r="E111" t="n">
+        <v>461.2</v>
+      </c>
+      <c r="F111" t="n">
+        <v>110</v>
+      </c>
+      <c r="G111" t="n">
+        <v>-59267.31340000001</v>
+      </c>
+      <c r="H111" t="n">
+        <v>0</v>
+      </c>
+      <c r="I111" t="n">
+        <v>0</v>
+      </c>
+      <c r="J111" t="inlineStr"/>
+      <c r="K111" t="inlineStr"/>
+      <c r="L111" t="inlineStr"/>
+      <c r="M111" t="n">
+        <v>1</v>
+      </c>
+      <c r="N111" t="inlineStr"/>
+    </row>
+    <row r="112">
+      <c r="A112" s="1" t="n">
+        <v>110</v>
+      </c>
+      <c r="B112" t="n">
+        <v>461</v>
+      </c>
+      <c r="C112" t="n">
+        <v>461</v>
+      </c>
+      <c r="D112" t="n">
+        <v>461</v>
+      </c>
+      <c r="E112" t="n">
+        <v>461</v>
+      </c>
+      <c r="F112" t="n">
+        <v>28.4176</v>
+      </c>
+      <c r="G112" t="n">
+        <v>-59295.73100000001</v>
+      </c>
+      <c r="H112" t="n">
+        <v>0</v>
+      </c>
+      <c r="I112" t="n">
+        <v>0</v>
+      </c>
+      <c r="J112" t="inlineStr"/>
+      <c r="K112" t="inlineStr"/>
+      <c r="L112" t="inlineStr"/>
+      <c r="M112" t="n">
+        <v>1</v>
+      </c>
+      <c r="N112" t="inlineStr"/>
+    </row>
+    <row r="113">
+      <c r="A113" s="1" t="n">
+        <v>111</v>
+      </c>
+      <c r="B113" t="n">
+        <v>461</v>
+      </c>
+      <c r="C113" t="n">
+        <v>460</v>
+      </c>
+      <c r="D113" t="n">
+        <v>461</v>
+      </c>
+      <c r="E113" t="n">
+        <v>460</v>
+      </c>
+      <c r="F113" t="n">
+        <v>1335.2401</v>
+      </c>
+      <c r="G113" t="n">
+        <v>-60630.97110000001</v>
+      </c>
+      <c r="H113" t="n">
+        <v>0</v>
+      </c>
+      <c r="I113" t="n">
+        <v>0</v>
+      </c>
+      <c r="J113" t="inlineStr"/>
+      <c r="K113" t="inlineStr"/>
+      <c r="L113" t="inlineStr"/>
+      <c r="M113" t="n">
+        <v>1</v>
+      </c>
+      <c r="N113" t="inlineStr"/>
+    </row>
+    <row r="114">
+      <c r="A114" s="1" t="n">
+        <v>112</v>
+      </c>
+      <c r="B114" t="n">
+        <v>460</v>
+      </c>
+      <c r="C114" t="n">
+        <v>460</v>
+      </c>
+      <c r="D114" t="n">
+        <v>460</v>
+      </c>
+      <c r="E114" t="n">
+        <v>460</v>
+      </c>
+      <c r="F114" t="n">
+        <v>1400</v>
+      </c>
+      <c r="G114" t="n">
+        <v>-60630.97110000001</v>
+      </c>
+      <c r="H114" t="n">
+        <v>0</v>
+      </c>
+      <c r="I114" t="n">
+        <v>0</v>
+      </c>
+      <c r="J114" t="inlineStr"/>
+      <c r="K114" t="inlineStr"/>
+      <c r="L114" t="inlineStr"/>
+      <c r="M114" t="n">
+        <v>1</v>
+      </c>
+      <c r="N114" t="inlineStr"/>
+    </row>
+    <row r="115">
+      <c r="A115" s="1" t="n">
+        <v>113</v>
+      </c>
+      <c r="B115" t="n">
+        <v>460</v>
+      </c>
+      <c r="C115" t="n">
+        <v>460</v>
+      </c>
+      <c r="D115" t="n">
+        <v>460</v>
+      </c>
+      <c r="E115" t="n">
+        <v>460</v>
+      </c>
+      <c r="F115" t="n">
+        <v>790.3939</v>
+      </c>
+      <c r="G115" t="n">
+        <v>-60630.97110000001</v>
+      </c>
+      <c r="H115" t="n">
+        <v>0</v>
+      </c>
+      <c r="I115" t="n">
+        <v>0</v>
+      </c>
+      <c r="J115" t="inlineStr"/>
+      <c r="K115" t="inlineStr"/>
+      <c r="L115" t="inlineStr"/>
+      <c r="M115" t="n">
+        <v>1</v>
+      </c>
+      <c r="N115" t="inlineStr"/>
+    </row>
+    <row r="116">
+      <c r="A116" s="1" t="n">
+        <v>114</v>
+      </c>
+      <c r="B116" t="n">
+        <v>459.1</v>
+      </c>
+      <c r="C116" t="n">
+        <v>459.1</v>
+      </c>
+      <c r="D116" t="n">
+        <v>459.1</v>
+      </c>
+      <c r="E116" t="n">
+        <v>459.1</v>
+      </c>
+      <c r="F116" t="n">
+        <v>2484.5913</v>
+      </c>
+      <c r="G116" t="n">
+        <v>-63115.56240000001</v>
+      </c>
+      <c r="H116" t="n">
+        <v>0</v>
+      </c>
+      <c r="I116" t="n">
+        <v>0</v>
+      </c>
+      <c r="J116" t="inlineStr"/>
+      <c r="K116" t="inlineStr"/>
+      <c r="L116" t="inlineStr"/>
+      <c r="M116" t="n">
+        <v>1</v>
+      </c>
+      <c r="N116" t="inlineStr"/>
+    </row>
+    <row r="117">
+      <c r="A117" s="1" t="n">
+        <v>115</v>
+      </c>
+      <c r="B117" t="n">
+        <v>459.1</v>
+      </c>
+      <c r="C117" t="n">
+        <v>459.1</v>
+      </c>
+      <c r="D117" t="n">
+        <v>459.1</v>
+      </c>
+      <c r="E117" t="n">
+        <v>459.1</v>
+      </c>
+      <c r="F117" t="n">
+        <v>267.8303</v>
+      </c>
+      <c r="G117" t="n">
+        <v>-63115.56240000001</v>
+      </c>
+      <c r="H117" t="n">
+        <v>0</v>
+      </c>
+      <c r="I117" t="n">
+        <v>0</v>
+      </c>
+      <c r="J117" t="inlineStr"/>
+      <c r="K117" t="inlineStr"/>
+      <c r="L117" t="inlineStr"/>
+      <c r="M117" t="n">
+        <v>1</v>
+      </c>
+      <c r="N117" t="inlineStr"/>
+    </row>
+    <row r="118">
+      <c r="A118" s="1" t="n">
+        <v>116</v>
+      </c>
+      <c r="B118" t="n">
+        <v>459.1</v>
+      </c>
+      <c r="C118" t="n">
+        <v>459.1</v>
+      </c>
+      <c r="D118" t="n">
+        <v>459.1</v>
+      </c>
+      <c r="E118" t="n">
+        <v>459.1</v>
+      </c>
+      <c r="F118" t="n">
+        <v>25</v>
+      </c>
+      <c r="G118" t="n">
+        <v>-63115.56240000001</v>
+      </c>
+      <c r="H118" t="n">
+        <v>0</v>
+      </c>
+      <c r="I118" t="n">
+        <v>0</v>
+      </c>
+      <c r="J118" t="inlineStr"/>
+      <c r="K118" t="inlineStr"/>
+      <c r="L118" t="inlineStr"/>
+      <c r="M118" t="n">
+        <v>1</v>
+      </c>
+      <c r="N118" t="inlineStr"/>
+    </row>
+    <row r="119">
+      <c r="A119" s="1" t="n">
+        <v>117</v>
+      </c>
+      <c r="B119" t="n">
+        <v>457.5</v>
+      </c>
+      <c r="C119" t="n">
+        <v>457.5</v>
+      </c>
+      <c r="D119" t="n">
+        <v>457.5</v>
+      </c>
+      <c r="E119" t="n">
+        <v>457.5</v>
+      </c>
+      <c r="F119" t="n">
+        <v>1395</v>
+      </c>
+      <c r="G119" t="n">
+        <v>-64510.56240000001</v>
+      </c>
+      <c r="H119" t="n">
+        <v>0</v>
+      </c>
+      <c r="I119" t="n">
+        <v>0</v>
+      </c>
+      <c r="J119" t="inlineStr"/>
+      <c r="K119" t="inlineStr"/>
+      <c r="L119" t="inlineStr"/>
+      <c r="M119" t="n">
+        <v>1</v>
+      </c>
+      <c r="N119" t="inlineStr"/>
+    </row>
+    <row r="120">
+      <c r="A120" s="1" t="n">
+        <v>118</v>
+      </c>
+      <c r="B120" t="n">
+        <v>457.5</v>
+      </c>
+      <c r="C120" t="n">
+        <v>457.5</v>
+      </c>
+      <c r="D120" t="n">
+        <v>457.5</v>
+      </c>
+      <c r="E120" t="n">
+        <v>457.5</v>
+      </c>
+      <c r="F120" t="n">
+        <v>240</v>
+      </c>
+      <c r="G120" t="n">
+        <v>-64510.56240000001</v>
+      </c>
+      <c r="H120" t="n">
+        <v>0</v>
+      </c>
+      <c r="I120" t="n">
+        <v>0</v>
+      </c>
+      <c r="J120" t="inlineStr"/>
+      <c r="K120" t="inlineStr"/>
+      <c r="L120" t="inlineStr"/>
+      <c r="M120" t="n">
+        <v>1</v>
+      </c>
+      <c r="N120" t="inlineStr"/>
+    </row>
+    <row r="121">
+      <c r="A121" s="1" t="n">
+        <v>119</v>
+      </c>
+      <c r="B121" t="n">
+        <v>457.5</v>
+      </c>
+      <c r="C121" t="n">
+        <v>453.4</v>
+      </c>
+      <c r="D121" t="n">
+        <v>457.5</v>
+      </c>
+      <c r="E121" t="n">
+        <v>453.4</v>
+      </c>
+      <c r="F121" t="n">
+        <v>6625.4231</v>
+      </c>
+      <c r="G121" t="n">
+        <v>-71135.98550000001</v>
+      </c>
+      <c r="H121" t="n">
+        <v>0</v>
+      </c>
+      <c r="I121" t="n">
+        <v>0</v>
+      </c>
+      <c r="J121" t="inlineStr"/>
+      <c r="K121" t="inlineStr"/>
+      <c r="L121" t="inlineStr"/>
+      <c r="M121" t="n">
+        <v>1</v>
+      </c>
+      <c r="N121" t="inlineStr"/>
+    </row>
+    <row r="122">
+      <c r="A122" s="1" t="n">
+        <v>120</v>
+      </c>
+      <c r="B122" t="n">
+        <v>453.4</v>
+      </c>
+      <c r="C122" t="n">
+        <v>452.7</v>
+      </c>
+      <c r="D122" t="n">
+        <v>453.4</v>
+      </c>
+      <c r="E122" t="n">
+        <v>452.7</v>
+      </c>
+      <c r="F122" t="n">
+        <v>1998.9506</v>
+      </c>
+      <c r="G122" t="n">
+        <v>-73134.93610000001</v>
+      </c>
+      <c r="H122" t="n">
+        <v>0</v>
+      </c>
+      <c r="I122" t="n">
+        <v>0</v>
+      </c>
+      <c r="J122" t="inlineStr"/>
+      <c r="K122" t="inlineStr"/>
+      <c r="L122" t="inlineStr"/>
+      <c r="M122" t="n">
+        <v>1</v>
+      </c>
+      <c r="N122" t="inlineStr"/>
+    </row>
+    <row r="123">
+      <c r="A123" s="1" t="n">
+        <v>121</v>
+      </c>
+      <c r="B123" t="n">
         <v>453</v>
       </c>
-      <c r="C100" t="n">
+      <c r="C123" t="n">
         <v>452</v>
       </c>
-      <c r="D100" t="n">
+      <c r="D123" t="n">
         <v>453</v>
       </c>
-      <c r="E100" t="n">
+      <c r="E123" t="n">
         <v>452</v>
       </c>
-      <c r="F100" t="n">
+      <c r="F123" t="n">
+        <v>7000</v>
+      </c>
+      <c r="G123" t="n">
+        <v>-80134.93610000001</v>
+      </c>
+      <c r="H123" t="n">
+        <v>0</v>
+      </c>
+      <c r="I123" t="n">
+        <v>0</v>
+      </c>
+      <c r="J123" t="inlineStr"/>
+      <c r="K123" t="inlineStr"/>
+      <c r="L123" t="inlineStr"/>
+      <c r="M123" t="n">
+        <v>1</v>
+      </c>
+      <c r="N123" t="inlineStr"/>
+    </row>
+    <row r="124">
+      <c r="A124" s="1" t="n">
+        <v>122</v>
+      </c>
+      <c r="B124" t="n">
+        <v>452</v>
+      </c>
+      <c r="C124" t="n">
+        <v>450.5</v>
+      </c>
+      <c r="D124" t="n">
+        <v>452</v>
+      </c>
+      <c r="E124" t="n">
+        <v>450.5</v>
+      </c>
+      <c r="F124" t="n">
+        <v>1998.9507</v>
+      </c>
+      <c r="G124" t="n">
+        <v>-82133.88680000001</v>
+      </c>
+      <c r="H124" t="n">
+        <v>0</v>
+      </c>
+      <c r="I124" t="n">
+        <v>0</v>
+      </c>
+      <c r="J124" t="inlineStr"/>
+      <c r="K124" t="inlineStr"/>
+      <c r="L124" t="inlineStr"/>
+      <c r="M124" t="n">
+        <v>1</v>
+      </c>
+      <c r="N124" t="inlineStr"/>
+    </row>
+    <row r="125">
+      <c r="A125" s="1" t="n">
+        <v>123</v>
+      </c>
+      <c r="B125" t="n">
+        <v>450.6</v>
+      </c>
+      <c r="C125" t="n">
+        <v>450.5</v>
+      </c>
+      <c r="D125" t="n">
+        <v>452</v>
+      </c>
+      <c r="E125" t="n">
+        <v>450.5</v>
+      </c>
+      <c r="F125" t="n">
+        <v>8183.2338</v>
+      </c>
+      <c r="G125" t="n">
+        <v>-82133.88680000001</v>
+      </c>
+      <c r="H125" t="n">
+        <v>0</v>
+      </c>
+      <c r="I125" t="n">
+        <v>0</v>
+      </c>
+      <c r="J125" t="inlineStr"/>
+      <c r="K125" t="inlineStr"/>
+      <c r="L125" t="inlineStr"/>
+      <c r="M125" t="n">
+        <v>1</v>
+      </c>
+      <c r="N125" t="inlineStr"/>
+    </row>
+    <row r="126">
+      <c r="A126" s="1" t="n">
+        <v>124</v>
+      </c>
+      <c r="B126" t="n">
+        <v>450.5</v>
+      </c>
+      <c r="C126" t="n">
+        <v>450.5</v>
+      </c>
+      <c r="D126" t="n">
+        <v>450.5</v>
+      </c>
+      <c r="E126" t="n">
+        <v>450.5</v>
+      </c>
+      <c r="F126" t="n">
+        <v>4200</v>
+      </c>
+      <c r="G126" t="n">
+        <v>-82133.88680000001</v>
+      </c>
+      <c r="H126" t="n">
+        <v>0</v>
+      </c>
+      <c r="I126" t="n">
+        <v>0</v>
+      </c>
+      <c r="J126" t="inlineStr"/>
+      <c r="K126" t="inlineStr"/>
+      <c r="L126" t="inlineStr"/>
+      <c r="M126" t="n">
+        <v>1</v>
+      </c>
+      <c r="N126" t="inlineStr"/>
+    </row>
+    <row r="127">
+      <c r="A127" s="1" t="n">
+        <v>125</v>
+      </c>
+      <c r="B127" t="n">
+        <v>450.5</v>
+      </c>
+      <c r="C127" t="n">
+        <v>450.5</v>
+      </c>
+      <c r="D127" t="n">
+        <v>450.5</v>
+      </c>
+      <c r="E127" t="n">
+        <v>450.5</v>
+      </c>
+      <c r="F127" t="n">
+        <v>250</v>
+      </c>
+      <c r="G127" t="n">
+        <v>-82133.88680000001</v>
+      </c>
+      <c r="H127" t="n">
+        <v>0</v>
+      </c>
+      <c r="I127" t="n">
+        <v>0</v>
+      </c>
+      <c r="J127" t="inlineStr"/>
+      <c r="K127" t="inlineStr"/>
+      <c r="L127" t="inlineStr"/>
+      <c r="M127" t="n">
+        <v>1</v>
+      </c>
+      <c r="N127" t="inlineStr"/>
+    </row>
+    <row r="128">
+      <c r="A128" s="1" t="n">
+        <v>126</v>
+      </c>
+      <c r="B128" t="n">
+        <v>450.5</v>
+      </c>
+      <c r="C128" t="n">
+        <v>450.5</v>
+      </c>
+      <c r="D128" t="n">
+        <v>450.5</v>
+      </c>
+      <c r="E128" t="n">
+        <v>450.5</v>
+      </c>
+      <c r="F128" t="n">
+        <v>1625.5359</v>
+      </c>
+      <c r="G128" t="n">
+        <v>-82133.88680000001</v>
+      </c>
+      <c r="H128" t="n">
+        <v>0</v>
+      </c>
+      <c r="I128" t="n">
+        <v>0</v>
+      </c>
+      <c r="J128" t="inlineStr"/>
+      <c r="K128" t="inlineStr"/>
+      <c r="L128" t="inlineStr"/>
+      <c r="M128" t="n">
+        <v>1</v>
+      </c>
+      <c r="N128" t="inlineStr"/>
+    </row>
+    <row r="129">
+      <c r="A129" s="1" t="n">
+        <v>127</v>
+      </c>
+      <c r="B129" t="n">
+        <v>450.5</v>
+      </c>
+      <c r="C129" t="n">
+        <v>450.5</v>
+      </c>
+      <c r="D129" t="n">
+        <v>450.5</v>
+      </c>
+      <c r="E129" t="n">
+        <v>450.5</v>
+      </c>
+      <c r="F129" t="n">
+        <v>590</v>
+      </c>
+      <c r="G129" t="n">
+        <v>-82133.88680000001</v>
+      </c>
+      <c r="H129" t="n">
+        <v>0</v>
+      </c>
+      <c r="I129" t="n">
+        <v>0</v>
+      </c>
+      <c r="J129" t="inlineStr"/>
+      <c r="K129" t="inlineStr"/>
+      <c r="L129" t="inlineStr"/>
+      <c r="M129" t="n">
+        <v>1</v>
+      </c>
+      <c r="N129" t="inlineStr"/>
+    </row>
+    <row r="130">
+      <c r="A130" s="1" t="n">
+        <v>128</v>
+      </c>
+      <c r="B130" t="n">
+        <v>450.5</v>
+      </c>
+      <c r="C130" t="n">
+        <v>450.5</v>
+      </c>
+      <c r="D130" t="n">
+        <v>450.5</v>
+      </c>
+      <c r="E130" t="n">
+        <v>450.5</v>
+      </c>
+      <c r="F130" t="n">
+        <v>405.0162</v>
+      </c>
+      <c r="G130" t="n">
+        <v>-82133.88680000001</v>
+      </c>
+      <c r="H130" t="n">
+        <v>0</v>
+      </c>
+      <c r="I130" t="n">
+        <v>0</v>
+      </c>
+      <c r="J130" t="inlineStr"/>
+      <c r="K130" t="inlineStr"/>
+      <c r="L130" t="inlineStr"/>
+      <c r="M130" t="n">
+        <v>1</v>
+      </c>
+      <c r="N130" t="inlineStr"/>
+    </row>
+    <row r="131">
+      <c r="A131" s="1" t="n">
+        <v>129</v>
+      </c>
+      <c r="B131" t="n">
+        <v>450.5</v>
+      </c>
+      <c r="C131" t="n">
+        <v>450.5</v>
+      </c>
+      <c r="D131" t="n">
+        <v>450.5</v>
+      </c>
+      <c r="E131" t="n">
+        <v>450.5</v>
+      </c>
+      <c r="F131" t="n">
+        <v>56.4699</v>
+      </c>
+      <c r="G131" t="n">
+        <v>-82133.88680000001</v>
+      </c>
+      <c r="H131" t="n">
+        <v>0</v>
+      </c>
+      <c r="I131" t="n">
+        <v>0</v>
+      </c>
+      <c r="J131" t="inlineStr"/>
+      <c r="K131" t="inlineStr"/>
+      <c r="L131" t="inlineStr"/>
+      <c r="M131" t="n">
+        <v>1</v>
+      </c>
+      <c r="N131" t="inlineStr"/>
+    </row>
+    <row r="132">
+      <c r="A132" s="1" t="n">
+        <v>130</v>
+      </c>
+      <c r="B132" t="n">
+        <v>450.6</v>
+      </c>
+      <c r="C132" t="n">
+        <v>450.6</v>
+      </c>
+      <c r="D132" t="n">
+        <v>450.6</v>
+      </c>
+      <c r="E132" t="n">
+        <v>450.6</v>
+      </c>
+      <c r="F132" t="n">
+        <v>850</v>
+      </c>
+      <c r="G132" t="n">
+        <v>-81283.88680000001</v>
+      </c>
+      <c r="H132" t="n">
+        <v>0</v>
+      </c>
+      <c r="I132" t="n">
+        <v>0</v>
+      </c>
+      <c r="J132" t="inlineStr"/>
+      <c r="K132" t="inlineStr"/>
+      <c r="L132" t="inlineStr"/>
+      <c r="M132" t="n">
+        <v>1</v>
+      </c>
+      <c r="N132" t="inlineStr"/>
+    </row>
+    <row r="133">
+      <c r="A133" s="1" t="n">
+        <v>131</v>
+      </c>
+      <c r="B133" t="n">
+        <v>450.6</v>
+      </c>
+      <c r="C133" t="n">
+        <v>451.1</v>
+      </c>
+      <c r="D133" t="n">
+        <v>451.1</v>
+      </c>
+      <c r="E133" t="n">
+        <v>450.6</v>
+      </c>
+      <c r="F133" t="n">
+        <v>1220.9633</v>
+      </c>
+      <c r="G133" t="n">
+        <v>-80062.9235</v>
+      </c>
+      <c r="H133" t="n">
+        <v>0</v>
+      </c>
+      <c r="I133" t="n">
+        <v>0</v>
+      </c>
+      <c r="J133" t="inlineStr"/>
+      <c r="K133" t="inlineStr"/>
+      <c r="L133" t="inlineStr"/>
+      <c r="M133" t="n">
+        <v>1</v>
+      </c>
+      <c r="N133" t="inlineStr"/>
+    </row>
+    <row r="134">
+      <c r="A134" s="1" t="n">
+        <v>132</v>
+      </c>
+      <c r="B134" t="n">
+        <v>452</v>
+      </c>
+      <c r="C134" t="n">
+        <v>452</v>
+      </c>
+      <c r="D134" t="n">
+        <v>452</v>
+      </c>
+      <c r="E134" t="n">
+        <v>452</v>
+      </c>
+      <c r="F134" t="n">
+        <v>27</v>
+      </c>
+      <c r="G134" t="n">
+        <v>-80035.9235</v>
+      </c>
+      <c r="H134" t="n">
+        <v>0</v>
+      </c>
+      <c r="I134" t="n">
+        <v>0</v>
+      </c>
+      <c r="J134" t="inlineStr"/>
+      <c r="K134" t="inlineStr"/>
+      <c r="L134" t="inlineStr"/>
+      <c r="M134" t="n">
+        <v>1</v>
+      </c>
+      <c r="N134" t="inlineStr"/>
+    </row>
+    <row r="135">
+      <c r="A135" s="1" t="n">
+        <v>133</v>
+      </c>
+      <c r="B135" t="n">
+        <v>452</v>
+      </c>
+      <c r="C135" t="n">
+        <v>452</v>
+      </c>
+      <c r="D135" t="n">
+        <v>452</v>
+      </c>
+      <c r="E135" t="n">
+        <v>452</v>
+      </c>
+      <c r="F135" t="n">
+        <v>5.6246</v>
+      </c>
+      <c r="G135" t="n">
+        <v>-80035.9235</v>
+      </c>
+      <c r="H135" t="n">
+        <v>0</v>
+      </c>
+      <c r="I135" t="n">
+        <v>0</v>
+      </c>
+      <c r="J135" t="inlineStr"/>
+      <c r="K135" t="inlineStr"/>
+      <c r="L135" t="inlineStr"/>
+      <c r="M135" t="n">
+        <v>1</v>
+      </c>
+      <c r="N135" t="inlineStr"/>
+    </row>
+    <row r="136">
+      <c r="A136" s="1" t="n">
+        <v>134</v>
+      </c>
+      <c r="B136" t="n">
+        <v>450.6</v>
+      </c>
+      <c r="C136" t="n">
+        <v>450.6</v>
+      </c>
+      <c r="D136" t="n">
+        <v>450.6</v>
+      </c>
+      <c r="E136" t="n">
+        <v>450.6</v>
+      </c>
+      <c r="F136" t="n">
+        <v>921</v>
+      </c>
+      <c r="G136" t="n">
+        <v>-80956.9235</v>
+      </c>
+      <c r="H136" t="n">
+        <v>0</v>
+      </c>
+      <c r="I136" t="n">
+        <v>0</v>
+      </c>
+      <c r="J136" t="inlineStr"/>
+      <c r="K136" t="inlineStr"/>
+      <c r="L136" t="inlineStr"/>
+      <c r="M136" t="n">
+        <v>1</v>
+      </c>
+      <c r="N136" t="inlineStr"/>
+    </row>
+    <row r="137">
+      <c r="A137" s="1" t="n">
+        <v>135</v>
+      </c>
+      <c r="B137" t="n">
+        <v>450.9</v>
+      </c>
+      <c r="C137" t="n">
+        <v>450.5</v>
+      </c>
+      <c r="D137" t="n">
+        <v>450.9</v>
+      </c>
+      <c r="E137" t="n">
+        <v>450.5</v>
+      </c>
+      <c r="F137" t="n">
+        <v>7650.0583</v>
+      </c>
+      <c r="G137" t="n">
+        <v>-88606.98180000001</v>
+      </c>
+      <c r="H137" t="n">
+        <v>0</v>
+      </c>
+      <c r="I137" t="n">
+        <v>0</v>
+      </c>
+      <c r="J137" t="inlineStr"/>
+      <c r="K137" t="inlineStr"/>
+      <c r="L137" t="inlineStr"/>
+      <c r="M137" t="n">
+        <v>1</v>
+      </c>
+      <c r="N137" t="inlineStr"/>
+    </row>
+    <row r="138">
+      <c r="A138" s="1" t="n">
+        <v>136</v>
+      </c>
+      <c r="B138" t="n">
+        <v>450.5</v>
+      </c>
+      <c r="C138" t="n">
+        <v>450.5</v>
+      </c>
+      <c r="D138" t="n">
+        <v>450.5</v>
+      </c>
+      <c r="E138" t="n">
+        <v>450.5</v>
+      </c>
+      <c r="F138" t="n">
+        <v>513.7296</v>
+      </c>
+      <c r="G138" t="n">
+        <v>-88606.98180000001</v>
+      </c>
+      <c r="H138" t="n">
+        <v>0</v>
+      </c>
+      <c r="I138" t="n">
+        <v>0</v>
+      </c>
+      <c r="J138" t="inlineStr"/>
+      <c r="K138" t="inlineStr"/>
+      <c r="L138" t="inlineStr"/>
+      <c r="M138" t="n">
+        <v>1</v>
+      </c>
+      <c r="N138" t="inlineStr"/>
+    </row>
+    <row r="139">
+      <c r="A139" s="1" t="n">
+        <v>137</v>
+      </c>
+      <c r="B139" t="n">
+        <v>450</v>
+      </c>
+      <c r="C139" t="n">
+        <v>447</v>
+      </c>
+      <c r="D139" t="n">
+        <v>450</v>
+      </c>
+      <c r="E139" t="n">
+        <v>447</v>
+      </c>
+      <c r="F139" t="n">
+        <v>2124.041</v>
+      </c>
+      <c r="G139" t="n">
+        <v>-90731.02280000001</v>
+      </c>
+      <c r="H139" t="n">
+        <v>0</v>
+      </c>
+      <c r="I139" t="n">
+        <v>0</v>
+      </c>
+      <c r="J139" t="inlineStr"/>
+      <c r="K139" t="inlineStr"/>
+      <c r="L139" t="inlineStr"/>
+      <c r="M139" t="n">
+        <v>1</v>
+      </c>
+      <c r="N139" t="inlineStr"/>
+    </row>
+    <row r="140">
+      <c r="A140" s="1" t="n">
+        <v>138</v>
+      </c>
+      <c r="B140" t="n">
+        <v>446.7</v>
+      </c>
+      <c r="C140" t="n">
+        <v>446.7</v>
+      </c>
+      <c r="D140" t="n">
+        <v>446.7</v>
+      </c>
+      <c r="E140" t="n">
+        <v>446.7</v>
+      </c>
+      <c r="F140" t="n">
+        <v>4.1545</v>
+      </c>
+      <c r="G140" t="n">
+        <v>-90735.17730000001</v>
+      </c>
+      <c r="H140" t="n">
+        <v>0</v>
+      </c>
+      <c r="I140" t="n">
+        <v>0</v>
+      </c>
+      <c r="J140" t="inlineStr"/>
+      <c r="K140" t="inlineStr"/>
+      <c r="L140" t="inlineStr"/>
+      <c r="M140" t="n">
+        <v>1</v>
+      </c>
+      <c r="N140" t="inlineStr"/>
+    </row>
+    <row r="141">
+      <c r="A141" s="1" t="n">
+        <v>139</v>
+      </c>
+      <c r="B141" t="n">
+        <v>446.7</v>
+      </c>
+      <c r="C141" t="n">
+        <v>446.7</v>
+      </c>
+      <c r="D141" t="n">
+        <v>446.7</v>
+      </c>
+      <c r="E141" t="n">
+        <v>446.7</v>
+      </c>
+      <c r="F141" t="n">
+        <v>1845.4336</v>
+      </c>
+      <c r="G141" t="n">
+        <v>-90735.17730000001</v>
+      </c>
+      <c r="H141" t="n">
+        <v>0</v>
+      </c>
+      <c r="I141" t="n">
+        <v>0</v>
+      </c>
+      <c r="J141" t="inlineStr"/>
+      <c r="K141" t="inlineStr"/>
+      <c r="L141" t="inlineStr"/>
+      <c r="M141" t="n">
+        <v>1</v>
+      </c>
+      <c r="N141" t="inlineStr"/>
+    </row>
+    <row r="142">
+      <c r="A142" s="1" t="n">
+        <v>140</v>
+      </c>
+      <c r="B142" t="n">
+        <v>447.1</v>
+      </c>
+      <c r="C142" t="n">
+        <v>447.3</v>
+      </c>
+      <c r="D142" t="n">
+        <v>447.3</v>
+      </c>
+      <c r="E142" t="n">
+        <v>447.1</v>
+      </c>
+      <c r="F142" t="n">
+        <v>4</v>
+      </c>
+      <c r="G142" t="n">
+        <v>-90731.17730000001</v>
+      </c>
+      <c r="H142" t="n">
+        <v>0</v>
+      </c>
+      <c r="I142" t="n">
+        <v>0</v>
+      </c>
+      <c r="J142" t="inlineStr"/>
+      <c r="K142" t="inlineStr"/>
+      <c r="L142" t="inlineStr"/>
+      <c r="M142" t="n">
+        <v>1</v>
+      </c>
+      <c r="N142" t="inlineStr"/>
+    </row>
+    <row r="143">
+      <c r="A143" s="1" t="n">
+        <v>141</v>
+      </c>
+      <c r="B143" t="n">
+        <v>450.9</v>
+      </c>
+      <c r="C143" t="n">
+        <v>450.9</v>
+      </c>
+      <c r="D143" t="n">
+        <v>450.9</v>
+      </c>
+      <c r="E143" t="n">
+        <v>450.9</v>
+      </c>
+      <c r="F143" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="G143" t="n">
+        <v>-90729.97730000001</v>
+      </c>
+      <c r="H143" t="n">
+        <v>0</v>
+      </c>
+      <c r="I143" t="n">
+        <v>0</v>
+      </c>
+      <c r="J143" t="inlineStr"/>
+      <c r="K143" t="inlineStr"/>
+      <c r="L143" t="inlineStr"/>
+      <c r="M143" t="n">
+        <v>1</v>
+      </c>
+      <c r="N143" t="inlineStr"/>
+    </row>
+    <row r="144">
+      <c r="A144" s="1" t="n">
+        <v>142</v>
+      </c>
+      <c r="B144" t="n">
+        <v>447.3</v>
+      </c>
+      <c r="C144" t="n">
+        <v>447.3</v>
+      </c>
+      <c r="D144" t="n">
+        <v>447.3</v>
+      </c>
+      <c r="E144" t="n">
+        <v>447.3</v>
+      </c>
+      <c r="F144" t="n">
+        <v>384</v>
+      </c>
+      <c r="G144" t="n">
+        <v>-91113.97730000001</v>
+      </c>
+      <c r="H144" t="n">
+        <v>0</v>
+      </c>
+      <c r="I144" t="n">
+        <v>0</v>
+      </c>
+      <c r="J144" t="inlineStr"/>
+      <c r="K144" t="inlineStr"/>
+      <c r="L144" t="inlineStr"/>
+      <c r="M144" t="n">
+        <v>1</v>
+      </c>
+      <c r="N144" t="inlineStr"/>
+    </row>
+    <row r="145">
+      <c r="A145" s="1" t="n">
+        <v>143</v>
+      </c>
+      <c r="B145" t="n">
+        <v>450.9</v>
+      </c>
+      <c r="C145" t="n">
+        <v>450.9</v>
+      </c>
+      <c r="D145" t="n">
+        <v>450.9</v>
+      </c>
+      <c r="E145" t="n">
+        <v>450.9</v>
+      </c>
+      <c r="F145" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="G145" t="n">
+        <v>-91112.77730000002</v>
+      </c>
+      <c r="H145" t="n">
+        <v>0</v>
+      </c>
+      <c r="I145" t="n">
+        <v>0</v>
+      </c>
+      <c r="J145" t="inlineStr"/>
+      <c r="K145" t="inlineStr"/>
+      <c r="L145" t="inlineStr"/>
+      <c r="M145" t="n">
+        <v>1</v>
+      </c>
+      <c r="N145" t="inlineStr"/>
+    </row>
+    <row r="146">
+      <c r="A146" s="1" t="n">
+        <v>144</v>
+      </c>
+      <c r="B146" t="n">
+        <v>446.8</v>
+      </c>
+      <c r="C146" t="n">
+        <v>444.2</v>
+      </c>
+      <c r="D146" t="n">
+        <v>446.8</v>
+      </c>
+      <c r="E146" t="n">
+        <v>444.2</v>
+      </c>
+      <c r="F146" t="n">
+        <v>7056.3011</v>
+      </c>
+      <c r="G146" t="n">
+        <v>-98169.07840000001</v>
+      </c>
+      <c r="H146" t="n">
+        <v>0</v>
+      </c>
+      <c r="I146" t="n">
+        <v>0</v>
+      </c>
+      <c r="J146" t="inlineStr"/>
+      <c r="K146" t="inlineStr"/>
+      <c r="L146" t="inlineStr"/>
+      <c r="M146" t="n">
+        <v>1</v>
+      </c>
+      <c r="N146" t="inlineStr"/>
+    </row>
+    <row r="147">
+      <c r="A147" s="1" t="n">
+        <v>145</v>
+      </c>
+      <c r="B147" t="n">
+        <v>445.7</v>
+      </c>
+      <c r="C147" t="n">
+        <v>445.7</v>
+      </c>
+      <c r="D147" t="n">
+        <v>445.7</v>
+      </c>
+      <c r="E147" t="n">
+        <v>445.7</v>
+      </c>
+      <c r="F147" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="G147" t="n">
+        <v>-98167.87840000002</v>
+      </c>
+      <c r="H147" t="n">
+        <v>0</v>
+      </c>
+      <c r="I147" t="n">
+        <v>0</v>
+      </c>
+      <c r="J147" t="inlineStr"/>
+      <c r="K147" t="inlineStr"/>
+      <c r="L147" t="inlineStr"/>
+      <c r="M147" t="n">
+        <v>1</v>
+      </c>
+      <c r="N147" t="inlineStr"/>
+    </row>
+    <row r="148">
+      <c r="A148" s="1" t="n">
+        <v>146</v>
+      </c>
+      <c r="B148" t="n">
+        <v>445.7</v>
+      </c>
+      <c r="C148" t="n">
+        <v>445.7</v>
+      </c>
+      <c r="D148" t="n">
+        <v>445.7</v>
+      </c>
+      <c r="E148" t="n">
+        <v>445.7</v>
+      </c>
+      <c r="F148" t="n">
+        <v>20</v>
+      </c>
+      <c r="G148" t="n">
+        <v>-98167.87840000002</v>
+      </c>
+      <c r="H148" t="n">
+        <v>0</v>
+      </c>
+      <c r="I148" t="n">
+        <v>0</v>
+      </c>
+      <c r="J148" t="inlineStr"/>
+      <c r="K148" t="inlineStr"/>
+      <c r="L148" t="inlineStr"/>
+      <c r="M148" t="n">
+        <v>1</v>
+      </c>
+      <c r="N148" t="inlineStr"/>
+    </row>
+    <row r="149">
+      <c r="A149" s="1" t="n">
+        <v>147</v>
+      </c>
+      <c r="B149" t="n">
+        <v>444.3</v>
+      </c>
+      <c r="C149" t="n">
+        <v>443.3</v>
+      </c>
+      <c r="D149" t="n">
+        <v>448</v>
+      </c>
+      <c r="E149" t="n">
+        <v>442.2</v>
+      </c>
+      <c r="F149" t="n">
+        <v>19452.2485</v>
+      </c>
+      <c r="G149" t="n">
+        <v>-117620.1269</v>
+      </c>
+      <c r="H149" t="n">
+        <v>0</v>
+      </c>
+      <c r="I149" t="n">
+        <v>0</v>
+      </c>
+      <c r="J149" t="inlineStr"/>
+      <c r="K149" t="inlineStr"/>
+      <c r="L149" t="inlineStr"/>
+      <c r="M149" t="n">
+        <v>1</v>
+      </c>
+      <c r="N149" t="inlineStr"/>
+    </row>
+    <row r="150">
+      <c r="A150" s="1" t="n">
+        <v>148</v>
+      </c>
+      <c r="B150" t="n">
+        <v>443.2</v>
+      </c>
+      <c r="C150" t="n">
+        <v>443.3</v>
+      </c>
+      <c r="D150" t="n">
+        <v>443.3</v>
+      </c>
+      <c r="E150" t="n">
+        <v>443.2</v>
+      </c>
+      <c r="F150" t="n">
+        <v>15769</v>
+      </c>
+      <c r="G150" t="n">
+        <v>-117620.1269</v>
+      </c>
+      <c r="H150" t="n">
+        <v>0</v>
+      </c>
+      <c r="I150" t="n">
+        <v>0</v>
+      </c>
+      <c r="J150" t="inlineStr"/>
+      <c r="K150" t="inlineStr"/>
+      <c r="L150" t="inlineStr"/>
+      <c r="M150" t="n">
+        <v>1</v>
+      </c>
+      <c r="N150" t="inlineStr"/>
+    </row>
+    <row r="151">
+      <c r="A151" s="1" t="n">
+        <v>149</v>
+      </c>
+      <c r="B151" t="n">
+        <v>443.3</v>
+      </c>
+      <c r="C151" t="n">
+        <v>442.7</v>
+      </c>
+      <c r="D151" t="n">
+        <v>443.3</v>
+      </c>
+      <c r="E151" t="n">
+        <v>442.7</v>
+      </c>
+      <c r="F151" t="n">
+        <v>1917.6155</v>
+      </c>
+      <c r="G151" t="n">
+        <v>-119537.7424</v>
+      </c>
+      <c r="H151" t="n">
+        <v>0</v>
+      </c>
+      <c r="I151" t="n">
+        <v>0</v>
+      </c>
+      <c r="J151" t="inlineStr"/>
+      <c r="K151" t="inlineStr"/>
+      <c r="L151" t="inlineStr"/>
+      <c r="M151" t="n">
+        <v>1</v>
+      </c>
+      <c r="N151" t="inlineStr"/>
+    </row>
+    <row r="152">
+      <c r="A152" s="1" t="n">
         <v>150</v>
       </c>
-      <c r="G100" t="n">
-        <v>-114497.0705289643</v>
-      </c>
-      <c r="H100" t="n">
-        <v>0</v>
-      </c>
-      <c r="I100" t="n">
-        <v>0</v>
-      </c>
-      <c r="J100" t="inlineStr"/>
-      <c r="K100" t="n">
-        <v>449.8</v>
-      </c>
-      <c r="L100" t="inlineStr">
+      <c r="B152" t="n">
+        <v>443.3</v>
+      </c>
+      <c r="C152" t="n">
+        <v>443.3</v>
+      </c>
+      <c r="D152" t="n">
+        <v>443.3</v>
+      </c>
+      <c r="E152" t="n">
+        <v>443.3</v>
+      </c>
+      <c r="F152" t="n">
+        <v>30</v>
+      </c>
+      <c r="G152" t="n">
+        <v>-119507.7424</v>
+      </c>
+      <c r="H152" t="n">
+        <v>0</v>
+      </c>
+      <c r="I152" t="n">
+        <v>0</v>
+      </c>
+      <c r="J152" t="inlineStr"/>
+      <c r="K152" t="inlineStr"/>
+      <c r="L152" t="inlineStr"/>
+      <c r="M152" t="n">
+        <v>1</v>
+      </c>
+      <c r="N152" t="inlineStr"/>
+    </row>
+    <row r="153">
+      <c r="A153" s="1" t="n">
+        <v>151</v>
+      </c>
+      <c r="B153" t="n">
+        <v>443.3</v>
+      </c>
+      <c r="C153" t="n">
+        <v>443.3</v>
+      </c>
+      <c r="D153" t="n">
+        <v>443.3</v>
+      </c>
+      <c r="E153" t="n">
+        <v>443.3</v>
+      </c>
+      <c r="F153" t="n">
+        <v>306.5682</v>
+      </c>
+      <c r="G153" t="n">
+        <v>-119507.7424</v>
+      </c>
+      <c r="H153" t="n">
+        <v>0</v>
+      </c>
+      <c r="I153" t="n">
+        <v>0</v>
+      </c>
+      <c r="J153" t="inlineStr"/>
+      <c r="K153" t="inlineStr"/>
+      <c r="L153" t="inlineStr"/>
+      <c r="M153" t="n">
+        <v>1</v>
+      </c>
+      <c r="N153" t="inlineStr"/>
+    </row>
+    <row r="154">
+      <c r="A154" s="1" t="n">
+        <v>152</v>
+      </c>
+      <c r="B154" t="n">
+        <v>443.3</v>
+      </c>
+      <c r="C154" t="n">
+        <v>443.3</v>
+      </c>
+      <c r="D154" t="n">
+        <v>443.3</v>
+      </c>
+      <c r="E154" t="n">
+        <v>443.3</v>
+      </c>
+      <c r="F154" t="n">
+        <v>229.8658</v>
+      </c>
+      <c r="G154" t="n">
+        <v>-119507.7424</v>
+      </c>
+      <c r="H154" t="n">
+        <v>0</v>
+      </c>
+      <c r="I154" t="n">
+        <v>0</v>
+      </c>
+      <c r="J154" t="inlineStr"/>
+      <c r="K154" t="inlineStr"/>
+      <c r="L154" t="inlineStr"/>
+      <c r="M154" t="n">
+        <v>1</v>
+      </c>
+      <c r="N154" t="inlineStr"/>
+    </row>
+    <row r="155">
+      <c r="A155" s="1" t="n">
+        <v>153</v>
+      </c>
+      <c r="B155" t="n">
+        <v>443.3</v>
+      </c>
+      <c r="C155" t="n">
+        <v>443.3</v>
+      </c>
+      <c r="D155" t="n">
+        <v>443.3</v>
+      </c>
+      <c r="E155" t="n">
+        <v>443.3</v>
+      </c>
+      <c r="F155" t="n">
+        <v>435</v>
+      </c>
+      <c r="G155" t="n">
+        <v>-119507.7424</v>
+      </c>
+      <c r="H155" t="n">
+        <v>1</v>
+      </c>
+      <c r="I155" t="n">
+        <v>0</v>
+      </c>
+      <c r="J155" t="n">
+        <v>443.3</v>
+      </c>
+      <c r="K155" t="n">
+        <v>443.3</v>
+      </c>
+      <c r="L155" t="inlineStr"/>
+      <c r="M155" t="n">
+        <v>1</v>
+      </c>
+      <c r="N155" t="inlineStr"/>
+    </row>
+    <row r="156">
+      <c r="A156" s="1" t="n">
+        <v>154</v>
+      </c>
+      <c r="B156" t="n">
+        <v>443.3</v>
+      </c>
+      <c r="C156" t="n">
+        <v>443.3</v>
+      </c>
+      <c r="D156" t="n">
+        <v>443.3</v>
+      </c>
+      <c r="E156" t="n">
+        <v>443.3</v>
+      </c>
+      <c r="F156" t="n">
+        <v>118.0814</v>
+      </c>
+      <c r="G156" t="n">
+        <v>-119507.7424</v>
+      </c>
+      <c r="H156" t="n">
+        <v>1</v>
+      </c>
+      <c r="I156" t="n">
+        <v>0</v>
+      </c>
+      <c r="J156" t="n">
+        <v>443.3</v>
+      </c>
+      <c r="K156" t="n">
+        <v>443.3</v>
+      </c>
+      <c r="L156" t="inlineStr">
         <is>
           <t>매수 대기</t>
         </is>
       </c>
-      <c r="M100" t="n">
-        <v>1</v>
-      </c>
-      <c r="N100" t="inlineStr"/>
-    </row>
-    <row r="101">
-      <c r="A101" s="1" t="n">
-        <v>99</v>
-      </c>
-      <c r="B101" t="n">
-        <v>452.6</v>
-      </c>
-      <c r="C101" t="n">
-        <v>452.6</v>
-      </c>
-      <c r="D101" t="n">
-        <v>452.6</v>
-      </c>
-      <c r="E101" t="n">
-        <v>452.6</v>
-      </c>
-      <c r="F101" t="n">
-        <v>260.1491</v>
-      </c>
-      <c r="G101" t="n">
-        <v>-114236.9214289643</v>
-      </c>
-      <c r="H101" t="n">
-        <v>1</v>
-      </c>
-      <c r="I101" t="n">
-        <v>0</v>
-      </c>
-      <c r="J101" t="n">
-        <v>452</v>
-      </c>
-      <c r="K101" t="n">
-        <v>449.8</v>
-      </c>
-      <c r="L101" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="M101" t="n">
-        <v>1</v>
-      </c>
-      <c r="N101" t="inlineStr"/>
-    </row>
-    <row r="102">
-      <c r="A102" s="1" t="n">
-        <v>100</v>
-      </c>
-      <c r="B102" t="n">
-        <v>452</v>
-      </c>
-      <c r="C102" t="n">
-        <v>453</v>
-      </c>
-      <c r="D102" t="n">
-        <v>453</v>
-      </c>
-      <c r="E102" t="n">
-        <v>452</v>
-      </c>
-      <c r="F102" t="n">
-        <v>400</v>
-      </c>
-      <c r="G102" t="n">
-        <v>-113836.9214289643</v>
-      </c>
-      <c r="H102" t="n">
-        <v>1</v>
-      </c>
-      <c r="I102" t="n">
-        <v>0</v>
-      </c>
-      <c r="J102" t="n">
-        <v>452.6</v>
-      </c>
-      <c r="K102" t="n">
-        <v>449.8</v>
-      </c>
-      <c r="L102" t="inlineStr">
+      <c r="M156" t="n">
+        <v>1</v>
+      </c>
+      <c r="N156" t="inlineStr"/>
+    </row>
+    <row r="157">
+      <c r="A157" s="1" t="n">
+        <v>155</v>
+      </c>
+      <c r="B157" t="n">
+        <v>443.3</v>
+      </c>
+      <c r="C157" t="n">
+        <v>447.7</v>
+      </c>
+      <c r="D157" t="n">
+        <v>447.7</v>
+      </c>
+      <c r="E157" t="n">
+        <v>443.3</v>
+      </c>
+      <c r="F157" t="n">
+        <v>2523.4146</v>
+      </c>
+      <c r="G157" t="n">
+        <v>-116984.3278</v>
+      </c>
+      <c r="H157" t="n">
+        <v>1</v>
+      </c>
+      <c r="I157" t="n">
+        <v>0</v>
+      </c>
+      <c r="J157" t="n">
+        <v>443.3</v>
+      </c>
+      <c r="K157" t="n">
+        <v>443.3</v>
+      </c>
+      <c r="L157" t="inlineStr">
         <is>
           <t>매수 체결</t>
         </is>
       </c>
-      <c r="M102" t="n">
-        <v>1</v>
-      </c>
-      <c r="N102" t="inlineStr"/>
-    </row>
-    <row r="103">
-      <c r="A103" s="1" t="n">
-        <v>101</v>
-      </c>
-      <c r="B103" t="n">
-        <v>453.9</v>
-      </c>
-      <c r="C103" t="n">
-        <v>453.9</v>
-      </c>
-      <c r="D103" t="n">
-        <v>453.9</v>
-      </c>
-      <c r="E103" t="n">
-        <v>453.9</v>
-      </c>
-      <c r="F103" t="n">
-        <v>2800</v>
-      </c>
-      <c r="G103" t="n">
-        <v>-111036.9214289643</v>
-      </c>
-      <c r="H103" t="n">
-        <v>1</v>
-      </c>
-      <c r="I103" t="n">
-        <v>0</v>
-      </c>
-      <c r="J103" t="n">
-        <v>453</v>
-      </c>
-      <c r="K103" t="n">
-        <v>449.8</v>
-      </c>
-      <c r="L103" t="inlineStr">
+      <c r="M157" t="n">
+        <v>1</v>
+      </c>
+      <c r="N157" t="inlineStr"/>
+    </row>
+    <row r="158">
+      <c r="A158" s="1" t="n">
+        <v>156</v>
+      </c>
+      <c r="B158" t="n">
+        <v>443.4</v>
+      </c>
+      <c r="C158" t="n">
+        <v>443.3</v>
+      </c>
+      <c r="D158" t="n">
+        <v>443.4</v>
+      </c>
+      <c r="E158" t="n">
+        <v>443.3</v>
+      </c>
+      <c r="F158" t="n">
+        <v>2265.7641</v>
+      </c>
+      <c r="G158" t="n">
+        <v>-119250.0919</v>
+      </c>
+      <c r="H158" t="n">
+        <v>1</v>
+      </c>
+      <c r="I158" t="n">
+        <v>0</v>
+      </c>
+      <c r="J158" t="n">
+        <v>447.7</v>
+      </c>
+      <c r="K158" t="n">
+        <v>443.3</v>
+      </c>
+      <c r="L158" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M103" t="n">
-        <v>1</v>
-      </c>
-      <c r="N103" t="inlineStr"/>
-    </row>
-    <row r="104">
-      <c r="A104" s="1" t="n">
-        <v>102</v>
-      </c>
-      <c r="B104" t="n">
-        <v>453.9</v>
-      </c>
-      <c r="C104" t="n">
-        <v>453.9</v>
-      </c>
-      <c r="D104" t="n">
-        <v>453.9</v>
-      </c>
-      <c r="E104" t="n">
-        <v>453.9</v>
-      </c>
-      <c r="F104" t="n">
-        <v>1541</v>
-      </c>
-      <c r="G104" t="n">
-        <v>-111036.9214289643</v>
-      </c>
-      <c r="H104" t="n">
-        <v>1</v>
-      </c>
-      <c r="I104" t="n">
-        <v>0</v>
-      </c>
-      <c r="J104" t="n">
-        <v>453.9</v>
-      </c>
-      <c r="K104" t="n">
-        <v>449.8</v>
-      </c>
-      <c r="L104" t="inlineStr">
+      <c r="M158" t="n">
+        <v>1</v>
+      </c>
+      <c r="N158" t="inlineStr"/>
+    </row>
+    <row r="159">
+      <c r="A159" s="1" t="n">
+        <v>157</v>
+      </c>
+      <c r="B159" t="n">
+        <v>447.7</v>
+      </c>
+      <c r="C159" t="n">
+        <v>447.7</v>
+      </c>
+      <c r="D159" t="n">
+        <v>447.7</v>
+      </c>
+      <c r="E159" t="n">
+        <v>447.7</v>
+      </c>
+      <c r="F159" t="n">
+        <v>8.5162</v>
+      </c>
+      <c r="G159" t="n">
+        <v>-119241.5757</v>
+      </c>
+      <c r="H159" t="n">
+        <v>1</v>
+      </c>
+      <c r="I159" t="n">
+        <v>0</v>
+      </c>
+      <c r="J159" t="n">
+        <v>443.3</v>
+      </c>
+      <c r="K159" t="n">
+        <v>443.3</v>
+      </c>
+      <c r="L159" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M104" t="n">
-        <v>1</v>
-      </c>
-      <c r="N104" t="inlineStr"/>
+      <c r="M159" t="n">
+        <v>1</v>
+      </c>
+      <c r="N159" t="inlineStr"/>
+    </row>
+    <row r="160">
+      <c r="A160" s="1" t="n">
+        <v>158</v>
+      </c>
+      <c r="B160" t="n">
+        <v>446.7</v>
+      </c>
+      <c r="C160" t="n">
+        <v>446.7</v>
+      </c>
+      <c r="D160" t="n">
+        <v>446.7</v>
+      </c>
+      <c r="E160" t="n">
+        <v>446.7</v>
+      </c>
+      <c r="F160" t="n">
+        <v>99.9999</v>
+      </c>
+      <c r="G160" t="n">
+        <v>-119341.5756</v>
+      </c>
+      <c r="H160" t="n">
+        <v>1</v>
+      </c>
+      <c r="I160" t="n">
+        <v>0</v>
+      </c>
+      <c r="J160" t="n">
+        <v>447.7</v>
+      </c>
+      <c r="K160" t="n">
+        <v>443.3</v>
+      </c>
+      <c r="L160" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M160" t="n">
+        <v>1</v>
+      </c>
+      <c r="N160" t="inlineStr"/>
+    </row>
+    <row r="161">
+      <c r="A161" s="1" t="n">
+        <v>159</v>
+      </c>
+      <c r="B161" t="n">
+        <v>447.7</v>
+      </c>
+      <c r="C161" t="n">
+        <v>448</v>
+      </c>
+      <c r="D161" t="n">
+        <v>448</v>
+      </c>
+      <c r="E161" t="n">
+        <v>447.7</v>
+      </c>
+      <c r="F161" t="n">
+        <v>289.2084</v>
+      </c>
+      <c r="G161" t="n">
+        <v>-119052.3672</v>
+      </c>
+      <c r="H161" t="n">
+        <v>1</v>
+      </c>
+      <c r="I161" t="n">
+        <v>0</v>
+      </c>
+      <c r="J161" t="n">
+        <v>446.7</v>
+      </c>
+      <c r="K161" t="n">
+        <v>443.3</v>
+      </c>
+      <c r="L161" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M161" t="n">
+        <v>1</v>
+      </c>
+      <c r="N161" t="inlineStr"/>
+    </row>
+    <row r="162">
+      <c r="A162" s="1" t="n">
+        <v>160</v>
+      </c>
+      <c r="B162" t="n">
+        <v>447.5</v>
+      </c>
+      <c r="C162" t="n">
+        <v>447.6</v>
+      </c>
+      <c r="D162" t="n">
+        <v>447.6</v>
+      </c>
+      <c r="E162" t="n">
+        <v>447.5</v>
+      </c>
+      <c r="F162" t="n">
+        <v>709.1495</v>
+      </c>
+      <c r="G162" t="n">
+        <v>-119761.5167</v>
+      </c>
+      <c r="H162" t="n">
+        <v>1</v>
+      </c>
+      <c r="I162" t="n">
+        <v>0</v>
+      </c>
+      <c r="J162" t="n">
+        <v>448</v>
+      </c>
+      <c r="K162" t="n">
+        <v>443.3</v>
+      </c>
+      <c r="L162" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M162" t="n">
+        <v>1</v>
+      </c>
+      <c r="N162" t="inlineStr"/>
+    </row>
+    <row r="163">
+      <c r="A163" s="1" t="n">
+        <v>161</v>
+      </c>
+      <c r="B163" t="n">
+        <v>447.5</v>
+      </c>
+      <c r="C163" t="n">
+        <v>447.5</v>
+      </c>
+      <c r="D163" t="n">
+        <v>447.5</v>
+      </c>
+      <c r="E163" t="n">
+        <v>447.5</v>
+      </c>
+      <c r="F163" t="n">
+        <v>3.2094</v>
+      </c>
+      <c r="G163" t="n">
+        <v>-119764.7261</v>
+      </c>
+      <c r="H163" t="n">
+        <v>1</v>
+      </c>
+      <c r="I163" t="n">
+        <v>0</v>
+      </c>
+      <c r="J163" t="n">
+        <v>447.6</v>
+      </c>
+      <c r="K163" t="n">
+        <v>443.3</v>
+      </c>
+      <c r="L163" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M163" t="n">
+        <v>1</v>
+      </c>
+      <c r="N163" t="inlineStr"/>
+    </row>
+    <row r="164">
+      <c r="A164" s="1" t="n">
+        <v>162</v>
+      </c>
+      <c r="B164" t="n">
+        <v>449</v>
+      </c>
+      <c r="C164" t="n">
+        <v>448</v>
+      </c>
+      <c r="D164" t="n">
+        <v>449</v>
+      </c>
+      <c r="E164" t="n">
+        <v>448</v>
+      </c>
+      <c r="F164" t="n">
+        <v>2800</v>
+      </c>
+      <c r="G164" t="n">
+        <v>-116964.7261</v>
+      </c>
+      <c r="H164" t="n">
+        <v>1</v>
+      </c>
+      <c r="I164" t="n">
+        <v>0</v>
+      </c>
+      <c r="J164" t="n">
+        <v>447.5</v>
+      </c>
+      <c r="K164" t="n">
+        <v>443.3</v>
+      </c>
+      <c r="L164" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M164" t="n">
+        <v>1</v>
+      </c>
+      <c r="N164" t="inlineStr"/>
+    </row>
+    <row r="165">
+      <c r="A165" s="1" t="n">
+        <v>163</v>
+      </c>
+      <c r="B165" t="n">
+        <v>450.9</v>
+      </c>
+      <c r="C165" t="n">
+        <v>450.9</v>
+      </c>
+      <c r="D165" t="n">
+        <v>450.9</v>
+      </c>
+      <c r="E165" t="n">
+        <v>450.9</v>
+      </c>
+      <c r="F165" t="n">
+        <v>1007.203371035706</v>
+      </c>
+      <c r="G165" t="n">
+        <v>-115957.5227289643</v>
+      </c>
+      <c r="H165" t="n">
+        <v>1</v>
+      </c>
+      <c r="I165" t="n">
+        <v>0</v>
+      </c>
+      <c r="J165" t="n">
+        <v>448</v>
+      </c>
+      <c r="K165" t="n">
+        <v>443.3</v>
+      </c>
+      <c r="L165" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M165" t="n">
+        <v>1</v>
+      </c>
+      <c r="N165" t="inlineStr"/>
+    </row>
+    <row r="166">
+      <c r="A166" s="1" t="n">
+        <v>164</v>
+      </c>
+      <c r="B166" t="n">
+        <v>451</v>
+      </c>
+      <c r="C166" t="n">
+        <v>451</v>
+      </c>
+      <c r="D166" t="n">
+        <v>451</v>
+      </c>
+      <c r="E166" t="n">
+        <v>451</v>
+      </c>
+      <c r="F166" t="n">
+        <v>205</v>
+      </c>
+      <c r="G166" t="n">
+        <v>-115752.5227289643</v>
+      </c>
+      <c r="H166" t="n">
+        <v>1</v>
+      </c>
+      <c r="I166" t="n">
+        <v>0</v>
+      </c>
+      <c r="J166" t="n">
+        <v>450.9</v>
+      </c>
+      <c r="K166" t="n">
+        <v>443.3</v>
+      </c>
+      <c r="L166" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M166" t="n">
+        <v>1</v>
+      </c>
+      <c r="N166" t="inlineStr"/>
+    </row>
+    <row r="167">
+      <c r="A167" s="1" t="n">
+        <v>165</v>
+      </c>
+      <c r="B167" t="n">
+        <v>451</v>
+      </c>
+      <c r="C167" t="n">
+        <v>451</v>
+      </c>
+      <c r="D167" t="n">
+        <v>451</v>
+      </c>
+      <c r="E167" t="n">
+        <v>451</v>
+      </c>
+      <c r="F167" t="n">
+        <v>141.6783</v>
+      </c>
+      <c r="G167" t="n">
+        <v>-115752.5227289643</v>
+      </c>
+      <c r="H167" t="n">
+        <v>1</v>
+      </c>
+      <c r="I167" t="n">
+        <v>0</v>
+      </c>
+      <c r="J167" t="n">
+        <v>451</v>
+      </c>
+      <c r="K167" t="n">
+        <v>443.3</v>
+      </c>
+      <c r="L167" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M167" t="n">
+        <v>1</v>
+      </c>
+      <c r="N167" t="inlineStr"/>
+    </row>
+    <row r="168">
+      <c r="A168" s="1" t="n">
+        <v>166</v>
+      </c>
+      <c r="B168" t="n">
+        <v>451</v>
+      </c>
+      <c r="C168" t="n">
+        <v>458.1</v>
+      </c>
+      <c r="D168" t="n">
+        <v>458.1</v>
+      </c>
+      <c r="E168" t="n">
+        <v>451</v>
+      </c>
+      <c r="F168" t="n">
+        <v>810</v>
+      </c>
+      <c r="G168" t="n">
+        <v>-114942.5227289643</v>
+      </c>
+      <c r="H168" t="n">
+        <v>0</v>
+      </c>
+      <c r="I168" t="n">
+        <v>0</v>
+      </c>
+      <c r="J168" t="inlineStr"/>
+      <c r="K168" t="n">
+        <v>443.3</v>
+      </c>
+      <c r="L168" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M168" t="n">
+        <v>1</v>
+      </c>
+      <c r="N168" t="inlineStr"/>
+    </row>
+    <row r="169">
+      <c r="A169" s="1" t="n">
+        <v>167</v>
+      </c>
+      <c r="B169" t="n">
+        <v>451</v>
+      </c>
+      <c r="C169" t="n">
+        <v>449.8</v>
+      </c>
+      <c r="D169" t="n">
+        <v>451</v>
+      </c>
+      <c r="E169" t="n">
+        <v>448.9</v>
+      </c>
+      <c r="F169" t="n">
+        <v>400</v>
+      </c>
+      <c r="G169" t="n">
+        <v>-115342.5227289643</v>
+      </c>
+      <c r="H169" t="n">
+        <v>0</v>
+      </c>
+      <c r="I169" t="n">
+        <v>0</v>
+      </c>
+      <c r="J169" t="inlineStr"/>
+      <c r="K169" t="n">
+        <v>443.3</v>
+      </c>
+      <c r="L169" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M169" t="n">
+        <v>1</v>
+      </c>
+      <c r="N169" t="inlineStr"/>
+    </row>
+    <row r="170">
+      <c r="A170" s="1" t="n">
+        <v>168</v>
+      </c>
+      <c r="B170" t="n">
+        <v>454.9</v>
+      </c>
+      <c r="C170" t="n">
+        <v>454.9</v>
+      </c>
+      <c r="D170" t="n">
+        <v>454.9</v>
+      </c>
+      <c r="E170" t="n">
+        <v>454.9</v>
+      </c>
+      <c r="F170" t="n">
+        <v>995.4521999999999</v>
+      </c>
+      <c r="G170" t="n">
+        <v>-114347.0705289643</v>
+      </c>
+      <c r="H170" t="n">
+        <v>0</v>
+      </c>
+      <c r="I170" t="n">
+        <v>0</v>
+      </c>
+      <c r="J170" t="inlineStr"/>
+      <c r="K170" t="n">
+        <v>443.3</v>
+      </c>
+      <c r="L170" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M170" t="n">
+        <v>1</v>
+      </c>
+      <c r="N170" t="inlineStr"/>
+    </row>
+    <row r="171">
+      <c r="A171" s="1" t="n">
+        <v>169</v>
+      </c>
+      <c r="B171" t="n">
+        <v>453</v>
+      </c>
+      <c r="C171" t="n">
+        <v>452</v>
+      </c>
+      <c r="D171" t="n">
+        <v>453</v>
+      </c>
+      <c r="E171" t="n">
+        <v>452</v>
+      </c>
+      <c r="F171" t="n">
+        <v>150</v>
+      </c>
+      <c r="G171" t="n">
+        <v>-114497.0705289643</v>
+      </c>
+      <c r="H171" t="n">
+        <v>0</v>
+      </c>
+      <c r="I171" t="n">
+        <v>0</v>
+      </c>
+      <c r="J171" t="inlineStr"/>
+      <c r="K171" t="n">
+        <v>443.3</v>
+      </c>
+      <c r="L171" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M171" t="n">
+        <v>1</v>
+      </c>
+      <c r="N171" t="inlineStr"/>
+    </row>
+    <row r="172">
+      <c r="A172" s="1" t="n">
+        <v>170</v>
+      </c>
+      <c r="B172" t="n">
+        <v>452.6</v>
+      </c>
+      <c r="C172" t="n">
+        <v>452.6</v>
+      </c>
+      <c r="D172" t="n">
+        <v>452.6</v>
+      </c>
+      <c r="E172" t="n">
+        <v>452.6</v>
+      </c>
+      <c r="F172" t="n">
+        <v>260.1491</v>
+      </c>
+      <c r="G172" t="n">
+        <v>-114236.9214289643</v>
+      </c>
+      <c r="H172" t="n">
+        <v>0</v>
+      </c>
+      <c r="I172" t="n">
+        <v>0</v>
+      </c>
+      <c r="J172" t="inlineStr"/>
+      <c r="K172" t="n">
+        <v>443.3</v>
+      </c>
+      <c r="L172" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M172" t="n">
+        <v>1</v>
+      </c>
+      <c r="N172" t="inlineStr"/>
+    </row>
+    <row r="173">
+      <c r="A173" s="1" t="n">
+        <v>171</v>
+      </c>
+      <c r="B173" t="n">
+        <v>452</v>
+      </c>
+      <c r="C173" t="n">
+        <v>453</v>
+      </c>
+      <c r="D173" t="n">
+        <v>453</v>
+      </c>
+      <c r="E173" t="n">
+        <v>452</v>
+      </c>
+      <c r="F173" t="n">
+        <v>400</v>
+      </c>
+      <c r="G173" t="n">
+        <v>-113836.9214289643</v>
+      </c>
+      <c r="H173" t="n">
+        <v>0</v>
+      </c>
+      <c r="I173" t="n">
+        <v>0</v>
+      </c>
+      <c r="J173" t="inlineStr"/>
+      <c r="K173" t="n">
+        <v>443.3</v>
+      </c>
+      <c r="L173" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M173" t="n">
+        <v>1</v>
+      </c>
+      <c r="N173" t="inlineStr"/>
+    </row>
+    <row r="174">
+      <c r="A174" s="1" t="n">
+        <v>172</v>
+      </c>
+      <c r="B174" t="n">
+        <v>453.9</v>
+      </c>
+      <c r="C174" t="n">
+        <v>453.9</v>
+      </c>
+      <c r="D174" t="n">
+        <v>453.9</v>
+      </c>
+      <c r="E174" t="n">
+        <v>453.9</v>
+      </c>
+      <c r="F174" t="n">
+        <v>2800</v>
+      </c>
+      <c r="G174" t="n">
+        <v>-111036.9214289643</v>
+      </c>
+      <c r="H174" t="n">
+        <v>0</v>
+      </c>
+      <c r="I174" t="n">
+        <v>0</v>
+      </c>
+      <c r="J174" t="inlineStr"/>
+      <c r="K174" t="n">
+        <v>443.3</v>
+      </c>
+      <c r="L174" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M174" t="n">
+        <v>1</v>
+      </c>
+      <c r="N174" t="inlineStr"/>
+    </row>
+    <row r="175">
+      <c r="A175" s="1" t="n">
+        <v>173</v>
+      </c>
+      <c r="B175" t="n">
+        <v>453.9</v>
+      </c>
+      <c r="C175" t="n">
+        <v>453.9</v>
+      </c>
+      <c r="D175" t="n">
+        <v>453.9</v>
+      </c>
+      <c r="E175" t="n">
+        <v>453.9</v>
+      </c>
+      <c r="F175" t="n">
+        <v>1541</v>
+      </c>
+      <c r="G175" t="n">
+        <v>-111036.9214289643</v>
+      </c>
+      <c r="H175" t="n">
+        <v>0</v>
+      </c>
+      <c r="I175" t="n">
+        <v>0</v>
+      </c>
+      <c r="J175" t="inlineStr"/>
+      <c r="K175" t="n">
+        <v>443.3</v>
+      </c>
+      <c r="L175" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M175" t="n">
+        <v>1</v>
+      </c>
+      <c r="N175" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>

--- a/BackTest/2020-01-24 BackTest WTC.xlsx
+++ b/BackTest/2020-01-24 BackTest WTC.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N175"/>
+  <dimension ref="A1:M175"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -399,35 +399,30 @@
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>low_check</t>
+          <t>trade_state</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>high_check</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>BuyPrice</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>bprelay</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>Condition</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>Profits</t>
         </is>
       </c>
-      <c r="N1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>Price_point</t>
         </is>
@@ -456,18 +451,15 @@
         <v>-22721.12629999999</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
-      </c>
-      <c r="I2" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
       <c r="K2" t="inlineStr"/>
-      <c r="L2" t="inlineStr"/>
-      <c r="M2" t="n">
-        <v>1</v>
-      </c>
-      <c r="N2" t="inlineStr"/>
+      <c r="L2" t="n">
+        <v>1</v>
+      </c>
+      <c r="M2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -494,16 +486,13 @@
       <c r="H3" t="n">
         <v>0</v>
       </c>
-      <c r="I3" t="n">
-        <v>1</v>
-      </c>
+      <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr"/>
       <c r="K3" t="inlineStr"/>
-      <c r="L3" t="inlineStr"/>
-      <c r="M3" t="n">
-        <v>1</v>
-      </c>
-      <c r="N3" t="inlineStr"/>
+      <c r="L3" t="n">
+        <v>1</v>
+      </c>
+      <c r="M3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -528,18 +517,15 @@
         <v>-20919.53329999999</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
-      </c>
-      <c r="I4" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I4" t="inlineStr"/>
       <c r="J4" t="inlineStr"/>
       <c r="K4" t="inlineStr"/>
-      <c r="L4" t="inlineStr"/>
-      <c r="M4" t="n">
-        <v>1</v>
-      </c>
-      <c r="N4" t="inlineStr"/>
+      <c r="L4" t="n">
+        <v>1</v>
+      </c>
+      <c r="M4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -566,16 +552,13 @@
       <c r="H5" t="n">
         <v>0</v>
       </c>
-      <c r="I5" t="n">
-        <v>1</v>
-      </c>
+      <c r="I5" t="inlineStr"/>
       <c r="J5" t="inlineStr"/>
       <c r="K5" t="inlineStr"/>
-      <c r="L5" t="inlineStr"/>
-      <c r="M5" t="n">
-        <v>1</v>
-      </c>
-      <c r="N5" t="inlineStr"/>
+      <c r="L5" t="n">
+        <v>1</v>
+      </c>
+      <c r="M5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -602,16 +585,13 @@
       <c r="H6" t="n">
         <v>0</v>
       </c>
-      <c r="I6" t="n">
-        <v>1</v>
-      </c>
+      <c r="I6" t="inlineStr"/>
       <c r="J6" t="inlineStr"/>
       <c r="K6" t="inlineStr"/>
-      <c r="L6" t="inlineStr"/>
-      <c r="M6" t="n">
-        <v>1</v>
-      </c>
-      <c r="N6" t="inlineStr"/>
+      <c r="L6" t="n">
+        <v>1</v>
+      </c>
+      <c r="M6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -638,16 +618,13 @@
       <c r="H7" t="n">
         <v>0</v>
       </c>
-      <c r="I7" t="n">
-        <v>1</v>
-      </c>
+      <c r="I7" t="inlineStr"/>
       <c r="J7" t="inlineStr"/>
       <c r="K7" t="inlineStr"/>
-      <c r="L7" t="inlineStr"/>
-      <c r="M7" t="n">
-        <v>1</v>
-      </c>
-      <c r="N7" t="inlineStr"/>
+      <c r="L7" t="n">
+        <v>1</v>
+      </c>
+      <c r="M7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -672,18 +649,15 @@
         <v>-25903.28759999999</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
-      </c>
-      <c r="I8" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I8" t="inlineStr"/>
       <c r="J8" t="inlineStr"/>
       <c r="K8" t="inlineStr"/>
-      <c r="L8" t="inlineStr"/>
-      <c r="M8" t="n">
-        <v>1</v>
-      </c>
-      <c r="N8" t="inlineStr"/>
+      <c r="L8" t="n">
+        <v>1</v>
+      </c>
+      <c r="M8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
@@ -708,18 +682,15 @@
         <v>-25903.28759999999</v>
       </c>
       <c r="H9" t="n">
-        <v>0</v>
-      </c>
-      <c r="I9" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I9" t="inlineStr"/>
       <c r="J9" t="inlineStr"/>
       <c r="K9" t="inlineStr"/>
-      <c r="L9" t="inlineStr"/>
-      <c r="M9" t="n">
-        <v>1</v>
-      </c>
-      <c r="N9" t="inlineStr"/>
+      <c r="L9" t="n">
+        <v>1</v>
+      </c>
+      <c r="M9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
@@ -744,18 +715,15 @@
         <v>-26039.28759999999</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
-      </c>
-      <c r="I10" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I10" t="inlineStr"/>
       <c r="J10" t="inlineStr"/>
       <c r="K10" t="inlineStr"/>
-      <c r="L10" t="inlineStr"/>
-      <c r="M10" t="n">
-        <v>1</v>
-      </c>
-      <c r="N10" t="inlineStr"/>
+      <c r="L10" t="n">
+        <v>1</v>
+      </c>
+      <c r="M10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
@@ -780,18 +748,15 @@
         <v>-22254.13619999999</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
-      </c>
-      <c r="I11" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I11" t="inlineStr"/>
       <c r="J11" t="inlineStr"/>
       <c r="K11" t="inlineStr"/>
-      <c r="L11" t="inlineStr"/>
-      <c r="M11" t="n">
-        <v>1</v>
-      </c>
-      <c r="N11" t="inlineStr"/>
+      <c r="L11" t="n">
+        <v>1</v>
+      </c>
+      <c r="M11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
@@ -816,18 +781,15 @@
         <v>-23542.8461</v>
       </c>
       <c r="H12" t="n">
-        <v>0</v>
-      </c>
-      <c r="I12" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I12" t="inlineStr"/>
       <c r="J12" t="inlineStr"/>
       <c r="K12" t="inlineStr"/>
-      <c r="L12" t="inlineStr"/>
-      <c r="M12" t="n">
-        <v>1</v>
-      </c>
-      <c r="N12" t="inlineStr"/>
+      <c r="L12" t="n">
+        <v>1</v>
+      </c>
+      <c r="M12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
@@ -852,18 +814,15 @@
         <v>-23754.2064</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
-      </c>
-      <c r="I13" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I13" t="inlineStr"/>
       <c r="J13" t="inlineStr"/>
       <c r="K13" t="inlineStr"/>
-      <c r="L13" t="inlineStr"/>
-      <c r="M13" t="n">
-        <v>1</v>
-      </c>
-      <c r="N13" t="inlineStr"/>
+      <c r="L13" t="n">
+        <v>1</v>
+      </c>
+      <c r="M13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
@@ -890,16 +849,13 @@
       <c r="H14" t="n">
         <v>0</v>
       </c>
-      <c r="I14" t="n">
-        <v>0</v>
-      </c>
+      <c r="I14" t="inlineStr"/>
       <c r="J14" t="inlineStr"/>
       <c r="K14" t="inlineStr"/>
-      <c r="L14" t="inlineStr"/>
-      <c r="M14" t="n">
-        <v>1</v>
-      </c>
-      <c r="N14" t="inlineStr"/>
+      <c r="L14" t="n">
+        <v>1</v>
+      </c>
+      <c r="M14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
@@ -924,18 +880,15 @@
         <v>-24019.2064</v>
       </c>
       <c r="H15" t="n">
-        <v>0</v>
-      </c>
-      <c r="I15" t="n">
-        <v>1</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I15" t="inlineStr"/>
       <c r="J15" t="inlineStr"/>
       <c r="K15" t="inlineStr"/>
-      <c r="L15" t="inlineStr"/>
-      <c r="M15" t="n">
-        <v>1</v>
-      </c>
-      <c r="N15" t="inlineStr"/>
+      <c r="L15" t="n">
+        <v>1</v>
+      </c>
+      <c r="M15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
@@ -962,16 +915,13 @@
       <c r="H16" t="n">
         <v>0</v>
       </c>
-      <c r="I16" t="n">
-        <v>1</v>
-      </c>
+      <c r="I16" t="inlineStr"/>
       <c r="J16" t="inlineStr"/>
       <c r="K16" t="inlineStr"/>
-      <c r="L16" t="inlineStr"/>
-      <c r="M16" t="n">
-        <v>1</v>
-      </c>
-      <c r="N16" t="inlineStr"/>
+      <c r="L16" t="n">
+        <v>1</v>
+      </c>
+      <c r="M16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
@@ -998,16 +948,13 @@
       <c r="H17" t="n">
         <v>0</v>
       </c>
-      <c r="I17" t="n">
-        <v>0</v>
-      </c>
+      <c r="I17" t="inlineStr"/>
       <c r="J17" t="inlineStr"/>
       <c r="K17" t="inlineStr"/>
-      <c r="L17" t="inlineStr"/>
-      <c r="M17" t="n">
-        <v>1</v>
-      </c>
-      <c r="N17" t="inlineStr"/>
+      <c r="L17" t="n">
+        <v>1</v>
+      </c>
+      <c r="M17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
@@ -1032,18 +979,15 @@
         <v>-24019.2064</v>
       </c>
       <c r="H18" t="n">
-        <v>0</v>
-      </c>
-      <c r="I18" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I18" t="inlineStr"/>
       <c r="J18" t="inlineStr"/>
       <c r="K18" t="inlineStr"/>
-      <c r="L18" t="inlineStr"/>
-      <c r="M18" t="n">
-        <v>1</v>
-      </c>
-      <c r="N18" t="inlineStr"/>
+      <c r="L18" t="n">
+        <v>1</v>
+      </c>
+      <c r="M18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
@@ -1068,18 +1012,15 @@
         <v>-33207.73409999999</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
-      </c>
-      <c r="I19" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I19" t="inlineStr"/>
       <c r="J19" t="inlineStr"/>
       <c r="K19" t="inlineStr"/>
-      <c r="L19" t="inlineStr"/>
-      <c r="M19" t="n">
-        <v>1</v>
-      </c>
-      <c r="N19" t="inlineStr"/>
+      <c r="L19" t="n">
+        <v>1</v>
+      </c>
+      <c r="M19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
@@ -1106,16 +1047,13 @@
       <c r="H20" t="n">
         <v>0</v>
       </c>
-      <c r="I20" t="n">
-        <v>0</v>
-      </c>
+      <c r="I20" t="inlineStr"/>
       <c r="J20" t="inlineStr"/>
       <c r="K20" t="inlineStr"/>
-      <c r="L20" t="inlineStr"/>
-      <c r="M20" t="n">
-        <v>1</v>
-      </c>
-      <c r="N20" t="inlineStr"/>
+      <c r="L20" t="n">
+        <v>1</v>
+      </c>
+      <c r="M20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
@@ -1140,18 +1078,15 @@
         <v>-35427.33839999999</v>
       </c>
       <c r="H21" t="n">
-        <v>0</v>
-      </c>
-      <c r="I21" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I21" t="inlineStr"/>
       <c r="J21" t="inlineStr"/>
       <c r="K21" t="inlineStr"/>
-      <c r="L21" t="inlineStr"/>
-      <c r="M21" t="n">
-        <v>1</v>
-      </c>
-      <c r="N21" t="inlineStr"/>
+      <c r="L21" t="n">
+        <v>1</v>
+      </c>
+      <c r="M21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
@@ -1178,16 +1113,13 @@
       <c r="H22" t="n">
         <v>0</v>
       </c>
-      <c r="I22" t="n">
-        <v>0</v>
-      </c>
+      <c r="I22" t="inlineStr"/>
       <c r="J22" t="inlineStr"/>
       <c r="K22" t="inlineStr"/>
-      <c r="L22" t="inlineStr"/>
-      <c r="M22" t="n">
-        <v>1</v>
-      </c>
-      <c r="N22" t="inlineStr"/>
+      <c r="L22" t="n">
+        <v>1</v>
+      </c>
+      <c r="M22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
@@ -1212,18 +1144,15 @@
         <v>-36040.2899</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
-      </c>
-      <c r="I23" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I23" t="inlineStr"/>
       <c r="J23" t="inlineStr"/>
       <c r="K23" t="inlineStr"/>
-      <c r="L23" t="inlineStr"/>
-      <c r="M23" t="n">
-        <v>1</v>
-      </c>
-      <c r="N23" t="inlineStr"/>
+      <c r="L23" t="n">
+        <v>1</v>
+      </c>
+      <c r="M23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
@@ -1250,16 +1179,13 @@
       <c r="H24" t="n">
         <v>0</v>
       </c>
-      <c r="I24" t="n">
-        <v>0</v>
-      </c>
+      <c r="I24" t="inlineStr"/>
       <c r="J24" t="inlineStr"/>
       <c r="K24" t="inlineStr"/>
-      <c r="L24" t="inlineStr"/>
-      <c r="M24" t="n">
-        <v>1</v>
-      </c>
-      <c r="N24" t="inlineStr"/>
+      <c r="L24" t="n">
+        <v>1</v>
+      </c>
+      <c r="M24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
@@ -1286,16 +1212,13 @@
       <c r="H25" t="n">
         <v>0</v>
       </c>
-      <c r="I25" t="n">
-        <v>0</v>
-      </c>
+      <c r="I25" t="inlineStr"/>
       <c r="J25" t="inlineStr"/>
       <c r="K25" t="inlineStr"/>
-      <c r="L25" t="inlineStr"/>
-      <c r="M25" t="n">
-        <v>1</v>
-      </c>
-      <c r="N25" t="inlineStr"/>
+      <c r="L25" t="n">
+        <v>1</v>
+      </c>
+      <c r="M25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
@@ -1320,18 +1243,15 @@
         <v>-32921.0335</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
-      </c>
-      <c r="I26" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I26" t="inlineStr"/>
       <c r="J26" t="inlineStr"/>
       <c r="K26" t="inlineStr"/>
-      <c r="L26" t="inlineStr"/>
-      <c r="M26" t="n">
-        <v>1</v>
-      </c>
-      <c r="N26" t="inlineStr"/>
+      <c r="L26" t="n">
+        <v>1</v>
+      </c>
+      <c r="M26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
@@ -1356,18 +1276,15 @@
         <v>-32921.0335</v>
       </c>
       <c r="H27" t="n">
-        <v>0</v>
-      </c>
-      <c r="I27" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I27" t="inlineStr"/>
       <c r="J27" t="inlineStr"/>
       <c r="K27" t="inlineStr"/>
-      <c r="L27" t="inlineStr"/>
-      <c r="M27" t="n">
-        <v>1</v>
-      </c>
-      <c r="N27" t="inlineStr"/>
+      <c r="L27" t="n">
+        <v>1</v>
+      </c>
+      <c r="M27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
@@ -1394,16 +1311,13 @@
       <c r="H28" t="n">
         <v>0</v>
       </c>
-      <c r="I28" t="n">
-        <v>0</v>
-      </c>
+      <c r="I28" t="inlineStr"/>
       <c r="J28" t="inlineStr"/>
       <c r="K28" t="inlineStr"/>
-      <c r="L28" t="inlineStr"/>
-      <c r="M28" t="n">
-        <v>1</v>
-      </c>
-      <c r="N28" t="inlineStr"/>
+      <c r="L28" t="n">
+        <v>1</v>
+      </c>
+      <c r="M28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
@@ -1428,18 +1342,15 @@
         <v>-33049.1951</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
-      </c>
-      <c r="I29" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I29" t="inlineStr"/>
       <c r="J29" t="inlineStr"/>
       <c r="K29" t="inlineStr"/>
-      <c r="L29" t="inlineStr"/>
-      <c r="M29" t="n">
-        <v>1</v>
-      </c>
-      <c r="N29" t="inlineStr"/>
+      <c r="L29" t="n">
+        <v>1</v>
+      </c>
+      <c r="M29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
@@ -1464,18 +1375,15 @@
         <v>-37519.729</v>
       </c>
       <c r="H30" t="n">
-        <v>0</v>
-      </c>
-      <c r="I30" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I30" t="inlineStr"/>
       <c r="J30" t="inlineStr"/>
       <c r="K30" t="inlineStr"/>
-      <c r="L30" t="inlineStr"/>
-      <c r="M30" t="n">
-        <v>1</v>
-      </c>
-      <c r="N30" t="inlineStr"/>
+      <c r="L30" t="n">
+        <v>1</v>
+      </c>
+      <c r="M30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
@@ -1500,18 +1408,15 @@
         <v>-37519.729</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
-      </c>
-      <c r="I31" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I31" t="inlineStr"/>
       <c r="J31" t="inlineStr"/>
       <c r="K31" t="inlineStr"/>
-      <c r="L31" t="inlineStr"/>
-      <c r="M31" t="n">
-        <v>1</v>
-      </c>
-      <c r="N31" t="inlineStr"/>
+      <c r="L31" t="n">
+        <v>1</v>
+      </c>
+      <c r="M31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
@@ -1538,16 +1443,13 @@
       <c r="H32" t="n">
         <v>0</v>
       </c>
-      <c r="I32" t="n">
-        <v>0</v>
-      </c>
+      <c r="I32" t="inlineStr"/>
       <c r="J32" t="inlineStr"/>
       <c r="K32" t="inlineStr"/>
-      <c r="L32" t="inlineStr"/>
-      <c r="M32" t="n">
-        <v>1</v>
-      </c>
-      <c r="N32" t="inlineStr"/>
+      <c r="L32" t="n">
+        <v>1</v>
+      </c>
+      <c r="M32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
@@ -1574,16 +1476,13 @@
       <c r="H33" t="n">
         <v>0</v>
       </c>
-      <c r="I33" t="n">
-        <v>0</v>
-      </c>
+      <c r="I33" t="inlineStr"/>
       <c r="J33" t="inlineStr"/>
       <c r="K33" t="inlineStr"/>
-      <c r="L33" t="inlineStr"/>
-      <c r="M33" t="n">
-        <v>1</v>
-      </c>
-      <c r="N33" t="inlineStr"/>
+      <c r="L33" t="n">
+        <v>1</v>
+      </c>
+      <c r="M33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
@@ -1610,16 +1509,13 @@
       <c r="H34" t="n">
         <v>0</v>
       </c>
-      <c r="I34" t="n">
-        <v>0</v>
-      </c>
+      <c r="I34" t="inlineStr"/>
       <c r="J34" t="inlineStr"/>
       <c r="K34" t="inlineStr"/>
-      <c r="L34" t="inlineStr"/>
-      <c r="M34" t="n">
-        <v>1</v>
-      </c>
-      <c r="N34" t="inlineStr"/>
+      <c r="L34" t="n">
+        <v>1</v>
+      </c>
+      <c r="M34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
@@ -1644,18 +1540,15 @@
         <v>-36023.6274</v>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
-      </c>
-      <c r="I35" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I35" t="inlineStr"/>
       <c r="J35" t="inlineStr"/>
       <c r="K35" t="inlineStr"/>
-      <c r="L35" t="inlineStr"/>
-      <c r="M35" t="n">
-        <v>1</v>
-      </c>
-      <c r="N35" t="inlineStr"/>
+      <c r="L35" t="n">
+        <v>1</v>
+      </c>
+      <c r="M35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
@@ -1682,16 +1575,13 @@
       <c r="H36" t="n">
         <v>0</v>
       </c>
-      <c r="I36" t="n">
-        <v>0</v>
-      </c>
+      <c r="I36" t="inlineStr"/>
       <c r="J36" t="inlineStr"/>
       <c r="K36" t="inlineStr"/>
-      <c r="L36" t="inlineStr"/>
-      <c r="M36" t="n">
-        <v>1</v>
-      </c>
-      <c r="N36" t="inlineStr"/>
+      <c r="L36" t="n">
+        <v>1</v>
+      </c>
+      <c r="M36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
@@ -1718,16 +1608,13 @@
       <c r="H37" t="n">
         <v>0</v>
       </c>
-      <c r="I37" t="n">
-        <v>0</v>
-      </c>
+      <c r="I37" t="inlineStr"/>
       <c r="J37" t="inlineStr"/>
       <c r="K37" t="inlineStr"/>
-      <c r="L37" t="inlineStr"/>
-      <c r="M37" t="n">
-        <v>1</v>
-      </c>
-      <c r="N37" t="inlineStr"/>
+      <c r="L37" t="n">
+        <v>1</v>
+      </c>
+      <c r="M37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
@@ -1754,16 +1641,13 @@
       <c r="H38" t="n">
         <v>0</v>
       </c>
-      <c r="I38" t="n">
-        <v>0</v>
-      </c>
+      <c r="I38" t="inlineStr"/>
       <c r="J38" t="inlineStr"/>
       <c r="K38" t="inlineStr"/>
-      <c r="L38" t="inlineStr"/>
-      <c r="M38" t="n">
-        <v>1</v>
-      </c>
-      <c r="N38" t="inlineStr"/>
+      <c r="L38" t="n">
+        <v>1</v>
+      </c>
+      <c r="M38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
@@ -1788,18 +1672,15 @@
         <v>-36645.4495</v>
       </c>
       <c r="H39" t="n">
-        <v>0</v>
-      </c>
-      <c r="I39" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I39" t="inlineStr"/>
       <c r="J39" t="inlineStr"/>
       <c r="K39" t="inlineStr"/>
-      <c r="L39" t="inlineStr"/>
-      <c r="M39" t="n">
-        <v>1</v>
-      </c>
-      <c r="N39" t="inlineStr"/>
+      <c r="L39" t="n">
+        <v>1</v>
+      </c>
+      <c r="M39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
@@ -1824,18 +1705,15 @@
         <v>-32563.4295</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
-      </c>
-      <c r="I40" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I40" t="inlineStr"/>
       <c r="J40" t="inlineStr"/>
       <c r="K40" t="inlineStr"/>
-      <c r="L40" t="inlineStr"/>
-      <c r="M40" t="n">
-        <v>1</v>
-      </c>
-      <c r="N40" t="inlineStr"/>
+      <c r="L40" t="n">
+        <v>1</v>
+      </c>
+      <c r="M40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
@@ -1860,18 +1738,15 @@
         <v>-29621.0703</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
-      </c>
-      <c r="I41" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I41" t="inlineStr"/>
       <c r="J41" t="inlineStr"/>
       <c r="K41" t="inlineStr"/>
-      <c r="L41" t="inlineStr"/>
-      <c r="M41" t="n">
-        <v>1</v>
-      </c>
-      <c r="N41" t="inlineStr"/>
+      <c r="L41" t="n">
+        <v>1</v>
+      </c>
+      <c r="M41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
@@ -1896,18 +1771,15 @@
         <v>-28730.3911</v>
       </c>
       <c r="H42" t="n">
-        <v>0</v>
-      </c>
-      <c r="I42" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I42" t="inlineStr"/>
       <c r="J42" t="inlineStr"/>
       <c r="K42" t="inlineStr"/>
-      <c r="L42" t="inlineStr"/>
-      <c r="M42" t="n">
-        <v>1</v>
-      </c>
-      <c r="N42" t="inlineStr"/>
+      <c r="L42" t="n">
+        <v>1</v>
+      </c>
+      <c r="M42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
@@ -1932,18 +1804,15 @@
         <v>-28811.625</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
-      </c>
-      <c r="I43" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I43" t="inlineStr"/>
       <c r="J43" t="inlineStr"/>
       <c r="K43" t="inlineStr"/>
-      <c r="L43" t="inlineStr"/>
-      <c r="M43" t="n">
-        <v>1</v>
-      </c>
-      <c r="N43" t="inlineStr"/>
+      <c r="L43" t="n">
+        <v>1</v>
+      </c>
+      <c r="M43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
@@ -1970,16 +1839,13 @@
       <c r="H44" t="n">
         <v>0</v>
       </c>
-      <c r="I44" t="n">
-        <v>0</v>
-      </c>
+      <c r="I44" t="inlineStr"/>
       <c r="J44" t="inlineStr"/>
       <c r="K44" t="inlineStr"/>
-      <c r="L44" t="inlineStr"/>
-      <c r="M44" t="n">
-        <v>1</v>
-      </c>
-      <c r="N44" t="inlineStr"/>
+      <c r="L44" t="n">
+        <v>1</v>
+      </c>
+      <c r="M44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
@@ -2006,16 +1872,13 @@
       <c r="H45" t="n">
         <v>0</v>
       </c>
-      <c r="I45" t="n">
-        <v>0</v>
-      </c>
+      <c r="I45" t="inlineStr"/>
       <c r="J45" t="inlineStr"/>
       <c r="K45" t="inlineStr"/>
-      <c r="L45" t="inlineStr"/>
-      <c r="M45" t="n">
-        <v>1</v>
-      </c>
-      <c r="N45" t="inlineStr"/>
+      <c r="L45" t="n">
+        <v>1</v>
+      </c>
+      <c r="M45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
@@ -2042,16 +1905,13 @@
       <c r="H46" t="n">
         <v>0</v>
       </c>
-      <c r="I46" t="n">
-        <v>0</v>
-      </c>
+      <c r="I46" t="inlineStr"/>
       <c r="J46" t="inlineStr"/>
       <c r="K46" t="inlineStr"/>
-      <c r="L46" t="inlineStr"/>
-      <c r="M46" t="n">
-        <v>1</v>
-      </c>
-      <c r="N46" t="inlineStr"/>
+      <c r="L46" t="n">
+        <v>1</v>
+      </c>
+      <c r="M46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
@@ -2076,18 +1936,15 @@
         <v>-29687.2909</v>
       </c>
       <c r="H47" t="n">
-        <v>0</v>
-      </c>
-      <c r="I47" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I47" t="inlineStr"/>
       <c r="J47" t="inlineStr"/>
       <c r="K47" t="inlineStr"/>
-      <c r="L47" t="inlineStr"/>
-      <c r="M47" t="n">
-        <v>1</v>
-      </c>
-      <c r="N47" t="inlineStr"/>
+      <c r="L47" t="n">
+        <v>1</v>
+      </c>
+      <c r="M47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
@@ -2112,18 +1969,15 @@
         <v>-29687.2909</v>
       </c>
       <c r="H48" t="n">
-        <v>0</v>
-      </c>
-      <c r="I48" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I48" t="inlineStr"/>
       <c r="J48" t="inlineStr"/>
       <c r="K48" t="inlineStr"/>
-      <c r="L48" t="inlineStr"/>
-      <c r="M48" t="n">
-        <v>1</v>
-      </c>
-      <c r="N48" t="inlineStr"/>
+      <c r="L48" t="n">
+        <v>1</v>
+      </c>
+      <c r="M48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
@@ -2148,18 +2002,15 @@
         <v>-29687.2909</v>
       </c>
       <c r="H49" t="n">
-        <v>0</v>
-      </c>
-      <c r="I49" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I49" t="inlineStr"/>
       <c r="J49" t="inlineStr"/>
       <c r="K49" t="inlineStr"/>
-      <c r="L49" t="inlineStr"/>
-      <c r="M49" t="n">
-        <v>1</v>
-      </c>
-      <c r="N49" t="inlineStr"/>
+      <c r="L49" t="n">
+        <v>1</v>
+      </c>
+      <c r="M49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
@@ -2186,16 +2037,13 @@
       <c r="H50" t="n">
         <v>0</v>
       </c>
-      <c r="I50" t="n">
-        <v>0</v>
-      </c>
+      <c r="I50" t="inlineStr"/>
       <c r="J50" t="inlineStr"/>
       <c r="K50" t="inlineStr"/>
-      <c r="L50" t="inlineStr"/>
-      <c r="M50" t="n">
-        <v>1</v>
-      </c>
-      <c r="N50" t="inlineStr"/>
+      <c r="L50" t="n">
+        <v>1</v>
+      </c>
+      <c r="M50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
@@ -2222,16 +2070,13 @@
       <c r="H51" t="n">
         <v>0</v>
       </c>
-      <c r="I51" t="n">
-        <v>0</v>
-      </c>
+      <c r="I51" t="inlineStr"/>
       <c r="J51" t="inlineStr"/>
       <c r="K51" t="inlineStr"/>
-      <c r="L51" t="inlineStr"/>
-      <c r="M51" t="n">
-        <v>1</v>
-      </c>
-      <c r="N51" t="inlineStr"/>
+      <c r="L51" t="n">
+        <v>1</v>
+      </c>
+      <c r="M51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
@@ -2258,16 +2103,13 @@
       <c r="H52" t="n">
         <v>0</v>
       </c>
-      <c r="I52" t="n">
-        <v>0</v>
-      </c>
+      <c r="I52" t="inlineStr"/>
       <c r="J52" t="inlineStr"/>
       <c r="K52" t="inlineStr"/>
-      <c r="L52" t="inlineStr"/>
-      <c r="M52" t="n">
-        <v>1</v>
-      </c>
-      <c r="N52" t="inlineStr"/>
+      <c r="L52" t="n">
+        <v>1</v>
+      </c>
+      <c r="M52" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
@@ -2294,16 +2136,13 @@
       <c r="H53" t="n">
         <v>0</v>
       </c>
-      <c r="I53" t="n">
-        <v>0</v>
-      </c>
+      <c r="I53" t="inlineStr"/>
       <c r="J53" t="inlineStr"/>
       <c r="K53" t="inlineStr"/>
-      <c r="L53" t="inlineStr"/>
-      <c r="M53" t="n">
-        <v>1</v>
-      </c>
-      <c r="N53" t="inlineStr"/>
+      <c r="L53" t="n">
+        <v>1</v>
+      </c>
+      <c r="M53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
@@ -2330,16 +2169,13 @@
       <c r="H54" t="n">
         <v>0</v>
       </c>
-      <c r="I54" t="n">
-        <v>0</v>
-      </c>
+      <c r="I54" t="inlineStr"/>
       <c r="J54" t="inlineStr"/>
       <c r="K54" t="inlineStr"/>
-      <c r="L54" t="inlineStr"/>
-      <c r="M54" t="n">
-        <v>1</v>
-      </c>
-      <c r="N54" t="inlineStr"/>
+      <c r="L54" t="n">
+        <v>1</v>
+      </c>
+      <c r="M54" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
@@ -2366,16 +2202,13 @@
       <c r="H55" t="n">
         <v>0</v>
       </c>
-      <c r="I55" t="n">
-        <v>0</v>
-      </c>
+      <c r="I55" t="inlineStr"/>
       <c r="J55" t="inlineStr"/>
       <c r="K55" t="inlineStr"/>
-      <c r="L55" t="inlineStr"/>
-      <c r="M55" t="n">
-        <v>1</v>
-      </c>
-      <c r="N55" t="inlineStr"/>
+      <c r="L55" t="n">
+        <v>1</v>
+      </c>
+      <c r="M55" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
@@ -2402,16 +2235,13 @@
       <c r="H56" t="n">
         <v>0</v>
       </c>
-      <c r="I56" t="n">
-        <v>0</v>
-      </c>
+      <c r="I56" t="inlineStr"/>
       <c r="J56" t="inlineStr"/>
       <c r="K56" t="inlineStr"/>
-      <c r="L56" t="inlineStr"/>
-      <c r="M56" t="n">
-        <v>1</v>
-      </c>
-      <c r="N56" t="inlineStr"/>
+      <c r="L56" t="n">
+        <v>1</v>
+      </c>
+      <c r="M56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
@@ -2438,16 +2268,13 @@
       <c r="H57" t="n">
         <v>0</v>
       </c>
-      <c r="I57" t="n">
-        <v>0</v>
-      </c>
+      <c r="I57" t="inlineStr"/>
       <c r="J57" t="inlineStr"/>
       <c r="K57" t="inlineStr"/>
-      <c r="L57" t="inlineStr"/>
-      <c r="M57" t="n">
-        <v>1</v>
-      </c>
-      <c r="N57" t="inlineStr"/>
+      <c r="L57" t="n">
+        <v>1</v>
+      </c>
+      <c r="M57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
@@ -2474,16 +2301,13 @@
       <c r="H58" t="n">
         <v>0</v>
       </c>
-      <c r="I58" t="n">
-        <v>0</v>
-      </c>
+      <c r="I58" t="inlineStr"/>
       <c r="J58" t="inlineStr"/>
       <c r="K58" t="inlineStr"/>
-      <c r="L58" t="inlineStr"/>
-      <c r="M58" t="n">
-        <v>1</v>
-      </c>
-      <c r="N58" t="inlineStr"/>
+      <c r="L58" t="n">
+        <v>1</v>
+      </c>
+      <c r="M58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
@@ -2510,16 +2334,13 @@
       <c r="H59" t="n">
         <v>0</v>
       </c>
-      <c r="I59" t="n">
-        <v>0</v>
-      </c>
+      <c r="I59" t="inlineStr"/>
       <c r="J59" t="inlineStr"/>
       <c r="K59" t="inlineStr"/>
-      <c r="L59" t="inlineStr"/>
-      <c r="M59" t="n">
-        <v>1</v>
-      </c>
-      <c r="N59" t="inlineStr"/>
+      <c r="L59" t="n">
+        <v>1</v>
+      </c>
+      <c r="M59" t="inlineStr"/>
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
@@ -2546,16 +2367,13 @@
       <c r="H60" t="n">
         <v>0</v>
       </c>
-      <c r="I60" t="n">
-        <v>0</v>
-      </c>
+      <c r="I60" t="inlineStr"/>
       <c r="J60" t="inlineStr"/>
       <c r="K60" t="inlineStr"/>
-      <c r="L60" t="inlineStr"/>
-      <c r="M60" t="n">
-        <v>1</v>
-      </c>
-      <c r="N60" t="inlineStr"/>
+      <c r="L60" t="n">
+        <v>1</v>
+      </c>
+      <c r="M60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
@@ -2582,16 +2400,13 @@
       <c r="H61" t="n">
         <v>0</v>
       </c>
-      <c r="I61" t="n">
-        <v>0</v>
-      </c>
+      <c r="I61" t="inlineStr"/>
       <c r="J61" t="inlineStr"/>
       <c r="K61" t="inlineStr"/>
-      <c r="L61" t="inlineStr"/>
-      <c r="M61" t="n">
-        <v>1</v>
-      </c>
-      <c r="N61" t="inlineStr"/>
+      <c r="L61" t="n">
+        <v>1</v>
+      </c>
+      <c r="M61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
@@ -2618,16 +2433,13 @@
       <c r="H62" t="n">
         <v>0</v>
       </c>
-      <c r="I62" t="n">
-        <v>0</v>
-      </c>
+      <c r="I62" t="inlineStr"/>
       <c r="J62" t="inlineStr"/>
       <c r="K62" t="inlineStr"/>
-      <c r="L62" t="inlineStr"/>
-      <c r="M62" t="n">
-        <v>1</v>
-      </c>
-      <c r="N62" t="inlineStr"/>
+      <c r="L62" t="n">
+        <v>1</v>
+      </c>
+      <c r="M62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
@@ -2654,16 +2466,13 @@
       <c r="H63" t="n">
         <v>0</v>
       </c>
-      <c r="I63" t="n">
-        <v>0</v>
-      </c>
+      <c r="I63" t="inlineStr"/>
       <c r="J63" t="inlineStr"/>
       <c r="K63" t="inlineStr"/>
-      <c r="L63" t="inlineStr"/>
-      <c r="M63" t="n">
-        <v>1</v>
-      </c>
-      <c r="N63" t="inlineStr"/>
+      <c r="L63" t="n">
+        <v>1</v>
+      </c>
+      <c r="M63" t="inlineStr"/>
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
@@ -2690,16 +2499,13 @@
       <c r="H64" t="n">
         <v>0</v>
       </c>
-      <c r="I64" t="n">
-        <v>0</v>
-      </c>
+      <c r="I64" t="inlineStr"/>
       <c r="J64" t="inlineStr"/>
       <c r="K64" t="inlineStr"/>
-      <c r="L64" t="inlineStr"/>
-      <c r="M64" t="n">
-        <v>1</v>
-      </c>
-      <c r="N64" t="inlineStr"/>
+      <c r="L64" t="n">
+        <v>1</v>
+      </c>
+      <c r="M64" t="inlineStr"/>
     </row>
     <row r="65">
       <c r="A65" s="1" t="n">
@@ -2726,16 +2532,13 @@
       <c r="H65" t="n">
         <v>0</v>
       </c>
-      <c r="I65" t="n">
-        <v>0</v>
-      </c>
+      <c r="I65" t="inlineStr"/>
       <c r="J65" t="inlineStr"/>
       <c r="K65" t="inlineStr"/>
-      <c r="L65" t="inlineStr"/>
-      <c r="M65" t="n">
-        <v>1</v>
-      </c>
-      <c r="N65" t="inlineStr"/>
+      <c r="L65" t="n">
+        <v>1</v>
+      </c>
+      <c r="M65" t="inlineStr"/>
     </row>
     <row r="66">
       <c r="A66" s="1" t="n">
@@ -2762,16 +2565,13 @@
       <c r="H66" t="n">
         <v>0</v>
       </c>
-      <c r="I66" t="n">
-        <v>0</v>
-      </c>
+      <c r="I66" t="inlineStr"/>
       <c r="J66" t="inlineStr"/>
       <c r="K66" t="inlineStr"/>
-      <c r="L66" t="inlineStr"/>
-      <c r="M66" t="n">
-        <v>1</v>
-      </c>
-      <c r="N66" t="inlineStr"/>
+      <c r="L66" t="n">
+        <v>1</v>
+      </c>
+      <c r="M66" t="inlineStr"/>
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
@@ -2798,16 +2598,13 @@
       <c r="H67" t="n">
         <v>0</v>
       </c>
-      <c r="I67" t="n">
-        <v>0</v>
-      </c>
+      <c r="I67" t="inlineStr"/>
       <c r="J67" t="inlineStr"/>
       <c r="K67" t="inlineStr"/>
-      <c r="L67" t="inlineStr"/>
-      <c r="M67" t="n">
-        <v>1</v>
-      </c>
-      <c r="N67" t="inlineStr"/>
+      <c r="L67" t="n">
+        <v>1</v>
+      </c>
+      <c r="M67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
@@ -2834,16 +2631,13 @@
       <c r="H68" t="n">
         <v>0</v>
       </c>
-      <c r="I68" t="n">
-        <v>0</v>
-      </c>
+      <c r="I68" t="inlineStr"/>
       <c r="J68" t="inlineStr"/>
       <c r="K68" t="inlineStr"/>
-      <c r="L68" t="inlineStr"/>
-      <c r="M68" t="n">
-        <v>1</v>
-      </c>
-      <c r="N68" t="inlineStr"/>
+      <c r="L68" t="n">
+        <v>1</v>
+      </c>
+      <c r="M68" t="inlineStr"/>
     </row>
     <row r="69">
       <c r="A69" s="1" t="n">
@@ -2870,16 +2664,13 @@
       <c r="H69" t="n">
         <v>0</v>
       </c>
-      <c r="I69" t="n">
-        <v>0</v>
-      </c>
+      <c r="I69" t="inlineStr"/>
       <c r="J69" t="inlineStr"/>
       <c r="K69" t="inlineStr"/>
-      <c r="L69" t="inlineStr"/>
-      <c r="M69" t="n">
-        <v>1</v>
-      </c>
-      <c r="N69" t="inlineStr"/>
+      <c r="L69" t="n">
+        <v>1</v>
+      </c>
+      <c r="M69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
@@ -2906,16 +2697,13 @@
       <c r="H70" t="n">
         <v>0</v>
       </c>
-      <c r="I70" t="n">
-        <v>0</v>
-      </c>
+      <c r="I70" t="inlineStr"/>
       <c r="J70" t="inlineStr"/>
       <c r="K70" t="inlineStr"/>
-      <c r="L70" t="inlineStr"/>
-      <c r="M70" t="n">
-        <v>1</v>
-      </c>
-      <c r="N70" t="inlineStr"/>
+      <c r="L70" t="n">
+        <v>1</v>
+      </c>
+      <c r="M70" t="inlineStr"/>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
@@ -2942,16 +2730,13 @@
       <c r="H71" t="n">
         <v>0</v>
       </c>
-      <c r="I71" t="n">
-        <v>0</v>
-      </c>
+      <c r="I71" t="inlineStr"/>
       <c r="J71" t="inlineStr"/>
       <c r="K71" t="inlineStr"/>
-      <c r="L71" t="inlineStr"/>
-      <c r="M71" t="n">
-        <v>1</v>
-      </c>
-      <c r="N71" t="inlineStr"/>
+      <c r="L71" t="n">
+        <v>1</v>
+      </c>
+      <c r="M71" t="inlineStr"/>
     </row>
     <row r="72">
       <c r="A72" s="1" t="n">
@@ -2978,16 +2763,13 @@
       <c r="H72" t="n">
         <v>0</v>
       </c>
-      <c r="I72" t="n">
-        <v>0</v>
-      </c>
+      <c r="I72" t="inlineStr"/>
       <c r="J72" t="inlineStr"/>
       <c r="K72" t="inlineStr"/>
-      <c r="L72" t="inlineStr"/>
-      <c r="M72" t="n">
-        <v>1</v>
-      </c>
-      <c r="N72" t="inlineStr"/>
+      <c r="L72" t="n">
+        <v>1</v>
+      </c>
+      <c r="M72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
@@ -3014,16 +2796,13 @@
       <c r="H73" t="n">
         <v>0</v>
       </c>
-      <c r="I73" t="n">
-        <v>0</v>
-      </c>
+      <c r="I73" t="inlineStr"/>
       <c r="J73" t="inlineStr"/>
       <c r="K73" t="inlineStr"/>
-      <c r="L73" t="inlineStr"/>
-      <c r="M73" t="n">
-        <v>1</v>
-      </c>
-      <c r="N73" t="inlineStr"/>
+      <c r="L73" t="n">
+        <v>1</v>
+      </c>
+      <c r="M73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
@@ -3050,16 +2829,13 @@
       <c r="H74" t="n">
         <v>0</v>
       </c>
-      <c r="I74" t="n">
-        <v>0</v>
-      </c>
+      <c r="I74" t="inlineStr"/>
       <c r="J74" t="inlineStr"/>
       <c r="K74" t="inlineStr"/>
-      <c r="L74" t="inlineStr"/>
-      <c r="M74" t="n">
-        <v>1</v>
-      </c>
-      <c r="N74" t="inlineStr"/>
+      <c r="L74" t="n">
+        <v>1</v>
+      </c>
+      <c r="M74" t="inlineStr"/>
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
@@ -3086,16 +2862,13 @@
       <c r="H75" t="n">
         <v>0</v>
       </c>
-      <c r="I75" t="n">
-        <v>0</v>
-      </c>
+      <c r="I75" t="inlineStr"/>
       <c r="J75" t="inlineStr"/>
       <c r="K75" t="inlineStr"/>
-      <c r="L75" t="inlineStr"/>
-      <c r="M75" t="n">
-        <v>1</v>
-      </c>
-      <c r="N75" t="inlineStr"/>
+      <c r="L75" t="n">
+        <v>1</v>
+      </c>
+      <c r="M75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
@@ -3122,16 +2895,13 @@
       <c r="H76" t="n">
         <v>0</v>
       </c>
-      <c r="I76" t="n">
-        <v>0</v>
-      </c>
+      <c r="I76" t="inlineStr"/>
       <c r="J76" t="inlineStr"/>
       <c r="K76" t="inlineStr"/>
-      <c r="L76" t="inlineStr"/>
-      <c r="M76" t="n">
-        <v>1</v>
-      </c>
-      <c r="N76" t="inlineStr"/>
+      <c r="L76" t="n">
+        <v>1</v>
+      </c>
+      <c r="M76" t="inlineStr"/>
     </row>
     <row r="77">
       <c r="A77" s="1" t="n">
@@ -3158,16 +2928,13 @@
       <c r="H77" t="n">
         <v>0</v>
       </c>
-      <c r="I77" t="n">
-        <v>0</v>
-      </c>
+      <c r="I77" t="inlineStr"/>
       <c r="J77" t="inlineStr"/>
       <c r="K77" t="inlineStr"/>
-      <c r="L77" t="inlineStr"/>
-      <c r="M77" t="n">
-        <v>1</v>
-      </c>
-      <c r="N77" t="inlineStr"/>
+      <c r="L77" t="n">
+        <v>1</v>
+      </c>
+      <c r="M77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
@@ -3194,16 +2961,13 @@
       <c r="H78" t="n">
         <v>0</v>
       </c>
-      <c r="I78" t="n">
-        <v>0</v>
-      </c>
+      <c r="I78" t="inlineStr"/>
       <c r="J78" t="inlineStr"/>
       <c r="K78" t="inlineStr"/>
-      <c r="L78" t="inlineStr"/>
-      <c r="M78" t="n">
-        <v>1</v>
-      </c>
-      <c r="N78" t="inlineStr"/>
+      <c r="L78" t="n">
+        <v>1</v>
+      </c>
+      <c r="M78" t="inlineStr"/>
     </row>
     <row r="79">
       <c r="A79" s="1" t="n">
@@ -3230,16 +2994,13 @@
       <c r="H79" t="n">
         <v>0</v>
       </c>
-      <c r="I79" t="n">
-        <v>0</v>
-      </c>
+      <c r="I79" t="inlineStr"/>
       <c r="J79" t="inlineStr"/>
       <c r="K79" t="inlineStr"/>
-      <c r="L79" t="inlineStr"/>
-      <c r="M79" t="n">
-        <v>1</v>
-      </c>
-      <c r="N79" t="inlineStr"/>
+      <c r="L79" t="n">
+        <v>1</v>
+      </c>
+      <c r="M79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
@@ -3266,16 +3027,13 @@
       <c r="H80" t="n">
         <v>0</v>
       </c>
-      <c r="I80" t="n">
-        <v>0</v>
-      </c>
+      <c r="I80" t="inlineStr"/>
       <c r="J80" t="inlineStr"/>
       <c r="K80" t="inlineStr"/>
-      <c r="L80" t="inlineStr"/>
-      <c r="M80" t="n">
-        <v>1</v>
-      </c>
-      <c r="N80" t="inlineStr"/>
+      <c r="L80" t="n">
+        <v>1</v>
+      </c>
+      <c r="M80" t="inlineStr"/>
     </row>
     <row r="81">
       <c r="A81" s="1" t="n">
@@ -3302,16 +3060,13 @@
       <c r="H81" t="n">
         <v>0</v>
       </c>
-      <c r="I81" t="n">
-        <v>0</v>
-      </c>
+      <c r="I81" t="inlineStr"/>
       <c r="J81" t="inlineStr"/>
       <c r="K81" t="inlineStr"/>
-      <c r="L81" t="inlineStr"/>
-      <c r="M81" t="n">
-        <v>1</v>
-      </c>
-      <c r="N81" t="inlineStr"/>
+      <c r="L81" t="n">
+        <v>1</v>
+      </c>
+      <c r="M81" t="inlineStr"/>
     </row>
     <row r="82">
       <c r="A82" s="1" t="n">
@@ -3338,16 +3093,13 @@
       <c r="H82" t="n">
         <v>0</v>
       </c>
-      <c r="I82" t="n">
-        <v>0</v>
-      </c>
+      <c r="I82" t="inlineStr"/>
       <c r="J82" t="inlineStr"/>
       <c r="K82" t="inlineStr"/>
-      <c r="L82" t="inlineStr"/>
-      <c r="M82" t="n">
-        <v>1</v>
-      </c>
-      <c r="N82" t="inlineStr"/>
+      <c r="L82" t="n">
+        <v>1</v>
+      </c>
+      <c r="M82" t="inlineStr"/>
     </row>
     <row r="83">
       <c r="A83" s="1" t="n">
@@ -3374,16 +3126,13 @@
       <c r="H83" t="n">
         <v>0</v>
       </c>
-      <c r="I83" t="n">
-        <v>0</v>
-      </c>
+      <c r="I83" t="inlineStr"/>
       <c r="J83" t="inlineStr"/>
       <c r="K83" t="inlineStr"/>
-      <c r="L83" t="inlineStr"/>
-      <c r="M83" t="n">
-        <v>1</v>
-      </c>
-      <c r="N83" t="inlineStr"/>
+      <c r="L83" t="n">
+        <v>1</v>
+      </c>
+      <c r="M83" t="inlineStr"/>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
@@ -3410,16 +3159,13 @@
       <c r="H84" t="n">
         <v>0</v>
       </c>
-      <c r="I84" t="n">
-        <v>0</v>
-      </c>
+      <c r="I84" t="inlineStr"/>
       <c r="J84" t="inlineStr"/>
       <c r="K84" t="inlineStr"/>
-      <c r="L84" t="inlineStr"/>
-      <c r="M84" t="n">
-        <v>1</v>
-      </c>
-      <c r="N84" t="inlineStr"/>
+      <c r="L84" t="n">
+        <v>1</v>
+      </c>
+      <c r="M84" t="inlineStr"/>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
@@ -3446,16 +3192,13 @@
       <c r="H85" t="n">
         <v>0</v>
       </c>
-      <c r="I85" t="n">
-        <v>0</v>
-      </c>
+      <c r="I85" t="inlineStr"/>
       <c r="J85" t="inlineStr"/>
       <c r="K85" t="inlineStr"/>
-      <c r="L85" t="inlineStr"/>
-      <c r="M85" t="n">
-        <v>1</v>
-      </c>
-      <c r="N85" t="inlineStr"/>
+      <c r="L85" t="n">
+        <v>1</v>
+      </c>
+      <c r="M85" t="inlineStr"/>
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
@@ -3482,16 +3225,13 @@
       <c r="H86" t="n">
         <v>0</v>
       </c>
-      <c r="I86" t="n">
-        <v>0</v>
-      </c>
+      <c r="I86" t="inlineStr"/>
       <c r="J86" t="inlineStr"/>
       <c r="K86" t="inlineStr"/>
-      <c r="L86" t="inlineStr"/>
-      <c r="M86" t="n">
-        <v>1</v>
-      </c>
-      <c r="N86" t="inlineStr"/>
+      <c r="L86" t="n">
+        <v>1</v>
+      </c>
+      <c r="M86" t="inlineStr"/>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
@@ -3518,16 +3258,13 @@
       <c r="H87" t="n">
         <v>0</v>
       </c>
-      <c r="I87" t="n">
-        <v>0</v>
-      </c>
+      <c r="I87" t="inlineStr"/>
       <c r="J87" t="inlineStr"/>
       <c r="K87" t="inlineStr"/>
-      <c r="L87" t="inlineStr"/>
-      <c r="M87" t="n">
-        <v>1</v>
-      </c>
-      <c r="N87" t="inlineStr"/>
+      <c r="L87" t="n">
+        <v>1</v>
+      </c>
+      <c r="M87" t="inlineStr"/>
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
@@ -3554,16 +3291,13 @@
       <c r="H88" t="n">
         <v>0</v>
       </c>
-      <c r="I88" t="n">
-        <v>0</v>
-      </c>
+      <c r="I88" t="inlineStr"/>
       <c r="J88" t="inlineStr"/>
       <c r="K88" t="inlineStr"/>
-      <c r="L88" t="inlineStr"/>
-      <c r="M88" t="n">
-        <v>1</v>
-      </c>
-      <c r="N88" t="inlineStr"/>
+      <c r="L88" t="n">
+        <v>1</v>
+      </c>
+      <c r="M88" t="inlineStr"/>
     </row>
     <row r="89">
       <c r="A89" s="1" t="n">
@@ -3590,16 +3324,13 @@
       <c r="H89" t="n">
         <v>0</v>
       </c>
-      <c r="I89" t="n">
-        <v>0</v>
-      </c>
+      <c r="I89" t="inlineStr"/>
       <c r="J89" t="inlineStr"/>
       <c r="K89" t="inlineStr"/>
-      <c r="L89" t="inlineStr"/>
-      <c r="M89" t="n">
-        <v>1</v>
-      </c>
-      <c r="N89" t="inlineStr"/>
+      <c r="L89" t="n">
+        <v>1</v>
+      </c>
+      <c r="M89" t="inlineStr"/>
     </row>
     <row r="90">
       <c r="A90" s="1" t="n">
@@ -3626,16 +3357,13 @@
       <c r="H90" t="n">
         <v>0</v>
       </c>
-      <c r="I90" t="n">
-        <v>0</v>
-      </c>
+      <c r="I90" t="inlineStr"/>
       <c r="J90" t="inlineStr"/>
       <c r="K90" t="inlineStr"/>
-      <c r="L90" t="inlineStr"/>
-      <c r="M90" t="n">
-        <v>1</v>
-      </c>
-      <c r="N90" t="inlineStr"/>
+      <c r="L90" t="n">
+        <v>1</v>
+      </c>
+      <c r="M90" t="inlineStr"/>
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
@@ -3662,16 +3390,13 @@
       <c r="H91" t="n">
         <v>0</v>
       </c>
-      <c r="I91" t="n">
-        <v>0</v>
-      </c>
+      <c r="I91" t="inlineStr"/>
       <c r="J91" t="inlineStr"/>
       <c r="K91" t="inlineStr"/>
-      <c r="L91" t="inlineStr"/>
-      <c r="M91" t="n">
-        <v>1</v>
-      </c>
-      <c r="N91" t="inlineStr"/>
+      <c r="L91" t="n">
+        <v>1</v>
+      </c>
+      <c r="M91" t="inlineStr"/>
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
@@ -3698,16 +3423,13 @@
       <c r="H92" t="n">
         <v>0</v>
       </c>
-      <c r="I92" t="n">
-        <v>0</v>
-      </c>
+      <c r="I92" t="inlineStr"/>
       <c r="J92" t="inlineStr"/>
       <c r="K92" t="inlineStr"/>
-      <c r="L92" t="inlineStr"/>
-      <c r="M92" t="n">
-        <v>1</v>
-      </c>
-      <c r="N92" t="inlineStr"/>
+      <c r="L92" t="n">
+        <v>1</v>
+      </c>
+      <c r="M92" t="inlineStr"/>
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
@@ -3734,16 +3456,13 @@
       <c r="H93" t="n">
         <v>0</v>
       </c>
-      <c r="I93" t="n">
-        <v>0</v>
-      </c>
+      <c r="I93" t="inlineStr"/>
       <c r="J93" t="inlineStr"/>
       <c r="K93" t="inlineStr"/>
-      <c r="L93" t="inlineStr"/>
-      <c r="M93" t="n">
-        <v>1</v>
-      </c>
-      <c r="N93" t="inlineStr"/>
+      <c r="L93" t="n">
+        <v>1</v>
+      </c>
+      <c r="M93" t="inlineStr"/>
     </row>
     <row r="94">
       <c r="A94" s="1" t="n">
@@ -3770,16 +3489,13 @@
       <c r="H94" t="n">
         <v>0</v>
       </c>
-      <c r="I94" t="n">
-        <v>0</v>
-      </c>
+      <c r="I94" t="inlineStr"/>
       <c r="J94" t="inlineStr"/>
       <c r="K94" t="inlineStr"/>
-      <c r="L94" t="inlineStr"/>
-      <c r="M94" t="n">
-        <v>1</v>
-      </c>
-      <c r="N94" t="inlineStr"/>
+      <c r="L94" t="n">
+        <v>1</v>
+      </c>
+      <c r="M94" t="inlineStr"/>
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
@@ -3806,16 +3522,13 @@
       <c r="H95" t="n">
         <v>0</v>
       </c>
-      <c r="I95" t="n">
-        <v>0</v>
-      </c>
+      <c r="I95" t="inlineStr"/>
       <c r="J95" t="inlineStr"/>
       <c r="K95" t="inlineStr"/>
-      <c r="L95" t="inlineStr"/>
-      <c r="M95" t="n">
-        <v>1</v>
-      </c>
-      <c r="N95" t="inlineStr"/>
+      <c r="L95" t="n">
+        <v>1</v>
+      </c>
+      <c r="M95" t="inlineStr"/>
     </row>
     <row r="96">
       <c r="A96" s="1" t="n">
@@ -3842,16 +3555,13 @@
       <c r="H96" t="n">
         <v>0</v>
       </c>
-      <c r="I96" t="n">
-        <v>0</v>
-      </c>
+      <c r="I96" t="inlineStr"/>
       <c r="J96" t="inlineStr"/>
       <c r="K96" t="inlineStr"/>
-      <c r="L96" t="inlineStr"/>
-      <c r="M96" t="n">
-        <v>1</v>
-      </c>
-      <c r="N96" t="inlineStr"/>
+      <c r="L96" t="n">
+        <v>1</v>
+      </c>
+      <c r="M96" t="inlineStr"/>
     </row>
     <row r="97">
       <c r="A97" s="1" t="n">
@@ -3878,16 +3588,13 @@
       <c r="H97" t="n">
         <v>0</v>
       </c>
-      <c r="I97" t="n">
-        <v>0</v>
-      </c>
+      <c r="I97" t="inlineStr"/>
       <c r="J97" t="inlineStr"/>
       <c r="K97" t="inlineStr"/>
-      <c r="L97" t="inlineStr"/>
-      <c r="M97" t="n">
-        <v>1</v>
-      </c>
-      <c r="N97" t="inlineStr"/>
+      <c r="L97" t="n">
+        <v>1</v>
+      </c>
+      <c r="M97" t="inlineStr"/>
     </row>
     <row r="98">
       <c r="A98" s="1" t="n">
@@ -3914,16 +3621,13 @@
       <c r="H98" t="n">
         <v>0</v>
       </c>
-      <c r="I98" t="n">
-        <v>0</v>
-      </c>
+      <c r="I98" t="inlineStr"/>
       <c r="J98" t="inlineStr"/>
       <c r="K98" t="inlineStr"/>
-      <c r="L98" t="inlineStr"/>
-      <c r="M98" t="n">
-        <v>1</v>
-      </c>
-      <c r="N98" t="inlineStr"/>
+      <c r="L98" t="n">
+        <v>1</v>
+      </c>
+      <c r="M98" t="inlineStr"/>
     </row>
     <row r="99">
       <c r="A99" s="1" t="n">
@@ -3950,16 +3654,13 @@
       <c r="H99" t="n">
         <v>0</v>
       </c>
-      <c r="I99" t="n">
-        <v>0</v>
-      </c>
+      <c r="I99" t="inlineStr"/>
       <c r="J99" t="inlineStr"/>
       <c r="K99" t="inlineStr"/>
-      <c r="L99" t="inlineStr"/>
-      <c r="M99" t="n">
-        <v>1</v>
-      </c>
-      <c r="N99" t="inlineStr"/>
+      <c r="L99" t="n">
+        <v>1</v>
+      </c>
+      <c r="M99" t="inlineStr"/>
     </row>
     <row r="100">
       <c r="A100" s="1" t="n">
@@ -3986,16 +3687,13 @@
       <c r="H100" t="n">
         <v>0</v>
       </c>
-      <c r="I100" t="n">
-        <v>0</v>
-      </c>
+      <c r="I100" t="inlineStr"/>
       <c r="J100" t="inlineStr"/>
       <c r="K100" t="inlineStr"/>
-      <c r="L100" t="inlineStr"/>
-      <c r="M100" t="n">
-        <v>1</v>
-      </c>
-      <c r="N100" t="inlineStr"/>
+      <c r="L100" t="n">
+        <v>1</v>
+      </c>
+      <c r="M100" t="inlineStr"/>
     </row>
     <row r="101">
       <c r="A101" s="1" t="n">
@@ -4022,16 +3720,13 @@
       <c r="H101" t="n">
         <v>0</v>
       </c>
-      <c r="I101" t="n">
-        <v>0</v>
-      </c>
+      <c r="I101" t="inlineStr"/>
       <c r="J101" t="inlineStr"/>
       <c r="K101" t="inlineStr"/>
-      <c r="L101" t="inlineStr"/>
-      <c r="M101" t="n">
-        <v>1</v>
-      </c>
-      <c r="N101" t="inlineStr"/>
+      <c r="L101" t="n">
+        <v>1</v>
+      </c>
+      <c r="M101" t="inlineStr"/>
     </row>
     <row r="102">
       <c r="A102" s="1" t="n">
@@ -4058,16 +3753,13 @@
       <c r="H102" t="n">
         <v>0</v>
       </c>
-      <c r="I102" t="n">
-        <v>0</v>
-      </c>
+      <c r="I102" t="inlineStr"/>
       <c r="J102" t="inlineStr"/>
       <c r="K102" t="inlineStr"/>
-      <c r="L102" t="inlineStr"/>
-      <c r="M102" t="n">
-        <v>1</v>
-      </c>
-      <c r="N102" t="inlineStr"/>
+      <c r="L102" t="n">
+        <v>1</v>
+      </c>
+      <c r="M102" t="inlineStr"/>
     </row>
     <row r="103">
       <c r="A103" s="1" t="n">
@@ -4094,16 +3786,13 @@
       <c r="H103" t="n">
         <v>0</v>
       </c>
-      <c r="I103" t="n">
-        <v>0</v>
-      </c>
+      <c r="I103" t="inlineStr"/>
       <c r="J103" t="inlineStr"/>
       <c r="K103" t="inlineStr"/>
-      <c r="L103" t="inlineStr"/>
-      <c r="M103" t="n">
-        <v>1</v>
-      </c>
-      <c r="N103" t="inlineStr"/>
+      <c r="L103" t="n">
+        <v>1</v>
+      </c>
+      <c r="M103" t="inlineStr"/>
     </row>
     <row r="104">
       <c r="A104" s="1" t="n">
@@ -4130,16 +3819,13 @@
       <c r="H104" t="n">
         <v>0</v>
       </c>
-      <c r="I104" t="n">
-        <v>0</v>
-      </c>
+      <c r="I104" t="inlineStr"/>
       <c r="J104" t="inlineStr"/>
       <c r="K104" t="inlineStr"/>
-      <c r="L104" t="inlineStr"/>
-      <c r="M104" t="n">
-        <v>1</v>
-      </c>
-      <c r="N104" t="inlineStr"/>
+      <c r="L104" t="n">
+        <v>1</v>
+      </c>
+      <c r="M104" t="inlineStr"/>
     </row>
     <row r="105">
       <c r="A105" s="1" t="n">
@@ -4166,16 +3852,13 @@
       <c r="H105" t="n">
         <v>0</v>
       </c>
-      <c r="I105" t="n">
-        <v>0</v>
-      </c>
+      <c r="I105" t="inlineStr"/>
       <c r="J105" t="inlineStr"/>
       <c r="K105" t="inlineStr"/>
-      <c r="L105" t="inlineStr"/>
-      <c r="M105" t="n">
-        <v>1</v>
-      </c>
-      <c r="N105" t="inlineStr"/>
+      <c r="L105" t="n">
+        <v>1</v>
+      </c>
+      <c r="M105" t="inlineStr"/>
     </row>
     <row r="106">
       <c r="A106" s="1" t="n">
@@ -4202,16 +3885,13 @@
       <c r="H106" t="n">
         <v>0</v>
       </c>
-      <c r="I106" t="n">
-        <v>0</v>
-      </c>
+      <c r="I106" t="inlineStr"/>
       <c r="J106" t="inlineStr"/>
       <c r="K106" t="inlineStr"/>
-      <c r="L106" t="inlineStr"/>
-      <c r="M106" t="n">
-        <v>1</v>
-      </c>
-      <c r="N106" t="inlineStr"/>
+      <c r="L106" t="n">
+        <v>1</v>
+      </c>
+      <c r="M106" t="inlineStr"/>
     </row>
     <row r="107">
       <c r="A107" s="1" t="n">
@@ -4238,16 +3918,13 @@
       <c r="H107" t="n">
         <v>0</v>
       </c>
-      <c r="I107" t="n">
-        <v>0</v>
-      </c>
+      <c r="I107" t="inlineStr"/>
       <c r="J107" t="inlineStr"/>
       <c r="K107" t="inlineStr"/>
-      <c r="L107" t="inlineStr"/>
-      <c r="M107" t="n">
-        <v>1</v>
-      </c>
-      <c r="N107" t="inlineStr"/>
+      <c r="L107" t="n">
+        <v>1</v>
+      </c>
+      <c r="M107" t="inlineStr"/>
     </row>
     <row r="108">
       <c r="A108" s="1" t="n">
@@ -4274,16 +3951,13 @@
       <c r="H108" t="n">
         <v>0</v>
       </c>
-      <c r="I108" t="n">
-        <v>0</v>
-      </c>
+      <c r="I108" t="inlineStr"/>
       <c r="J108" t="inlineStr"/>
       <c r="K108" t="inlineStr"/>
-      <c r="L108" t="inlineStr"/>
-      <c r="M108" t="n">
-        <v>1</v>
-      </c>
-      <c r="N108" t="inlineStr"/>
+      <c r="L108" t="n">
+        <v>1</v>
+      </c>
+      <c r="M108" t="inlineStr"/>
     </row>
     <row r="109">
       <c r="A109" s="1" t="n">
@@ -4310,16 +3984,13 @@
       <c r="H109" t="n">
         <v>0</v>
       </c>
-      <c r="I109" t="n">
-        <v>0</v>
-      </c>
+      <c r="I109" t="inlineStr"/>
       <c r="J109" t="inlineStr"/>
       <c r="K109" t="inlineStr"/>
-      <c r="L109" t="inlineStr"/>
-      <c r="M109" t="n">
-        <v>1</v>
-      </c>
-      <c r="N109" t="inlineStr"/>
+      <c r="L109" t="n">
+        <v>1</v>
+      </c>
+      <c r="M109" t="inlineStr"/>
     </row>
     <row r="110">
       <c r="A110" s="1" t="n">
@@ -4346,16 +4017,13 @@
       <c r="H110" t="n">
         <v>0</v>
       </c>
-      <c r="I110" t="n">
-        <v>0</v>
-      </c>
+      <c r="I110" t="inlineStr"/>
       <c r="J110" t="inlineStr"/>
       <c r="K110" t="inlineStr"/>
-      <c r="L110" t="inlineStr"/>
-      <c r="M110" t="n">
-        <v>1</v>
-      </c>
-      <c r="N110" t="inlineStr"/>
+      <c r="L110" t="n">
+        <v>1</v>
+      </c>
+      <c r="M110" t="inlineStr"/>
     </row>
     <row r="111">
       <c r="A111" s="1" t="n">
@@ -4382,16 +4050,13 @@
       <c r="H111" t="n">
         <v>0</v>
       </c>
-      <c r="I111" t="n">
-        <v>0</v>
-      </c>
+      <c r="I111" t="inlineStr"/>
       <c r="J111" t="inlineStr"/>
       <c r="K111" t="inlineStr"/>
-      <c r="L111" t="inlineStr"/>
-      <c r="M111" t="n">
-        <v>1</v>
-      </c>
-      <c r="N111" t="inlineStr"/>
+      <c r="L111" t="n">
+        <v>1</v>
+      </c>
+      <c r="M111" t="inlineStr"/>
     </row>
     <row r="112">
       <c r="A112" s="1" t="n">
@@ -4418,16 +4083,13 @@
       <c r="H112" t="n">
         <v>0</v>
       </c>
-      <c r="I112" t="n">
-        <v>0</v>
-      </c>
+      <c r="I112" t="inlineStr"/>
       <c r="J112" t="inlineStr"/>
       <c r="K112" t="inlineStr"/>
-      <c r="L112" t="inlineStr"/>
-      <c r="M112" t="n">
-        <v>1</v>
-      </c>
-      <c r="N112" t="inlineStr"/>
+      <c r="L112" t="n">
+        <v>1</v>
+      </c>
+      <c r="M112" t="inlineStr"/>
     </row>
     <row r="113">
       <c r="A113" s="1" t="n">
@@ -4454,16 +4116,13 @@
       <c r="H113" t="n">
         <v>0</v>
       </c>
-      <c r="I113" t="n">
-        <v>0</v>
-      </c>
+      <c r="I113" t="inlineStr"/>
       <c r="J113" t="inlineStr"/>
       <c r="K113" t="inlineStr"/>
-      <c r="L113" t="inlineStr"/>
-      <c r="M113" t="n">
-        <v>1</v>
-      </c>
-      <c r="N113" t="inlineStr"/>
+      <c r="L113" t="n">
+        <v>1</v>
+      </c>
+      <c r="M113" t="inlineStr"/>
     </row>
     <row r="114">
       <c r="A114" s="1" t="n">
@@ -4490,16 +4149,13 @@
       <c r="H114" t="n">
         <v>0</v>
       </c>
-      <c r="I114" t="n">
-        <v>0</v>
-      </c>
+      <c r="I114" t="inlineStr"/>
       <c r="J114" t="inlineStr"/>
       <c r="K114" t="inlineStr"/>
-      <c r="L114" t="inlineStr"/>
-      <c r="M114" t="n">
-        <v>1</v>
-      </c>
-      <c r="N114" t="inlineStr"/>
+      <c r="L114" t="n">
+        <v>1</v>
+      </c>
+      <c r="M114" t="inlineStr"/>
     </row>
     <row r="115">
       <c r="A115" s="1" t="n">
@@ -4526,16 +4182,13 @@
       <c r="H115" t="n">
         <v>0</v>
       </c>
-      <c r="I115" t="n">
-        <v>0</v>
-      </c>
+      <c r="I115" t="inlineStr"/>
       <c r="J115" t="inlineStr"/>
       <c r="K115" t="inlineStr"/>
-      <c r="L115" t="inlineStr"/>
-      <c r="M115" t="n">
-        <v>1</v>
-      </c>
-      <c r="N115" t="inlineStr"/>
+      <c r="L115" t="n">
+        <v>1</v>
+      </c>
+      <c r="M115" t="inlineStr"/>
     </row>
     <row r="116">
       <c r="A116" s="1" t="n">
@@ -4562,16 +4215,13 @@
       <c r="H116" t="n">
         <v>0</v>
       </c>
-      <c r="I116" t="n">
-        <v>0</v>
-      </c>
+      <c r="I116" t="inlineStr"/>
       <c r="J116" t="inlineStr"/>
       <c r="K116" t="inlineStr"/>
-      <c r="L116" t="inlineStr"/>
-      <c r="M116" t="n">
-        <v>1</v>
-      </c>
-      <c r="N116" t="inlineStr"/>
+      <c r="L116" t="n">
+        <v>1</v>
+      </c>
+      <c r="M116" t="inlineStr"/>
     </row>
     <row r="117">
       <c r="A117" s="1" t="n">
@@ -4598,16 +4248,13 @@
       <c r="H117" t="n">
         <v>0</v>
       </c>
-      <c r="I117" t="n">
-        <v>0</v>
-      </c>
+      <c r="I117" t="inlineStr"/>
       <c r="J117" t="inlineStr"/>
       <c r="K117" t="inlineStr"/>
-      <c r="L117" t="inlineStr"/>
-      <c r="M117" t="n">
-        <v>1</v>
-      </c>
-      <c r="N117" t="inlineStr"/>
+      <c r="L117" t="n">
+        <v>1</v>
+      </c>
+      <c r="M117" t="inlineStr"/>
     </row>
     <row r="118">
       <c r="A118" s="1" t="n">
@@ -4634,16 +4281,13 @@
       <c r="H118" t="n">
         <v>0</v>
       </c>
-      <c r="I118" t="n">
-        <v>0</v>
-      </c>
+      <c r="I118" t="inlineStr"/>
       <c r="J118" t="inlineStr"/>
       <c r="K118" t="inlineStr"/>
-      <c r="L118" t="inlineStr"/>
-      <c r="M118" t="n">
-        <v>1</v>
-      </c>
-      <c r="N118" t="inlineStr"/>
+      <c r="L118" t="n">
+        <v>1</v>
+      </c>
+      <c r="M118" t="inlineStr"/>
     </row>
     <row r="119">
       <c r="A119" s="1" t="n">
@@ -4670,16 +4314,13 @@
       <c r="H119" t="n">
         <v>0</v>
       </c>
-      <c r="I119" t="n">
-        <v>0</v>
-      </c>
+      <c r="I119" t="inlineStr"/>
       <c r="J119" t="inlineStr"/>
       <c r="K119" t="inlineStr"/>
-      <c r="L119" t="inlineStr"/>
-      <c r="M119" t="n">
-        <v>1</v>
-      </c>
-      <c r="N119" t="inlineStr"/>
+      <c r="L119" t="n">
+        <v>1</v>
+      </c>
+      <c r="M119" t="inlineStr"/>
     </row>
     <row r="120">
       <c r="A120" s="1" t="n">
@@ -4706,16 +4347,13 @@
       <c r="H120" t="n">
         <v>0</v>
       </c>
-      <c r="I120" t="n">
-        <v>0</v>
-      </c>
+      <c r="I120" t="inlineStr"/>
       <c r="J120" t="inlineStr"/>
       <c r="K120" t="inlineStr"/>
-      <c r="L120" t="inlineStr"/>
-      <c r="M120" t="n">
-        <v>1</v>
-      </c>
-      <c r="N120" t="inlineStr"/>
+      <c r="L120" t="n">
+        <v>1</v>
+      </c>
+      <c r="M120" t="inlineStr"/>
     </row>
     <row r="121">
       <c r="A121" s="1" t="n">
@@ -4742,16 +4380,13 @@
       <c r="H121" t="n">
         <v>0</v>
       </c>
-      <c r="I121" t="n">
-        <v>0</v>
-      </c>
+      <c r="I121" t="inlineStr"/>
       <c r="J121" t="inlineStr"/>
       <c r="K121" t="inlineStr"/>
-      <c r="L121" t="inlineStr"/>
-      <c r="M121" t="n">
-        <v>1</v>
-      </c>
-      <c r="N121" t="inlineStr"/>
+      <c r="L121" t="n">
+        <v>1</v>
+      </c>
+      <c r="M121" t="inlineStr"/>
     </row>
     <row r="122">
       <c r="A122" s="1" t="n">
@@ -4778,16 +4413,13 @@
       <c r="H122" t="n">
         <v>0</v>
       </c>
-      <c r="I122" t="n">
-        <v>0</v>
-      </c>
+      <c r="I122" t="inlineStr"/>
       <c r="J122" t="inlineStr"/>
       <c r="K122" t="inlineStr"/>
-      <c r="L122" t="inlineStr"/>
-      <c r="M122" t="n">
-        <v>1</v>
-      </c>
-      <c r="N122" t="inlineStr"/>
+      <c r="L122" t="n">
+        <v>1</v>
+      </c>
+      <c r="M122" t="inlineStr"/>
     </row>
     <row r="123">
       <c r="A123" s="1" t="n">
@@ -4814,16 +4446,13 @@
       <c r="H123" t="n">
         <v>0</v>
       </c>
-      <c r="I123" t="n">
-        <v>0</v>
-      </c>
+      <c r="I123" t="inlineStr"/>
       <c r="J123" t="inlineStr"/>
       <c r="K123" t="inlineStr"/>
-      <c r="L123" t="inlineStr"/>
-      <c r="M123" t="n">
-        <v>1</v>
-      </c>
-      <c r="N123" t="inlineStr"/>
+      <c r="L123" t="n">
+        <v>1</v>
+      </c>
+      <c r="M123" t="inlineStr"/>
     </row>
     <row r="124">
       <c r="A124" s="1" t="n">
@@ -4850,16 +4479,13 @@
       <c r="H124" t="n">
         <v>0</v>
       </c>
-      <c r="I124" t="n">
-        <v>0</v>
-      </c>
+      <c r="I124" t="inlineStr"/>
       <c r="J124" t="inlineStr"/>
       <c r="K124" t="inlineStr"/>
-      <c r="L124" t="inlineStr"/>
-      <c r="M124" t="n">
-        <v>1</v>
-      </c>
-      <c r="N124" t="inlineStr"/>
+      <c r="L124" t="n">
+        <v>1</v>
+      </c>
+      <c r="M124" t="inlineStr"/>
     </row>
     <row r="125">
       <c r="A125" s="1" t="n">
@@ -4886,16 +4512,13 @@
       <c r="H125" t="n">
         <v>0</v>
       </c>
-      <c r="I125" t="n">
-        <v>0</v>
-      </c>
+      <c r="I125" t="inlineStr"/>
       <c r="J125" t="inlineStr"/>
       <c r="K125" t="inlineStr"/>
-      <c r="L125" t="inlineStr"/>
-      <c r="M125" t="n">
-        <v>1</v>
-      </c>
-      <c r="N125" t="inlineStr"/>
+      <c r="L125" t="n">
+        <v>1</v>
+      </c>
+      <c r="M125" t="inlineStr"/>
     </row>
     <row r="126">
       <c r="A126" s="1" t="n">
@@ -4922,16 +4545,13 @@
       <c r="H126" t="n">
         <v>0</v>
       </c>
-      <c r="I126" t="n">
-        <v>0</v>
-      </c>
+      <c r="I126" t="inlineStr"/>
       <c r="J126" t="inlineStr"/>
       <c r="K126" t="inlineStr"/>
-      <c r="L126" t="inlineStr"/>
-      <c r="M126" t="n">
-        <v>1</v>
-      </c>
-      <c r="N126" t="inlineStr"/>
+      <c r="L126" t="n">
+        <v>1</v>
+      </c>
+      <c r="M126" t="inlineStr"/>
     </row>
     <row r="127">
       <c r="A127" s="1" t="n">
@@ -4958,16 +4578,13 @@
       <c r="H127" t="n">
         <v>0</v>
       </c>
-      <c r="I127" t="n">
-        <v>0</v>
-      </c>
+      <c r="I127" t="inlineStr"/>
       <c r="J127" t="inlineStr"/>
       <c r="K127" t="inlineStr"/>
-      <c r="L127" t="inlineStr"/>
-      <c r="M127" t="n">
-        <v>1</v>
-      </c>
-      <c r="N127" t="inlineStr"/>
+      <c r="L127" t="n">
+        <v>1</v>
+      </c>
+      <c r="M127" t="inlineStr"/>
     </row>
     <row r="128">
       <c r="A128" s="1" t="n">
@@ -4994,16 +4611,13 @@
       <c r="H128" t="n">
         <v>0</v>
       </c>
-      <c r="I128" t="n">
-        <v>0</v>
-      </c>
+      <c r="I128" t="inlineStr"/>
       <c r="J128" t="inlineStr"/>
       <c r="K128" t="inlineStr"/>
-      <c r="L128" t="inlineStr"/>
-      <c r="M128" t="n">
-        <v>1</v>
-      </c>
-      <c r="N128" t="inlineStr"/>
+      <c r="L128" t="n">
+        <v>1</v>
+      </c>
+      <c r="M128" t="inlineStr"/>
     </row>
     <row r="129">
       <c r="A129" s="1" t="n">
@@ -5030,16 +4644,13 @@
       <c r="H129" t="n">
         <v>0</v>
       </c>
-      <c r="I129" t="n">
-        <v>0</v>
-      </c>
+      <c r="I129" t="inlineStr"/>
       <c r="J129" t="inlineStr"/>
       <c r="K129" t="inlineStr"/>
-      <c r="L129" t="inlineStr"/>
-      <c r="M129" t="n">
-        <v>1</v>
-      </c>
-      <c r="N129" t="inlineStr"/>
+      <c r="L129" t="n">
+        <v>1</v>
+      </c>
+      <c r="M129" t="inlineStr"/>
     </row>
     <row r="130">
       <c r="A130" s="1" t="n">
@@ -5066,16 +4677,13 @@
       <c r="H130" t="n">
         <v>0</v>
       </c>
-      <c r="I130" t="n">
-        <v>0</v>
-      </c>
+      <c r="I130" t="inlineStr"/>
       <c r="J130" t="inlineStr"/>
       <c r="K130" t="inlineStr"/>
-      <c r="L130" t="inlineStr"/>
-      <c r="M130" t="n">
-        <v>1</v>
-      </c>
-      <c r="N130" t="inlineStr"/>
+      <c r="L130" t="n">
+        <v>1</v>
+      </c>
+      <c r="M130" t="inlineStr"/>
     </row>
     <row r="131">
       <c r="A131" s="1" t="n">
@@ -5102,16 +4710,13 @@
       <c r="H131" t="n">
         <v>0</v>
       </c>
-      <c r="I131" t="n">
-        <v>0</v>
-      </c>
+      <c r="I131" t="inlineStr"/>
       <c r="J131" t="inlineStr"/>
       <c r="K131" t="inlineStr"/>
-      <c r="L131" t="inlineStr"/>
-      <c r="M131" t="n">
-        <v>1</v>
-      </c>
-      <c r="N131" t="inlineStr"/>
+      <c r="L131" t="n">
+        <v>1</v>
+      </c>
+      <c r="M131" t="inlineStr"/>
     </row>
     <row r="132">
       <c r="A132" s="1" t="n">
@@ -5138,16 +4743,13 @@
       <c r="H132" t="n">
         <v>0</v>
       </c>
-      <c r="I132" t="n">
-        <v>0</v>
-      </c>
+      <c r="I132" t="inlineStr"/>
       <c r="J132" t="inlineStr"/>
       <c r="K132" t="inlineStr"/>
-      <c r="L132" t="inlineStr"/>
-      <c r="M132" t="n">
-        <v>1</v>
-      </c>
-      <c r="N132" t="inlineStr"/>
+      <c r="L132" t="n">
+        <v>1</v>
+      </c>
+      <c r="M132" t="inlineStr"/>
     </row>
     <row r="133">
       <c r="A133" s="1" t="n">
@@ -5174,16 +4776,13 @@
       <c r="H133" t="n">
         <v>0</v>
       </c>
-      <c r="I133" t="n">
-        <v>0</v>
-      </c>
+      <c r="I133" t="inlineStr"/>
       <c r="J133" t="inlineStr"/>
       <c r="K133" t="inlineStr"/>
-      <c r="L133" t="inlineStr"/>
-      <c r="M133" t="n">
-        <v>1</v>
-      </c>
-      <c r="N133" t="inlineStr"/>
+      <c r="L133" t="n">
+        <v>1</v>
+      </c>
+      <c r="M133" t="inlineStr"/>
     </row>
     <row r="134">
       <c r="A134" s="1" t="n">
@@ -5210,16 +4809,13 @@
       <c r="H134" t="n">
         <v>0</v>
       </c>
-      <c r="I134" t="n">
-        <v>0</v>
-      </c>
+      <c r="I134" t="inlineStr"/>
       <c r="J134" t="inlineStr"/>
       <c r="K134" t="inlineStr"/>
-      <c r="L134" t="inlineStr"/>
-      <c r="M134" t="n">
-        <v>1</v>
-      </c>
-      <c r="N134" t="inlineStr"/>
+      <c r="L134" t="n">
+        <v>1</v>
+      </c>
+      <c r="M134" t="inlineStr"/>
     </row>
     <row r="135">
       <c r="A135" s="1" t="n">
@@ -5246,16 +4842,13 @@
       <c r="H135" t="n">
         <v>0</v>
       </c>
-      <c r="I135" t="n">
-        <v>0</v>
-      </c>
+      <c r="I135" t="inlineStr"/>
       <c r="J135" t="inlineStr"/>
       <c r="K135" t="inlineStr"/>
-      <c r="L135" t="inlineStr"/>
-      <c r="M135" t="n">
-        <v>1</v>
-      </c>
-      <c r="N135" t="inlineStr"/>
+      <c r="L135" t="n">
+        <v>1</v>
+      </c>
+      <c r="M135" t="inlineStr"/>
     </row>
     <row r="136">
       <c r="A136" s="1" t="n">
@@ -5282,16 +4875,13 @@
       <c r="H136" t="n">
         <v>0</v>
       </c>
-      <c r="I136" t="n">
-        <v>0</v>
-      </c>
+      <c r="I136" t="inlineStr"/>
       <c r="J136" t="inlineStr"/>
       <c r="K136" t="inlineStr"/>
-      <c r="L136" t="inlineStr"/>
-      <c r="M136" t="n">
-        <v>1</v>
-      </c>
-      <c r="N136" t="inlineStr"/>
+      <c r="L136" t="n">
+        <v>1</v>
+      </c>
+      <c r="M136" t="inlineStr"/>
     </row>
     <row r="137">
       <c r="A137" s="1" t="n">
@@ -5318,16 +4908,13 @@
       <c r="H137" t="n">
         <v>0</v>
       </c>
-      <c r="I137" t="n">
-        <v>0</v>
-      </c>
+      <c r="I137" t="inlineStr"/>
       <c r="J137" t="inlineStr"/>
       <c r="K137" t="inlineStr"/>
-      <c r="L137" t="inlineStr"/>
-      <c r="M137" t="n">
-        <v>1</v>
-      </c>
-      <c r="N137" t="inlineStr"/>
+      <c r="L137" t="n">
+        <v>1</v>
+      </c>
+      <c r="M137" t="inlineStr"/>
     </row>
     <row r="138">
       <c r="A138" s="1" t="n">
@@ -5354,16 +4941,13 @@
       <c r="H138" t="n">
         <v>0</v>
       </c>
-      <c r="I138" t="n">
-        <v>0</v>
-      </c>
+      <c r="I138" t="inlineStr"/>
       <c r="J138" t="inlineStr"/>
       <c r="K138" t="inlineStr"/>
-      <c r="L138" t="inlineStr"/>
-      <c r="M138" t="n">
-        <v>1</v>
-      </c>
-      <c r="N138" t="inlineStr"/>
+      <c r="L138" t="n">
+        <v>1</v>
+      </c>
+      <c r="M138" t="inlineStr"/>
     </row>
     <row r="139">
       <c r="A139" s="1" t="n">
@@ -5390,16 +4974,13 @@
       <c r="H139" t="n">
         <v>0</v>
       </c>
-      <c r="I139" t="n">
-        <v>0</v>
-      </c>
+      <c r="I139" t="inlineStr"/>
       <c r="J139" t="inlineStr"/>
       <c r="K139" t="inlineStr"/>
-      <c r="L139" t="inlineStr"/>
-      <c r="M139" t="n">
-        <v>1</v>
-      </c>
-      <c r="N139" t="inlineStr"/>
+      <c r="L139" t="n">
+        <v>1</v>
+      </c>
+      <c r="M139" t="inlineStr"/>
     </row>
     <row r="140">
       <c r="A140" s="1" t="n">
@@ -5426,16 +5007,13 @@
       <c r="H140" t="n">
         <v>0</v>
       </c>
-      <c r="I140" t="n">
-        <v>0</v>
-      </c>
+      <c r="I140" t="inlineStr"/>
       <c r="J140" t="inlineStr"/>
       <c r="K140" t="inlineStr"/>
-      <c r="L140" t="inlineStr"/>
-      <c r="M140" t="n">
-        <v>1</v>
-      </c>
-      <c r="N140" t="inlineStr"/>
+      <c r="L140" t="n">
+        <v>1</v>
+      </c>
+      <c r="M140" t="inlineStr"/>
     </row>
     <row r="141">
       <c r="A141" s="1" t="n">
@@ -5462,16 +5040,13 @@
       <c r="H141" t="n">
         <v>0</v>
       </c>
-      <c r="I141" t="n">
-        <v>0</v>
-      </c>
+      <c r="I141" t="inlineStr"/>
       <c r="J141" t="inlineStr"/>
       <c r="K141" t="inlineStr"/>
-      <c r="L141" t="inlineStr"/>
-      <c r="M141" t="n">
-        <v>1</v>
-      </c>
-      <c r="N141" t="inlineStr"/>
+      <c r="L141" t="n">
+        <v>1</v>
+      </c>
+      <c r="M141" t="inlineStr"/>
     </row>
     <row r="142">
       <c r="A142" s="1" t="n">
@@ -5498,16 +5073,13 @@
       <c r="H142" t="n">
         <v>0</v>
       </c>
-      <c r="I142" t="n">
-        <v>0</v>
-      </c>
+      <c r="I142" t="inlineStr"/>
       <c r="J142" t="inlineStr"/>
       <c r="K142" t="inlineStr"/>
-      <c r="L142" t="inlineStr"/>
-      <c r="M142" t="n">
-        <v>1</v>
-      </c>
-      <c r="N142" t="inlineStr"/>
+      <c r="L142" t="n">
+        <v>1</v>
+      </c>
+      <c r="M142" t="inlineStr"/>
     </row>
     <row r="143">
       <c r="A143" s="1" t="n">
@@ -5534,16 +5106,13 @@
       <c r="H143" t="n">
         <v>0</v>
       </c>
-      <c r="I143" t="n">
-        <v>0</v>
-      </c>
+      <c r="I143" t="inlineStr"/>
       <c r="J143" t="inlineStr"/>
       <c r="K143" t="inlineStr"/>
-      <c r="L143" t="inlineStr"/>
-      <c r="M143" t="n">
-        <v>1</v>
-      </c>
-      <c r="N143" t="inlineStr"/>
+      <c r="L143" t="n">
+        <v>1</v>
+      </c>
+      <c r="M143" t="inlineStr"/>
     </row>
     <row r="144">
       <c r="A144" s="1" t="n">
@@ -5570,16 +5139,13 @@
       <c r="H144" t="n">
         <v>0</v>
       </c>
-      <c r="I144" t="n">
-        <v>0</v>
-      </c>
+      <c r="I144" t="inlineStr"/>
       <c r="J144" t="inlineStr"/>
       <c r="K144" t="inlineStr"/>
-      <c r="L144" t="inlineStr"/>
-      <c r="M144" t="n">
-        <v>1</v>
-      </c>
-      <c r="N144" t="inlineStr"/>
+      <c r="L144" t="n">
+        <v>1</v>
+      </c>
+      <c r="M144" t="inlineStr"/>
     </row>
     <row r="145">
       <c r="A145" s="1" t="n">
@@ -5606,16 +5172,13 @@
       <c r="H145" t="n">
         <v>0</v>
       </c>
-      <c r="I145" t="n">
-        <v>0</v>
-      </c>
+      <c r="I145" t="inlineStr"/>
       <c r="J145" t="inlineStr"/>
       <c r="K145" t="inlineStr"/>
-      <c r="L145" t="inlineStr"/>
-      <c r="M145" t="n">
-        <v>1</v>
-      </c>
-      <c r="N145" t="inlineStr"/>
+      <c r="L145" t="n">
+        <v>1</v>
+      </c>
+      <c r="M145" t="inlineStr"/>
     </row>
     <row r="146">
       <c r="A146" s="1" t="n">
@@ -5642,16 +5205,13 @@
       <c r="H146" t="n">
         <v>0</v>
       </c>
-      <c r="I146" t="n">
-        <v>0</v>
-      </c>
+      <c r="I146" t="inlineStr"/>
       <c r="J146" t="inlineStr"/>
       <c r="K146" t="inlineStr"/>
-      <c r="L146" t="inlineStr"/>
-      <c r="M146" t="n">
-        <v>1</v>
-      </c>
-      <c r="N146" t="inlineStr"/>
+      <c r="L146" t="n">
+        <v>1</v>
+      </c>
+      <c r="M146" t="inlineStr"/>
     </row>
     <row r="147">
       <c r="A147" s="1" t="n">
@@ -5678,16 +5238,13 @@
       <c r="H147" t="n">
         <v>0</v>
       </c>
-      <c r="I147" t="n">
-        <v>0</v>
-      </c>
+      <c r="I147" t="inlineStr"/>
       <c r="J147" t="inlineStr"/>
       <c r="K147" t="inlineStr"/>
-      <c r="L147" t="inlineStr"/>
-      <c r="M147" t="n">
-        <v>1</v>
-      </c>
-      <c r="N147" t="inlineStr"/>
+      <c r="L147" t="n">
+        <v>1</v>
+      </c>
+      <c r="M147" t="inlineStr"/>
     </row>
     <row r="148">
       <c r="A148" s="1" t="n">
@@ -5714,16 +5271,13 @@
       <c r="H148" t="n">
         <v>0</v>
       </c>
-      <c r="I148" t="n">
-        <v>0</v>
-      </c>
+      <c r="I148" t="inlineStr"/>
       <c r="J148" t="inlineStr"/>
       <c r="K148" t="inlineStr"/>
-      <c r="L148" t="inlineStr"/>
-      <c r="M148" t="n">
-        <v>1</v>
-      </c>
-      <c r="N148" t="inlineStr"/>
+      <c r="L148" t="n">
+        <v>1</v>
+      </c>
+      <c r="M148" t="inlineStr"/>
     </row>
     <row r="149">
       <c r="A149" s="1" t="n">
@@ -5750,16 +5304,13 @@
       <c r="H149" t="n">
         <v>0</v>
       </c>
-      <c r="I149" t="n">
-        <v>0</v>
-      </c>
+      <c r="I149" t="inlineStr"/>
       <c r="J149" t="inlineStr"/>
       <c r="K149" t="inlineStr"/>
-      <c r="L149" t="inlineStr"/>
-      <c r="M149" t="n">
-        <v>1</v>
-      </c>
-      <c r="N149" t="inlineStr"/>
+      <c r="L149" t="n">
+        <v>1</v>
+      </c>
+      <c r="M149" t="inlineStr"/>
     </row>
     <row r="150">
       <c r="A150" s="1" t="n">
@@ -5786,16 +5337,13 @@
       <c r="H150" t="n">
         <v>0</v>
       </c>
-      <c r="I150" t="n">
-        <v>0</v>
-      </c>
+      <c r="I150" t="inlineStr"/>
       <c r="J150" t="inlineStr"/>
       <c r="K150" t="inlineStr"/>
-      <c r="L150" t="inlineStr"/>
-      <c r="M150" t="n">
-        <v>1</v>
-      </c>
-      <c r="N150" t="inlineStr"/>
+      <c r="L150" t="n">
+        <v>1</v>
+      </c>
+      <c r="M150" t="inlineStr"/>
     </row>
     <row r="151">
       <c r="A151" s="1" t="n">
@@ -5822,16 +5370,13 @@
       <c r="H151" t="n">
         <v>0</v>
       </c>
-      <c r="I151" t="n">
-        <v>0</v>
-      </c>
+      <c r="I151" t="inlineStr"/>
       <c r="J151" t="inlineStr"/>
       <c r="K151" t="inlineStr"/>
-      <c r="L151" t="inlineStr"/>
-      <c r="M151" t="n">
-        <v>1</v>
-      </c>
-      <c r="N151" t="inlineStr"/>
+      <c r="L151" t="n">
+        <v>1</v>
+      </c>
+      <c r="M151" t="inlineStr"/>
     </row>
     <row r="152">
       <c r="A152" s="1" t="n">
@@ -5858,16 +5403,13 @@
       <c r="H152" t="n">
         <v>0</v>
       </c>
-      <c r="I152" t="n">
-        <v>0</v>
-      </c>
+      <c r="I152" t="inlineStr"/>
       <c r="J152" t="inlineStr"/>
       <c r="K152" t="inlineStr"/>
-      <c r="L152" t="inlineStr"/>
-      <c r="M152" t="n">
-        <v>1</v>
-      </c>
-      <c r="N152" t="inlineStr"/>
+      <c r="L152" t="n">
+        <v>1</v>
+      </c>
+      <c r="M152" t="inlineStr"/>
     </row>
     <row r="153">
       <c r="A153" s="1" t="n">
@@ -5894,16 +5436,13 @@
       <c r="H153" t="n">
         <v>0</v>
       </c>
-      <c r="I153" t="n">
-        <v>0</v>
-      </c>
+      <c r="I153" t="inlineStr"/>
       <c r="J153" t="inlineStr"/>
       <c r="K153" t="inlineStr"/>
-      <c r="L153" t="inlineStr"/>
-      <c r="M153" t="n">
-        <v>1</v>
-      </c>
-      <c r="N153" t="inlineStr"/>
+      <c r="L153" t="n">
+        <v>1</v>
+      </c>
+      <c r="M153" t="inlineStr"/>
     </row>
     <row r="154">
       <c r="A154" s="1" t="n">
@@ -5930,16 +5469,13 @@
       <c r="H154" t="n">
         <v>0</v>
       </c>
-      <c r="I154" t="n">
-        <v>0</v>
-      </c>
+      <c r="I154" t="inlineStr"/>
       <c r="J154" t="inlineStr"/>
       <c r="K154" t="inlineStr"/>
-      <c r="L154" t="inlineStr"/>
-      <c r="M154" t="n">
-        <v>1</v>
-      </c>
-      <c r="N154" t="inlineStr"/>
+      <c r="L154" t="n">
+        <v>1</v>
+      </c>
+      <c r="M154" t="inlineStr"/>
     </row>
     <row r="155">
       <c r="A155" s="1" t="n">
@@ -5964,22 +5500,19 @@
         <v>-119507.7424</v>
       </c>
       <c r="H155" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I155" t="n">
-        <v>0</v>
+        <v>443.3</v>
       </c>
       <c r="J155" t="n">
         <v>443.3</v>
       </c>
-      <c r="K155" t="n">
-        <v>443.3</v>
-      </c>
-      <c r="L155" t="inlineStr"/>
-      <c r="M155" t="n">
-        <v>1</v>
-      </c>
-      <c r="N155" t="inlineStr"/>
+      <c r="K155" t="inlineStr"/>
+      <c r="L155" t="n">
+        <v>1</v>
+      </c>
+      <c r="M155" t="inlineStr"/>
     </row>
     <row r="156">
       <c r="A156" s="1" t="n">
@@ -6004,26 +5537,21 @@
         <v>-119507.7424</v>
       </c>
       <c r="H156" t="n">
-        <v>1</v>
-      </c>
-      <c r="I156" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I156" t="inlineStr"/>
       <c r="J156" t="n">
         <v>443.3</v>
       </c>
-      <c r="K156" t="n">
-        <v>443.3</v>
-      </c>
-      <c r="L156" t="inlineStr">
+      <c r="K156" t="inlineStr">
         <is>
           <t>매수 대기</t>
         </is>
       </c>
-      <c r="M156" t="n">
-        <v>1</v>
-      </c>
-      <c r="N156" t="inlineStr"/>
+      <c r="L156" t="n">
+        <v>1</v>
+      </c>
+      <c r="M156" t="inlineStr"/>
     </row>
     <row r="157">
       <c r="A157" s="1" t="n">
@@ -6048,26 +5576,23 @@
         <v>-116984.3278</v>
       </c>
       <c r="H157" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I157" t="n">
-        <v>0</v>
+        <v>443.3</v>
       </c>
       <c r="J157" t="n">
         <v>443.3</v>
       </c>
-      <c r="K157" t="n">
-        <v>443.3</v>
-      </c>
-      <c r="L157" t="inlineStr">
+      <c r="K157" t="inlineStr">
         <is>
           <t>매수 체결</t>
         </is>
       </c>
-      <c r="M157" t="n">
-        <v>1</v>
-      </c>
-      <c r="N157" t="inlineStr"/>
+      <c r="L157" t="n">
+        <v>1</v>
+      </c>
+      <c r="M157" t="inlineStr"/>
     </row>
     <row r="158">
       <c r="A158" s="1" t="n">
@@ -6092,26 +5617,23 @@
         <v>-119250.0919</v>
       </c>
       <c r="H158" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I158" t="n">
-        <v>0</v>
+        <v>447.7</v>
       </c>
       <c r="J158" t="n">
-        <v>447.7</v>
-      </c>
-      <c r="K158" t="n">
         <v>443.3</v>
       </c>
-      <c r="L158" t="inlineStr">
+      <c r="K158" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M158" t="n">
-        <v>1</v>
-      </c>
-      <c r="N158" t="inlineStr"/>
+      <c r="L158" t="n">
+        <v>1</v>
+      </c>
+      <c r="M158" t="inlineStr"/>
     </row>
     <row r="159">
       <c r="A159" s="1" t="n">
@@ -6136,26 +5658,23 @@
         <v>-119241.5757</v>
       </c>
       <c r="H159" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I159" t="n">
-        <v>0</v>
+        <v>443.3</v>
       </c>
       <c r="J159" t="n">
         <v>443.3</v>
       </c>
-      <c r="K159" t="n">
-        <v>443.3</v>
-      </c>
-      <c r="L159" t="inlineStr">
+      <c r="K159" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M159" t="n">
-        <v>1</v>
-      </c>
-      <c r="N159" t="inlineStr"/>
+      <c r="L159" t="n">
+        <v>1</v>
+      </c>
+      <c r="M159" t="inlineStr"/>
     </row>
     <row r="160">
       <c r="A160" s="1" t="n">
@@ -6180,26 +5699,23 @@
         <v>-119341.5756</v>
       </c>
       <c r="H160" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I160" t="n">
-        <v>0</v>
+        <v>447.7</v>
       </c>
       <c r="J160" t="n">
-        <v>447.7</v>
-      </c>
-      <c r="K160" t="n">
         <v>443.3</v>
       </c>
-      <c r="L160" t="inlineStr">
+      <c r="K160" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M160" t="n">
-        <v>1</v>
-      </c>
-      <c r="N160" t="inlineStr"/>
+      <c r="L160" t="n">
+        <v>1</v>
+      </c>
+      <c r="M160" t="inlineStr"/>
     </row>
     <row r="161">
       <c r="A161" s="1" t="n">
@@ -6224,26 +5740,21 @@
         <v>-119052.3672</v>
       </c>
       <c r="H161" t="n">
-        <v>1</v>
-      </c>
-      <c r="I161" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I161" t="inlineStr"/>
       <c r="J161" t="n">
-        <v>446.7</v>
-      </c>
-      <c r="K161" t="n">
         <v>443.3</v>
       </c>
-      <c r="L161" t="inlineStr">
+      <c r="K161" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M161" t="n">
-        <v>1</v>
-      </c>
-      <c r="N161" t="inlineStr"/>
+      <c r="L161" t="n">
+        <v>1</v>
+      </c>
+      <c r="M161" t="inlineStr"/>
     </row>
     <row r="162">
       <c r="A162" s="1" t="n">
@@ -6268,26 +5779,21 @@
         <v>-119761.5167</v>
       </c>
       <c r="H162" t="n">
-        <v>1</v>
-      </c>
-      <c r="I162" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I162" t="inlineStr"/>
       <c r="J162" t="n">
-        <v>448</v>
-      </c>
-      <c r="K162" t="n">
         <v>443.3</v>
       </c>
-      <c r="L162" t="inlineStr">
+      <c r="K162" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M162" t="n">
-        <v>1</v>
-      </c>
-      <c r="N162" t="inlineStr"/>
+      <c r="L162" t="n">
+        <v>1</v>
+      </c>
+      <c r="M162" t="inlineStr"/>
     </row>
     <row r="163">
       <c r="A163" s="1" t="n">
@@ -6312,26 +5818,21 @@
         <v>-119764.7261</v>
       </c>
       <c r="H163" t="n">
-        <v>1</v>
-      </c>
-      <c r="I163" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I163" t="inlineStr"/>
       <c r="J163" t="n">
-        <v>447.6</v>
-      </c>
-      <c r="K163" t="n">
         <v>443.3</v>
       </c>
-      <c r="L163" t="inlineStr">
+      <c r="K163" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M163" t="n">
-        <v>1</v>
-      </c>
-      <c r="N163" t="inlineStr"/>
+      <c r="L163" t="n">
+        <v>1</v>
+      </c>
+      <c r="M163" t="inlineStr"/>
     </row>
     <row r="164">
       <c r="A164" s="1" t="n">
@@ -6356,26 +5857,21 @@
         <v>-116964.7261</v>
       </c>
       <c r="H164" t="n">
-        <v>1</v>
-      </c>
-      <c r="I164" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I164" t="inlineStr"/>
       <c r="J164" t="n">
-        <v>447.5</v>
-      </c>
-      <c r="K164" t="n">
         <v>443.3</v>
       </c>
-      <c r="L164" t="inlineStr">
+      <c r="K164" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M164" t="n">
-        <v>1</v>
-      </c>
-      <c r="N164" t="inlineStr"/>
+      <c r="L164" t="n">
+        <v>1</v>
+      </c>
+      <c r="M164" t="inlineStr"/>
     </row>
     <row r="165">
       <c r="A165" s="1" t="n">
@@ -6400,26 +5896,21 @@
         <v>-115957.5227289643</v>
       </c>
       <c r="H165" t="n">
-        <v>1</v>
-      </c>
-      <c r="I165" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I165" t="inlineStr"/>
       <c r="J165" t="n">
-        <v>448</v>
-      </c>
-      <c r="K165" t="n">
         <v>443.3</v>
       </c>
-      <c r="L165" t="inlineStr">
+      <c r="K165" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M165" t="n">
-        <v>1</v>
-      </c>
-      <c r="N165" t="inlineStr"/>
+      <c r="L165" t="n">
+        <v>1</v>
+      </c>
+      <c r="M165" t="inlineStr"/>
     </row>
     <row r="166">
       <c r="A166" s="1" t="n">
@@ -6444,26 +5935,21 @@
         <v>-115752.5227289643</v>
       </c>
       <c r="H166" t="n">
-        <v>1</v>
-      </c>
-      <c r="I166" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I166" t="inlineStr"/>
       <c r="J166" t="n">
-        <v>450.9</v>
-      </c>
-      <c r="K166" t="n">
         <v>443.3</v>
       </c>
-      <c r="L166" t="inlineStr">
+      <c r="K166" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M166" t="n">
-        <v>1</v>
-      </c>
-      <c r="N166" t="inlineStr"/>
+      <c r="L166" t="n">
+        <v>1</v>
+      </c>
+      <c r="M166" t="inlineStr"/>
     </row>
     <row r="167">
       <c r="A167" s="1" t="n">
@@ -6488,26 +5974,21 @@
         <v>-115752.5227289643</v>
       </c>
       <c r="H167" t="n">
-        <v>1</v>
-      </c>
-      <c r="I167" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I167" t="inlineStr"/>
       <c r="J167" t="n">
-        <v>451</v>
-      </c>
-      <c r="K167" t="n">
         <v>443.3</v>
       </c>
-      <c r="L167" t="inlineStr">
+      <c r="K167" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M167" t="n">
-        <v>1</v>
-      </c>
-      <c r="N167" t="inlineStr"/>
+      <c r="L167" t="n">
+        <v>1</v>
+      </c>
+      <c r="M167" t="inlineStr"/>
     </row>
     <row r="168">
       <c r="A168" s="1" t="n">
@@ -6534,22 +6015,19 @@
       <c r="H168" t="n">
         <v>0</v>
       </c>
-      <c r="I168" t="n">
-        <v>0</v>
-      </c>
-      <c r="J168" t="inlineStr"/>
-      <c r="K168" t="n">
+      <c r="I168" t="inlineStr"/>
+      <c r="J168" t="n">
         <v>443.3</v>
       </c>
-      <c r="L168" t="inlineStr">
+      <c r="K168" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M168" t="n">
-        <v>1</v>
-      </c>
-      <c r="N168" t="inlineStr"/>
+      <c r="L168" t="n">
+        <v>1</v>
+      </c>
+      <c r="M168" t="inlineStr"/>
     </row>
     <row r="169">
       <c r="A169" s="1" t="n">
@@ -6576,22 +6054,19 @@
       <c r="H169" t="n">
         <v>0</v>
       </c>
-      <c r="I169" t="n">
-        <v>0</v>
-      </c>
-      <c r="J169" t="inlineStr"/>
-      <c r="K169" t="n">
+      <c r="I169" t="inlineStr"/>
+      <c r="J169" t="n">
         <v>443.3</v>
       </c>
-      <c r="L169" t="inlineStr">
+      <c r="K169" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M169" t="n">
-        <v>1</v>
-      </c>
-      <c r="N169" t="inlineStr"/>
+      <c r="L169" t="n">
+        <v>1</v>
+      </c>
+      <c r="M169" t="inlineStr"/>
     </row>
     <row r="170">
       <c r="A170" s="1" t="n">
@@ -6618,22 +6093,19 @@
       <c r="H170" t="n">
         <v>0</v>
       </c>
-      <c r="I170" t="n">
-        <v>0</v>
-      </c>
-      <c r="J170" t="inlineStr"/>
-      <c r="K170" t="n">
+      <c r="I170" t="inlineStr"/>
+      <c r="J170" t="n">
         <v>443.3</v>
       </c>
-      <c r="L170" t="inlineStr">
+      <c r="K170" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M170" t="n">
-        <v>1</v>
-      </c>
-      <c r="N170" t="inlineStr"/>
+      <c r="L170" t="n">
+        <v>1</v>
+      </c>
+      <c r="M170" t="inlineStr"/>
     </row>
     <row r="171">
       <c r="A171" s="1" t="n">
@@ -6660,22 +6132,19 @@
       <c r="H171" t="n">
         <v>0</v>
       </c>
-      <c r="I171" t="n">
-        <v>0</v>
-      </c>
-      <c r="J171" t="inlineStr"/>
-      <c r="K171" t="n">
+      <c r="I171" t="inlineStr"/>
+      <c r="J171" t="n">
         <v>443.3</v>
       </c>
-      <c r="L171" t="inlineStr">
+      <c r="K171" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M171" t="n">
-        <v>1</v>
-      </c>
-      <c r="N171" t="inlineStr"/>
+      <c r="L171" t="n">
+        <v>1</v>
+      </c>
+      <c r="M171" t="inlineStr"/>
     </row>
     <row r="172">
       <c r="A172" s="1" t="n">
@@ -6702,22 +6171,19 @@
       <c r="H172" t="n">
         <v>0</v>
       </c>
-      <c r="I172" t="n">
-        <v>0</v>
-      </c>
-      <c r="J172" t="inlineStr"/>
-      <c r="K172" t="n">
+      <c r="I172" t="inlineStr"/>
+      <c r="J172" t="n">
         <v>443.3</v>
       </c>
-      <c r="L172" t="inlineStr">
+      <c r="K172" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M172" t="n">
-        <v>1</v>
-      </c>
-      <c r="N172" t="inlineStr"/>
+      <c r="L172" t="n">
+        <v>1</v>
+      </c>
+      <c r="M172" t="inlineStr"/>
     </row>
     <row r="173">
       <c r="A173" s="1" t="n">
@@ -6744,22 +6210,19 @@
       <c r="H173" t="n">
         <v>0</v>
       </c>
-      <c r="I173" t="n">
-        <v>0</v>
-      </c>
-      <c r="J173" t="inlineStr"/>
-      <c r="K173" t="n">
+      <c r="I173" t="inlineStr"/>
+      <c r="J173" t="n">
         <v>443.3</v>
       </c>
-      <c r="L173" t="inlineStr">
+      <c r="K173" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M173" t="n">
-        <v>1</v>
-      </c>
-      <c r="N173" t="inlineStr"/>
+      <c r="L173" t="n">
+        <v>1</v>
+      </c>
+      <c r="M173" t="inlineStr"/>
     </row>
     <row r="174">
       <c r="A174" s="1" t="n">
@@ -6786,22 +6249,19 @@
       <c r="H174" t="n">
         <v>0</v>
       </c>
-      <c r="I174" t="n">
-        <v>0</v>
-      </c>
-      <c r="J174" t="inlineStr"/>
-      <c r="K174" t="n">
+      <c r="I174" t="inlineStr"/>
+      <c r="J174" t="n">
         <v>443.3</v>
       </c>
-      <c r="L174" t="inlineStr">
+      <c r="K174" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M174" t="n">
-        <v>1</v>
-      </c>
-      <c r="N174" t="inlineStr"/>
+      <c r="L174" t="n">
+        <v>1</v>
+      </c>
+      <c r="M174" t="inlineStr"/>
     </row>
     <row r="175">
       <c r="A175" s="1" t="n">
@@ -6828,24 +6288,21 @@
       <c r="H175" t="n">
         <v>0</v>
       </c>
-      <c r="I175" t="n">
-        <v>0</v>
-      </c>
-      <c r="J175" t="inlineStr"/>
-      <c r="K175" t="n">
+      <c r="I175" t="inlineStr"/>
+      <c r="J175" t="n">
         <v>443.3</v>
       </c>
-      <c r="L175" t="inlineStr">
+      <c r="K175" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M175" t="n">
-        <v>1</v>
-      </c>
-      <c r="N175" t="inlineStr"/>
+      <c r="L175" t="n">
+        <v>1</v>
+      </c>
+      <c r="M175" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/BackTest/2020-01-24 BackTest WTC.xlsx
+++ b/BackTest/2020-01-24 BackTest WTC.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>OBV</t>
+          <t>CMO</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -451,7 +451,7 @@
         <v>-22721.12629999999</v>
       </c>
       <c r="H2" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
@@ -484,7 +484,7 @@
         <v>-21711.35729999999</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr"/>
@@ -517,7 +517,7 @@
         <v>-20919.53329999999</v>
       </c>
       <c r="H4" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I4" t="inlineStr"/>
       <c r="J4" t="inlineStr"/>
@@ -583,7 +583,7 @@
         <v>-25903.28759999999</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I6" t="inlineStr"/>
       <c r="J6" t="inlineStr"/>
@@ -649,7 +649,7 @@
         <v>-25903.28759999999</v>
       </c>
       <c r="H8" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I8" t="inlineStr"/>
       <c r="J8" t="inlineStr"/>
@@ -682,7 +682,7 @@
         <v>-25903.28759999999</v>
       </c>
       <c r="H9" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I9" t="inlineStr"/>
       <c r="J9" t="inlineStr"/>
@@ -715,7 +715,7 @@
         <v>-26039.28759999999</v>
       </c>
       <c r="H10" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I10" t="inlineStr"/>
       <c r="J10" t="inlineStr"/>
@@ -748,7 +748,7 @@
         <v>-22254.13619999999</v>
       </c>
       <c r="H11" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I11" t="inlineStr"/>
       <c r="J11" t="inlineStr"/>
@@ -781,7 +781,7 @@
         <v>-23542.8461</v>
       </c>
       <c r="H12" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I12" t="inlineStr"/>
       <c r="J12" t="inlineStr"/>
@@ -814,7 +814,7 @@
         <v>-23754.2064</v>
       </c>
       <c r="H13" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I13" t="inlineStr"/>
       <c r="J13" t="inlineStr"/>
@@ -880,7 +880,7 @@
         <v>-24019.2064</v>
       </c>
       <c r="H15" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I15" t="inlineStr"/>
       <c r="J15" t="inlineStr"/>
@@ -946,7 +946,7 @@
         <v>-24019.2064</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I17" t="inlineStr"/>
       <c r="J17" t="inlineStr"/>
@@ -979,7 +979,7 @@
         <v>-24019.2064</v>
       </c>
       <c r="H18" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I18" t="inlineStr"/>
       <c r="J18" t="inlineStr"/>
@@ -1012,7 +1012,7 @@
         <v>-33207.73409999999</v>
       </c>
       <c r="H19" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I19" t="inlineStr"/>
       <c r="J19" t="inlineStr"/>
@@ -1045,7 +1045,7 @@
         <v>-33142.33839999999</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I20" t="inlineStr"/>
       <c r="J20" t="inlineStr"/>
@@ -1078,7 +1078,7 @@
         <v>-35427.33839999999</v>
       </c>
       <c r="H21" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I21" t="inlineStr"/>
       <c r="J21" t="inlineStr"/>
@@ -1111,7 +1111,7 @@
         <v>-33740.2899</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I22" t="inlineStr"/>
       <c r="J22" t="inlineStr"/>
@@ -1144,7 +1144,7 @@
         <v>-36040.2899</v>
       </c>
       <c r="H23" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I23" t="inlineStr"/>
       <c r="J23" t="inlineStr"/>
@@ -1177,7 +1177,7 @@
         <v>-32386.0335</v>
       </c>
       <c r="H24" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I24" t="inlineStr"/>
       <c r="J24" t="inlineStr"/>
@@ -1210,7 +1210,7 @@
         <v>-32921.0335</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I25" t="inlineStr"/>
       <c r="J25" t="inlineStr"/>
@@ -1243,7 +1243,7 @@
         <v>-32921.0335</v>
       </c>
       <c r="H26" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I26" t="inlineStr"/>
       <c r="J26" t="inlineStr"/>
@@ -1276,7 +1276,7 @@
         <v>-32921.0335</v>
       </c>
       <c r="H27" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I27" t="inlineStr"/>
       <c r="J27" t="inlineStr"/>
@@ -1309,7 +1309,7 @@
         <v>-32921.0335</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I28" t="inlineStr"/>
       <c r="J28" t="inlineStr"/>
@@ -1342,7 +1342,7 @@
         <v>-33049.1951</v>
       </c>
       <c r="H29" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I29" t="inlineStr"/>
       <c r="J29" t="inlineStr"/>
@@ -1375,7 +1375,7 @@
         <v>-37519.729</v>
       </c>
       <c r="H30" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I30" t="inlineStr"/>
       <c r="J30" t="inlineStr"/>
@@ -1408,7 +1408,7 @@
         <v>-37519.729</v>
       </c>
       <c r="H31" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I31" t="inlineStr"/>
       <c r="J31" t="inlineStr"/>
@@ -1441,7 +1441,7 @@
         <v>-36489.7753</v>
       </c>
       <c r="H32" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I32" t="inlineStr"/>
       <c r="J32" t="inlineStr"/>
@@ -1474,7 +1474,7 @@
         <v>-36141.9274</v>
       </c>
       <c r="H33" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I33" t="inlineStr"/>
       <c r="J33" t="inlineStr"/>
@@ -1507,7 +1507,7 @@
         <v>-36024.8274</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I34" t="inlineStr"/>
       <c r="J34" t="inlineStr"/>
@@ -1540,7 +1540,7 @@
         <v>-36023.6274</v>
       </c>
       <c r="H35" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I35" t="inlineStr"/>
       <c r="J35" t="inlineStr"/>
@@ -1573,7 +1573,7 @@
         <v>-36024.6974</v>
       </c>
       <c r="H36" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I36" t="inlineStr"/>
       <c r="J36" t="inlineStr"/>
@@ -1672,7 +1672,7 @@
         <v>-36645.4495</v>
       </c>
       <c r="H39" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I39" t="inlineStr"/>
       <c r="J39" t="inlineStr"/>
@@ -1705,7 +1705,7 @@
         <v>-32563.4295</v>
       </c>
       <c r="H40" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I40" t="inlineStr"/>
       <c r="J40" t="inlineStr"/>
@@ -1738,7 +1738,7 @@
         <v>-29621.0703</v>
       </c>
       <c r="H41" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I41" t="inlineStr"/>
       <c r="J41" t="inlineStr"/>
@@ -1771,7 +1771,7 @@
         <v>-28730.3911</v>
       </c>
       <c r="H42" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I42" t="inlineStr"/>
       <c r="J42" t="inlineStr"/>
@@ -1804,7 +1804,7 @@
         <v>-28811.625</v>
       </c>
       <c r="H43" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I43" t="inlineStr"/>
       <c r="J43" t="inlineStr"/>
@@ -1936,7 +1936,7 @@
         <v>-29687.2909</v>
       </c>
       <c r="H47" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I47" t="inlineStr"/>
       <c r="J47" t="inlineStr"/>
@@ -1969,7 +1969,7 @@
         <v>-29687.2909</v>
       </c>
       <c r="H48" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I48" t="inlineStr"/>
       <c r="J48" t="inlineStr"/>
@@ -2002,7 +2002,7 @@
         <v>-29687.2909</v>
       </c>
       <c r="H49" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I49" t="inlineStr"/>
       <c r="J49" t="inlineStr"/>
@@ -5500,7 +5500,7 @@
         <v>-119507.7424</v>
       </c>
       <c r="H155" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I155" t="n">
         <v>443.3</v>
@@ -5537,9 +5537,11 @@
         <v>-119507.7424</v>
       </c>
       <c r="H156" t="n">
-        <v>0</v>
-      </c>
-      <c r="I156" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I156" t="n">
+        <v>443.3</v>
+      </c>
       <c r="J156" t="n">
         <v>443.3</v>
       </c>
@@ -5576,7 +5578,7 @@
         <v>-116984.3278</v>
       </c>
       <c r="H157" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I157" t="n">
         <v>443.3</v>
@@ -5617,7 +5619,7 @@
         <v>-119250.0919</v>
       </c>
       <c r="H158" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I158" t="n">
         <v>447.7</v>
@@ -5658,7 +5660,7 @@
         <v>-119241.5757</v>
       </c>
       <c r="H159" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I159" t="n">
         <v>443.3</v>
@@ -5699,7 +5701,7 @@
         <v>-119341.5756</v>
       </c>
       <c r="H160" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I160" t="n">
         <v>447.7</v>
@@ -5740,9 +5742,11 @@
         <v>-119052.3672</v>
       </c>
       <c r="H161" t="n">
-        <v>0</v>
-      </c>
-      <c r="I161" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I161" t="n">
+        <v>446.7</v>
+      </c>
       <c r="J161" t="n">
         <v>443.3</v>
       </c>
@@ -6303,6 +6307,6 @@
       <c r="M175" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>
--- a/BackTest/2020-01-24 BackTest WTC.xlsx
+++ b/BackTest/2020-01-24 BackTest WTC.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>CMO</t>
+          <t>OBV</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -451,7 +451,7 @@
         <v>-22721.12629999999</v>
       </c>
       <c r="H2" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
@@ -484,7 +484,7 @@
         <v>-21711.35729999999</v>
       </c>
       <c r="H3" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr"/>
@@ -517,7 +517,7 @@
         <v>-20919.53329999999</v>
       </c>
       <c r="H4" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I4" t="inlineStr"/>
       <c r="J4" t="inlineStr"/>
@@ -583,7 +583,7 @@
         <v>-25903.28759999999</v>
       </c>
       <c r="H6" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I6" t="inlineStr"/>
       <c r="J6" t="inlineStr"/>
@@ -946,7 +946,7 @@
         <v>-24019.2064</v>
       </c>
       <c r="H17" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I17" t="inlineStr"/>
       <c r="J17" t="inlineStr"/>
@@ -1012,7 +1012,7 @@
         <v>-33207.73409999999</v>
       </c>
       <c r="H19" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I19" t="inlineStr"/>
       <c r="J19" t="inlineStr"/>
@@ -1045,7 +1045,7 @@
         <v>-33142.33839999999</v>
       </c>
       <c r="H20" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I20" t="inlineStr"/>
       <c r="J20" t="inlineStr"/>
@@ -1078,7 +1078,7 @@
         <v>-35427.33839999999</v>
       </c>
       <c r="H21" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I21" t="inlineStr"/>
       <c r="J21" t="inlineStr"/>
@@ -1111,7 +1111,7 @@
         <v>-33740.2899</v>
       </c>
       <c r="H22" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I22" t="inlineStr"/>
       <c r="J22" t="inlineStr"/>
@@ -1144,7 +1144,7 @@
         <v>-36040.2899</v>
       </c>
       <c r="H23" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I23" t="inlineStr"/>
       <c r="J23" t="inlineStr"/>
@@ -1177,7 +1177,7 @@
         <v>-32386.0335</v>
       </c>
       <c r="H24" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I24" t="inlineStr"/>
       <c r="J24" t="inlineStr"/>
@@ -1210,7 +1210,7 @@
         <v>-32921.0335</v>
       </c>
       <c r="H25" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I25" t="inlineStr"/>
       <c r="J25" t="inlineStr"/>
@@ -1243,7 +1243,7 @@
         <v>-32921.0335</v>
       </c>
       <c r="H26" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I26" t="inlineStr"/>
       <c r="J26" t="inlineStr"/>
@@ -1276,7 +1276,7 @@
         <v>-32921.0335</v>
       </c>
       <c r="H27" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I27" t="inlineStr"/>
       <c r="J27" t="inlineStr"/>
@@ -1309,7 +1309,7 @@
         <v>-32921.0335</v>
       </c>
       <c r="H28" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I28" t="inlineStr"/>
       <c r="J28" t="inlineStr"/>
@@ -1342,7 +1342,7 @@
         <v>-33049.1951</v>
       </c>
       <c r="H29" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I29" t="inlineStr"/>
       <c r="J29" t="inlineStr"/>
@@ -1375,7 +1375,7 @@
         <v>-37519.729</v>
       </c>
       <c r="H30" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I30" t="inlineStr"/>
       <c r="J30" t="inlineStr"/>
@@ -1408,7 +1408,7 @@
         <v>-37519.729</v>
       </c>
       <c r="H31" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I31" t="inlineStr"/>
       <c r="J31" t="inlineStr"/>
@@ -1441,7 +1441,7 @@
         <v>-36489.7753</v>
       </c>
       <c r="H32" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I32" t="inlineStr"/>
       <c r="J32" t="inlineStr"/>
@@ -1474,7 +1474,7 @@
         <v>-36141.9274</v>
       </c>
       <c r="H33" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I33" t="inlineStr"/>
       <c r="J33" t="inlineStr"/>
@@ -1507,7 +1507,7 @@
         <v>-36024.8274</v>
       </c>
       <c r="H34" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I34" t="inlineStr"/>
       <c r="J34" t="inlineStr"/>
@@ -1540,7 +1540,7 @@
         <v>-36023.6274</v>
       </c>
       <c r="H35" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I35" t="inlineStr"/>
       <c r="J35" t="inlineStr"/>
@@ -1573,7 +1573,7 @@
         <v>-36024.6974</v>
       </c>
       <c r="H36" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I36" t="inlineStr"/>
       <c r="J36" t="inlineStr"/>
@@ -1672,7 +1672,7 @@
         <v>-36645.4495</v>
       </c>
       <c r="H39" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I39" t="inlineStr"/>
       <c r="J39" t="inlineStr"/>
@@ -1705,7 +1705,7 @@
         <v>-32563.4295</v>
       </c>
       <c r="H40" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I40" t="inlineStr"/>
       <c r="J40" t="inlineStr"/>
@@ -1771,7 +1771,7 @@
         <v>-28730.3911</v>
       </c>
       <c r="H42" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I42" t="inlineStr"/>
       <c r="J42" t="inlineStr"/>
@@ -1804,7 +1804,7 @@
         <v>-28811.625</v>
       </c>
       <c r="H43" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I43" t="inlineStr"/>
       <c r="J43" t="inlineStr"/>
@@ -1936,7 +1936,7 @@
         <v>-29687.2909</v>
       </c>
       <c r="H47" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I47" t="inlineStr"/>
       <c r="J47" t="inlineStr"/>
@@ -1969,7 +1969,7 @@
         <v>-29687.2909</v>
       </c>
       <c r="H48" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I48" t="inlineStr"/>
       <c r="J48" t="inlineStr"/>
@@ -4147,7 +4147,7 @@
         <v>-60630.97110000001</v>
       </c>
       <c r="H114" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I114" t="inlineStr"/>
       <c r="J114" t="inlineStr"/>
@@ -4180,7 +4180,7 @@
         <v>-60630.97110000001</v>
       </c>
       <c r="H115" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I115" t="inlineStr"/>
       <c r="J115" t="inlineStr"/>
@@ -4213,7 +4213,7 @@
         <v>-63115.56240000001</v>
       </c>
       <c r="H116" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I116" t="inlineStr"/>
       <c r="J116" t="inlineStr"/>
@@ -4312,7 +4312,7 @@
         <v>-64510.56240000001</v>
       </c>
       <c r="H119" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I119" t="inlineStr"/>
       <c r="J119" t="inlineStr"/>
@@ -4345,7 +4345,7 @@
         <v>-64510.56240000001</v>
       </c>
       <c r="H120" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I120" t="inlineStr"/>
       <c r="J120" t="inlineStr"/>
@@ -4378,7 +4378,7 @@
         <v>-71135.98550000001</v>
       </c>
       <c r="H121" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I121" t="inlineStr"/>
       <c r="J121" t="inlineStr"/>
@@ -4411,7 +4411,7 @@
         <v>-73134.93610000001</v>
       </c>
       <c r="H122" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I122" t="inlineStr"/>
       <c r="J122" t="inlineStr"/>
@@ -4444,7 +4444,7 @@
         <v>-80134.93610000001</v>
       </c>
       <c r="H123" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I123" t="inlineStr"/>
       <c r="J123" t="inlineStr"/>
@@ -4477,7 +4477,7 @@
         <v>-82133.88680000001</v>
       </c>
       <c r="H124" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I124" t="inlineStr"/>
       <c r="J124" t="inlineStr"/>
@@ -5434,10 +5434,14 @@
         <v>-119507.7424</v>
       </c>
       <c r="H153" t="n">
-        <v>0</v>
-      </c>
-      <c r="I153" t="inlineStr"/>
-      <c r="J153" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I153" t="n">
+        <v>443.3</v>
+      </c>
+      <c r="J153" t="n">
+        <v>443.3</v>
+      </c>
       <c r="K153" t="inlineStr"/>
       <c r="L153" t="n">
         <v>1</v>
@@ -5467,11 +5471,19 @@
         <v>-119507.7424</v>
       </c>
       <c r="H154" t="n">
-        <v>0</v>
-      </c>
-      <c r="I154" t="inlineStr"/>
-      <c r="J154" t="inlineStr"/>
-      <c r="K154" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I154" t="n">
+        <v>443.3</v>
+      </c>
+      <c r="J154" t="n">
+        <v>443.3</v>
+      </c>
+      <c r="K154" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L154" t="n">
         <v>1</v>
       </c>
@@ -5508,7 +5520,11 @@
       <c r="J155" t="n">
         <v>443.3</v>
       </c>
-      <c r="K155" t="inlineStr"/>
+      <c r="K155" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L155" t="n">
         <v>1</v>
       </c>
@@ -5545,11 +5561,7 @@
       <c r="J156" t="n">
         <v>443.3</v>
       </c>
-      <c r="K156" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="K156" t="inlineStr"/>
       <c r="L156" t="n">
         <v>1</v>
       </c>
@@ -5619,11 +5631,9 @@
         <v>-119250.0919</v>
       </c>
       <c r="H158" t="n">
-        <v>1</v>
-      </c>
-      <c r="I158" t="n">
-        <v>447.7</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I158" t="inlineStr"/>
       <c r="J158" t="n">
         <v>443.3</v>
       </c>
@@ -5742,11 +5752,9 @@
         <v>-119052.3672</v>
       </c>
       <c r="H161" t="n">
-        <v>1</v>
-      </c>
-      <c r="I161" t="n">
-        <v>446.7</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I161" t="inlineStr"/>
       <c r="J161" t="n">
         <v>443.3</v>
       </c>
@@ -6212,7 +6220,7 @@
         <v>-113836.9214289643</v>
       </c>
       <c r="H173" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I173" t="inlineStr"/>
       <c r="J173" t="n">
@@ -6220,11 +6228,11 @@
       </c>
       <c r="K173" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매도 체결</t>
         </is>
       </c>
       <c r="L173" t="n">
-        <v>1</v>
+        <v>1.01688134446199</v>
       </c>
       <c r="M173" t="inlineStr"/>
     </row>
@@ -6254,14 +6262,8 @@
         <v>0</v>
       </c>
       <c r="I174" t="inlineStr"/>
-      <c r="J174" t="n">
-        <v>443.3</v>
-      </c>
-      <c r="K174" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J174" t="inlineStr"/>
+      <c r="K174" t="inlineStr"/>
       <c r="L174" t="n">
         <v>1</v>
       </c>
@@ -6290,23 +6292,17 @@
         <v>-111036.9214289643</v>
       </c>
       <c r="H175" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I175" t="inlineStr"/>
-      <c r="J175" t="n">
-        <v>443.3</v>
-      </c>
-      <c r="K175" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J175" t="inlineStr"/>
+      <c r="K175" t="inlineStr"/>
       <c r="L175" t="n">
         <v>1</v>
       </c>
       <c r="M175" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/BackTest/2020-01-24 BackTest WTC.xlsx
+++ b/BackTest/2020-01-24 BackTest WTC.xlsx
@@ -451,7 +451,7 @@
         <v>-22721.12629999999</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
@@ -484,7 +484,7 @@
         <v>-21711.35729999999</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr"/>
@@ -517,7 +517,7 @@
         <v>-20919.53329999999</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I4" t="inlineStr"/>
       <c r="J4" t="inlineStr"/>
@@ -550,7 +550,7 @@
         <v>-25993.99219999999</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I5" t="inlineStr"/>
       <c r="J5" t="inlineStr"/>
@@ -583,7 +583,7 @@
         <v>-25903.28759999999</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I6" t="inlineStr"/>
       <c r="J6" t="inlineStr"/>
@@ -616,7 +616,7 @@
         <v>-25903.28759999999</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I7" t="inlineStr"/>
       <c r="J7" t="inlineStr"/>
@@ -649,7 +649,7 @@
         <v>-25903.28759999999</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I8" t="inlineStr"/>
       <c r="J8" t="inlineStr"/>
@@ -682,7 +682,7 @@
         <v>-25903.28759999999</v>
       </c>
       <c r="H9" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I9" t="inlineStr"/>
       <c r="J9" t="inlineStr"/>
@@ -715,7 +715,7 @@
         <v>-26039.28759999999</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I10" t="inlineStr"/>
       <c r="J10" t="inlineStr"/>
@@ -748,7 +748,7 @@
         <v>-22254.13619999999</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I11" t="inlineStr"/>
       <c r="J11" t="inlineStr"/>
@@ -781,7 +781,7 @@
         <v>-23542.8461</v>
       </c>
       <c r="H12" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I12" t="inlineStr"/>
       <c r="J12" t="inlineStr"/>
@@ -814,7 +814,7 @@
         <v>-23754.2064</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I13" t="inlineStr"/>
       <c r="J13" t="inlineStr"/>
@@ -847,7 +847,7 @@
         <v>-23754.2064</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I14" t="inlineStr"/>
       <c r="J14" t="inlineStr"/>
@@ -880,7 +880,7 @@
         <v>-24019.2064</v>
       </c>
       <c r="H15" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I15" t="inlineStr"/>
       <c r="J15" t="inlineStr"/>
@@ -913,7 +913,7 @@
         <v>-24019.2064</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I16" t="inlineStr"/>
       <c r="J16" t="inlineStr"/>
@@ -979,7 +979,7 @@
         <v>-24019.2064</v>
       </c>
       <c r="H18" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I18" t="inlineStr"/>
       <c r="J18" t="inlineStr"/>
@@ -1012,7 +1012,7 @@
         <v>-33207.73409999999</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I19" t="inlineStr"/>
       <c r="J19" t="inlineStr"/>
@@ -4147,7 +4147,7 @@
         <v>-60630.97110000001</v>
       </c>
       <c r="H114" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I114" t="inlineStr"/>
       <c r="J114" t="inlineStr"/>
@@ -4180,7 +4180,7 @@
         <v>-60630.97110000001</v>
       </c>
       <c r="H115" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I115" t="inlineStr"/>
       <c r="J115" t="inlineStr"/>
@@ -4213,7 +4213,7 @@
         <v>-63115.56240000001</v>
       </c>
       <c r="H116" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I116" t="inlineStr"/>
       <c r="J116" t="inlineStr"/>
@@ -4312,7 +4312,7 @@
         <v>-64510.56240000001</v>
       </c>
       <c r="H119" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I119" t="inlineStr"/>
       <c r="J119" t="inlineStr"/>
@@ -4345,7 +4345,7 @@
         <v>-64510.56240000001</v>
       </c>
       <c r="H120" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I120" t="inlineStr"/>
       <c r="J120" t="inlineStr"/>
@@ -4378,7 +4378,7 @@
         <v>-71135.98550000001</v>
       </c>
       <c r="H121" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I121" t="inlineStr"/>
       <c r="J121" t="inlineStr"/>
@@ -4411,7 +4411,7 @@
         <v>-73134.93610000001</v>
       </c>
       <c r="H122" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I122" t="inlineStr"/>
       <c r="J122" t="inlineStr"/>
@@ -4444,7 +4444,7 @@
         <v>-80134.93610000001</v>
       </c>
       <c r="H123" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I123" t="inlineStr"/>
       <c r="J123" t="inlineStr"/>
@@ -4477,7 +4477,7 @@
         <v>-82133.88680000001</v>
       </c>
       <c r="H124" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I124" t="inlineStr"/>
       <c r="J124" t="inlineStr"/>
@@ -5434,14 +5434,10 @@
         <v>-119507.7424</v>
       </c>
       <c r="H153" t="n">
-        <v>1</v>
-      </c>
-      <c r="I153" t="n">
-        <v>443.3</v>
-      </c>
-      <c r="J153" t="n">
-        <v>443.3</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I153" t="inlineStr"/>
+      <c r="J153" t="inlineStr"/>
       <c r="K153" t="inlineStr"/>
       <c r="L153" t="n">
         <v>1</v>
@@ -5471,19 +5467,11 @@
         <v>-119507.7424</v>
       </c>
       <c r="H154" t="n">
-        <v>1</v>
-      </c>
-      <c r="I154" t="n">
-        <v>443.3</v>
-      </c>
-      <c r="J154" t="n">
-        <v>443.3</v>
-      </c>
-      <c r="K154" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I154" t="inlineStr"/>
+      <c r="J154" t="inlineStr"/>
+      <c r="K154" t="inlineStr"/>
       <c r="L154" t="n">
         <v>1</v>
       </c>
@@ -5512,19 +5500,11 @@
         <v>-119507.7424</v>
       </c>
       <c r="H155" t="n">
-        <v>1</v>
-      </c>
-      <c r="I155" t="n">
-        <v>443.3</v>
-      </c>
-      <c r="J155" t="n">
-        <v>443.3</v>
-      </c>
-      <c r="K155" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I155" t="inlineStr"/>
+      <c r="J155" t="inlineStr"/>
+      <c r="K155" t="inlineStr"/>
       <c r="L155" t="n">
         <v>1</v>
       </c>
@@ -5631,9 +5611,11 @@
         <v>-119250.0919</v>
       </c>
       <c r="H158" t="n">
-        <v>0</v>
-      </c>
-      <c r="I158" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I158" t="n">
+        <v>447.7</v>
+      </c>
       <c r="J158" t="n">
         <v>443.3</v>
       </c>
@@ -5752,9 +5734,11 @@
         <v>-119052.3672</v>
       </c>
       <c r="H161" t="n">
-        <v>0</v>
-      </c>
-      <c r="I161" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I161" t="n">
+        <v>446.7</v>
+      </c>
       <c r="J161" t="n">
         <v>443.3</v>
       </c>
@@ -5791,9 +5775,11 @@
         <v>-119761.5167</v>
       </c>
       <c r="H162" t="n">
-        <v>0</v>
-      </c>
-      <c r="I162" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I162" t="n">
+        <v>448</v>
+      </c>
       <c r="J162" t="n">
         <v>443.3</v>
       </c>
@@ -5830,9 +5816,11 @@
         <v>-119764.7261</v>
       </c>
       <c r="H163" t="n">
-        <v>0</v>
-      </c>
-      <c r="I163" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I163" t="n">
+        <v>447.6</v>
+      </c>
       <c r="J163" t="n">
         <v>443.3</v>
       </c>
@@ -5869,9 +5857,11 @@
         <v>-116964.7261</v>
       </c>
       <c r="H164" t="n">
-        <v>0</v>
-      </c>
-      <c r="I164" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I164" t="n">
+        <v>447.5</v>
+      </c>
       <c r="J164" t="n">
         <v>443.3</v>
       </c>
@@ -6103,9 +6093,11 @@
         <v>-114347.0705289643</v>
       </c>
       <c r="H170" t="n">
-        <v>0</v>
-      </c>
-      <c r="I170" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I170" t="n">
+        <v>449.8</v>
+      </c>
       <c r="J170" t="n">
         <v>443.3</v>
       </c>
@@ -6181,9 +6173,11 @@
         <v>-114236.9214289643</v>
       </c>
       <c r="H172" t="n">
-        <v>0</v>
-      </c>
-      <c r="I172" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I172" t="n">
+        <v>452</v>
+      </c>
       <c r="J172" t="n">
         <v>443.3</v>
       </c>
@@ -6220,19 +6214,21 @@
         <v>-113836.9214289643</v>
       </c>
       <c r="H173" t="n">
-        <v>2</v>
-      </c>
-      <c r="I173" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I173" t="n">
+        <v>452.6</v>
+      </c>
       <c r="J173" t="n">
         <v>443.3</v>
       </c>
       <c r="K173" t="inlineStr">
         <is>
-          <t>매도 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L173" t="n">
-        <v>1.01688134446199</v>
+        <v>1</v>
       </c>
       <c r="M173" t="inlineStr"/>
     </row>
@@ -6259,11 +6255,19 @@
         <v>-111036.9214289643</v>
       </c>
       <c r="H174" t="n">
-        <v>0</v>
-      </c>
-      <c r="I174" t="inlineStr"/>
-      <c r="J174" t="inlineStr"/>
-      <c r="K174" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I174" t="n">
+        <v>453</v>
+      </c>
+      <c r="J174" t="n">
+        <v>443.3</v>
+      </c>
+      <c r="K174" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L174" t="n">
         <v>1</v>
       </c>
@@ -6292,11 +6296,19 @@
         <v>-111036.9214289643</v>
       </c>
       <c r="H175" t="n">
-        <v>2</v>
-      </c>
-      <c r="I175" t="inlineStr"/>
-      <c r="J175" t="inlineStr"/>
-      <c r="K175" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I175" t="n">
+        <v>453.9</v>
+      </c>
+      <c r="J175" t="n">
+        <v>443.3</v>
+      </c>
+      <c r="K175" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L175" t="n">
         <v>1</v>
       </c>

--- a/BackTest/2020-01-24 BackTest WTC.xlsx
+++ b/BackTest/2020-01-24 BackTest WTC.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M175"/>
+  <dimension ref="A1:L175"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -389,40 +389,35 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>volume</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
           <t>OBV</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>trade_state</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>BuyPrice</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>bprelay</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>Condition</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>Profits</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>Price_point</t>
         </is>
@@ -448,18 +443,15 @@
         <v>12.7385</v>
       </c>
       <c r="G2" t="n">
-        <v>-22721.12629999999</v>
-      </c>
-      <c r="H2" t="n">
         <v>2</v>
       </c>
+      <c r="H2" t="inlineStr"/>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
-      <c r="K2" t="inlineStr"/>
-      <c r="L2" t="n">
-        <v>1</v>
-      </c>
-      <c r="M2" t="inlineStr"/>
+      <c r="K2" t="n">
+        <v>1</v>
+      </c>
+      <c r="L2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -481,18 +473,15 @@
         <v>1009.769</v>
       </c>
       <c r="G3" t="n">
-        <v>-21711.35729999999</v>
-      </c>
-      <c r="H3" t="n">
         <v>2</v>
       </c>
+      <c r="H3" t="inlineStr"/>
       <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr"/>
-      <c r="K3" t="inlineStr"/>
-      <c r="L3" t="n">
-        <v>1</v>
-      </c>
-      <c r="M3" t="inlineStr"/>
+      <c r="K3" t="n">
+        <v>1</v>
+      </c>
+      <c r="L3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -514,18 +503,15 @@
         <v>791.824</v>
       </c>
       <c r="G4" t="n">
-        <v>-20919.53329999999</v>
-      </c>
-      <c r="H4" t="n">
         <v>2</v>
       </c>
+      <c r="H4" t="inlineStr"/>
       <c r="I4" t="inlineStr"/>
       <c r="J4" t="inlineStr"/>
-      <c r="K4" t="inlineStr"/>
-      <c r="L4" t="n">
-        <v>1</v>
-      </c>
-      <c r="M4" t="inlineStr"/>
+      <c r="K4" t="n">
+        <v>1</v>
+      </c>
+      <c r="L4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -547,18 +533,15 @@
         <v>5074.4589</v>
       </c>
       <c r="G5" t="n">
-        <v>-25993.99219999999</v>
-      </c>
-      <c r="H5" t="n">
         <v>2</v>
       </c>
+      <c r="H5" t="inlineStr"/>
       <c r="I5" t="inlineStr"/>
       <c r="J5" t="inlineStr"/>
-      <c r="K5" t="inlineStr"/>
-      <c r="L5" t="n">
-        <v>1</v>
-      </c>
-      <c r="M5" t="inlineStr"/>
+      <c r="K5" t="n">
+        <v>1</v>
+      </c>
+      <c r="L5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -580,18 +563,15 @@
         <v>90.7046</v>
       </c>
       <c r="G6" t="n">
-        <v>-25903.28759999999</v>
-      </c>
-      <c r="H6" t="n">
         <v>2</v>
       </c>
+      <c r="H6" t="inlineStr"/>
       <c r="I6" t="inlineStr"/>
       <c r="J6" t="inlineStr"/>
-      <c r="K6" t="inlineStr"/>
-      <c r="L6" t="n">
-        <v>1</v>
-      </c>
-      <c r="M6" t="inlineStr"/>
+      <c r="K6" t="n">
+        <v>1</v>
+      </c>
+      <c r="L6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -613,18 +593,15 @@
         <v>182.2718</v>
       </c>
       <c r="G7" t="n">
-        <v>-25903.28759999999</v>
-      </c>
-      <c r="H7" t="n">
         <v>2</v>
       </c>
+      <c r="H7" t="inlineStr"/>
       <c r="I7" t="inlineStr"/>
       <c r="J7" t="inlineStr"/>
-      <c r="K7" t="inlineStr"/>
-      <c r="L7" t="n">
-        <v>1</v>
-      </c>
-      <c r="M7" t="inlineStr"/>
+      <c r="K7" t="n">
+        <v>1</v>
+      </c>
+      <c r="L7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -646,18 +623,15 @@
         <v>204.2593</v>
       </c>
       <c r="G8" t="n">
-        <v>-25903.28759999999</v>
-      </c>
-      <c r="H8" t="n">
         <v>2</v>
       </c>
+      <c r="H8" t="inlineStr"/>
       <c r="I8" t="inlineStr"/>
       <c r="J8" t="inlineStr"/>
-      <c r="K8" t="inlineStr"/>
-      <c r="L8" t="n">
-        <v>1</v>
-      </c>
-      <c r="M8" t="inlineStr"/>
+      <c r="K8" t="n">
+        <v>1</v>
+      </c>
+      <c r="L8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
@@ -679,18 +653,15 @@
         <v>174.8456</v>
       </c>
       <c r="G9" t="n">
-        <v>-25903.28759999999</v>
-      </c>
-      <c r="H9" t="n">
         <v>2</v>
       </c>
+      <c r="H9" t="inlineStr"/>
       <c r="I9" t="inlineStr"/>
       <c r="J9" t="inlineStr"/>
-      <c r="K9" t="inlineStr"/>
-      <c r="L9" t="n">
-        <v>1</v>
-      </c>
-      <c r="M9" t="inlineStr"/>
+      <c r="K9" t="n">
+        <v>1</v>
+      </c>
+      <c r="L9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
@@ -712,18 +683,15 @@
         <v>136</v>
       </c>
       <c r="G10" t="n">
-        <v>-26039.28759999999</v>
-      </c>
-      <c r="H10" t="n">
         <v>2</v>
       </c>
+      <c r="H10" t="inlineStr"/>
       <c r="I10" t="inlineStr"/>
       <c r="J10" t="inlineStr"/>
-      <c r="K10" t="inlineStr"/>
-      <c r="L10" t="n">
-        <v>1</v>
-      </c>
-      <c r="M10" t="inlineStr"/>
+      <c r="K10" t="n">
+        <v>1</v>
+      </c>
+      <c r="L10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
@@ -745,18 +713,15 @@
         <v>3785.1514</v>
       </c>
       <c r="G11" t="n">
-        <v>-22254.13619999999</v>
-      </c>
-      <c r="H11" t="n">
         <v>2</v>
       </c>
+      <c r="H11" t="inlineStr"/>
       <c r="I11" t="inlineStr"/>
       <c r="J11" t="inlineStr"/>
-      <c r="K11" t="inlineStr"/>
-      <c r="L11" t="n">
-        <v>1</v>
-      </c>
-      <c r="M11" t="inlineStr"/>
+      <c r="K11" t="n">
+        <v>1</v>
+      </c>
+      <c r="L11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
@@ -778,18 +743,15 @@
         <v>1288.7099</v>
       </c>
       <c r="G12" t="n">
-        <v>-23542.8461</v>
-      </c>
-      <c r="H12" t="n">
         <v>2</v>
       </c>
+      <c r="H12" t="inlineStr"/>
       <c r="I12" t="inlineStr"/>
       <c r="J12" t="inlineStr"/>
-      <c r="K12" t="inlineStr"/>
-      <c r="L12" t="n">
-        <v>1</v>
-      </c>
-      <c r="M12" t="inlineStr"/>
+      <c r="K12" t="n">
+        <v>1</v>
+      </c>
+      <c r="L12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
@@ -811,18 +773,15 @@
         <v>211.3603</v>
       </c>
       <c r="G13" t="n">
-        <v>-23754.2064</v>
-      </c>
-      <c r="H13" t="n">
         <v>2</v>
       </c>
+      <c r="H13" t="inlineStr"/>
       <c r="I13" t="inlineStr"/>
       <c r="J13" t="inlineStr"/>
-      <c r="K13" t="inlineStr"/>
-      <c r="L13" t="n">
-        <v>1</v>
-      </c>
-      <c r="M13" t="inlineStr"/>
+      <c r="K13" t="n">
+        <v>1</v>
+      </c>
+      <c r="L13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
@@ -844,18 +803,15 @@
         <v>3.3394</v>
       </c>
       <c r="G14" t="n">
-        <v>-23754.2064</v>
-      </c>
-      <c r="H14" t="n">
         <v>2</v>
       </c>
+      <c r="H14" t="inlineStr"/>
       <c r="I14" t="inlineStr"/>
       <c r="J14" t="inlineStr"/>
-      <c r="K14" t="inlineStr"/>
-      <c r="L14" t="n">
-        <v>1</v>
-      </c>
-      <c r="M14" t="inlineStr"/>
+      <c r="K14" t="n">
+        <v>1</v>
+      </c>
+      <c r="L14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
@@ -877,18 +833,15 @@
         <v>265</v>
       </c>
       <c r="G15" t="n">
-        <v>-24019.2064</v>
-      </c>
-      <c r="H15" t="n">
         <v>2</v>
       </c>
+      <c r="H15" t="inlineStr"/>
       <c r="I15" t="inlineStr"/>
       <c r="J15" t="inlineStr"/>
-      <c r="K15" t="inlineStr"/>
-      <c r="L15" t="n">
-        <v>1</v>
-      </c>
-      <c r="M15" t="inlineStr"/>
+      <c r="K15" t="n">
+        <v>1</v>
+      </c>
+      <c r="L15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
@@ -910,18 +863,15 @@
         <v>1050.5536</v>
       </c>
       <c r="G16" t="n">
-        <v>-24019.2064</v>
-      </c>
-      <c r="H16" t="n">
         <v>2</v>
       </c>
+      <c r="H16" t="inlineStr"/>
       <c r="I16" t="inlineStr"/>
       <c r="J16" t="inlineStr"/>
-      <c r="K16" t="inlineStr"/>
-      <c r="L16" t="n">
-        <v>1</v>
-      </c>
-      <c r="M16" t="inlineStr"/>
+      <c r="K16" t="n">
+        <v>1</v>
+      </c>
+      <c r="L16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
@@ -943,18 +893,15 @@
         <v>767.5219</v>
       </c>
       <c r="G17" t="n">
-        <v>-24019.2064</v>
-      </c>
-      <c r="H17" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H17" t="inlineStr"/>
       <c r="I17" t="inlineStr"/>
       <c r="J17" t="inlineStr"/>
-      <c r="K17" t="inlineStr"/>
-      <c r="L17" t="n">
-        <v>1</v>
-      </c>
-      <c r="M17" t="inlineStr"/>
+      <c r="K17" t="n">
+        <v>1</v>
+      </c>
+      <c r="L17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
@@ -976,18 +923,15 @@
         <v>218.7389</v>
       </c>
       <c r="G18" t="n">
-        <v>-24019.2064</v>
-      </c>
-      <c r="H18" t="n">
         <v>2</v>
       </c>
+      <c r="H18" t="inlineStr"/>
       <c r="I18" t="inlineStr"/>
       <c r="J18" t="inlineStr"/>
-      <c r="K18" t="inlineStr"/>
-      <c r="L18" t="n">
-        <v>1</v>
-      </c>
-      <c r="M18" t="inlineStr"/>
+      <c r="K18" t="n">
+        <v>1</v>
+      </c>
+      <c r="L18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
@@ -1009,18 +953,15 @@
         <v>9188.527700000001</v>
       </c>
       <c r="G19" t="n">
-        <v>-33207.73409999999</v>
-      </c>
-      <c r="H19" t="n">
         <v>2</v>
       </c>
+      <c r="H19" t="inlineStr"/>
       <c r="I19" t="inlineStr"/>
       <c r="J19" t="inlineStr"/>
-      <c r="K19" t="inlineStr"/>
-      <c r="L19" t="n">
-        <v>1</v>
-      </c>
-      <c r="M19" t="inlineStr"/>
+      <c r="K19" t="n">
+        <v>1</v>
+      </c>
+      <c r="L19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
@@ -1042,18 +983,15 @@
         <v>65.39570000000001</v>
       </c>
       <c r="G20" t="n">
-        <v>-33142.33839999999</v>
-      </c>
-      <c r="H20" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H20" t="inlineStr"/>
       <c r="I20" t="inlineStr"/>
       <c r="J20" t="inlineStr"/>
-      <c r="K20" t="inlineStr"/>
-      <c r="L20" t="n">
-        <v>1</v>
-      </c>
-      <c r="M20" t="inlineStr"/>
+      <c r="K20" t="n">
+        <v>1</v>
+      </c>
+      <c r="L20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
@@ -1075,18 +1013,15 @@
         <v>2285</v>
       </c>
       <c r="G21" t="n">
-        <v>-35427.33839999999</v>
-      </c>
-      <c r="H21" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H21" t="inlineStr"/>
       <c r="I21" t="inlineStr"/>
       <c r="J21" t="inlineStr"/>
-      <c r="K21" t="inlineStr"/>
-      <c r="L21" t="n">
-        <v>1</v>
-      </c>
-      <c r="M21" t="inlineStr"/>
+      <c r="K21" t="n">
+        <v>1</v>
+      </c>
+      <c r="L21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
@@ -1108,18 +1043,15 @@
         <v>1687.0485</v>
       </c>
       <c r="G22" t="n">
-        <v>-33740.2899</v>
-      </c>
-      <c r="H22" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H22" t="inlineStr"/>
       <c r="I22" t="inlineStr"/>
       <c r="J22" t="inlineStr"/>
-      <c r="K22" t="inlineStr"/>
-      <c r="L22" t="n">
-        <v>1</v>
-      </c>
-      <c r="M22" t="inlineStr"/>
+      <c r="K22" t="n">
+        <v>1</v>
+      </c>
+      <c r="L22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
@@ -1141,18 +1073,15 @@
         <v>2300</v>
       </c>
       <c r="G23" t="n">
-        <v>-36040.2899</v>
-      </c>
-      <c r="H23" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H23" t="inlineStr"/>
       <c r="I23" t="inlineStr"/>
       <c r="J23" t="inlineStr"/>
-      <c r="K23" t="inlineStr"/>
-      <c r="L23" t="n">
-        <v>1</v>
-      </c>
-      <c r="M23" t="inlineStr"/>
+      <c r="K23" t="n">
+        <v>1</v>
+      </c>
+      <c r="L23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
@@ -1174,18 +1103,15 @@
         <v>3654.2564</v>
       </c>
       <c r="G24" t="n">
-        <v>-32386.0335</v>
-      </c>
-      <c r="H24" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H24" t="inlineStr"/>
       <c r="I24" t="inlineStr"/>
       <c r="J24" t="inlineStr"/>
-      <c r="K24" t="inlineStr"/>
-      <c r="L24" t="n">
-        <v>1</v>
-      </c>
-      <c r="M24" t="inlineStr"/>
+      <c r="K24" t="n">
+        <v>1</v>
+      </c>
+      <c r="L24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
@@ -1207,18 +1133,15 @@
         <v>535</v>
       </c>
       <c r="G25" t="n">
-        <v>-32921.0335</v>
-      </c>
-      <c r="H25" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H25" t="inlineStr"/>
       <c r="I25" t="inlineStr"/>
       <c r="J25" t="inlineStr"/>
-      <c r="K25" t="inlineStr"/>
-      <c r="L25" t="n">
-        <v>1</v>
-      </c>
-      <c r="M25" t="inlineStr"/>
+      <c r="K25" t="n">
+        <v>1</v>
+      </c>
+      <c r="L25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
@@ -1240,18 +1163,15 @@
         <v>4829.3503</v>
       </c>
       <c r="G26" t="n">
-        <v>-32921.0335</v>
-      </c>
-      <c r="H26" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H26" t="inlineStr"/>
       <c r="I26" t="inlineStr"/>
       <c r="J26" t="inlineStr"/>
-      <c r="K26" t="inlineStr"/>
-      <c r="L26" t="n">
-        <v>1</v>
-      </c>
-      <c r="M26" t="inlineStr"/>
+      <c r="K26" t="n">
+        <v>1</v>
+      </c>
+      <c r="L26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
@@ -1273,18 +1193,15 @@
         <v>973.6066</v>
       </c>
       <c r="G27" t="n">
-        <v>-32921.0335</v>
-      </c>
-      <c r="H27" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H27" t="inlineStr"/>
       <c r="I27" t="inlineStr"/>
       <c r="J27" t="inlineStr"/>
-      <c r="K27" t="inlineStr"/>
-      <c r="L27" t="n">
-        <v>1</v>
-      </c>
-      <c r="M27" t="inlineStr"/>
+      <c r="K27" t="n">
+        <v>1</v>
+      </c>
+      <c r="L27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
@@ -1306,18 +1223,15 @@
         <v>241.0977</v>
       </c>
       <c r="G28" t="n">
-        <v>-32921.0335</v>
-      </c>
-      <c r="H28" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H28" t="inlineStr"/>
       <c r="I28" t="inlineStr"/>
       <c r="J28" t="inlineStr"/>
-      <c r="K28" t="inlineStr"/>
-      <c r="L28" t="n">
-        <v>1</v>
-      </c>
-      <c r="M28" t="inlineStr"/>
+      <c r="K28" t="n">
+        <v>1</v>
+      </c>
+      <c r="L28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
@@ -1339,18 +1253,15 @@
         <v>128.1616</v>
       </c>
       <c r="G29" t="n">
-        <v>-33049.1951</v>
-      </c>
-      <c r="H29" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H29" t="inlineStr"/>
       <c r="I29" t="inlineStr"/>
       <c r="J29" t="inlineStr"/>
-      <c r="K29" t="inlineStr"/>
-      <c r="L29" t="n">
-        <v>1</v>
-      </c>
-      <c r="M29" t="inlineStr"/>
+      <c r="K29" t="n">
+        <v>1</v>
+      </c>
+      <c r="L29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
@@ -1372,18 +1283,15 @@
         <v>4470.5339</v>
       </c>
       <c r="G30" t="n">
-        <v>-37519.729</v>
-      </c>
-      <c r="H30" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H30" t="inlineStr"/>
       <c r="I30" t="inlineStr"/>
       <c r="J30" t="inlineStr"/>
-      <c r="K30" t="inlineStr"/>
-      <c r="L30" t="n">
-        <v>1</v>
-      </c>
-      <c r="M30" t="inlineStr"/>
+      <c r="K30" t="n">
+        <v>1</v>
+      </c>
+      <c r="L30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
@@ -1405,18 +1313,15 @@
         <v>29.4391</v>
       </c>
       <c r="G31" t="n">
-        <v>-37519.729</v>
-      </c>
-      <c r="H31" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H31" t="inlineStr"/>
       <c r="I31" t="inlineStr"/>
       <c r="J31" t="inlineStr"/>
-      <c r="K31" t="inlineStr"/>
-      <c r="L31" t="n">
-        <v>1</v>
-      </c>
-      <c r="M31" t="inlineStr"/>
+      <c r="K31" t="n">
+        <v>1</v>
+      </c>
+      <c r="L31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
@@ -1438,18 +1343,15 @@
         <v>1029.9537</v>
       </c>
       <c r="G32" t="n">
-        <v>-36489.7753</v>
-      </c>
-      <c r="H32" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H32" t="inlineStr"/>
       <c r="I32" t="inlineStr"/>
       <c r="J32" t="inlineStr"/>
-      <c r="K32" t="inlineStr"/>
-      <c r="L32" t="n">
-        <v>1</v>
-      </c>
-      <c r="M32" t="inlineStr"/>
+      <c r="K32" t="n">
+        <v>1</v>
+      </c>
+      <c r="L32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
@@ -1471,18 +1373,15 @@
         <v>347.8479</v>
       </c>
       <c r="G33" t="n">
-        <v>-36141.9274</v>
-      </c>
-      <c r="H33" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H33" t="inlineStr"/>
       <c r="I33" t="inlineStr"/>
       <c r="J33" t="inlineStr"/>
-      <c r="K33" t="inlineStr"/>
-      <c r="L33" t="n">
-        <v>1</v>
-      </c>
-      <c r="M33" t="inlineStr"/>
+      <c r="K33" t="n">
+        <v>1</v>
+      </c>
+      <c r="L33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
@@ -1504,18 +1403,15 @@
         <v>117.1</v>
       </c>
       <c r="G34" t="n">
-        <v>-36024.8274</v>
-      </c>
-      <c r="H34" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H34" t="inlineStr"/>
       <c r="I34" t="inlineStr"/>
       <c r="J34" t="inlineStr"/>
-      <c r="K34" t="inlineStr"/>
-      <c r="L34" t="n">
-        <v>1</v>
-      </c>
-      <c r="M34" t="inlineStr"/>
+      <c r="K34" t="n">
+        <v>1</v>
+      </c>
+      <c r="L34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
@@ -1537,18 +1433,15 @@
         <v>1.2</v>
       </c>
       <c r="G35" t="n">
-        <v>-36023.6274</v>
-      </c>
-      <c r="H35" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H35" t="inlineStr"/>
       <c r="I35" t="inlineStr"/>
       <c r="J35" t="inlineStr"/>
-      <c r="K35" t="inlineStr"/>
-      <c r="L35" t="n">
-        <v>1</v>
-      </c>
-      <c r="M35" t="inlineStr"/>
+      <c r="K35" t="n">
+        <v>1</v>
+      </c>
+      <c r="L35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
@@ -1570,18 +1463,15 @@
         <v>1.07</v>
       </c>
       <c r="G36" t="n">
-        <v>-36024.6974</v>
-      </c>
-      <c r="H36" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H36" t="inlineStr"/>
       <c r="I36" t="inlineStr"/>
       <c r="J36" t="inlineStr"/>
-      <c r="K36" t="inlineStr"/>
-      <c r="L36" t="n">
-        <v>1</v>
-      </c>
-      <c r="M36" t="inlineStr"/>
+      <c r="K36" t="n">
+        <v>1</v>
+      </c>
+      <c r="L36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
@@ -1603,18 +1493,15 @@
         <v>158.1363</v>
       </c>
       <c r="G37" t="n">
-        <v>-36024.6974</v>
-      </c>
-      <c r="H37" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H37" t="inlineStr"/>
       <c r="I37" t="inlineStr"/>
       <c r="J37" t="inlineStr"/>
-      <c r="K37" t="inlineStr"/>
-      <c r="L37" t="n">
-        <v>1</v>
-      </c>
-      <c r="M37" t="inlineStr"/>
+      <c r="K37" t="n">
+        <v>1</v>
+      </c>
+      <c r="L37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
@@ -1636,18 +1523,15 @@
         <v>215.6406</v>
       </c>
       <c r="G38" t="n">
-        <v>-36024.6974</v>
-      </c>
-      <c r="H38" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H38" t="inlineStr"/>
       <c r="I38" t="inlineStr"/>
       <c r="J38" t="inlineStr"/>
-      <c r="K38" t="inlineStr"/>
-      <c r="L38" t="n">
-        <v>1</v>
-      </c>
-      <c r="M38" t="inlineStr"/>
+      <c r="K38" t="n">
+        <v>1</v>
+      </c>
+      <c r="L38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
@@ -1669,18 +1553,15 @@
         <v>620.7521</v>
       </c>
       <c r="G39" t="n">
-        <v>-36645.4495</v>
-      </c>
-      <c r="H39" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H39" t="inlineStr"/>
       <c r="I39" t="inlineStr"/>
       <c r="J39" t="inlineStr"/>
-      <c r="K39" t="inlineStr"/>
-      <c r="L39" t="n">
-        <v>1</v>
-      </c>
-      <c r="M39" t="inlineStr"/>
+      <c r="K39" t="n">
+        <v>1</v>
+      </c>
+      <c r="L39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
@@ -1702,18 +1583,15 @@
         <v>4082.02</v>
       </c>
       <c r="G40" t="n">
-        <v>-32563.4295</v>
-      </c>
-      <c r="H40" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H40" t="inlineStr"/>
       <c r="I40" t="inlineStr"/>
       <c r="J40" t="inlineStr"/>
-      <c r="K40" t="inlineStr"/>
-      <c r="L40" t="n">
-        <v>1</v>
-      </c>
-      <c r="M40" t="inlineStr"/>
+      <c r="K40" t="n">
+        <v>1</v>
+      </c>
+      <c r="L40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
@@ -1735,18 +1613,15 @@
         <v>2942.3592</v>
       </c>
       <c r="G41" t="n">
-        <v>-29621.0703</v>
-      </c>
-      <c r="H41" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H41" t="inlineStr"/>
       <c r="I41" t="inlineStr"/>
       <c r="J41" t="inlineStr"/>
-      <c r="K41" t="inlineStr"/>
-      <c r="L41" t="n">
-        <v>1</v>
-      </c>
-      <c r="M41" t="inlineStr"/>
+      <c r="K41" t="n">
+        <v>1</v>
+      </c>
+      <c r="L41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
@@ -1768,18 +1643,15 @@
         <v>890.6792</v>
       </c>
       <c r="G42" t="n">
-        <v>-28730.3911</v>
-      </c>
-      <c r="H42" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H42" t="inlineStr"/>
       <c r="I42" t="inlineStr"/>
       <c r="J42" t="inlineStr"/>
-      <c r="K42" t="inlineStr"/>
-      <c r="L42" t="n">
-        <v>1</v>
-      </c>
-      <c r="M42" t="inlineStr"/>
+      <c r="K42" t="n">
+        <v>1</v>
+      </c>
+      <c r="L42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
@@ -1801,18 +1673,15 @@
         <v>81.23390000000001</v>
       </c>
       <c r="G43" t="n">
-        <v>-28811.625</v>
-      </c>
-      <c r="H43" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H43" t="inlineStr"/>
       <c r="I43" t="inlineStr"/>
       <c r="J43" t="inlineStr"/>
-      <c r="K43" t="inlineStr"/>
-      <c r="L43" t="n">
-        <v>1</v>
-      </c>
-      <c r="M43" t="inlineStr"/>
+      <c r="K43" t="n">
+        <v>1</v>
+      </c>
+      <c r="L43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
@@ -1834,18 +1703,15 @@
         <v>830.6659</v>
       </c>
       <c r="G44" t="n">
-        <v>-29642.2909</v>
-      </c>
-      <c r="H44" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H44" t="inlineStr"/>
       <c r="I44" t="inlineStr"/>
       <c r="J44" t="inlineStr"/>
-      <c r="K44" t="inlineStr"/>
-      <c r="L44" t="n">
-        <v>1</v>
-      </c>
-      <c r="M44" t="inlineStr"/>
+      <c r="K44" t="n">
+        <v>1</v>
+      </c>
+      <c r="L44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
@@ -1867,18 +1733,15 @@
         <v>2141</v>
       </c>
       <c r="G45" t="n">
-        <v>-29642.2909</v>
-      </c>
-      <c r="H45" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H45" t="inlineStr"/>
       <c r="I45" t="inlineStr"/>
       <c r="J45" t="inlineStr"/>
-      <c r="K45" t="inlineStr"/>
-      <c r="L45" t="n">
-        <v>1</v>
-      </c>
-      <c r="M45" t="inlineStr"/>
+      <c r="K45" t="n">
+        <v>1</v>
+      </c>
+      <c r="L45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
@@ -1900,18 +1763,15 @@
         <v>791.6233999999999</v>
       </c>
       <c r="G46" t="n">
-        <v>-29642.2909</v>
-      </c>
-      <c r="H46" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H46" t="inlineStr"/>
       <c r="I46" t="inlineStr"/>
       <c r="J46" t="inlineStr"/>
-      <c r="K46" t="inlineStr"/>
-      <c r="L46" t="n">
-        <v>1</v>
-      </c>
-      <c r="M46" t="inlineStr"/>
+      <c r="K46" t="n">
+        <v>1</v>
+      </c>
+      <c r="L46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
@@ -1933,18 +1793,15 @@
         <v>45</v>
       </c>
       <c r="G47" t="n">
-        <v>-29687.2909</v>
-      </c>
-      <c r="H47" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H47" t="inlineStr"/>
       <c r="I47" t="inlineStr"/>
       <c r="J47" t="inlineStr"/>
-      <c r="K47" t="inlineStr"/>
-      <c r="L47" t="n">
-        <v>1</v>
-      </c>
-      <c r="M47" t="inlineStr"/>
+      <c r="K47" t="n">
+        <v>1</v>
+      </c>
+      <c r="L47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
@@ -1966,18 +1823,15 @@
         <v>4400</v>
       </c>
       <c r="G48" t="n">
-        <v>-29687.2909</v>
-      </c>
-      <c r="H48" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H48" t="inlineStr"/>
       <c r="I48" t="inlineStr"/>
       <c r="J48" t="inlineStr"/>
-      <c r="K48" t="inlineStr"/>
-      <c r="L48" t="n">
-        <v>1</v>
-      </c>
-      <c r="M48" t="inlineStr"/>
+      <c r="K48" t="n">
+        <v>1</v>
+      </c>
+      <c r="L48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
@@ -1999,18 +1853,15 @@
         <v>1400</v>
       </c>
       <c r="G49" t="n">
-        <v>-29687.2909</v>
-      </c>
-      <c r="H49" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H49" t="inlineStr"/>
       <c r="I49" t="inlineStr"/>
       <c r="J49" t="inlineStr"/>
-      <c r="K49" t="inlineStr"/>
-      <c r="L49" t="n">
-        <v>1</v>
-      </c>
-      <c r="M49" t="inlineStr"/>
+      <c r="K49" t="n">
+        <v>1</v>
+      </c>
+      <c r="L49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
@@ -2032,18 +1883,15 @@
         <v>428.205</v>
       </c>
       <c r="G50" t="n">
-        <v>-29259.0859</v>
-      </c>
-      <c r="H50" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H50" t="inlineStr"/>
       <c r="I50" t="inlineStr"/>
       <c r="J50" t="inlineStr"/>
-      <c r="K50" t="inlineStr"/>
-      <c r="L50" t="n">
-        <v>1</v>
-      </c>
-      <c r="M50" t="inlineStr"/>
+      <c r="K50" t="n">
+        <v>1</v>
+      </c>
+      <c r="L50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
@@ -2065,18 +1913,15 @@
         <v>62.0995</v>
       </c>
       <c r="G51" t="n">
-        <v>-29321.1854</v>
-      </c>
-      <c r="H51" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H51" t="inlineStr"/>
       <c r="I51" t="inlineStr"/>
       <c r="J51" t="inlineStr"/>
-      <c r="K51" t="inlineStr"/>
-      <c r="L51" t="n">
-        <v>1</v>
-      </c>
-      <c r="M51" t="inlineStr"/>
+      <c r="K51" t="n">
+        <v>1</v>
+      </c>
+      <c r="L51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
@@ -2098,18 +1943,15 @@
         <v>2119.8725</v>
       </c>
       <c r="G52" t="n">
-        <v>-31441.0579</v>
-      </c>
-      <c r="H52" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H52" t="inlineStr"/>
       <c r="I52" t="inlineStr"/>
       <c r="J52" t="inlineStr"/>
-      <c r="K52" t="inlineStr"/>
-      <c r="L52" t="n">
-        <v>1</v>
-      </c>
-      <c r="M52" t="inlineStr"/>
+      <c r="K52" t="n">
+        <v>1</v>
+      </c>
+      <c r="L52" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
@@ -2131,18 +1973,15 @@
         <v>17.3888</v>
       </c>
       <c r="G53" t="n">
-        <v>-31423.6691</v>
-      </c>
-      <c r="H53" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H53" t="inlineStr"/>
       <c r="I53" t="inlineStr"/>
       <c r="J53" t="inlineStr"/>
-      <c r="K53" t="inlineStr"/>
-      <c r="L53" t="n">
-        <v>1</v>
-      </c>
-      <c r="M53" t="inlineStr"/>
+      <c r="K53" t="n">
+        <v>1</v>
+      </c>
+      <c r="L53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
@@ -2164,18 +2003,15 @@
         <v>1480</v>
       </c>
       <c r="G54" t="n">
-        <v>-29943.6691</v>
-      </c>
-      <c r="H54" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H54" t="inlineStr"/>
       <c r="I54" t="inlineStr"/>
       <c r="J54" t="inlineStr"/>
-      <c r="K54" t="inlineStr"/>
-      <c r="L54" t="n">
-        <v>1</v>
-      </c>
-      <c r="M54" t="inlineStr"/>
+      <c r="K54" t="n">
+        <v>1</v>
+      </c>
+      <c r="L54" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
@@ -2197,18 +2033,15 @@
         <v>78.57089999999999</v>
       </c>
       <c r="G55" t="n">
-        <v>-30022.24</v>
-      </c>
-      <c r="H55" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H55" t="inlineStr"/>
       <c r="I55" t="inlineStr"/>
       <c r="J55" t="inlineStr"/>
-      <c r="K55" t="inlineStr"/>
-      <c r="L55" t="n">
-        <v>1</v>
-      </c>
-      <c r="M55" t="inlineStr"/>
+      <c r="K55" t="n">
+        <v>1</v>
+      </c>
+      <c r="L55" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
@@ -2230,18 +2063,15 @@
         <v>1445</v>
       </c>
       <c r="G56" t="n">
-        <v>-31467.24</v>
-      </c>
-      <c r="H56" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H56" t="inlineStr"/>
       <c r="I56" t="inlineStr"/>
       <c r="J56" t="inlineStr"/>
-      <c r="K56" t="inlineStr"/>
-      <c r="L56" t="n">
-        <v>1</v>
-      </c>
-      <c r="M56" t="inlineStr"/>
+      <c r="K56" t="n">
+        <v>1</v>
+      </c>
+      <c r="L56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
@@ -2263,18 +2093,15 @@
         <v>10340.5075</v>
       </c>
       <c r="G57" t="n">
-        <v>-31467.24</v>
-      </c>
-      <c r="H57" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H57" t="inlineStr"/>
       <c r="I57" t="inlineStr"/>
       <c r="J57" t="inlineStr"/>
-      <c r="K57" t="inlineStr"/>
-      <c r="L57" t="n">
-        <v>1</v>
-      </c>
-      <c r="M57" t="inlineStr"/>
+      <c r="K57" t="n">
+        <v>1</v>
+      </c>
+      <c r="L57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
@@ -2296,18 +2123,15 @@
         <v>350</v>
       </c>
       <c r="G58" t="n">
-        <v>-31467.24</v>
-      </c>
-      <c r="H58" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H58" t="inlineStr"/>
       <c r="I58" t="inlineStr"/>
       <c r="J58" t="inlineStr"/>
-      <c r="K58" t="inlineStr"/>
-      <c r="L58" t="n">
-        <v>1</v>
-      </c>
-      <c r="M58" t="inlineStr"/>
+      <c r="K58" t="n">
+        <v>1</v>
+      </c>
+      <c r="L58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
@@ -2329,18 +2153,15 @@
         <v>2731</v>
       </c>
       <c r="G59" t="n">
-        <v>-31467.24</v>
-      </c>
-      <c r="H59" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H59" t="inlineStr"/>
       <c r="I59" t="inlineStr"/>
       <c r="J59" t="inlineStr"/>
-      <c r="K59" t="inlineStr"/>
-      <c r="L59" t="n">
-        <v>1</v>
-      </c>
-      <c r="M59" t="inlineStr"/>
+      <c r="K59" t="n">
+        <v>1</v>
+      </c>
+      <c r="L59" t="inlineStr"/>
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
@@ -2362,18 +2183,15 @@
         <v>4970</v>
       </c>
       <c r="G60" t="n">
-        <v>-31467.24</v>
-      </c>
-      <c r="H60" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H60" t="inlineStr"/>
       <c r="I60" t="inlineStr"/>
       <c r="J60" t="inlineStr"/>
-      <c r="K60" t="inlineStr"/>
-      <c r="L60" t="n">
-        <v>1</v>
-      </c>
-      <c r="M60" t="inlineStr"/>
+      <c r="K60" t="n">
+        <v>1</v>
+      </c>
+      <c r="L60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
@@ -2395,18 +2213,15 @@
         <v>2362</v>
       </c>
       <c r="G61" t="n">
-        <v>-31467.24</v>
-      </c>
-      <c r="H61" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H61" t="inlineStr"/>
       <c r="I61" t="inlineStr"/>
       <c r="J61" t="inlineStr"/>
-      <c r="K61" t="inlineStr"/>
-      <c r="L61" t="n">
-        <v>1</v>
-      </c>
-      <c r="M61" t="inlineStr"/>
+      <c r="K61" t="n">
+        <v>1</v>
+      </c>
+      <c r="L61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
@@ -2428,18 +2243,15 @@
         <v>3681</v>
       </c>
       <c r="G62" t="n">
-        <v>-31467.24</v>
-      </c>
-      <c r="H62" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H62" t="inlineStr"/>
       <c r="I62" t="inlineStr"/>
       <c r="J62" t="inlineStr"/>
-      <c r="K62" t="inlineStr"/>
-      <c r="L62" t="n">
-        <v>1</v>
-      </c>
-      <c r="M62" t="inlineStr"/>
+      <c r="K62" t="n">
+        <v>1</v>
+      </c>
+      <c r="L62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
@@ -2461,18 +2273,15 @@
         <v>3176.4406</v>
       </c>
       <c r="G63" t="n">
-        <v>-34643.6806</v>
-      </c>
-      <c r="H63" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H63" t="inlineStr"/>
       <c r="I63" t="inlineStr"/>
       <c r="J63" t="inlineStr"/>
-      <c r="K63" t="inlineStr"/>
-      <c r="L63" t="n">
-        <v>1</v>
-      </c>
-      <c r="M63" t="inlineStr"/>
+      <c r="K63" t="n">
+        <v>1</v>
+      </c>
+      <c r="L63" t="inlineStr"/>
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
@@ -2494,18 +2303,15 @@
         <v>1430</v>
       </c>
       <c r="G64" t="n">
-        <v>-36073.6806</v>
-      </c>
-      <c r="H64" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H64" t="inlineStr"/>
       <c r="I64" t="inlineStr"/>
       <c r="J64" t="inlineStr"/>
-      <c r="K64" t="inlineStr"/>
-      <c r="L64" t="n">
-        <v>1</v>
-      </c>
-      <c r="M64" t="inlineStr"/>
+      <c r="K64" t="n">
+        <v>1</v>
+      </c>
+      <c r="L64" t="inlineStr"/>
     </row>
     <row r="65">
       <c r="A65" s="1" t="n">
@@ -2527,18 +2333,15 @@
         <v>34.804</v>
       </c>
       <c r="G65" t="n">
-        <v>-36073.6806</v>
-      </c>
-      <c r="H65" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H65" t="inlineStr"/>
       <c r="I65" t="inlineStr"/>
       <c r="J65" t="inlineStr"/>
-      <c r="K65" t="inlineStr"/>
-      <c r="L65" t="n">
-        <v>1</v>
-      </c>
-      <c r="M65" t="inlineStr"/>
+      <c r="K65" t="n">
+        <v>1</v>
+      </c>
+      <c r="L65" t="inlineStr"/>
     </row>
     <row r="66">
       <c r="A66" s="1" t="n">
@@ -2560,18 +2363,15 @@
         <v>653.6479</v>
       </c>
       <c r="G66" t="n">
-        <v>-36727.3285</v>
-      </c>
-      <c r="H66" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H66" t="inlineStr"/>
       <c r="I66" t="inlineStr"/>
       <c r="J66" t="inlineStr"/>
-      <c r="K66" t="inlineStr"/>
-      <c r="L66" t="n">
-        <v>1</v>
-      </c>
-      <c r="M66" t="inlineStr"/>
+      <c r="K66" t="n">
+        <v>1</v>
+      </c>
+      <c r="L66" t="inlineStr"/>
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
@@ -2593,18 +2393,15 @@
         <v>17256.472</v>
       </c>
       <c r="G67" t="n">
-        <v>-53983.8005</v>
-      </c>
-      <c r="H67" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H67" t="inlineStr"/>
       <c r="I67" t="inlineStr"/>
       <c r="J67" t="inlineStr"/>
-      <c r="K67" t="inlineStr"/>
-      <c r="L67" t="n">
-        <v>1</v>
-      </c>
-      <c r="M67" t="inlineStr"/>
+      <c r="K67" t="n">
+        <v>1</v>
+      </c>
+      <c r="L67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
@@ -2626,18 +2423,15 @@
         <v>100</v>
       </c>
       <c r="G68" t="n">
-        <v>-53883.8005</v>
-      </c>
-      <c r="H68" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H68" t="inlineStr"/>
       <c r="I68" t="inlineStr"/>
       <c r="J68" t="inlineStr"/>
-      <c r="K68" t="inlineStr"/>
-      <c r="L68" t="n">
-        <v>1</v>
-      </c>
-      <c r="M68" t="inlineStr"/>
+      <c r="K68" t="n">
+        <v>1</v>
+      </c>
+      <c r="L68" t="inlineStr"/>
     </row>
     <row r="69">
       <c r="A69" s="1" t="n">
@@ -2659,18 +2453,15 @@
         <v>2</v>
       </c>
       <c r="G69" t="n">
-        <v>-53885.8005</v>
-      </c>
-      <c r="H69" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H69" t="inlineStr"/>
       <c r="I69" t="inlineStr"/>
       <c r="J69" t="inlineStr"/>
-      <c r="K69" t="inlineStr"/>
-      <c r="L69" t="n">
-        <v>1</v>
-      </c>
-      <c r="M69" t="inlineStr"/>
+      <c r="K69" t="n">
+        <v>1</v>
+      </c>
+      <c r="L69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
@@ -2692,18 +2483,15 @@
         <v>1163.522</v>
       </c>
       <c r="G70" t="n">
-        <v>-55049.3225</v>
-      </c>
-      <c r="H70" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H70" t="inlineStr"/>
       <c r="I70" t="inlineStr"/>
       <c r="J70" t="inlineStr"/>
-      <c r="K70" t="inlineStr"/>
-      <c r="L70" t="n">
-        <v>1</v>
-      </c>
-      <c r="M70" t="inlineStr"/>
+      <c r="K70" t="n">
+        <v>1</v>
+      </c>
+      <c r="L70" t="inlineStr"/>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
@@ -2725,18 +2513,15 @@
         <v>2768.4405</v>
       </c>
       <c r="G71" t="n">
-        <v>-55049.3225</v>
-      </c>
-      <c r="H71" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H71" t="inlineStr"/>
       <c r="I71" t="inlineStr"/>
       <c r="J71" t="inlineStr"/>
-      <c r="K71" t="inlineStr"/>
-      <c r="L71" t="n">
-        <v>1</v>
-      </c>
-      <c r="M71" t="inlineStr"/>
+      <c r="K71" t="n">
+        <v>1</v>
+      </c>
+      <c r="L71" t="inlineStr"/>
     </row>
     <row r="72">
       <c r="A72" s="1" t="n">
@@ -2758,18 +2543,15 @@
         <v>613.706</v>
       </c>
       <c r="G72" t="n">
-        <v>-55049.3225</v>
-      </c>
-      <c r="H72" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H72" t="inlineStr"/>
       <c r="I72" t="inlineStr"/>
       <c r="J72" t="inlineStr"/>
-      <c r="K72" t="inlineStr"/>
-      <c r="L72" t="n">
-        <v>1</v>
-      </c>
-      <c r="M72" t="inlineStr"/>
+      <c r="K72" t="n">
+        <v>1</v>
+      </c>
+      <c r="L72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
@@ -2791,18 +2573,15 @@
         <v>2545</v>
       </c>
       <c r="G73" t="n">
-        <v>-57594.3225</v>
-      </c>
-      <c r="H73" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H73" t="inlineStr"/>
       <c r="I73" t="inlineStr"/>
       <c r="J73" t="inlineStr"/>
-      <c r="K73" t="inlineStr"/>
-      <c r="L73" t="n">
-        <v>1</v>
-      </c>
-      <c r="M73" t="inlineStr"/>
+      <c r="K73" t="n">
+        <v>1</v>
+      </c>
+      <c r="L73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
@@ -2824,18 +2603,15 @@
         <v>6820</v>
       </c>
       <c r="G74" t="n">
-        <v>-64414.3225</v>
-      </c>
-      <c r="H74" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H74" t="inlineStr"/>
       <c r="I74" t="inlineStr"/>
       <c r="J74" t="inlineStr"/>
-      <c r="K74" t="inlineStr"/>
-      <c r="L74" t="n">
-        <v>1</v>
-      </c>
-      <c r="M74" t="inlineStr"/>
+      <c r="K74" t="n">
+        <v>1</v>
+      </c>
+      <c r="L74" t="inlineStr"/>
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
@@ -2857,18 +2633,15 @@
         <v>11396.0494</v>
       </c>
       <c r="G75" t="n">
-        <v>-64414.3225</v>
-      </c>
-      <c r="H75" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H75" t="inlineStr"/>
       <c r="I75" t="inlineStr"/>
       <c r="J75" t="inlineStr"/>
-      <c r="K75" t="inlineStr"/>
-      <c r="L75" t="n">
-        <v>1</v>
-      </c>
-      <c r="M75" t="inlineStr"/>
+      <c r="K75" t="n">
+        <v>1</v>
+      </c>
+      <c r="L75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
@@ -2890,18 +2663,15 @@
         <v>1525</v>
       </c>
       <c r="G76" t="n">
-        <v>-64414.3225</v>
-      </c>
-      <c r="H76" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H76" t="inlineStr"/>
       <c r="I76" t="inlineStr"/>
       <c r="J76" t="inlineStr"/>
-      <c r="K76" t="inlineStr"/>
-      <c r="L76" t="n">
-        <v>1</v>
-      </c>
-      <c r="M76" t="inlineStr"/>
+      <c r="K76" t="n">
+        <v>1</v>
+      </c>
+      <c r="L76" t="inlineStr"/>
     </row>
     <row r="77">
       <c r="A77" s="1" t="n">
@@ -2923,18 +2693,15 @@
         <v>1175</v>
       </c>
       <c r="G77" t="n">
-        <v>-63239.3225</v>
-      </c>
-      <c r="H77" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H77" t="inlineStr"/>
       <c r="I77" t="inlineStr"/>
       <c r="J77" t="inlineStr"/>
-      <c r="K77" t="inlineStr"/>
-      <c r="L77" t="n">
-        <v>1</v>
-      </c>
-      <c r="M77" t="inlineStr"/>
+      <c r="K77" t="n">
+        <v>1</v>
+      </c>
+      <c r="L77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
@@ -2956,18 +2723,15 @@
         <v>1450</v>
       </c>
       <c r="G78" t="n">
-        <v>-61789.3225</v>
-      </c>
-      <c r="H78" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H78" t="inlineStr"/>
       <c r="I78" t="inlineStr"/>
       <c r="J78" t="inlineStr"/>
-      <c r="K78" t="inlineStr"/>
-      <c r="L78" t="n">
-        <v>1</v>
-      </c>
-      <c r="M78" t="inlineStr"/>
+      <c r="K78" t="n">
+        <v>1</v>
+      </c>
+      <c r="L78" t="inlineStr"/>
     </row>
     <row r="79">
       <c r="A79" s="1" t="n">
@@ -2989,18 +2753,15 @@
         <v>455</v>
       </c>
       <c r="G79" t="n">
-        <v>-61789.3225</v>
-      </c>
-      <c r="H79" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H79" t="inlineStr"/>
       <c r="I79" t="inlineStr"/>
       <c r="J79" t="inlineStr"/>
-      <c r="K79" t="inlineStr"/>
-      <c r="L79" t="n">
-        <v>1</v>
-      </c>
-      <c r="M79" t="inlineStr"/>
+      <c r="K79" t="n">
+        <v>1</v>
+      </c>
+      <c r="L79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
@@ -3022,18 +2783,15 @@
         <v>350</v>
       </c>
       <c r="G80" t="n">
-        <v>-61439.3225</v>
-      </c>
-      <c r="H80" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H80" t="inlineStr"/>
       <c r="I80" t="inlineStr"/>
       <c r="J80" t="inlineStr"/>
-      <c r="K80" t="inlineStr"/>
-      <c r="L80" t="n">
-        <v>1</v>
-      </c>
-      <c r="M80" t="inlineStr"/>
+      <c r="K80" t="n">
+        <v>1</v>
+      </c>
+      <c r="L80" t="inlineStr"/>
     </row>
     <row r="81">
       <c r="A81" s="1" t="n">
@@ -3055,18 +2813,15 @@
         <v>2100</v>
       </c>
       <c r="G81" t="n">
-        <v>-61439.3225</v>
-      </c>
-      <c r="H81" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H81" t="inlineStr"/>
       <c r="I81" t="inlineStr"/>
       <c r="J81" t="inlineStr"/>
-      <c r="K81" t="inlineStr"/>
-      <c r="L81" t="n">
-        <v>1</v>
-      </c>
-      <c r="M81" t="inlineStr"/>
+      <c r="K81" t="n">
+        <v>1</v>
+      </c>
+      <c r="L81" t="inlineStr"/>
     </row>
     <row r="82">
       <c r="A82" s="1" t="n">
@@ -3088,18 +2843,15 @@
         <v>4791.7288</v>
       </c>
       <c r="G82" t="n">
-        <v>-61439.3225</v>
-      </c>
-      <c r="H82" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H82" t="inlineStr"/>
       <c r="I82" t="inlineStr"/>
       <c r="J82" t="inlineStr"/>
-      <c r="K82" t="inlineStr"/>
-      <c r="L82" t="n">
-        <v>1</v>
-      </c>
-      <c r="M82" t="inlineStr"/>
+      <c r="K82" t="n">
+        <v>1</v>
+      </c>
+      <c r="L82" t="inlineStr"/>
     </row>
     <row r="83">
       <c r="A83" s="1" t="n">
@@ -3121,18 +2873,15 @@
         <v>1590</v>
       </c>
       <c r="G83" t="n">
-        <v>-63029.3225</v>
-      </c>
-      <c r="H83" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H83" t="inlineStr"/>
       <c r="I83" t="inlineStr"/>
       <c r="J83" t="inlineStr"/>
-      <c r="K83" t="inlineStr"/>
-      <c r="L83" t="n">
-        <v>1</v>
-      </c>
-      <c r="M83" t="inlineStr"/>
+      <c r="K83" t="n">
+        <v>1</v>
+      </c>
+      <c r="L83" t="inlineStr"/>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
@@ -3154,18 +2903,15 @@
         <v>81.6078</v>
       </c>
       <c r="G84" t="n">
-        <v>-62947.7147</v>
-      </c>
-      <c r="H84" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H84" t="inlineStr"/>
       <c r="I84" t="inlineStr"/>
       <c r="J84" t="inlineStr"/>
-      <c r="K84" t="inlineStr"/>
-      <c r="L84" t="n">
-        <v>1</v>
-      </c>
-      <c r="M84" t="inlineStr"/>
+      <c r="K84" t="n">
+        <v>1</v>
+      </c>
+      <c r="L84" t="inlineStr"/>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
@@ -3187,18 +2933,15 @@
         <v>1262.9037</v>
       </c>
       <c r="G85" t="n">
-        <v>-64210.61840000001</v>
-      </c>
-      <c r="H85" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H85" t="inlineStr"/>
       <c r="I85" t="inlineStr"/>
       <c r="J85" t="inlineStr"/>
-      <c r="K85" t="inlineStr"/>
-      <c r="L85" t="n">
-        <v>1</v>
-      </c>
-      <c r="M85" t="inlineStr"/>
+      <c r="K85" t="n">
+        <v>1</v>
+      </c>
+      <c r="L85" t="inlineStr"/>
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
@@ -3220,18 +2963,15 @@
         <v>2500</v>
       </c>
       <c r="G86" t="n">
-        <v>-61710.61840000001</v>
-      </c>
-      <c r="H86" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H86" t="inlineStr"/>
       <c r="I86" t="inlineStr"/>
       <c r="J86" t="inlineStr"/>
-      <c r="K86" t="inlineStr"/>
-      <c r="L86" t="n">
-        <v>1</v>
-      </c>
-      <c r="M86" t="inlineStr"/>
+      <c r="K86" t="n">
+        <v>1</v>
+      </c>
+      <c r="L86" t="inlineStr"/>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
@@ -3253,18 +2993,15 @@
         <v>76.01000000000001</v>
       </c>
       <c r="G87" t="n">
-        <v>-61786.62840000001</v>
-      </c>
-      <c r="H87" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H87" t="inlineStr"/>
       <c r="I87" t="inlineStr"/>
       <c r="J87" t="inlineStr"/>
-      <c r="K87" t="inlineStr"/>
-      <c r="L87" t="n">
-        <v>1</v>
-      </c>
-      <c r="M87" t="inlineStr"/>
+      <c r="K87" t="n">
+        <v>1</v>
+      </c>
+      <c r="L87" t="inlineStr"/>
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
@@ -3286,18 +3023,15 @@
         <v>89.1649</v>
       </c>
       <c r="G88" t="n">
-        <v>-61786.62840000001</v>
-      </c>
-      <c r="H88" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H88" t="inlineStr"/>
       <c r="I88" t="inlineStr"/>
       <c r="J88" t="inlineStr"/>
-      <c r="K88" t="inlineStr"/>
-      <c r="L88" t="n">
-        <v>1</v>
-      </c>
-      <c r="M88" t="inlineStr"/>
+      <c r="K88" t="n">
+        <v>1</v>
+      </c>
+      <c r="L88" t="inlineStr"/>
     </row>
     <row r="89">
       <c r="A89" s="1" t="n">
@@ -3319,18 +3053,15 @@
         <v>8.019399999999999</v>
       </c>
       <c r="G89" t="n">
-        <v>-61786.62840000001</v>
-      </c>
-      <c r="H89" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H89" t="inlineStr"/>
       <c r="I89" t="inlineStr"/>
       <c r="J89" t="inlineStr"/>
-      <c r="K89" t="inlineStr"/>
-      <c r="L89" t="n">
-        <v>1</v>
-      </c>
-      <c r="M89" t="inlineStr"/>
+      <c r="K89" t="n">
+        <v>1</v>
+      </c>
+      <c r="L89" t="inlineStr"/>
     </row>
     <row r="90">
       <c r="A90" s="1" t="n">
@@ -3352,18 +3083,15 @@
         <v>723.3516</v>
       </c>
       <c r="G90" t="n">
-        <v>-61786.62840000001</v>
-      </c>
-      <c r="H90" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H90" t="inlineStr"/>
       <c r="I90" t="inlineStr"/>
       <c r="J90" t="inlineStr"/>
-      <c r="K90" t="inlineStr"/>
-      <c r="L90" t="n">
-        <v>1</v>
-      </c>
-      <c r="M90" t="inlineStr"/>
+      <c r="K90" t="n">
+        <v>1</v>
+      </c>
+      <c r="L90" t="inlineStr"/>
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
@@ -3385,18 +3113,15 @@
         <v>1321.31</v>
       </c>
       <c r="G91" t="n">
-        <v>-60465.31840000001</v>
-      </c>
-      <c r="H91" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H91" t="inlineStr"/>
       <c r="I91" t="inlineStr"/>
       <c r="J91" t="inlineStr"/>
-      <c r="K91" t="inlineStr"/>
-      <c r="L91" t="n">
-        <v>1</v>
-      </c>
-      <c r="M91" t="inlineStr"/>
+      <c r="K91" t="n">
+        <v>1</v>
+      </c>
+      <c r="L91" t="inlineStr"/>
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
@@ -3418,18 +3143,15 @@
         <v>2800</v>
       </c>
       <c r="G92" t="n">
-        <v>-57665.31840000001</v>
-      </c>
-      <c r="H92" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H92" t="inlineStr"/>
       <c r="I92" t="inlineStr"/>
       <c r="J92" t="inlineStr"/>
-      <c r="K92" t="inlineStr"/>
-      <c r="L92" t="n">
-        <v>1</v>
-      </c>
-      <c r="M92" t="inlineStr"/>
+      <c r="K92" t="n">
+        <v>1</v>
+      </c>
+      <c r="L92" t="inlineStr"/>
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
@@ -3451,18 +3173,15 @@
         <v>720.1798</v>
       </c>
       <c r="G93" t="n">
-        <v>-56945.13860000001</v>
-      </c>
-      <c r="H93" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H93" t="inlineStr"/>
       <c r="I93" t="inlineStr"/>
       <c r="J93" t="inlineStr"/>
-      <c r="K93" t="inlineStr"/>
-      <c r="L93" t="n">
-        <v>1</v>
-      </c>
-      <c r="M93" t="inlineStr"/>
+      <c r="K93" t="n">
+        <v>1</v>
+      </c>
+      <c r="L93" t="inlineStr"/>
     </row>
     <row r="94">
       <c r="A94" s="1" t="n">
@@ -3484,18 +3203,15 @@
         <v>7713.7844</v>
       </c>
       <c r="G94" t="n">
-        <v>-64658.92300000001</v>
-      </c>
-      <c r="H94" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H94" t="inlineStr"/>
       <c r="I94" t="inlineStr"/>
       <c r="J94" t="inlineStr"/>
-      <c r="K94" t="inlineStr"/>
-      <c r="L94" t="n">
-        <v>1</v>
-      </c>
-      <c r="M94" t="inlineStr"/>
+      <c r="K94" t="n">
+        <v>1</v>
+      </c>
+      <c r="L94" t="inlineStr"/>
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
@@ -3517,18 +3233,15 @@
         <v>1.1</v>
       </c>
       <c r="G95" t="n">
-        <v>-64657.82300000001</v>
-      </c>
-      <c r="H95" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H95" t="inlineStr"/>
       <c r="I95" t="inlineStr"/>
       <c r="J95" t="inlineStr"/>
-      <c r="K95" t="inlineStr"/>
-      <c r="L95" t="n">
-        <v>1</v>
-      </c>
-      <c r="M95" t="inlineStr"/>
+      <c r="K95" t="n">
+        <v>1</v>
+      </c>
+      <c r="L95" t="inlineStr"/>
     </row>
     <row r="96">
       <c r="A96" s="1" t="n">
@@ -3550,18 +3263,15 @@
         <v>1400</v>
       </c>
       <c r="G96" t="n">
-        <v>-66057.823</v>
-      </c>
-      <c r="H96" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H96" t="inlineStr"/>
       <c r="I96" t="inlineStr"/>
       <c r="J96" t="inlineStr"/>
-      <c r="K96" t="inlineStr"/>
-      <c r="L96" t="n">
-        <v>1</v>
-      </c>
-      <c r="M96" t="inlineStr"/>
+      <c r="K96" t="n">
+        <v>1</v>
+      </c>
+      <c r="L96" t="inlineStr"/>
     </row>
     <row r="97">
       <c r="A97" s="1" t="n">
@@ -3583,18 +3293,15 @@
         <v>1.1</v>
       </c>
       <c r="G97" t="n">
-        <v>-66056.723</v>
-      </c>
-      <c r="H97" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H97" t="inlineStr"/>
       <c r="I97" t="inlineStr"/>
       <c r="J97" t="inlineStr"/>
-      <c r="K97" t="inlineStr"/>
-      <c r="L97" t="n">
-        <v>1</v>
-      </c>
-      <c r="M97" t="inlineStr"/>
+      <c r="K97" t="n">
+        <v>1</v>
+      </c>
+      <c r="L97" t="inlineStr"/>
     </row>
     <row r="98">
       <c r="A98" s="1" t="n">
@@ -3616,18 +3323,15 @@
         <v>1170.1267</v>
       </c>
       <c r="G98" t="n">
-        <v>-64886.5963</v>
-      </c>
-      <c r="H98" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H98" t="inlineStr"/>
       <c r="I98" t="inlineStr"/>
       <c r="J98" t="inlineStr"/>
-      <c r="K98" t="inlineStr"/>
-      <c r="L98" t="n">
-        <v>1</v>
-      </c>
-      <c r="M98" t="inlineStr"/>
+      <c r="K98" t="n">
+        <v>1</v>
+      </c>
+      <c r="L98" t="inlineStr"/>
     </row>
     <row r="99">
       <c r="A99" s="1" t="n">
@@ -3649,18 +3353,15 @@
         <v>415</v>
       </c>
       <c r="G99" t="n">
-        <v>-65301.5963</v>
-      </c>
-      <c r="H99" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H99" t="inlineStr"/>
       <c r="I99" t="inlineStr"/>
       <c r="J99" t="inlineStr"/>
-      <c r="K99" t="inlineStr"/>
-      <c r="L99" t="n">
-        <v>1</v>
-      </c>
-      <c r="M99" t="inlineStr"/>
+      <c r="K99" t="n">
+        <v>1</v>
+      </c>
+      <c r="L99" t="inlineStr"/>
     </row>
     <row r="100">
       <c r="A100" s="1" t="n">
@@ -3682,18 +3383,15 @@
         <v>1400</v>
       </c>
       <c r="G100" t="n">
-        <v>-65301.5963</v>
-      </c>
-      <c r="H100" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H100" t="inlineStr"/>
       <c r="I100" t="inlineStr"/>
       <c r="J100" t="inlineStr"/>
-      <c r="K100" t="inlineStr"/>
-      <c r="L100" t="n">
-        <v>1</v>
-      </c>
-      <c r="M100" t="inlineStr"/>
+      <c r="K100" t="n">
+        <v>1</v>
+      </c>
+      <c r="L100" t="inlineStr"/>
     </row>
     <row r="101">
       <c r="A101" s="1" t="n">
@@ -3715,18 +3413,15 @@
         <v>1650.1247</v>
       </c>
       <c r="G101" t="n">
-        <v>-65301.5963</v>
-      </c>
-      <c r="H101" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H101" t="inlineStr"/>
       <c r="I101" t="inlineStr"/>
       <c r="J101" t="inlineStr"/>
-      <c r="K101" t="inlineStr"/>
-      <c r="L101" t="n">
-        <v>1</v>
-      </c>
-      <c r="M101" t="inlineStr"/>
+      <c r="K101" t="n">
+        <v>1</v>
+      </c>
+      <c r="L101" t="inlineStr"/>
     </row>
     <row r="102">
       <c r="A102" s="1" t="n">
@@ -3748,18 +3443,15 @@
         <v>500</v>
       </c>
       <c r="G102" t="n">
-        <v>-65301.5963</v>
-      </c>
-      <c r="H102" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H102" t="inlineStr"/>
       <c r="I102" t="inlineStr"/>
       <c r="J102" t="inlineStr"/>
-      <c r="K102" t="inlineStr"/>
-      <c r="L102" t="n">
-        <v>1</v>
-      </c>
-      <c r="M102" t="inlineStr"/>
+      <c r="K102" t="n">
+        <v>1</v>
+      </c>
+      <c r="L102" t="inlineStr"/>
     </row>
     <row r="103">
       <c r="A103" s="1" t="n">
@@ -3781,18 +3473,15 @@
         <v>100</v>
       </c>
       <c r="G103" t="n">
-        <v>-65301.5963</v>
-      </c>
-      <c r="H103" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H103" t="inlineStr"/>
       <c r="I103" t="inlineStr"/>
       <c r="J103" t="inlineStr"/>
-      <c r="K103" t="inlineStr"/>
-      <c r="L103" t="n">
-        <v>1</v>
-      </c>
-      <c r="M103" t="inlineStr"/>
+      <c r="K103" t="n">
+        <v>1</v>
+      </c>
+      <c r="L103" t="inlineStr"/>
     </row>
     <row r="104">
       <c r="A104" s="1" t="n">
@@ -3814,18 +3503,15 @@
         <v>1447.782</v>
       </c>
       <c r="G104" t="n">
-        <v>-65301.5963</v>
-      </c>
-      <c r="H104" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H104" t="inlineStr"/>
       <c r="I104" t="inlineStr"/>
       <c r="J104" t="inlineStr"/>
-      <c r="K104" t="inlineStr"/>
-      <c r="L104" t="n">
-        <v>1</v>
-      </c>
-      <c r="M104" t="inlineStr"/>
+      <c r="K104" t="n">
+        <v>1</v>
+      </c>
+      <c r="L104" t="inlineStr"/>
     </row>
     <row r="105">
       <c r="A105" s="1" t="n">
@@ -3847,18 +3533,15 @@
         <v>436.0394</v>
       </c>
       <c r="G105" t="n">
-        <v>-65301.5963</v>
-      </c>
-      <c r="H105" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H105" t="inlineStr"/>
       <c r="I105" t="inlineStr"/>
       <c r="J105" t="inlineStr"/>
-      <c r="K105" t="inlineStr"/>
-      <c r="L105" t="n">
-        <v>1</v>
-      </c>
-      <c r="M105" t="inlineStr"/>
+      <c r="K105" t="n">
+        <v>1</v>
+      </c>
+      <c r="L105" t="inlineStr"/>
     </row>
     <row r="106">
       <c r="A106" s="1" t="n">
@@ -3880,18 +3563,15 @@
         <v>2495.7737</v>
       </c>
       <c r="G106" t="n">
-        <v>-65301.5963</v>
-      </c>
-      <c r="H106" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H106" t="inlineStr"/>
       <c r="I106" t="inlineStr"/>
       <c r="J106" t="inlineStr"/>
-      <c r="K106" t="inlineStr"/>
-      <c r="L106" t="n">
-        <v>1</v>
-      </c>
-      <c r="M106" t="inlineStr"/>
+      <c r="K106" t="n">
+        <v>1</v>
+      </c>
+      <c r="L106" t="inlineStr"/>
     </row>
     <row r="107">
       <c r="A107" s="1" t="n">
@@ -3913,18 +3593,15 @@
         <v>2748.5675</v>
       </c>
       <c r="G107" t="n">
-        <v>-62553.0288</v>
-      </c>
-      <c r="H107" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H107" t="inlineStr"/>
       <c r="I107" t="inlineStr"/>
       <c r="J107" t="inlineStr"/>
-      <c r="K107" t="inlineStr"/>
-      <c r="L107" t="n">
-        <v>1</v>
-      </c>
-      <c r="M107" t="inlineStr"/>
+      <c r="K107" t="n">
+        <v>1</v>
+      </c>
+      <c r="L107" t="inlineStr"/>
     </row>
     <row r="108">
       <c r="A108" s="1" t="n">
@@ -3946,18 +3623,15 @@
         <v>1400</v>
       </c>
       <c r="G108" t="n">
-        <v>-61153.0288</v>
-      </c>
-      <c r="H108" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H108" t="inlineStr"/>
       <c r="I108" t="inlineStr"/>
       <c r="J108" t="inlineStr"/>
-      <c r="K108" t="inlineStr"/>
-      <c r="L108" t="n">
-        <v>1</v>
-      </c>
-      <c r="M108" t="inlineStr"/>
+      <c r="K108" t="n">
+        <v>1</v>
+      </c>
+      <c r="L108" t="inlineStr"/>
     </row>
     <row r="109">
       <c r="A109" s="1" t="n">
@@ -3979,18 +3653,15 @@
         <v>832.0592</v>
       </c>
       <c r="G109" t="n">
-        <v>-61985.088</v>
-      </c>
-      <c r="H109" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H109" t="inlineStr"/>
       <c r="I109" t="inlineStr"/>
       <c r="J109" t="inlineStr"/>
-      <c r="K109" t="inlineStr"/>
-      <c r="L109" t="n">
-        <v>1</v>
-      </c>
-      <c r="M109" t="inlineStr"/>
+      <c r="K109" t="n">
+        <v>1</v>
+      </c>
+      <c r="L109" t="inlineStr"/>
     </row>
     <row r="110">
       <c r="A110" s="1" t="n">
@@ -4012,18 +3683,15 @@
         <v>2827.7746</v>
       </c>
       <c r="G110" t="n">
-        <v>-59157.31340000001</v>
-      </c>
-      <c r="H110" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H110" t="inlineStr"/>
       <c r="I110" t="inlineStr"/>
       <c r="J110" t="inlineStr"/>
-      <c r="K110" t="inlineStr"/>
-      <c r="L110" t="n">
-        <v>1</v>
-      </c>
-      <c r="M110" t="inlineStr"/>
+      <c r="K110" t="n">
+        <v>1</v>
+      </c>
+      <c r="L110" t="inlineStr"/>
     </row>
     <row r="111">
       <c r="A111" s="1" t="n">
@@ -4045,18 +3713,15 @@
         <v>110</v>
       </c>
       <c r="G111" t="n">
-        <v>-59267.31340000001</v>
-      </c>
-      <c r="H111" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H111" t="inlineStr"/>
       <c r="I111" t="inlineStr"/>
       <c r="J111" t="inlineStr"/>
-      <c r="K111" t="inlineStr"/>
-      <c r="L111" t="n">
-        <v>1</v>
-      </c>
-      <c r="M111" t="inlineStr"/>
+      <c r="K111" t="n">
+        <v>1</v>
+      </c>
+      <c r="L111" t="inlineStr"/>
     </row>
     <row r="112">
       <c r="A112" s="1" t="n">
@@ -4078,18 +3743,15 @@
         <v>28.4176</v>
       </c>
       <c r="G112" t="n">
-        <v>-59295.73100000001</v>
-      </c>
-      <c r="H112" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H112" t="inlineStr"/>
       <c r="I112" t="inlineStr"/>
       <c r="J112" t="inlineStr"/>
-      <c r="K112" t="inlineStr"/>
-      <c r="L112" t="n">
-        <v>1</v>
-      </c>
-      <c r="M112" t="inlineStr"/>
+      <c r="K112" t="n">
+        <v>1</v>
+      </c>
+      <c r="L112" t="inlineStr"/>
     </row>
     <row r="113">
       <c r="A113" s="1" t="n">
@@ -4111,18 +3773,15 @@
         <v>1335.2401</v>
       </c>
       <c r="G113" t="n">
-        <v>-60630.97110000001</v>
-      </c>
-      <c r="H113" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H113" t="inlineStr"/>
       <c r="I113" t="inlineStr"/>
       <c r="J113" t="inlineStr"/>
-      <c r="K113" t="inlineStr"/>
-      <c r="L113" t="n">
-        <v>1</v>
-      </c>
-      <c r="M113" t="inlineStr"/>
+      <c r="K113" t="n">
+        <v>1</v>
+      </c>
+      <c r="L113" t="inlineStr"/>
     </row>
     <row r="114">
       <c r="A114" s="1" t="n">
@@ -4144,18 +3803,15 @@
         <v>1400</v>
       </c>
       <c r="G114" t="n">
-        <v>-60630.97110000001</v>
-      </c>
-      <c r="H114" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H114" t="inlineStr"/>
       <c r="I114" t="inlineStr"/>
       <c r="J114" t="inlineStr"/>
-      <c r="K114" t="inlineStr"/>
-      <c r="L114" t="n">
-        <v>1</v>
-      </c>
-      <c r="M114" t="inlineStr"/>
+      <c r="K114" t="n">
+        <v>1</v>
+      </c>
+      <c r="L114" t="inlineStr"/>
     </row>
     <row r="115">
       <c r="A115" s="1" t="n">
@@ -4177,18 +3833,15 @@
         <v>790.3939</v>
       </c>
       <c r="G115" t="n">
-        <v>-60630.97110000001</v>
-      </c>
-      <c r="H115" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H115" t="inlineStr"/>
       <c r="I115" t="inlineStr"/>
       <c r="J115" t="inlineStr"/>
-      <c r="K115" t="inlineStr"/>
-      <c r="L115" t="n">
-        <v>1</v>
-      </c>
-      <c r="M115" t="inlineStr"/>
+      <c r="K115" t="n">
+        <v>1</v>
+      </c>
+      <c r="L115" t="inlineStr"/>
     </row>
     <row r="116">
       <c r="A116" s="1" t="n">
@@ -4210,18 +3863,15 @@
         <v>2484.5913</v>
       </c>
       <c r="G116" t="n">
-        <v>-63115.56240000001</v>
-      </c>
-      <c r="H116" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H116" t="inlineStr"/>
       <c r="I116" t="inlineStr"/>
       <c r="J116" t="inlineStr"/>
-      <c r="K116" t="inlineStr"/>
-      <c r="L116" t="n">
-        <v>1</v>
-      </c>
-      <c r="M116" t="inlineStr"/>
+      <c r="K116" t="n">
+        <v>1</v>
+      </c>
+      <c r="L116" t="inlineStr"/>
     </row>
     <row r="117">
       <c r="A117" s="1" t="n">
@@ -4243,18 +3893,15 @@
         <v>267.8303</v>
       </c>
       <c r="G117" t="n">
-        <v>-63115.56240000001</v>
-      </c>
-      <c r="H117" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H117" t="inlineStr"/>
       <c r="I117" t="inlineStr"/>
       <c r="J117" t="inlineStr"/>
-      <c r="K117" t="inlineStr"/>
-      <c r="L117" t="n">
-        <v>1</v>
-      </c>
-      <c r="M117" t="inlineStr"/>
+      <c r="K117" t="n">
+        <v>1</v>
+      </c>
+      <c r="L117" t="inlineStr"/>
     </row>
     <row r="118">
       <c r="A118" s="1" t="n">
@@ -4276,18 +3923,15 @@
         <v>25</v>
       </c>
       <c r="G118" t="n">
-        <v>-63115.56240000001</v>
-      </c>
-      <c r="H118" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H118" t="inlineStr"/>
       <c r="I118" t="inlineStr"/>
       <c r="J118" t="inlineStr"/>
-      <c r="K118" t="inlineStr"/>
-      <c r="L118" t="n">
-        <v>1</v>
-      </c>
-      <c r="M118" t="inlineStr"/>
+      <c r="K118" t="n">
+        <v>1</v>
+      </c>
+      <c r="L118" t="inlineStr"/>
     </row>
     <row r="119">
       <c r="A119" s="1" t="n">
@@ -4309,18 +3953,15 @@
         <v>1395</v>
       </c>
       <c r="G119" t="n">
-        <v>-64510.56240000001</v>
-      </c>
-      <c r="H119" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H119" t="inlineStr"/>
       <c r="I119" t="inlineStr"/>
       <c r="J119" t="inlineStr"/>
-      <c r="K119" t="inlineStr"/>
-      <c r="L119" t="n">
-        <v>1</v>
-      </c>
-      <c r="M119" t="inlineStr"/>
+      <c r="K119" t="n">
+        <v>1</v>
+      </c>
+      <c r="L119" t="inlineStr"/>
     </row>
     <row r="120">
       <c r="A120" s="1" t="n">
@@ -4342,18 +3983,15 @@
         <v>240</v>
       </c>
       <c r="G120" t="n">
-        <v>-64510.56240000001</v>
-      </c>
-      <c r="H120" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H120" t="inlineStr"/>
       <c r="I120" t="inlineStr"/>
       <c r="J120" t="inlineStr"/>
-      <c r="K120" t="inlineStr"/>
-      <c r="L120" t="n">
-        <v>1</v>
-      </c>
-      <c r="M120" t="inlineStr"/>
+      <c r="K120" t="n">
+        <v>1</v>
+      </c>
+      <c r="L120" t="inlineStr"/>
     </row>
     <row r="121">
       <c r="A121" s="1" t="n">
@@ -4375,18 +4013,15 @@
         <v>6625.4231</v>
       </c>
       <c r="G121" t="n">
-        <v>-71135.98550000001</v>
-      </c>
-      <c r="H121" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H121" t="inlineStr"/>
       <c r="I121" t="inlineStr"/>
       <c r="J121" t="inlineStr"/>
-      <c r="K121" t="inlineStr"/>
-      <c r="L121" t="n">
-        <v>1</v>
-      </c>
-      <c r="M121" t="inlineStr"/>
+      <c r="K121" t="n">
+        <v>1</v>
+      </c>
+      <c r="L121" t="inlineStr"/>
     </row>
     <row r="122">
       <c r="A122" s="1" t="n">
@@ -4408,18 +4043,15 @@
         <v>1998.9506</v>
       </c>
       <c r="G122" t="n">
-        <v>-73134.93610000001</v>
-      </c>
-      <c r="H122" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H122" t="inlineStr"/>
       <c r="I122" t="inlineStr"/>
       <c r="J122" t="inlineStr"/>
-      <c r="K122" t="inlineStr"/>
-      <c r="L122" t="n">
-        <v>1</v>
-      </c>
-      <c r="M122" t="inlineStr"/>
+      <c r="K122" t="n">
+        <v>1</v>
+      </c>
+      <c r="L122" t="inlineStr"/>
     </row>
     <row r="123">
       <c r="A123" s="1" t="n">
@@ -4441,18 +4073,15 @@
         <v>7000</v>
       </c>
       <c r="G123" t="n">
-        <v>-80134.93610000001</v>
-      </c>
-      <c r="H123" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H123" t="inlineStr"/>
       <c r="I123" t="inlineStr"/>
       <c r="J123" t="inlineStr"/>
-      <c r="K123" t="inlineStr"/>
-      <c r="L123" t="n">
-        <v>1</v>
-      </c>
-      <c r="M123" t="inlineStr"/>
+      <c r="K123" t="n">
+        <v>1</v>
+      </c>
+      <c r="L123" t="inlineStr"/>
     </row>
     <row r="124">
       <c r="A124" s="1" t="n">
@@ -4474,18 +4103,15 @@
         <v>1998.9507</v>
       </c>
       <c r="G124" t="n">
-        <v>-82133.88680000001</v>
-      </c>
-      <c r="H124" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H124" t="inlineStr"/>
       <c r="I124" t="inlineStr"/>
       <c r="J124" t="inlineStr"/>
-      <c r="K124" t="inlineStr"/>
-      <c r="L124" t="n">
-        <v>1</v>
-      </c>
-      <c r="M124" t="inlineStr"/>
+      <c r="K124" t="n">
+        <v>1</v>
+      </c>
+      <c r="L124" t="inlineStr"/>
     </row>
     <row r="125">
       <c r="A125" s="1" t="n">
@@ -4507,18 +4133,15 @@
         <v>8183.2338</v>
       </c>
       <c r="G125" t="n">
-        <v>-82133.88680000001</v>
-      </c>
-      <c r="H125" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H125" t="inlineStr"/>
       <c r="I125" t="inlineStr"/>
       <c r="J125" t="inlineStr"/>
-      <c r="K125" t="inlineStr"/>
-      <c r="L125" t="n">
-        <v>1</v>
-      </c>
-      <c r="M125" t="inlineStr"/>
+      <c r="K125" t="n">
+        <v>1</v>
+      </c>
+      <c r="L125" t="inlineStr"/>
     </row>
     <row r="126">
       <c r="A126" s="1" t="n">
@@ -4540,18 +4163,15 @@
         <v>4200</v>
       </c>
       <c r="G126" t="n">
-        <v>-82133.88680000001</v>
-      </c>
-      <c r="H126" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H126" t="inlineStr"/>
       <c r="I126" t="inlineStr"/>
       <c r="J126" t="inlineStr"/>
-      <c r="K126" t="inlineStr"/>
-      <c r="L126" t="n">
-        <v>1</v>
-      </c>
-      <c r="M126" t="inlineStr"/>
+      <c r="K126" t="n">
+        <v>1</v>
+      </c>
+      <c r="L126" t="inlineStr"/>
     </row>
     <row r="127">
       <c r="A127" s="1" t="n">
@@ -4573,18 +4193,15 @@
         <v>250</v>
       </c>
       <c r="G127" t="n">
-        <v>-82133.88680000001</v>
-      </c>
-      <c r="H127" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H127" t="inlineStr"/>
       <c r="I127" t="inlineStr"/>
       <c r="J127" t="inlineStr"/>
-      <c r="K127" t="inlineStr"/>
-      <c r="L127" t="n">
-        <v>1</v>
-      </c>
-      <c r="M127" t="inlineStr"/>
+      <c r="K127" t="n">
+        <v>1</v>
+      </c>
+      <c r="L127" t="inlineStr"/>
     </row>
     <row r="128">
       <c r="A128" s="1" t="n">
@@ -4606,18 +4223,15 @@
         <v>1625.5359</v>
       </c>
       <c r="G128" t="n">
-        <v>-82133.88680000001</v>
-      </c>
-      <c r="H128" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H128" t="inlineStr"/>
       <c r="I128" t="inlineStr"/>
       <c r="J128" t="inlineStr"/>
-      <c r="K128" t="inlineStr"/>
-      <c r="L128" t="n">
-        <v>1</v>
-      </c>
-      <c r="M128" t="inlineStr"/>
+      <c r="K128" t="n">
+        <v>1</v>
+      </c>
+      <c r="L128" t="inlineStr"/>
     </row>
     <row r="129">
       <c r="A129" s="1" t="n">
@@ -4639,18 +4253,15 @@
         <v>590</v>
       </c>
       <c r="G129" t="n">
-        <v>-82133.88680000001</v>
-      </c>
-      <c r="H129" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H129" t="inlineStr"/>
       <c r="I129" t="inlineStr"/>
       <c r="J129" t="inlineStr"/>
-      <c r="K129" t="inlineStr"/>
-      <c r="L129" t="n">
-        <v>1</v>
-      </c>
-      <c r="M129" t="inlineStr"/>
+      <c r="K129" t="n">
+        <v>1</v>
+      </c>
+      <c r="L129" t="inlineStr"/>
     </row>
     <row r="130">
       <c r="A130" s="1" t="n">
@@ -4672,18 +4283,15 @@
         <v>405.0162</v>
       </c>
       <c r="G130" t="n">
-        <v>-82133.88680000001</v>
-      </c>
-      <c r="H130" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H130" t="inlineStr"/>
       <c r="I130" t="inlineStr"/>
       <c r="J130" t="inlineStr"/>
-      <c r="K130" t="inlineStr"/>
-      <c r="L130" t="n">
-        <v>1</v>
-      </c>
-      <c r="M130" t="inlineStr"/>
+      <c r="K130" t="n">
+        <v>1</v>
+      </c>
+      <c r="L130" t="inlineStr"/>
     </row>
     <row r="131">
       <c r="A131" s="1" t="n">
@@ -4705,18 +4313,15 @@
         <v>56.4699</v>
       </c>
       <c r="G131" t="n">
-        <v>-82133.88680000001</v>
-      </c>
-      <c r="H131" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H131" t="inlineStr"/>
       <c r="I131" t="inlineStr"/>
       <c r="J131" t="inlineStr"/>
-      <c r="K131" t="inlineStr"/>
-      <c r="L131" t="n">
-        <v>1</v>
-      </c>
-      <c r="M131" t="inlineStr"/>
+      <c r="K131" t="n">
+        <v>1</v>
+      </c>
+      <c r="L131" t="inlineStr"/>
     </row>
     <row r="132">
       <c r="A132" s="1" t="n">
@@ -4738,18 +4343,15 @@
         <v>850</v>
       </c>
       <c r="G132" t="n">
-        <v>-81283.88680000001</v>
-      </c>
-      <c r="H132" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H132" t="inlineStr"/>
       <c r="I132" t="inlineStr"/>
       <c r="J132" t="inlineStr"/>
-      <c r="K132" t="inlineStr"/>
-      <c r="L132" t="n">
-        <v>1</v>
-      </c>
-      <c r="M132" t="inlineStr"/>
+      <c r="K132" t="n">
+        <v>1</v>
+      </c>
+      <c r="L132" t="inlineStr"/>
     </row>
     <row r="133">
       <c r="A133" s="1" t="n">
@@ -4771,18 +4373,15 @@
         <v>1220.9633</v>
       </c>
       <c r="G133" t="n">
-        <v>-80062.9235</v>
-      </c>
-      <c r="H133" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H133" t="inlineStr"/>
       <c r="I133" t="inlineStr"/>
       <c r="J133" t="inlineStr"/>
-      <c r="K133" t="inlineStr"/>
-      <c r="L133" t="n">
-        <v>1</v>
-      </c>
-      <c r="M133" t="inlineStr"/>
+      <c r="K133" t="n">
+        <v>1</v>
+      </c>
+      <c r="L133" t="inlineStr"/>
     </row>
     <row r="134">
       <c r="A134" s="1" t="n">
@@ -4804,18 +4403,15 @@
         <v>27</v>
       </c>
       <c r="G134" t="n">
-        <v>-80035.9235</v>
-      </c>
-      <c r="H134" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H134" t="inlineStr"/>
       <c r="I134" t="inlineStr"/>
       <c r="J134" t="inlineStr"/>
-      <c r="K134" t="inlineStr"/>
-      <c r="L134" t="n">
-        <v>1</v>
-      </c>
-      <c r="M134" t="inlineStr"/>
+      <c r="K134" t="n">
+        <v>1</v>
+      </c>
+      <c r="L134" t="inlineStr"/>
     </row>
     <row r="135">
       <c r="A135" s="1" t="n">
@@ -4837,18 +4433,15 @@
         <v>5.6246</v>
       </c>
       <c r="G135" t="n">
-        <v>-80035.9235</v>
-      </c>
-      <c r="H135" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H135" t="inlineStr"/>
       <c r="I135" t="inlineStr"/>
       <c r="J135" t="inlineStr"/>
-      <c r="K135" t="inlineStr"/>
-      <c r="L135" t="n">
-        <v>1</v>
-      </c>
-      <c r="M135" t="inlineStr"/>
+      <c r="K135" t="n">
+        <v>1</v>
+      </c>
+      <c r="L135" t="inlineStr"/>
     </row>
     <row r="136">
       <c r="A136" s="1" t="n">
@@ -4870,18 +4463,15 @@
         <v>921</v>
       </c>
       <c r="G136" t="n">
-        <v>-80956.9235</v>
-      </c>
-      <c r="H136" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H136" t="inlineStr"/>
       <c r="I136" t="inlineStr"/>
       <c r="J136" t="inlineStr"/>
-      <c r="K136" t="inlineStr"/>
-      <c r="L136" t="n">
-        <v>1</v>
-      </c>
-      <c r="M136" t="inlineStr"/>
+      <c r="K136" t="n">
+        <v>1</v>
+      </c>
+      <c r="L136" t="inlineStr"/>
     </row>
     <row r="137">
       <c r="A137" s="1" t="n">
@@ -4903,18 +4493,15 @@
         <v>7650.0583</v>
       </c>
       <c r="G137" t="n">
-        <v>-88606.98180000001</v>
-      </c>
-      <c r="H137" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H137" t="inlineStr"/>
       <c r="I137" t="inlineStr"/>
       <c r="J137" t="inlineStr"/>
-      <c r="K137" t="inlineStr"/>
-      <c r="L137" t="n">
-        <v>1</v>
-      </c>
-      <c r="M137" t="inlineStr"/>
+      <c r="K137" t="n">
+        <v>1</v>
+      </c>
+      <c r="L137" t="inlineStr"/>
     </row>
     <row r="138">
       <c r="A138" s="1" t="n">
@@ -4936,18 +4523,15 @@
         <v>513.7296</v>
       </c>
       <c r="G138" t="n">
-        <v>-88606.98180000001</v>
-      </c>
-      <c r="H138" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H138" t="inlineStr"/>
       <c r="I138" t="inlineStr"/>
       <c r="J138" t="inlineStr"/>
-      <c r="K138" t="inlineStr"/>
-      <c r="L138" t="n">
-        <v>1</v>
-      </c>
-      <c r="M138" t="inlineStr"/>
+      <c r="K138" t="n">
+        <v>1</v>
+      </c>
+      <c r="L138" t="inlineStr"/>
     </row>
     <row r="139">
       <c r="A139" s="1" t="n">
@@ -4969,18 +4553,15 @@
         <v>2124.041</v>
       </c>
       <c r="G139" t="n">
-        <v>-90731.02280000001</v>
-      </c>
-      <c r="H139" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H139" t="inlineStr"/>
       <c r="I139" t="inlineStr"/>
       <c r="J139" t="inlineStr"/>
-      <c r="K139" t="inlineStr"/>
-      <c r="L139" t="n">
-        <v>1</v>
-      </c>
-      <c r="M139" t="inlineStr"/>
+      <c r="K139" t="n">
+        <v>1</v>
+      </c>
+      <c r="L139" t="inlineStr"/>
     </row>
     <row r="140">
       <c r="A140" s="1" t="n">
@@ -5002,18 +4583,15 @@
         <v>4.1545</v>
       </c>
       <c r="G140" t="n">
-        <v>-90735.17730000001</v>
-      </c>
-      <c r="H140" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H140" t="inlineStr"/>
       <c r="I140" t="inlineStr"/>
       <c r="J140" t="inlineStr"/>
-      <c r="K140" t="inlineStr"/>
-      <c r="L140" t="n">
-        <v>1</v>
-      </c>
-      <c r="M140" t="inlineStr"/>
+      <c r="K140" t="n">
+        <v>1</v>
+      </c>
+      <c r="L140" t="inlineStr"/>
     </row>
     <row r="141">
       <c r="A141" s="1" t="n">
@@ -5035,18 +4613,15 @@
         <v>1845.4336</v>
       </c>
       <c r="G141" t="n">
-        <v>-90735.17730000001</v>
-      </c>
-      <c r="H141" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H141" t="inlineStr"/>
       <c r="I141" t="inlineStr"/>
       <c r="J141" t="inlineStr"/>
-      <c r="K141" t="inlineStr"/>
-      <c r="L141" t="n">
-        <v>1</v>
-      </c>
-      <c r="M141" t="inlineStr"/>
+      <c r="K141" t="n">
+        <v>1</v>
+      </c>
+      <c r="L141" t="inlineStr"/>
     </row>
     <row r="142">
       <c r="A142" s="1" t="n">
@@ -5068,18 +4643,15 @@
         <v>4</v>
       </c>
       <c r="G142" t="n">
-        <v>-90731.17730000001</v>
-      </c>
-      <c r="H142" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H142" t="inlineStr"/>
       <c r="I142" t="inlineStr"/>
       <c r="J142" t="inlineStr"/>
-      <c r="K142" t="inlineStr"/>
-      <c r="L142" t="n">
-        <v>1</v>
-      </c>
-      <c r="M142" t="inlineStr"/>
+      <c r="K142" t="n">
+        <v>1</v>
+      </c>
+      <c r="L142" t="inlineStr"/>
     </row>
     <row r="143">
       <c r="A143" s="1" t="n">
@@ -5101,18 +4673,15 @@
         <v>1.2</v>
       </c>
       <c r="G143" t="n">
-        <v>-90729.97730000001</v>
-      </c>
-      <c r="H143" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H143" t="inlineStr"/>
       <c r="I143" t="inlineStr"/>
       <c r="J143" t="inlineStr"/>
-      <c r="K143" t="inlineStr"/>
-      <c r="L143" t="n">
-        <v>1</v>
-      </c>
-      <c r="M143" t="inlineStr"/>
+      <c r="K143" t="n">
+        <v>1</v>
+      </c>
+      <c r="L143" t="inlineStr"/>
     </row>
     <row r="144">
       <c r="A144" s="1" t="n">
@@ -5134,18 +4703,15 @@
         <v>384</v>
       </c>
       <c r="G144" t="n">
-        <v>-91113.97730000001</v>
-      </c>
-      <c r="H144" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H144" t="inlineStr"/>
       <c r="I144" t="inlineStr"/>
       <c r="J144" t="inlineStr"/>
-      <c r="K144" t="inlineStr"/>
-      <c r="L144" t="n">
-        <v>1</v>
-      </c>
-      <c r="M144" t="inlineStr"/>
+      <c r="K144" t="n">
+        <v>1</v>
+      </c>
+      <c r="L144" t="inlineStr"/>
     </row>
     <row r="145">
       <c r="A145" s="1" t="n">
@@ -5167,18 +4733,15 @@
         <v>1.2</v>
       </c>
       <c r="G145" t="n">
-        <v>-91112.77730000002</v>
-      </c>
-      <c r="H145" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H145" t="inlineStr"/>
       <c r="I145" t="inlineStr"/>
       <c r="J145" t="inlineStr"/>
-      <c r="K145" t="inlineStr"/>
-      <c r="L145" t="n">
-        <v>1</v>
-      </c>
-      <c r="M145" t="inlineStr"/>
+      <c r="K145" t="n">
+        <v>1</v>
+      </c>
+      <c r="L145" t="inlineStr"/>
     </row>
     <row r="146">
       <c r="A146" s="1" t="n">
@@ -5200,18 +4763,15 @@
         <v>7056.3011</v>
       </c>
       <c r="G146" t="n">
-        <v>-98169.07840000001</v>
-      </c>
-      <c r="H146" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H146" t="inlineStr"/>
       <c r="I146" t="inlineStr"/>
       <c r="J146" t="inlineStr"/>
-      <c r="K146" t="inlineStr"/>
-      <c r="L146" t="n">
-        <v>1</v>
-      </c>
-      <c r="M146" t="inlineStr"/>
+      <c r="K146" t="n">
+        <v>1</v>
+      </c>
+      <c r="L146" t="inlineStr"/>
     </row>
     <row r="147">
       <c r="A147" s="1" t="n">
@@ -5233,18 +4793,15 @@
         <v>1.2</v>
       </c>
       <c r="G147" t="n">
-        <v>-98167.87840000002</v>
-      </c>
-      <c r="H147" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H147" t="inlineStr"/>
       <c r="I147" t="inlineStr"/>
       <c r="J147" t="inlineStr"/>
-      <c r="K147" t="inlineStr"/>
-      <c r="L147" t="n">
-        <v>1</v>
-      </c>
-      <c r="M147" t="inlineStr"/>
+      <c r="K147" t="n">
+        <v>1</v>
+      </c>
+      <c r="L147" t="inlineStr"/>
     </row>
     <row r="148">
       <c r="A148" s="1" t="n">
@@ -5266,18 +4823,15 @@
         <v>20</v>
       </c>
       <c r="G148" t="n">
-        <v>-98167.87840000002</v>
-      </c>
-      <c r="H148" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H148" t="inlineStr"/>
       <c r="I148" t="inlineStr"/>
       <c r="J148" t="inlineStr"/>
-      <c r="K148" t="inlineStr"/>
-      <c r="L148" t="n">
-        <v>1</v>
-      </c>
-      <c r="M148" t="inlineStr"/>
+      <c r="K148" t="n">
+        <v>1</v>
+      </c>
+      <c r="L148" t="inlineStr"/>
     </row>
     <row r="149">
       <c r="A149" s="1" t="n">
@@ -5299,18 +4853,15 @@
         <v>19452.2485</v>
       </c>
       <c r="G149" t="n">
-        <v>-117620.1269</v>
-      </c>
-      <c r="H149" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H149" t="inlineStr"/>
       <c r="I149" t="inlineStr"/>
       <c r="J149" t="inlineStr"/>
-      <c r="K149" t="inlineStr"/>
-      <c r="L149" t="n">
-        <v>1</v>
-      </c>
-      <c r="M149" t="inlineStr"/>
+      <c r="K149" t="n">
+        <v>1</v>
+      </c>
+      <c r="L149" t="inlineStr"/>
     </row>
     <row r="150">
       <c r="A150" s="1" t="n">
@@ -5332,18 +4883,15 @@
         <v>15769</v>
       </c>
       <c r="G150" t="n">
-        <v>-117620.1269</v>
-      </c>
-      <c r="H150" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H150" t="inlineStr"/>
       <c r="I150" t="inlineStr"/>
       <c r="J150" t="inlineStr"/>
-      <c r="K150" t="inlineStr"/>
-      <c r="L150" t="n">
-        <v>1</v>
-      </c>
-      <c r="M150" t="inlineStr"/>
+      <c r="K150" t="n">
+        <v>1</v>
+      </c>
+      <c r="L150" t="inlineStr"/>
     </row>
     <row r="151">
       <c r="A151" s="1" t="n">
@@ -5365,18 +4913,15 @@
         <v>1917.6155</v>
       </c>
       <c r="G151" t="n">
-        <v>-119537.7424</v>
-      </c>
-      <c r="H151" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H151" t="inlineStr"/>
       <c r="I151" t="inlineStr"/>
       <c r="J151" t="inlineStr"/>
-      <c r="K151" t="inlineStr"/>
-      <c r="L151" t="n">
-        <v>1</v>
-      </c>
-      <c r="M151" t="inlineStr"/>
+      <c r="K151" t="n">
+        <v>1</v>
+      </c>
+      <c r="L151" t="inlineStr"/>
     </row>
     <row r="152">
       <c r="A152" s="1" t="n">
@@ -5398,18 +4943,15 @@
         <v>30</v>
       </c>
       <c r="G152" t="n">
-        <v>-119507.7424</v>
-      </c>
-      <c r="H152" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H152" t="inlineStr"/>
       <c r="I152" t="inlineStr"/>
       <c r="J152" t="inlineStr"/>
-      <c r="K152" t="inlineStr"/>
-      <c r="L152" t="n">
-        <v>1</v>
-      </c>
-      <c r="M152" t="inlineStr"/>
+      <c r="K152" t="n">
+        <v>1</v>
+      </c>
+      <c r="L152" t="inlineStr"/>
     </row>
     <row r="153">
       <c r="A153" s="1" t="n">
@@ -5431,18 +4973,15 @@
         <v>306.5682</v>
       </c>
       <c r="G153" t="n">
-        <v>-119507.7424</v>
-      </c>
-      <c r="H153" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H153" t="inlineStr"/>
       <c r="I153" t="inlineStr"/>
       <c r="J153" t="inlineStr"/>
-      <c r="K153" t="inlineStr"/>
-      <c r="L153" t="n">
-        <v>1</v>
-      </c>
-      <c r="M153" t="inlineStr"/>
+      <c r="K153" t="n">
+        <v>1</v>
+      </c>
+      <c r="L153" t="inlineStr"/>
     </row>
     <row r="154">
       <c r="A154" s="1" t="n">
@@ -5464,18 +5003,15 @@
         <v>229.8658</v>
       </c>
       <c r="G154" t="n">
-        <v>-119507.7424</v>
-      </c>
-      <c r="H154" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H154" t="inlineStr"/>
       <c r="I154" t="inlineStr"/>
       <c r="J154" t="inlineStr"/>
-      <c r="K154" t="inlineStr"/>
-      <c r="L154" t="n">
-        <v>1</v>
-      </c>
-      <c r="M154" t="inlineStr"/>
+      <c r="K154" t="n">
+        <v>1</v>
+      </c>
+      <c r="L154" t="inlineStr"/>
     </row>
     <row r="155">
       <c r="A155" s="1" t="n">
@@ -5497,18 +5033,15 @@
         <v>435</v>
       </c>
       <c r="G155" t="n">
-        <v>-119507.7424</v>
-      </c>
-      <c r="H155" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H155" t="inlineStr"/>
       <c r="I155" t="inlineStr"/>
       <c r="J155" t="inlineStr"/>
-      <c r="K155" t="inlineStr"/>
-      <c r="L155" t="n">
-        <v>1</v>
-      </c>
-      <c r="M155" t="inlineStr"/>
+      <c r="K155" t="n">
+        <v>1</v>
+      </c>
+      <c r="L155" t="inlineStr"/>
     </row>
     <row r="156">
       <c r="A156" s="1" t="n">
@@ -5530,22 +5063,15 @@
         <v>118.0814</v>
       </c>
       <c r="G156" t="n">
-        <v>-119507.7424</v>
-      </c>
-      <c r="H156" t="n">
-        <v>1</v>
-      </c>
-      <c r="I156" t="n">
-        <v>443.3</v>
-      </c>
-      <c r="J156" t="n">
-        <v>443.3</v>
-      </c>
-      <c r="K156" t="inlineStr"/>
-      <c r="L156" t="n">
-        <v>1</v>
-      </c>
-      <c r="M156" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H156" t="inlineStr"/>
+      <c r="I156" t="inlineStr"/>
+      <c r="J156" t="inlineStr"/>
+      <c r="K156" t="n">
+        <v>1</v>
+      </c>
+      <c r="L156" t="inlineStr"/>
     </row>
     <row r="157">
       <c r="A157" s="1" t="n">
@@ -5567,26 +5093,21 @@
         <v>2523.4146</v>
       </c>
       <c r="G157" t="n">
-        <v>-116984.3278</v>
+        <v>1</v>
       </c>
       <c r="H157" t="n">
-        <v>1</v>
-      </c>
-      <c r="I157" t="n">
         <v>443.3</v>
       </c>
-      <c r="J157" t="n">
-        <v>443.3</v>
-      </c>
-      <c r="K157" t="inlineStr">
+      <c r="I157" t="inlineStr"/>
+      <c r="J157" t="inlineStr">
         <is>
           <t>매수 체결</t>
         </is>
       </c>
-      <c r="L157" t="n">
-        <v>1</v>
-      </c>
-      <c r="M157" t="inlineStr"/>
+      <c r="K157" t="n">
+        <v>1</v>
+      </c>
+      <c r="L157" t="inlineStr"/>
     </row>
     <row r="158">
       <c r="A158" s="1" t="n">
@@ -5608,26 +5129,21 @@
         <v>2265.7641</v>
       </c>
       <c r="G158" t="n">
-        <v>-119250.0919</v>
+        <v>1</v>
       </c>
       <c r="H158" t="n">
-        <v>1</v>
-      </c>
-      <c r="I158" t="n">
         <v>447.7</v>
       </c>
-      <c r="J158" t="n">
-        <v>443.3</v>
-      </c>
-      <c r="K158" t="inlineStr">
+      <c r="I158" t="inlineStr"/>
+      <c r="J158" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L158" t="n">
-        <v>1</v>
-      </c>
-      <c r="M158" t="inlineStr"/>
+      <c r="K158" t="n">
+        <v>1</v>
+      </c>
+      <c r="L158" t="inlineStr"/>
     </row>
     <row r="159">
       <c r="A159" s="1" t="n">
@@ -5649,26 +5165,21 @@
         <v>8.5162</v>
       </c>
       <c r="G159" t="n">
-        <v>-119241.5757</v>
+        <v>1</v>
       </c>
       <c r="H159" t="n">
-        <v>1</v>
-      </c>
-      <c r="I159" t="n">
         <v>443.3</v>
       </c>
-      <c r="J159" t="n">
-        <v>443.3</v>
-      </c>
-      <c r="K159" t="inlineStr">
+      <c r="I159" t="inlineStr"/>
+      <c r="J159" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L159" t="n">
-        <v>1</v>
-      </c>
-      <c r="M159" t="inlineStr"/>
+      <c r="K159" t="n">
+        <v>1</v>
+      </c>
+      <c r="L159" t="inlineStr"/>
     </row>
     <row r="160">
       <c r="A160" s="1" t="n">
@@ -5690,26 +5201,21 @@
         <v>99.9999</v>
       </c>
       <c r="G160" t="n">
-        <v>-119341.5756</v>
+        <v>1</v>
       </c>
       <c r="H160" t="n">
-        <v>1</v>
-      </c>
-      <c r="I160" t="n">
         <v>447.7</v>
       </c>
-      <c r="J160" t="n">
-        <v>443.3</v>
-      </c>
-      <c r="K160" t="inlineStr">
+      <c r="I160" t="inlineStr"/>
+      <c r="J160" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L160" t="n">
-        <v>1</v>
-      </c>
-      <c r="M160" t="inlineStr"/>
+      <c r="K160" t="n">
+        <v>1</v>
+      </c>
+      <c r="L160" t="inlineStr"/>
     </row>
     <row r="161">
       <c r="A161" s="1" t="n">
@@ -5731,26 +5237,21 @@
         <v>289.2084</v>
       </c>
       <c r="G161" t="n">
-        <v>-119052.3672</v>
+        <v>1</v>
       </c>
       <c r="H161" t="n">
-        <v>1</v>
-      </c>
-      <c r="I161" t="n">
         <v>446.7</v>
       </c>
-      <c r="J161" t="n">
-        <v>443.3</v>
-      </c>
-      <c r="K161" t="inlineStr">
+      <c r="I161" t="inlineStr"/>
+      <c r="J161" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L161" t="n">
-        <v>1</v>
-      </c>
-      <c r="M161" t="inlineStr"/>
+      <c r="K161" t="n">
+        <v>1</v>
+      </c>
+      <c r="L161" t="inlineStr"/>
     </row>
     <row r="162">
       <c r="A162" s="1" t="n">
@@ -5772,26 +5273,21 @@
         <v>709.1495</v>
       </c>
       <c r="G162" t="n">
-        <v>-119761.5167</v>
+        <v>1</v>
       </c>
       <c r="H162" t="n">
-        <v>1</v>
-      </c>
-      <c r="I162" t="n">
         <v>448</v>
       </c>
-      <c r="J162" t="n">
-        <v>443.3</v>
-      </c>
-      <c r="K162" t="inlineStr">
+      <c r="I162" t="inlineStr"/>
+      <c r="J162" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L162" t="n">
-        <v>1</v>
-      </c>
-      <c r="M162" t="inlineStr"/>
+      <c r="K162" t="n">
+        <v>1</v>
+      </c>
+      <c r="L162" t="inlineStr"/>
     </row>
     <row r="163">
       <c r="A163" s="1" t="n">
@@ -5813,26 +5309,19 @@
         <v>3.2094</v>
       </c>
       <c r="G163" t="n">
-        <v>-119764.7261</v>
-      </c>
-      <c r="H163" t="n">
-        <v>1</v>
-      </c>
-      <c r="I163" t="n">
-        <v>447.6</v>
-      </c>
-      <c r="J163" t="n">
-        <v>443.3</v>
-      </c>
-      <c r="K163" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="H163" t="inlineStr"/>
+      <c r="I163" t="inlineStr"/>
+      <c r="J163" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L163" t="n">
-        <v>1</v>
-      </c>
-      <c r="M163" t="inlineStr"/>
+      <c r="K163" t="n">
+        <v>1</v>
+      </c>
+      <c r="L163" t="inlineStr"/>
     </row>
     <row r="164">
       <c r="A164" s="1" t="n">
@@ -5854,26 +5343,19 @@
         <v>2800</v>
       </c>
       <c r="G164" t="n">
-        <v>-116964.7261</v>
-      </c>
-      <c r="H164" t="n">
-        <v>1</v>
-      </c>
-      <c r="I164" t="n">
-        <v>447.5</v>
-      </c>
-      <c r="J164" t="n">
-        <v>443.3</v>
-      </c>
-      <c r="K164" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="H164" t="inlineStr"/>
+      <c r="I164" t="inlineStr"/>
+      <c r="J164" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L164" t="n">
-        <v>1</v>
-      </c>
-      <c r="M164" t="inlineStr"/>
+      <c r="K164" t="n">
+        <v>1</v>
+      </c>
+      <c r="L164" t="inlineStr"/>
     </row>
     <row r="165">
       <c r="A165" s="1" t="n">
@@ -5895,24 +5377,19 @@
         <v>1007.203371035706</v>
       </c>
       <c r="G165" t="n">
-        <v>-115957.5227289643</v>
-      </c>
-      <c r="H165" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H165" t="inlineStr"/>
       <c r="I165" t="inlineStr"/>
-      <c r="J165" t="n">
-        <v>443.3</v>
-      </c>
-      <c r="K165" t="inlineStr">
+      <c r="J165" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L165" t="n">
-        <v>1</v>
-      </c>
-      <c r="M165" t="inlineStr"/>
+      <c r="K165" t="n">
+        <v>1</v>
+      </c>
+      <c r="L165" t="inlineStr"/>
     </row>
     <row r="166">
       <c r="A166" s="1" t="n">
@@ -5934,24 +5411,19 @@
         <v>205</v>
       </c>
       <c r="G166" t="n">
-        <v>-115752.5227289643</v>
-      </c>
-      <c r="H166" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H166" t="inlineStr"/>
       <c r="I166" t="inlineStr"/>
-      <c r="J166" t="n">
-        <v>443.3</v>
-      </c>
-      <c r="K166" t="inlineStr">
+      <c r="J166" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L166" t="n">
-        <v>1</v>
-      </c>
-      <c r="M166" t="inlineStr"/>
+      <c r="K166" t="n">
+        <v>1</v>
+      </c>
+      <c r="L166" t="inlineStr"/>
     </row>
     <row r="167">
       <c r="A167" s="1" t="n">
@@ -5973,24 +5445,19 @@
         <v>141.6783</v>
       </c>
       <c r="G167" t="n">
-        <v>-115752.5227289643</v>
-      </c>
-      <c r="H167" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H167" t="inlineStr"/>
       <c r="I167" t="inlineStr"/>
-      <c r="J167" t="n">
-        <v>443.3</v>
-      </c>
-      <c r="K167" t="inlineStr">
+      <c r="J167" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L167" t="n">
-        <v>1</v>
-      </c>
-      <c r="M167" t="inlineStr"/>
+      <c r="K167" t="n">
+        <v>1</v>
+      </c>
+      <c r="L167" t="inlineStr"/>
     </row>
     <row r="168">
       <c r="A168" s="1" t="n">
@@ -6012,24 +5479,19 @@
         <v>810</v>
       </c>
       <c r="G168" t="n">
-        <v>-114942.5227289643</v>
-      </c>
-      <c r="H168" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H168" t="inlineStr"/>
       <c r="I168" t="inlineStr"/>
-      <c r="J168" t="n">
-        <v>443.3</v>
-      </c>
-      <c r="K168" t="inlineStr">
+      <c r="J168" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L168" t="n">
-        <v>1</v>
-      </c>
-      <c r="M168" t="inlineStr"/>
+      <c r="K168" t="n">
+        <v>1</v>
+      </c>
+      <c r="L168" t="inlineStr"/>
     </row>
     <row r="169">
       <c r="A169" s="1" t="n">
@@ -6051,24 +5513,19 @@
         <v>400</v>
       </c>
       <c r="G169" t="n">
-        <v>-115342.5227289643</v>
-      </c>
-      <c r="H169" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H169" t="inlineStr"/>
       <c r="I169" t="inlineStr"/>
-      <c r="J169" t="n">
-        <v>443.3</v>
-      </c>
-      <c r="K169" t="inlineStr">
+      <c r="J169" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L169" t="n">
-        <v>1</v>
-      </c>
-      <c r="M169" t="inlineStr"/>
+      <c r="K169" t="n">
+        <v>1</v>
+      </c>
+      <c r="L169" t="inlineStr"/>
     </row>
     <row r="170">
       <c r="A170" s="1" t="n">
@@ -6090,26 +5547,19 @@
         <v>995.4521999999999</v>
       </c>
       <c r="G170" t="n">
-        <v>-114347.0705289643</v>
-      </c>
-      <c r="H170" t="n">
-        <v>1</v>
-      </c>
-      <c r="I170" t="n">
-        <v>449.8</v>
-      </c>
-      <c r="J170" t="n">
-        <v>443.3</v>
-      </c>
-      <c r="K170" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="H170" t="inlineStr"/>
+      <c r="I170" t="inlineStr"/>
+      <c r="J170" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L170" t="n">
-        <v>1</v>
-      </c>
-      <c r="M170" t="inlineStr"/>
+      <c r="K170" t="n">
+        <v>1</v>
+      </c>
+      <c r="L170" t="inlineStr"/>
     </row>
     <row r="171">
       <c r="A171" s="1" t="n">
@@ -6131,24 +5581,19 @@
         <v>150</v>
       </c>
       <c r="G171" t="n">
-        <v>-114497.0705289643</v>
-      </c>
-      <c r="H171" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H171" t="inlineStr"/>
       <c r="I171" t="inlineStr"/>
-      <c r="J171" t="n">
-        <v>443.3</v>
-      </c>
-      <c r="K171" t="inlineStr">
+      <c r="J171" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L171" t="n">
-        <v>1</v>
-      </c>
-      <c r="M171" t="inlineStr"/>
+      <c r="K171" t="n">
+        <v>1</v>
+      </c>
+      <c r="L171" t="inlineStr"/>
     </row>
     <row r="172">
       <c r="A172" s="1" t="n">
@@ -6170,26 +5615,19 @@
         <v>260.1491</v>
       </c>
       <c r="G172" t="n">
-        <v>-114236.9214289643</v>
-      </c>
-      <c r="H172" t="n">
-        <v>1</v>
-      </c>
-      <c r="I172" t="n">
-        <v>452</v>
-      </c>
-      <c r="J172" t="n">
-        <v>443.3</v>
-      </c>
-      <c r="K172" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="H172" t="inlineStr"/>
+      <c r="I172" t="inlineStr"/>
+      <c r="J172" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L172" t="n">
-        <v>1</v>
-      </c>
-      <c r="M172" t="inlineStr"/>
+      <c r="K172" t="n">
+        <v>1</v>
+      </c>
+      <c r="L172" t="inlineStr"/>
     </row>
     <row r="173">
       <c r="A173" s="1" t="n">
@@ -6211,26 +5649,19 @@
         <v>400</v>
       </c>
       <c r="G173" t="n">
-        <v>-113836.9214289643</v>
-      </c>
-      <c r="H173" t="n">
-        <v>1</v>
-      </c>
-      <c r="I173" t="n">
-        <v>452.6</v>
-      </c>
-      <c r="J173" t="n">
-        <v>443.3</v>
-      </c>
-      <c r="K173" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="H173" t="inlineStr"/>
+      <c r="I173" t="inlineStr"/>
+      <c r="J173" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L173" t="n">
-        <v>1</v>
-      </c>
-      <c r="M173" t="inlineStr"/>
+      <c r="K173" t="n">
+        <v>1</v>
+      </c>
+      <c r="L173" t="inlineStr"/>
     </row>
     <row r="174">
       <c r="A174" s="1" t="n">
@@ -6252,26 +5683,19 @@
         <v>2800</v>
       </c>
       <c r="G174" t="n">
-        <v>-111036.9214289643</v>
-      </c>
-      <c r="H174" t="n">
-        <v>1</v>
-      </c>
-      <c r="I174" t="n">
-        <v>453</v>
-      </c>
-      <c r="J174" t="n">
-        <v>443.3</v>
-      </c>
-      <c r="K174" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="H174" t="inlineStr"/>
+      <c r="I174" t="inlineStr"/>
+      <c r="J174" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L174" t="n">
-        <v>1</v>
-      </c>
-      <c r="M174" t="inlineStr"/>
+      <c r="K174" t="n">
+        <v>1</v>
+      </c>
+      <c r="L174" t="inlineStr"/>
     </row>
     <row r="175">
       <c r="A175" s="1" t="n">
@@ -6293,26 +5717,19 @@
         <v>1541</v>
       </c>
       <c r="G175" t="n">
-        <v>-111036.9214289643</v>
-      </c>
-      <c r="H175" t="n">
-        <v>1</v>
-      </c>
-      <c r="I175" t="n">
-        <v>453.9</v>
-      </c>
-      <c r="J175" t="n">
-        <v>443.3</v>
-      </c>
-      <c r="K175" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="H175" t="inlineStr"/>
+      <c r="I175" t="inlineStr"/>
+      <c r="J175" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L175" t="n">
-        <v>1</v>
-      </c>
-      <c r="M175" t="inlineStr"/>
+      <c r="K175" t="n">
+        <v>1</v>
+      </c>
+      <c r="L175" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
